--- a/BPCA/BPCA_PAH.xlsx
+++ b/BPCA/BPCA_PAH.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailwsu-my.sharepoint.com/personal/v_sierrajimenez_wsu_edu/Documents/WSU/PhD/Thesis/Paper 1 Methodology/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailwsu-my.sharepoint.com/personal/v_sierrajimenez_wsu_edu/Documents/WSU/PhD/Thesis/Paper 1 Methodology/Paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1858" documentId="13_ncr:1_{0596981D-2AE2-2C4B-8991-BB3DEC03047F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{333E25EC-D5AA-E448-8F53-ED1FF337CD4F}"/>
+  <xr:revisionPtr revIDLastSave="1905" documentId="13_ncr:1_{0596981D-2AE2-2C4B-8991-BB3DEC03047F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2982EBD5-0DD3-E949-BC82-6ED9F8D98F2F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" activeTab="1" xr2:uid="{EB29A718-2CE6-174F-8972-CCE909784FB0}"/>
   </bookViews>
@@ -1551,33 +1551,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1595,20 +1568,35 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1630,6 +1618,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2244,22 +2244,22 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.7735849056603772E-2</c:v>
+                  <c:v>3.669724770642202E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10686630455498379</c:v>
+                  <c:v>0.11235400415378827</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.6603773584905662E-2</c:v>
+                  <c:v>5.5045871559633031E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.139705997412055</c:v>
+                  <c:v>0.14102187839711625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35751141002878845</c:v>
+                  <c:v>0.35382503135137555</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.30157666536266331</c:v>
+                  <c:v>0.3010559668316648</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7437,55 +7437,55 @@
       <c r="Y5" s="6"/>
     </row>
     <row r="6" spans="2:30">
-      <c r="B6" s="127" t="s">
+      <c r="B6" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="129" t="s">
+      <c r="C6" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="129" t="s">
+      <c r="D6" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="129" t="s">
+      <c r="E6" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="129" t="s">
+      <c r="F6" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="129" t="s">
+      <c r="G6" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="117" t="str">
+      <c r="H6" s="128" t="str">
         <f>HYPERLINK("#BPCA!B5","BPCA types")</f>
         <v>BPCA types</v>
       </c>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="117"/>
-      <c r="M6" s="117"/>
-      <c r="N6" s="117"/>
-      <c r="O6" s="117"/>
-      <c r="P6" s="118"/>
-      <c r="Q6" s="130" t="s">
+      <c r="I6" s="128"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="128"/>
+      <c r="L6" s="128"/>
+      <c r="M6" s="128"/>
+      <c r="N6" s="128"/>
+      <c r="O6" s="128"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="130"/>
-      <c r="S6" s="130"/>
-      <c r="T6" s="130"/>
-      <c r="U6" s="130"/>
-      <c r="V6" s="130"/>
-      <c r="W6" s="130"/>
-      <c r="X6" s="130"/>
-      <c r="Y6" s="130"/>
+      <c r="R6" s="121"/>
+      <c r="S6" s="121"/>
+      <c r="T6" s="121"/>
+      <c r="U6" s="121"/>
+      <c r="V6" s="121"/>
+      <c r="W6" s="121"/>
+      <c r="X6" s="121"/>
+      <c r="Y6" s="121"/>
     </row>
     <row r="7" spans="2:30">
-      <c r="B7" s="128"/>
-      <c r="C7" s="130"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="130"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
       <c r="H7" s="15" t="str">
         <f>BPCA!C3</f>
         <v>B2CA-1,2</v>
@@ -7547,17 +7547,17 @@
       </c>
     </row>
     <row r="8" spans="2:30" ht="34" customHeight="1">
-      <c r="B8" s="119" t="s">
+      <c r="B8" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120">
+      <c r="C8" s="122"/>
+      <c r="D8" s="122">
         <v>14</v>
       </c>
-      <c r="E8" s="120">
+      <c r="E8" s="122">
         <v>94.4</v>
       </c>
-      <c r="F8" s="120">
+      <c r="F8" s="122">
         <v>24.2</v>
       </c>
       <c r="G8" s="17" t="s">
@@ -7574,25 +7574,25 @@
       <c r="N8" s="17"/>
       <c r="O8" s="17"/>
       <c r="P8" s="19"/>
-      <c r="Q8" s="120">
+      <c r="Q8" s="122">
         <f>ABS(H9-H8)/H9</f>
         <v>0.50000000000000022</v>
       </c>
-      <c r="R8" s="120"/>
-      <c r="S8" s="120"/>
-      <c r="T8" s="120"/>
-      <c r="U8" s="120"/>
-      <c r="V8" s="120"/>
-      <c r="W8" s="120"/>
-      <c r="X8" s="120"/>
-      <c r="Y8" s="120"/>
+      <c r="R8" s="122"/>
+      <c r="S8" s="122"/>
+      <c r="T8" s="122"/>
+      <c r="U8" s="122"/>
+      <c r="V8" s="122"/>
+      <c r="W8" s="122"/>
+      <c r="X8" s="122"/>
+      <c r="Y8" s="122"/>
     </row>
     <row r="9" spans="2:30" ht="34" customHeight="1">
-      <c r="B9" s="119"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
+      <c r="B9" s="125"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
       <c r="G9" s="17" t="s">
         <v>22</v>
       </c>
@@ -7611,28 +7611,28 @@
       </c>
       <c r="O9" s="17"/>
       <c r="P9" s="19"/>
-      <c r="Q9" s="120"/>
-      <c r="R9" s="120"/>
-      <c r="S9" s="120"/>
-      <c r="T9" s="120"/>
-      <c r="U9" s="120"/>
-      <c r="V9" s="120"/>
-      <c r="W9" s="120"/>
-      <c r="X9" s="120"/>
-      <c r="Y9" s="120"/>
+      <c r="Q9" s="122"/>
+      <c r="R9" s="122"/>
+      <c r="S9" s="122"/>
+      <c r="T9" s="122"/>
+      <c r="U9" s="122"/>
+      <c r="V9" s="122"/>
+      <c r="W9" s="122"/>
+      <c r="X9" s="122"/>
+      <c r="Y9" s="122"/>
     </row>
     <row r="10" spans="2:30" ht="33" customHeight="1">
-      <c r="B10" s="123" t="s">
+      <c r="B10" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120">
+      <c r="C10" s="122"/>
+      <c r="D10" s="122">
         <v>14</v>
       </c>
-      <c r="E10" s="120">
+      <c r="E10" s="122">
         <v>94.4</v>
       </c>
-      <c r="F10" s="120">
+      <c r="F10" s="122">
         <v>23.7</v>
       </c>
       <c r="G10" s="17" t="s">
@@ -7651,28 +7651,28 @@
       <c r="N10" s="20"/>
       <c r="O10" s="17"/>
       <c r="P10" s="19"/>
-      <c r="Q10" s="120">
+      <c r="Q10" s="122">
         <f>ABS(H11-H10)/H11</f>
         <v>8.1500000000000072E-2</v>
       </c>
-      <c r="R10" s="120"/>
-      <c r="S10" s="120"/>
-      <c r="T10" s="120"/>
-      <c r="U10" s="120"/>
-      <c r="V10" s="120">
+      <c r="R10" s="122"/>
+      <c r="S10" s="122"/>
+      <c r="T10" s="122"/>
+      <c r="U10" s="122"/>
+      <c r="V10" s="122">
         <f>ABS(M11-M10)/M11</f>
         <v>0.16299999999999992</v>
       </c>
-      <c r="W10" s="120"/>
-      <c r="X10" s="120"/>
-      <c r="Y10" s="120"/>
+      <c r="W10" s="122"/>
+      <c r="X10" s="122"/>
+      <c r="Y10" s="122"/>
     </row>
     <row r="11" spans="2:30" ht="33" customHeight="1">
-      <c r="B11" s="123"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
+      <c r="B11" s="126"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
       <c r="G11" s="17" t="s">
         <v>22</v>
       </c>
@@ -7691,28 +7691,28 @@
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
       <c r="P11" s="19"/>
-      <c r="Q11" s="120"/>
-      <c r="R11" s="120"/>
-      <c r="S11" s="120"/>
-      <c r="T11" s="120"/>
-      <c r="U11" s="120"/>
-      <c r="V11" s="120"/>
-      <c r="W11" s="120"/>
-      <c r="X11" s="120"/>
-      <c r="Y11" s="120"/>
+      <c r="Q11" s="122"/>
+      <c r="R11" s="122"/>
+      <c r="S11" s="122"/>
+      <c r="T11" s="122"/>
+      <c r="U11" s="122"/>
+      <c r="V11" s="122"/>
+      <c r="W11" s="122"/>
+      <c r="X11" s="122"/>
+      <c r="Y11" s="122"/>
     </row>
     <row r="12" spans="2:30" ht="39" customHeight="1">
-      <c r="B12" s="123" t="s">
+      <c r="B12" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120">
+      <c r="C12" s="122"/>
+      <c r="D12" s="122">
         <v>18</v>
       </c>
-      <c r="E12" s="120">
+      <c r="E12" s="122">
         <v>92.3</v>
       </c>
-      <c r="F12" s="120">
+      <c r="F12" s="122">
         <v>29.3</v>
       </c>
       <c r="G12" s="17" t="s">
@@ -7737,31 +7737,31 @@
       <c r="N12" s="17"/>
       <c r="O12" s="17"/>
       <c r="P12" s="19"/>
-      <c r="Q12" s="120"/>
-      <c r="R12" s="120"/>
-      <c r="S12" s="120">
+      <c r="Q12" s="122"/>
+      <c r="R12" s="122"/>
+      <c r="S12" s="122">
         <f>ABS(J13-J12)/J13</f>
         <v>6.399999999999989E-2</v>
       </c>
-      <c r="T12" s="120">
+      <c r="T12" s="122">
         <f>ABS(K13-K12)/K13</f>
         <v>6.399999999999989E-2</v>
       </c>
-      <c r="U12" s="120"/>
-      <c r="V12" s="120">
+      <c r="U12" s="122"/>
+      <c r="V12" s="122">
         <f>ABS(M13-M12)/M13</f>
         <v>6.2000000000000111E-2</v>
       </c>
-      <c r="W12" s="120"/>
-      <c r="X12" s="120"/>
-      <c r="Y12" s="120"/>
+      <c r="W12" s="122"/>
+      <c r="X12" s="122"/>
+      <c r="Y12" s="122"/>
     </row>
     <row r="13" spans="2:30" ht="39" customHeight="1">
-      <c r="B13" s="123"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
       <c r="G13" s="17" t="s">
         <v>22</v>
       </c>
@@ -7783,28 +7783,28 @@
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
       <c r="P13" s="19"/>
-      <c r="Q13" s="120"/>
-      <c r="R13" s="120"/>
-      <c r="S13" s="120"/>
-      <c r="T13" s="120"/>
-      <c r="U13" s="120"/>
-      <c r="V13" s="120"/>
-      <c r="W13" s="120"/>
-      <c r="X13" s="120"/>
-      <c r="Y13" s="120"/>
+      <c r="Q13" s="122"/>
+      <c r="R13" s="122"/>
+      <c r="S13" s="122"/>
+      <c r="T13" s="122"/>
+      <c r="U13" s="122"/>
+      <c r="V13" s="122"/>
+      <c r="W13" s="122"/>
+      <c r="X13" s="122"/>
+      <c r="Y13" s="122"/>
     </row>
     <row r="14" spans="2:30" ht="32" customHeight="1">
-      <c r="B14" s="123" t="s">
+      <c r="B14" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120">
+      <c r="C14" s="122"/>
+      <c r="D14" s="122">
         <v>18</v>
       </c>
-      <c r="E14" s="120">
+      <c r="E14" s="122">
         <v>94.7</v>
       </c>
-      <c r="F14" s="120">
+      <c r="F14" s="122">
         <v>21.5</v>
       </c>
       <c r="G14" s="17" t="s">
@@ -7823,28 +7823,28 @@
       <c r="N14" s="17"/>
       <c r="O14" s="17"/>
       <c r="P14" s="19"/>
-      <c r="Q14" s="120">
+      <c r="Q14" s="122">
         <f>ABS(H15-H14)/H15</f>
         <v>0.28800000000000009</v>
       </c>
-      <c r="R14" s="120"/>
-      <c r="S14" s="120"/>
-      <c r="T14" s="120"/>
-      <c r="U14" s="120"/>
-      <c r="V14" s="120">
+      <c r="R14" s="122"/>
+      <c r="S14" s="122"/>
+      <c r="T14" s="122"/>
+      <c r="U14" s="122"/>
+      <c r="V14" s="122">
         <f>ABS(M15-M14)/M15</f>
         <v>0.28799999999999998</v>
       </c>
-      <c r="W14" s="120"/>
-      <c r="X14" s="120"/>
-      <c r="Y14" s="120"/>
+      <c r="W14" s="122"/>
+      <c r="X14" s="122"/>
+      <c r="Y14" s="122"/>
     </row>
     <row r="15" spans="2:30" ht="32" customHeight="1">
-      <c r="B15" s="123"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
       <c r="G15" s="17" t="s">
         <v>22</v>
       </c>
@@ -7863,28 +7863,28 @@
       <c r="N15" s="17"/>
       <c r="O15" s="17"/>
       <c r="P15" s="19"/>
-      <c r="Q15" s="120"/>
-      <c r="R15" s="120"/>
-      <c r="S15" s="120"/>
-      <c r="T15" s="120"/>
-      <c r="U15" s="120"/>
-      <c r="V15" s="120"/>
-      <c r="W15" s="120"/>
-      <c r="X15" s="120"/>
-      <c r="Y15" s="120"/>
+      <c r="Q15" s="122"/>
+      <c r="R15" s="122"/>
+      <c r="S15" s="122"/>
+      <c r="T15" s="122"/>
+      <c r="U15" s="122"/>
+      <c r="V15" s="122"/>
+      <c r="W15" s="122"/>
+      <c r="X15" s="122"/>
+      <c r="Y15" s="122"/>
     </row>
     <row r="16" spans="2:30" ht="36" customHeight="1">
-      <c r="B16" s="119" t="s">
+      <c r="B16" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120">
+      <c r="C16" s="122"/>
+      <c r="D16" s="122">
         <v>16</v>
       </c>
-      <c r="E16" s="120">
+      <c r="E16" s="122">
         <v>95</v>
       </c>
-      <c r="F16" s="120">
+      <c r="F16" s="122">
         <v>37</v>
       </c>
       <c r="G16" s="17" t="s">
@@ -7903,29 +7903,29 @@
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
       <c r="P16" s="19"/>
-      <c r="Q16" s="120"/>
-      <c r="R16" s="120"/>
-      <c r="S16" s="120"/>
-      <c r="T16" s="120">
+      <c r="Q16" s="122"/>
+      <c r="R16" s="122"/>
+      <c r="S16" s="122"/>
+      <c r="T16" s="122">
         <f>ABS(K17-K16)/K17</f>
         <v>0.624</v>
       </c>
-      <c r="U16" s="120"/>
-      <c r="V16" s="120">
+      <c r="U16" s="122"/>
+      <c r="V16" s="122">
         <f>ABS(M17-M16)/M17</f>
         <v>0.58599999999999997</v>
       </c>
-      <c r="W16" s="120"/>
-      <c r="X16" s="120"/>
-      <c r="Y16" s="120"/>
+      <c r="W16" s="122"/>
+      <c r="X16" s="122"/>
+      <c r="Y16" s="122"/>
       <c r="AD16" s="1"/>
     </row>
     <row r="17" spans="2:25" ht="36" customHeight="1">
-      <c r="B17" s="119"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="122"/>
       <c r="G17" s="17" t="s">
         <v>22</v>
       </c>
@@ -7944,28 +7944,28 @@
       <c r="N17" s="17"/>
       <c r="O17" s="17"/>
       <c r="P17" s="19"/>
-      <c r="Q17" s="120"/>
-      <c r="R17" s="120"/>
-      <c r="S17" s="120"/>
-      <c r="T17" s="120"/>
-      <c r="U17" s="120"/>
-      <c r="V17" s="120"/>
-      <c r="W17" s="120"/>
-      <c r="X17" s="120"/>
-      <c r="Y17" s="120"/>
+      <c r="Q17" s="122"/>
+      <c r="R17" s="122"/>
+      <c r="S17" s="122"/>
+      <c r="T17" s="122"/>
+      <c r="U17" s="122"/>
+      <c r="V17" s="122"/>
+      <c r="W17" s="122"/>
+      <c r="X17" s="122"/>
+      <c r="Y17" s="122"/>
     </row>
     <row r="18" spans="2:25" ht="35" customHeight="1">
-      <c r="B18" s="119" t="s">
+      <c r="B18" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120">
+      <c r="C18" s="122"/>
+      <c r="D18" s="122">
         <v>16</v>
       </c>
-      <c r="E18" s="120">
+      <c r="E18" s="122">
         <v>77.400000000000006</v>
       </c>
-      <c r="F18" s="120">
+      <c r="F18" s="122">
         <v>36.1</v>
       </c>
       <c r="G18" s="17" t="s">
@@ -7986,28 +7986,28 @@
       <c r="N18" s="17"/>
       <c r="O18" s="17"/>
       <c r="P18" s="19"/>
-      <c r="Q18" s="120"/>
-      <c r="R18" s="120"/>
-      <c r="S18" s="120"/>
-      <c r="T18" s="120">
+      <c r="Q18" s="122"/>
+      <c r="R18" s="122"/>
+      <c r="S18" s="122"/>
+      <c r="T18" s="122">
         <f>ABS(K19-K18)/K19</f>
         <v>0.64200000000000002</v>
       </c>
-      <c r="U18" s="120"/>
-      <c r="V18" s="120">
+      <c r="U18" s="122"/>
+      <c r="V18" s="122">
         <f>ABS(M19-M18)/M19</f>
         <v>0.56199999999999983</v>
       </c>
-      <c r="W18" s="120"/>
-      <c r="X18" s="120"/>
-      <c r="Y18" s="120"/>
+      <c r="W18" s="122"/>
+      <c r="X18" s="122"/>
+      <c r="Y18" s="122"/>
     </row>
     <row r="19" spans="2:25" ht="35" customHeight="1">
-      <c r="B19" s="119"/>
-      <c r="C19" s="120"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
       <c r="G19" s="17" t="s">
         <v>22</v>
       </c>
@@ -8026,28 +8026,28 @@
       <c r="N19" s="17"/>
       <c r="O19" s="17"/>
       <c r="P19" s="19"/>
-      <c r="Q19" s="120"/>
-      <c r="R19" s="120"/>
-      <c r="S19" s="120"/>
-      <c r="T19" s="120"/>
-      <c r="U19" s="120"/>
-      <c r="V19" s="120"/>
-      <c r="W19" s="120"/>
-      <c r="X19" s="120"/>
-      <c r="Y19" s="120"/>
+      <c r="Q19" s="122"/>
+      <c r="R19" s="122"/>
+      <c r="S19" s="122"/>
+      <c r="T19" s="122"/>
+      <c r="U19" s="122"/>
+      <c r="V19" s="122"/>
+      <c r="W19" s="122"/>
+      <c r="X19" s="122"/>
+      <c r="Y19" s="122"/>
     </row>
     <row r="20" spans="2:25" ht="42" customHeight="1">
-      <c r="B20" s="123" t="s">
+      <c r="B20" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="120"/>
-      <c r="D20" s="120">
+      <c r="C20" s="122"/>
+      <c r="D20" s="122">
         <v>20</v>
       </c>
-      <c r="E20" s="120">
+      <c r="E20" s="122">
         <v>95.2</v>
       </c>
-      <c r="F20" s="120">
+      <c r="F20" s="122">
         <v>22.5</v>
       </c>
       <c r="G20" s="17" t="s">
@@ -8066,28 +8066,28 @@
       <c r="P20" s="19">
         <v>19.7</v>
       </c>
-      <c r="Q20" s="120"/>
-      <c r="R20" s="120"/>
-      <c r="S20" s="120"/>
-      <c r="T20" s="120">
+      <c r="Q20" s="122"/>
+      <c r="R20" s="122"/>
+      <c r="S20" s="122"/>
+      <c r="T20" s="122">
         <f>ABS(K21-K20)/K21</f>
         <v>3.7499999999999643E-3</v>
       </c>
-      <c r="U20" s="120"/>
-      <c r="V20" s="120"/>
-      <c r="W20" s="120"/>
-      <c r="X20" s="120"/>
-      <c r="Y20" s="120">
+      <c r="U20" s="122"/>
+      <c r="V20" s="122"/>
+      <c r="W20" s="122"/>
+      <c r="X20" s="122"/>
+      <c r="Y20" s="122">
         <f>ABS(P21-P20)/P21</f>
         <v>1.5000000000000036E-2</v>
       </c>
     </row>
     <row r="21" spans="2:25" ht="42" customHeight="1">
-      <c r="B21" s="123"/>
-      <c r="C21" s="120"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
+      <c r="B21" s="126"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="122"/>
       <c r="G21" s="17" t="s">
         <v>22</v>
       </c>
@@ -8106,28 +8106,28 @@
         <f>1/5*100</f>
         <v>20</v>
       </c>
-      <c r="Q21" s="120"/>
-      <c r="R21" s="120"/>
-      <c r="S21" s="120"/>
-      <c r="T21" s="120"/>
-      <c r="U21" s="120"/>
-      <c r="V21" s="120"/>
-      <c r="W21" s="120"/>
-      <c r="X21" s="120"/>
-      <c r="Y21" s="120"/>
+      <c r="Q21" s="122"/>
+      <c r="R21" s="122"/>
+      <c r="S21" s="122"/>
+      <c r="T21" s="122"/>
+      <c r="U21" s="122"/>
+      <c r="V21" s="122"/>
+      <c r="W21" s="122"/>
+      <c r="X21" s="122"/>
+      <c r="Y21" s="122"/>
     </row>
     <row r="22" spans="2:25" ht="47" customHeight="1">
-      <c r="B22" s="119" t="s">
+      <c r="B22" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="120"/>
-      <c r="D22" s="120">
+      <c r="C22" s="122"/>
+      <c r="D22" s="122">
         <v>22</v>
       </c>
-      <c r="E22" s="120">
+      <c r="E22" s="122">
         <v>95.5</v>
       </c>
-      <c r="F22" s="120">
+      <c r="F22" s="122">
         <v>22.5</v>
       </c>
       <c r="G22" s="17" t="s">
@@ -8148,31 +8148,31 @@
       <c r="P22" s="19">
         <v>40</v>
       </c>
-      <c r="Q22" s="120"/>
-      <c r="R22" s="120"/>
-      <c r="S22" s="120"/>
-      <c r="T22" s="120">
+      <c r="Q22" s="122"/>
+      <c r="R22" s="122"/>
+      <c r="S22" s="122"/>
+      <c r="T22" s="122">
         <f>ABS(K23-K22)/K23</f>
         <v>0.79300000000000004</v>
       </c>
-      <c r="U22" s="120"/>
-      <c r="V22" s="120">
+      <c r="U22" s="122"/>
+      <c r="V22" s="122">
         <f>ABS(M23-M22)/M23</f>
         <v>6.2000000000000027E-2</v>
       </c>
-      <c r="W22" s="120"/>
-      <c r="X22" s="120"/>
-      <c r="Y22" s="120">
+      <c r="W22" s="122"/>
+      <c r="X22" s="122"/>
+      <c r="Y22" s="122">
         <f>ABS(P23-P22)/P23</f>
         <v>1.4000000000000004</v>
       </c>
     </row>
     <row r="23" spans="2:25" ht="47" customHeight="1">
-      <c r="B23" s="119"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
+      <c r="B23" s="125"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="122"/>
       <c r="G23" s="17" t="s">
         <v>22</v>
       </c>
@@ -8194,28 +8194,28 @@
         <f>1/6*100</f>
         <v>16.666666666666664</v>
       </c>
-      <c r="Q23" s="120"/>
-      <c r="R23" s="120"/>
-      <c r="S23" s="120"/>
-      <c r="T23" s="120"/>
-      <c r="U23" s="120"/>
-      <c r="V23" s="120"/>
-      <c r="W23" s="120"/>
-      <c r="X23" s="120"/>
-      <c r="Y23" s="120"/>
+      <c r="Q23" s="122"/>
+      <c r="R23" s="122"/>
+      <c r="S23" s="122"/>
+      <c r="T23" s="122"/>
+      <c r="U23" s="122"/>
+      <c r="V23" s="122"/>
+      <c r="W23" s="122"/>
+      <c r="X23" s="122"/>
+      <c r="Y23" s="122"/>
     </row>
     <row r="24" spans="2:25" ht="53" customHeight="1">
-      <c r="B24" s="119" t="s">
+      <c r="B24" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="120"/>
-      <c r="D24" s="120">
+      <c r="C24" s="122"/>
+      <c r="D24" s="122">
         <v>24</v>
       </c>
-      <c r="E24" s="120">
+      <c r="E24" s="122">
         <v>96</v>
       </c>
-      <c r="F24" s="120">
+      <c r="F24" s="122">
         <v>19.5</v>
       </c>
       <c r="G24" s="17" t="s">
@@ -8234,28 +8234,28 @@
       <c r="P24" s="19">
         <v>32.6</v>
       </c>
-      <c r="Q24" s="120"/>
-      <c r="R24" s="120"/>
-      <c r="S24" s="120"/>
-      <c r="T24" s="120"/>
-      <c r="U24" s="120"/>
-      <c r="V24" s="131">
+      <c r="Q24" s="122"/>
+      <c r="R24" s="122"/>
+      <c r="S24" s="122"/>
+      <c r="T24" s="122"/>
+      <c r="U24" s="122"/>
+      <c r="V24" s="123">
         <f>ABS(M25-M24)/M25</f>
         <v>0.21366666666666653</v>
       </c>
-      <c r="W24" s="120"/>
-      <c r="X24" s="120"/>
-      <c r="Y24" s="120">
+      <c r="W24" s="122"/>
+      <c r="X24" s="122"/>
+      <c r="Y24" s="122">
         <f>ABS(P25-P24)/P25</f>
         <v>1.2820000000000003</v>
       </c>
     </row>
     <row r="25" spans="2:25" ht="53" customHeight="1">
-      <c r="B25" s="119"/>
-      <c r="C25" s="120"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="120"/>
-      <c r="F25" s="120"/>
+      <c r="B25" s="125"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="122"/>
       <c r="G25" s="17" t="s">
         <v>22</v>
       </c>
@@ -8274,15 +8274,15 @@
         <f>1/7*100</f>
         <v>14.285714285714285</v>
       </c>
-      <c r="Q25" s="120"/>
-      <c r="R25" s="120"/>
-      <c r="S25" s="120"/>
-      <c r="T25" s="120"/>
-      <c r="U25" s="120"/>
-      <c r="V25" s="131"/>
-      <c r="W25" s="120"/>
-      <c r="X25" s="120"/>
-      <c r="Y25" s="120"/>
+      <c r="Q25" s="122"/>
+      <c r="R25" s="122"/>
+      <c r="S25" s="122"/>
+      <c r="T25" s="122"/>
+      <c r="U25" s="122"/>
+      <c r="V25" s="123"/>
+      <c r="W25" s="122"/>
+      <c r="X25" s="122"/>
+      <c r="Y25" s="122"/>
     </row>
     <row r="26" spans="2:25">
       <c r="B26" s="24"/>
@@ -8350,48 +8350,48 @@
       <c r="K30" s="124"/>
     </row>
     <row r="31" spans="2:25" ht="16" customHeight="1">
-      <c r="B31" s="126" t="s">
+      <c r="B31" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="126"/>
-      <c r="D31" s="126"/>
-      <c r="E31" s="126"/>
-      <c r="F31" s="126"/>
-      <c r="G31" s="126"/>
-      <c r="H31" s="126"/>
-      <c r="I31" s="126"/>
-      <c r="J31" s="126"/>
-      <c r="K31" s="126"/>
-      <c r="L31" s="126"/>
-      <c r="M31" s="126"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="117"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="117"/>
+      <c r="K31" s="117"/>
+      <c r="L31" s="117"/>
+      <c r="M31" s="117"/>
     </row>
     <row r="32" spans="2:25">
-      <c r="B32" s="126"/>
-      <c r="C32" s="126"/>
-      <c r="D32" s="126"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="126"/>
-      <c r="G32" s="126"/>
-      <c r="H32" s="126"/>
-      <c r="I32" s="126"/>
-      <c r="J32" s="126"/>
-      <c r="K32" s="126"/>
-      <c r="L32" s="126"/>
-      <c r="M32" s="126"/>
+      <c r="B32" s="117"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="117"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="117"/>
+      <c r="I32" s="117"/>
+      <c r="J32" s="117"/>
+      <c r="K32" s="117"/>
+      <c r="L32" s="117"/>
+      <c r="M32" s="117"/>
     </row>
     <row r="33" spans="2:13">
-      <c r="B33" s="126"/>
-      <c r="C33" s="126"/>
-      <c r="D33" s="126"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="126"/>
-      <c r="H33" s="126"/>
-      <c r="I33" s="126"/>
-      <c r="J33" s="126"/>
-      <c r="K33" s="126"/>
-      <c r="L33" s="126"/>
-      <c r="M33" s="126"/>
+      <c r="B33" s="117"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="117"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="117"/>
+      <c r="I33" s="117"/>
+      <c r="J33" s="117"/>
+      <c r="K33" s="117"/>
+      <c r="L33" s="117"/>
+      <c r="M33" s="117"/>
     </row>
     <row r="34" spans="2:13">
       <c r="B34" s="2"/>
@@ -8402,78 +8402,78 @@
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="2:13">
-      <c r="B35" s="121" t="s">
+      <c r="B35" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="121"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="121"/>
-      <c r="F35" s="121"/>
-      <c r="G35" s="121"/>
-      <c r="H35" s="121"/>
-      <c r="I35" s="121"/>
-      <c r="J35" s="121"/>
-      <c r="K35" s="121"/>
+      <c r="C35" s="130"/>
+      <c r="D35" s="130"/>
+      <c r="E35" s="130"/>
+      <c r="F35" s="130"/>
+      <c r="G35" s="130"/>
+      <c r="H35" s="130"/>
+      <c r="I35" s="130"/>
+      <c r="J35" s="130"/>
+      <c r="K35" s="130"/>
     </row>
     <row r="36" spans="2:13" ht="16" customHeight="1">
-      <c r="B36" s="125" t="s">
+      <c r="B36" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="125"/>
-      <c r="D36" s="125"/>
-      <c r="E36" s="125"/>
-      <c r="F36" s="125"/>
-      <c r="G36" s="125"/>
-      <c r="H36" s="125"/>
-      <c r="I36" s="125"/>
-      <c r="J36" s="125"/>
-      <c r="K36" s="125"/>
-      <c r="L36" s="125"/>
-      <c r="M36" s="125"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="116"/>
+      <c r="F36" s="116"/>
+      <c r="G36" s="116"/>
+      <c r="H36" s="116"/>
+      <c r="I36" s="116"/>
+      <c r="J36" s="116"/>
+      <c r="K36" s="116"/>
+      <c r="L36" s="116"/>
+      <c r="M36" s="116"/>
     </row>
     <row r="37" spans="2:13">
-      <c r="B37" s="125"/>
-      <c r="C37" s="125"/>
-      <c r="D37" s="125"/>
-      <c r="E37" s="125"/>
-      <c r="F37" s="125"/>
-      <c r="G37" s="125"/>
-      <c r="H37" s="125"/>
-      <c r="I37" s="125"/>
-      <c r="J37" s="125"/>
-      <c r="K37" s="125"/>
-      <c r="L37" s="125"/>
-      <c r="M37" s="125"/>
+      <c r="B37" s="116"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="116"/>
+      <c r="G37" s="116"/>
+      <c r="H37" s="116"/>
+      <c r="I37" s="116"/>
+      <c r="J37" s="116"/>
+      <c r="K37" s="116"/>
+      <c r="L37" s="116"/>
+      <c r="M37" s="116"/>
     </row>
     <row r="38" spans="2:13">
-      <c r="B38" s="122" t="s">
+      <c r="B38" s="131" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="122"/>
-      <c r="D38" s="122"/>
-      <c r="E38" s="122"/>
-      <c r="F38" s="122"/>
-      <c r="G38" s="122"/>
-      <c r="H38" s="122"/>
-      <c r="I38" s="122"/>
-      <c r="J38" s="122"/>
-      <c r="K38" s="122"/>
+      <c r="C38" s="131"/>
+      <c r="D38" s="131"/>
+      <c r="E38" s="131"/>
+      <c r="F38" s="131"/>
+      <c r="G38" s="131"/>
+      <c r="H38" s="131"/>
+      <c r="I38" s="131"/>
+      <c r="J38" s="131"/>
+      <c r="K38" s="131"/>
     </row>
     <row r="39" spans="2:13" ht="35" customHeight="1">
-      <c r="B39" s="116" t="s">
+      <c r="B39" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="116"/>
-      <c r="D39" s="116"/>
-      <c r="E39" s="116"/>
-      <c r="F39" s="116"/>
-      <c r="G39" s="116"/>
-      <c r="H39" s="116"/>
-      <c r="I39" s="116"/>
-      <c r="J39" s="116"/>
-      <c r="K39" s="116"/>
-      <c r="L39" s="116"/>
-      <c r="M39" s="116"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="127"/>
+      <c r="F39" s="127"/>
+      <c r="G39" s="127"/>
+      <c r="H39" s="127"/>
+      <c r="I39" s="127"/>
+      <c r="J39" s="127"/>
+      <c r="K39" s="127"/>
+      <c r="L39" s="127"/>
+      <c r="M39" s="127"/>
     </row>
     <row r="40" spans="2:13">
       <c r="B40" s="4" t="s">
@@ -8481,51 +8481,168 @@
       </c>
     </row>
     <row r="41" spans="2:13">
-      <c r="B41" s="116" t="s">
+      <c r="B41" s="127" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="116"/>
-      <c r="D41" s="116"/>
-      <c r="E41" s="116"/>
-      <c r="F41" s="116"/>
-      <c r="G41" s="116"/>
-      <c r="H41" s="116"/>
-      <c r="I41" s="116"/>
-      <c r="J41" s="116"/>
-      <c r="K41" s="116"/>
-      <c r="L41" s="116"/>
-      <c r="M41" s="116"/>
+      <c r="C41" s="127"/>
+      <c r="D41" s="127"/>
+      <c r="E41" s="127"/>
+      <c r="F41" s="127"/>
+      <c r="G41" s="127"/>
+      <c r="H41" s="127"/>
+      <c r="I41" s="127"/>
+      <c r="J41" s="127"/>
+      <c r="K41" s="127"/>
+      <c r="L41" s="127"/>
+      <c r="M41" s="127"/>
     </row>
     <row r="42" spans="2:13">
-      <c r="B42" s="116"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="116"/>
-      <c r="E42" s="116"/>
-      <c r="F42" s="116"/>
-      <c r="G42" s="116"/>
-      <c r="H42" s="116"/>
-      <c r="I42" s="116"/>
-      <c r="J42" s="116"/>
-      <c r="K42" s="116"/>
-      <c r="L42" s="116"/>
-      <c r="M42" s="116"/>
+      <c r="B42" s="127"/>
+      <c r="C42" s="127"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="127"/>
+      <c r="F42" s="127"/>
+      <c r="G42" s="127"/>
+      <c r="H42" s="127"/>
+      <c r="I42" s="127"/>
+      <c r="J42" s="127"/>
+      <c r="K42" s="127"/>
+      <c r="L42" s="127"/>
+      <c r="M42" s="127"/>
     </row>
     <row r="43" spans="2:13">
-      <c r="B43" s="116"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="116"/>
-      <c r="E43" s="116"/>
-      <c r="F43" s="116"/>
-      <c r="G43" s="116"/>
-      <c r="H43" s="116"/>
-      <c r="I43" s="116"/>
-      <c r="J43" s="116"/>
-      <c r="K43" s="116"/>
-      <c r="L43" s="116"/>
-      <c r="M43" s="116"/>
+      <c r="B43" s="127"/>
+      <c r="C43" s="127"/>
+      <c r="D43" s="127"/>
+      <c r="E43" s="127"/>
+      <c r="F43" s="127"/>
+      <c r="G43" s="127"/>
+      <c r="H43" s="127"/>
+      <c r="I43" s="127"/>
+      <c r="J43" s="127"/>
+      <c r="K43" s="127"/>
+      <c r="L43" s="127"/>
+      <c r="M43" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="141">
+    <mergeCell ref="B39:M39"/>
+    <mergeCell ref="B41:M43"/>
+    <mergeCell ref="H6:P6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="B38:K38"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B30:K30"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="Y10:Y11"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="W12:W13"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="Y12:Y13"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="W14:W15"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="Y14:Y15"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="W16:W17"/>
+    <mergeCell ref="X16:X17"/>
+    <mergeCell ref="Y16:Y17"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="X18:X19"/>
+    <mergeCell ref="Y18:Y19"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="U20:U21"/>
+    <mergeCell ref="V20:V21"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="X20:X21"/>
+    <mergeCell ref="Y20:Y21"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="U18:U19"/>
     <mergeCell ref="B36:M37"/>
     <mergeCell ref="B31:M33"/>
     <mergeCell ref="B6:B7"/>
@@ -8550,123 +8667,6 @@
     <mergeCell ref="Y24:Y25"/>
     <mergeCell ref="Q22:Q23"/>
     <mergeCell ref="R22:R23"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="U22:U23"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="W18:W19"/>
-    <mergeCell ref="X18:X19"/>
-    <mergeCell ref="Y18:Y19"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="U20:U21"/>
-    <mergeCell ref="V20:V21"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="X20:X21"/>
-    <mergeCell ref="Y20:Y21"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="W14:W15"/>
-    <mergeCell ref="X14:X15"/>
-    <mergeCell ref="Y14:Y15"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="W16:W17"/>
-    <mergeCell ref="X16:X17"/>
-    <mergeCell ref="Y16:Y17"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="W10:W11"/>
-    <mergeCell ref="X10:X11"/>
-    <mergeCell ref="Y10:Y11"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="W12:W13"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="Y12:Y13"/>
-    <mergeCell ref="B30:K30"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B39:M39"/>
-    <mergeCell ref="B41:M43"/>
-    <mergeCell ref="H6:P6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="B38:K38"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="C16:C17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{63B72AE5-4AD0-934A-BE7B-D1600FAA98EA}"/>
@@ -8682,7 +8682,7 @@
   <dimension ref="B2:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -8708,20 +8708,20 @@
       <c r="C2" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="132" t="s">
+      <c r="D2" s="139" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="132"/>
+      <c r="E2" s="139"/>
       <c r="F2" s="29" t="s">
         <v>43</v>
       </c>
       <c r="G2" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="134" t="s">
+      <c r="H2" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="134"/>
+      <c r="I2" s="141"/>
       <c r="J2" s="29" t="s">
         <v>46</v>
       </c>
@@ -8742,20 +8742,20 @@
       <c r="C3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="133" t="s">
+      <c r="D3" s="140" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="133"/>
+      <c r="E3" s="140"/>
       <c r="F3" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="135" t="s">
+      <c r="H3" s="142" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="135"/>
+      <c r="I3" s="142"/>
       <c r="J3" s="1" t="s">
         <v>55</v>
       </c>
@@ -8774,12 +8774,12 @@
         <v>5</v>
       </c>
       <c r="C4" s="32"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="135"/>
+      <c r="H4" s="142"/>
+      <c r="I4" s="142"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -8900,50 +8900,50 @@
       </c>
     </row>
     <row r="8" spans="2:13" s="4" customFormat="1" ht="16" customHeight="1">
-      <c r="B8" s="138" t="s">
+      <c r="B8" s="134" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="140" t="s">
+      <c r="C8" s="136" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140" t="s">
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="120" t="s">
+      <c r="G8" s="122" t="s">
         <v>77</v>
       </c>
-      <c r="H8" s="140" t="s">
+      <c r="H8" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="140"/>
-      <c r="J8" s="120" t="s">
+      <c r="I8" s="136"/>
+      <c r="J8" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="K8" s="120" t="s">
+      <c r="K8" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="L8" s="120" t="s">
+      <c r="L8" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="M8" s="136" t="s">
+      <c r="M8" s="132" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="9" spans="2:13" s="4" customFormat="1" ht="82" customHeight="1">
-      <c r="B9" s="139"/>
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="142"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="141"/>
-      <c r="J9" s="142"/>
-      <c r="K9" s="142"/>
-      <c r="L9" s="142"/>
-      <c r="M9" s="137"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="138"/>
+      <c r="K9" s="138"/>
+      <c r="L9" s="138"/>
+      <c r="M9" s="133"/>
     </row>
     <row r="12" spans="2:13">
       <c r="B12" s="13" t="s">
@@ -8952,6 +8952,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:E9"/>
@@ -8961,12 +8967,6 @@
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="K8:K9"/>
     <mergeCell ref="J8:J9"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9875,7 +9875,7 @@
   <dimension ref="A2:X83"/>
   <sheetViews>
     <sheetView topLeftCell="A42" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O67" sqref="O67"/>
+      <selection activeCell="P72" sqref="P72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -10093,15 +10093,15 @@
         <v>0</v>
       </c>
       <c r="T6" s="87">
-        <f>(R6/SUM(R6:R26)*100)</f>
+        <f>(R6/$R$40*100)</f>
         <v>0</v>
       </c>
       <c r="U6" s="87">
-        <f>(S6/SUM(S6:S26)*100)</f>
+        <f>(S6/$S$40*100)</f>
         <v>0</v>
       </c>
       <c r="V6" s="88">
-        <f t="shared" ref="V6:V39" si="3">(12.011*D6)+(1.008*E6)</f>
+        <f>(12.011*D6)+(1.008*E6)</f>
         <v>78.114000000000004</v>
       </c>
     </row>
@@ -10157,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="22">
-        <f t="shared" ref="Q7:Q39" si="4">IF(O7=0,0,F7*O7/O7)</f>
+        <f t="shared" ref="Q7:Q39" si="3">IF(O7=0,0,F7*O7/O7)</f>
         <v>0</v>
       </c>
       <c r="R7" s="87">
@@ -10169,15 +10169,15 @@
         <v>0</v>
       </c>
       <c r="T7" s="87">
-        <f t="shared" ref="T7" si="5">(R7/SUM(R7:R41)*100)</f>
+        <f t="shared" ref="T7:T39" si="4">(R7/$R$40*100)</f>
         <v>0</v>
       </c>
       <c r="U7" s="87">
-        <f>(S7/SUM(S7:S42)*100)</f>
+        <f t="shared" ref="U7:U39" si="5">(S7/$S$40*100)</f>
         <v>0</v>
       </c>
       <c r="V7" s="88">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="V6:V39" si="6">(12.011*D7)+(1.008*E7)</f>
         <v>166.22300000000001</v>
       </c>
     </row>
@@ -10232,7 +10232,7 @@
         <v>5.1282051282051277</v>
       </c>
       <c r="Q8" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="R8" s="87">
@@ -10244,15 +10244,15 @@
         <v>40</v>
       </c>
       <c r="T8" s="87">
-        <f>(R8/SUM(R8:R42)*100)</f>
-        <v>0.55650684931506844</v>
+        <f t="shared" si="4"/>
+        <v>1.1130136986301369</v>
       </c>
       <c r="U8" s="87">
-        <f>(S8/SUM(S8:S43)*100)</f>
-        <v>1.2091898428053205</v>
+        <f t="shared" si="5"/>
+        <v>2.418379685610641</v>
       </c>
       <c r="V8" s="88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>166.22300000000001</v>
       </c>
     </row>
@@ -10309,7 +10309,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R9" s="87">
@@ -10321,15 +10321,15 @@
         <v>0</v>
       </c>
       <c r="T9" s="87">
-        <f>(R9/SUM(R9:R43)*100)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U9" s="87">
-        <f>(S9/SUM(S9:S44)*100)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V9" s="88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>178.23400000000001</v>
       </c>
     </row>
@@ -10385,7 +10385,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R10" s="87">
@@ -10397,15 +10397,15 @@
         <v>0</v>
       </c>
       <c r="T10" s="87">
-        <f>(R10/SUM(R10:R45)*100)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U10" s="87">
-        <f>(S10/SUM(S10:S46)*100)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V10" s="88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>178.23400000000001</v>
       </c>
     </row>
@@ -10462,7 +10462,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R11" s="87">
@@ -10473,8 +10473,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="T11" s="87">
+        <f>(R11/$R$40*100)</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="87">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="V11" s="88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>228.29399999999998</v>
       </c>
     </row>
@@ -10530,7 +10538,7 @@
         <v>12.820512820512819</v>
       </c>
       <c r="Q12" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="R12" s="87">
@@ -10541,8 +10549,16 @@
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
+      <c r="T12" s="87">
+        <f t="shared" si="4"/>
+        <v>4.7089041095890414</v>
+      </c>
+      <c r="U12" s="87">
+        <f t="shared" si="5"/>
+        <v>8.464328899637243</v>
+      </c>
       <c r="V12" s="88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>278.35399999999998</v>
       </c>
     </row>
@@ -10599,7 +10615,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R13" s="87">
@@ -10611,15 +10627,15 @@
         <v>0</v>
       </c>
       <c r="T13" s="87">
-        <f>(R13/SUM(R13:R46)*100)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U13" s="87">
-        <f>(S13/SUM(S13:S47)*100)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V13" s="88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>202.256</v>
       </c>
     </row>
@@ -10674,7 +10690,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R14" s="87">
@@ -10686,15 +10702,15 @@
         <v>0</v>
       </c>
       <c r="T14" s="87">
-        <f>(R14/SUM(R14:R47)*100)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U14" s="87">
-        <f>(S14/SUM(S14:S48)*100)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V14" s="88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>228.29399999999998</v>
       </c>
     </row>
@@ -10751,7 +10767,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R15" s="87">
@@ -10763,15 +10779,15 @@
         <v>0</v>
       </c>
       <c r="T15" s="87">
-        <f>(R15/SUM(R15:R47)*100)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U15" s="87">
-        <f>(S15/SUM(S15:S48)*100)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V15" s="88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>216.28299999999999</v>
       </c>
     </row>
@@ -10828,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R16" s="87">
@@ -10840,15 +10856,15 @@
         <v>0</v>
       </c>
       <c r="T16" s="87">
-        <f>(R16/SUM(R16:R49)*100)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U16" s="87">
-        <f>(S16/SUM(S16:S49)*100)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V16" s="88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>252.31599999999997</v>
       </c>
     </row>
@@ -10905,7 +10921,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R17" s="87">
@@ -10917,15 +10933,15 @@
         <v>0</v>
       </c>
       <c r="T17" s="87">
-        <f t="shared" ref="T17:U19" si="6">(R17/SUM(R17:R51)*100)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U17" s="87">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V17" s="88">
-        <f t="shared" si="3"/>
         <v>216.28299999999999</v>
       </c>
     </row>
@@ -10982,7 +10998,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R18" s="87">
@@ -10994,15 +11010,15 @@
         <v>0</v>
       </c>
       <c r="T18" s="87">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="87">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U18" s="87">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V18" s="88">
-        <f t="shared" si="3"/>
         <v>300.36</v>
       </c>
     </row>
@@ -11059,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R19" s="87">
@@ -11071,15 +11087,15 @@
         <v>0</v>
       </c>
       <c r="T19" s="87">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="87">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U19" s="87">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V19" s="88">
-        <f t="shared" si="3"/>
         <v>252.31599999999997</v>
       </c>
     </row>
@@ -11136,7 +11152,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R20" s="87">
@@ -11148,15 +11164,15 @@
         <v>0</v>
       </c>
       <c r="T20" s="87">
-        <f t="shared" ref="T20:U27" si="7">(R20/SUM(R20:R55)*100)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U20" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V20" s="88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>252.31599999999997</v>
       </c>
     </row>
@@ -11214,7 +11230,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R21" s="87">
@@ -11226,15 +11242,15 @@
         <v>0</v>
       </c>
       <c r="T21" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U21" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V21" s="88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>276.33799999999997</v>
       </c>
     </row>
@@ -11292,7 +11308,7 @@
         <v>14.102564102564102</v>
       </c>
       <c r="Q22" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="R22" s="87">
@@ -11304,15 +11320,15 @@
         <v>176</v>
       </c>
       <c r="T22" s="87">
-        <f t="shared" si="7"/>
-        <v>5.0925925925925926</v>
+        <f t="shared" si="4"/>
+        <v>9.8886986301369877</v>
       </c>
       <c r="U22" s="87">
-        <f t="shared" si="7"/>
-        <v>5.6265984654731458</v>
+        <f t="shared" si="5"/>
+        <v>10.640870616686819</v>
       </c>
       <c r="V22" s="88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>520.59</v>
       </c>
     </row>
@@ -11370,7 +11386,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R23" s="87">
@@ -11382,15 +11398,15 @@
         <v>0</v>
       </c>
       <c r="T23" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U23" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V23" s="88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>666.73799999999994</v>
       </c>
     </row>
@@ -11448,7 +11464,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R24" s="87">
@@ -11460,15 +11476,15 @@
         <v>0</v>
       </c>
       <c r="T24" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U24" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V24" s="88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>812.88599999999997</v>
       </c>
     </row>
@@ -11526,7 +11542,7 @@
         <v>67.948717948717956</v>
       </c>
       <c r="Q25" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="R25" s="87">
@@ -11538,15 +11554,15 @@
         <v>1166</v>
       </c>
       <c r="T25" s="87">
-        <f t="shared" si="7"/>
-        <v>43.089430894308947</v>
+        <f t="shared" si="4"/>
+        <v>79.409246575342465</v>
       </c>
       <c r="U25" s="87">
-        <f t="shared" si="7"/>
-        <v>39.498644986449868</v>
+        <f t="shared" si="5"/>
+        <v>70.495767835550183</v>
       </c>
       <c r="V25" s="88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>862.94600000000003</v>
       </c>
     </row>
@@ -11605,7 +11621,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R26" s="87">
@@ -11617,15 +11633,15 @@
         <v>0</v>
       </c>
       <c r="T26" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U26" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V26" s="88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>983.05599999999993</v>
       </c>
     </row>
@@ -11682,7 +11698,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R27" s="87">
@@ -11694,15 +11710,15 @@
         <v>0</v>
       </c>
       <c r="T27" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U27" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V27" s="88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1033.116</v>
       </c>
     </row>
@@ -11755,7 +11771,7 @@
         <v>15.384615384615385</v>
       </c>
       <c r="Q28" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="R28" s="87">
@@ -11767,15 +11783,15 @@
         <v>132</v>
       </c>
       <c r="T28" s="87">
-        <f t="shared" ref="T28:T39" si="8">(R28/SUM(R28:R63)*100)</f>
-        <v>4.6530612244897966</v>
+        <f t="shared" si="4"/>
+        <v>4.8801369863013697</v>
       </c>
       <c r="U28" s="87">
-        <f t="shared" ref="U28:U39" si="9">(S28/SUM(S28:S63)*100)</f>
-        <v>7.3908174692049275</v>
+        <f t="shared" si="5"/>
+        <v>7.9806529625151157</v>
       </c>
       <c r="V28" s="88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>239.29699999999997</v>
       </c>
     </row>
@@ -11829,7 +11845,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R29" s="87">
@@ -11841,15 +11857,15 @@
         <v>0</v>
       </c>
       <c r="T29" s="87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U29" s="87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V29" s="88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>338.40899999999999</v>
       </c>
     </row>
@@ -11903,7 +11919,7 @@
         <v>0</v>
       </c>
       <c r="Q30" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R30" s="87">
@@ -11915,15 +11931,15 @@
         <v>0</v>
       </c>
       <c r="T30" s="87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U30" s="87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V30" s="88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>375.45</v>
       </c>
     </row>
@@ -11977,7 +11993,7 @@
         <v>0</v>
       </c>
       <c r="Q31" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R31" s="87">
@@ -11989,15 +12005,15 @@
         <v>0</v>
       </c>
       <c r="T31" s="87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U31" s="87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V31" s="88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>413.49900000000002</v>
       </c>
     </row>
@@ -12051,7 +12067,7 @@
         <v>0</v>
       </c>
       <c r="Q32" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R32" s="87">
@@ -12063,15 +12079,15 @@
         <v>0</v>
       </c>
       <c r="T32" s="87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U32" s="87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V32" s="88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>451.54799999999994</v>
       </c>
     </row>
@@ -12125,7 +12141,7 @@
         <v>0</v>
       </c>
       <c r="Q33" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R33" s="87">
@@ -12137,15 +12153,15 @@
         <v>0</v>
       </c>
       <c r="T33" s="87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U33" s="87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V33" s="88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>489.59699999999998</v>
       </c>
     </row>
@@ -12186,7 +12202,7 @@
         <v>0</v>
       </c>
       <c r="N34" s="76">
-        <f t="shared" ref="N34:N39" si="10">7/F34</f>
+        <f t="shared" ref="N34:N39" si="7">7/F34</f>
         <v>0.53846153846153844</v>
       </c>
       <c r="O34" s="17">
@@ -12197,7 +12213,7 @@
         <v>0</v>
       </c>
       <c r="Q34" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R34" s="87">
@@ -12209,15 +12225,15 @@
         <v>0</v>
       </c>
       <c r="T34" s="87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U34" s="87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V34" s="88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>527.64599999999996</v>
       </c>
     </row>
@@ -12259,7 +12275,7 @@
         <v>0</v>
       </c>
       <c r="N35" s="76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="O35" s="17">
@@ -12270,7 +12286,7 @@
         <v>0</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R35" s="87">
@@ -12282,15 +12298,15 @@
         <v>0</v>
       </c>
       <c r="T35" s="87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U35" s="87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V35" s="88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>550.66</v>
       </c>
     </row>
@@ -12333,7 +12349,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="N36" s="76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.46666666666666667</v>
       </c>
       <c r="O36" s="17">
@@ -12344,7 +12360,7 @@
         <v>0</v>
       </c>
       <c r="Q36" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R36" s="87">
@@ -12356,15 +12372,15 @@
         <v>0</v>
       </c>
       <c r="T36" s="87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U36" s="87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V36" s="88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>573.67399999999998</v>
       </c>
     </row>
@@ -12408,7 +12424,7 @@
         <v>0.125</v>
       </c>
       <c r="N37" s="76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.4375</v>
       </c>
       <c r="O37" s="17">
@@ -12419,7 +12435,7 @@
         <v>0</v>
       </c>
       <c r="Q37" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R37" s="87">
@@ -12431,15 +12447,15 @@
         <v>0</v>
       </c>
       <c r="T37" s="87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U37" s="87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V37" s="88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>597.69600000000003</v>
       </c>
     </row>
@@ -12482,7 +12498,7 @@
         <v>0.17647058823529413</v>
       </c>
       <c r="N38" s="76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="O38" s="17">
@@ -12493,7 +12509,7 @@
         <v>0</v>
       </c>
       <c r="Q38" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R38" s="87">
@@ -12505,15 +12521,15 @@
         <v>0</v>
       </c>
       <c r="T38" s="87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U38" s="87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V38" s="88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>619.702</v>
       </c>
     </row>
@@ -12555,7 +12571,7 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="N39" s="76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.3888888888888889</v>
       </c>
       <c r="O39" s="17">
@@ -12566,7 +12582,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R39" s="87">
@@ -12578,15 +12594,15 @@
         <v>0</v>
       </c>
       <c r="T39" s="87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U39" s="87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V39" s="88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>642.71600000000001</v>
       </c>
     </row>
@@ -12599,31 +12615,31 @@
         <v>4</v>
       </c>
       <c r="H40" s="76">
-        <f t="shared" ref="H40:N40" si="11">H6*$O$6+H11*$O$11+H12*$O$12+H7*$O$7+H8*$O$8+H9*$O9+H10*$O$10+H13*$O$13+H14*$O$14+H15*$O$15+H16*$O$16+H17*$O$17+H18*$O$18+H19*$O$19+H20*$O$20+H21*$O$21+H22*$O$22+H23*$O$23+H24*$O$24+H25*$O$25+H26*$O$26+H27*$O$27+H28*$O$28+H29*$O$29+H30*$O$30+H31*$O$31+H32*$O$32+H33*$O$33+H34*$O$34+H35*$O$35+H36*$O$36+H37*$O$37+H38*$O$38+H39*$O$39</f>
+        <f t="shared" ref="H40:N40" si="8">H6*$O$6+H11*$O$11+H12*$O$12+H7*$O$7+H8*$O$8+H9*$O9+H10*$O$10+H13*$O$13+H14*$O$14+H15*$O$15+H16*$O$16+H17*$O$17+H18*$O$18+H19*$O$19+H20*$O$20+H21*$O$21+H22*$O$22+H23*$O$23+H24*$O$24+H25*$O$25+H26*$O$26+H27*$O$27+H28*$O$28+H29*$O$29+H30*$O$30+H31*$O$31+H32*$O$32+H33*$O$33+H34*$O$34+H35*$O$35+H36*$O$36+H37*$O$37+H38*$O$38+H39*$O$39</f>
         <v>13.040000000000001</v>
       </c>
       <c r="I40" s="76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J40" s="76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K40" s="76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="L40" s="76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>13.754285714285714</v>
       </c>
       <c r="M40" s="76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>30.982857142857142</v>
       </c>
       <c r="N40" s="76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>22.222857142857141</v>
       </c>
       <c r="O40" s="87">
@@ -12711,15 +12727,15 @@
         <v>0.14488888888888893</v>
       </c>
       <c r="I43" s="91">
-        <f t="shared" ref="I43:K43" si="12">I40/$G$41</f>
+        <f t="shared" ref="I43:K43" si="9">I40/$G$41</f>
         <v>0</v>
       </c>
       <c r="J43" s="91">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K43" s="91">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>6.666666666666668E-2</v>
       </c>
       <c r="L43" s="91">
@@ -13595,8 +13611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA90EBAA-0722-804E-9963-5CBF954104AC}">
   <dimension ref="A2:X83"/>
   <sheetViews>
-    <sheetView topLeftCell="B48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U57" sqref="U57"/>
+    <sheetView topLeftCell="A39" zoomScale="82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O74" sqref="O74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -13814,11 +13830,11 @@
         <v>0</v>
       </c>
       <c r="T6" s="87">
-        <f>(R6/SUM(R6:R26)*100)</f>
+        <f>(R6/$R$40*100)</f>
         <v>0</v>
       </c>
       <c r="U6" s="87">
-        <f>(S6/SUM(S6:S26)*100)</f>
+        <f>(S6/$S$40*100)</f>
         <v>0</v>
       </c>
       <c r="V6" s="88">
@@ -13890,11 +13906,11 @@
         <v>0</v>
       </c>
       <c r="T7" s="87">
-        <f t="shared" ref="T7" si="5">(R7/SUM(R7:R41)*100)</f>
+        <f t="shared" ref="T7:T39" si="5">(R7/$R$40*100)</f>
         <v>0</v>
       </c>
       <c r="U7" s="87">
-        <f>(S7/SUM(S7:S42)*100)</f>
+        <f t="shared" ref="U7:U39" si="6">(S7/$S$40*100)</f>
         <v>0</v>
       </c>
       <c r="V7" s="88">
@@ -13946,31 +13962,31 @@
         <v>0</v>
       </c>
       <c r="O8" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P8" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.1914893617021276</v>
       </c>
       <c r="Q8" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R8" s="87">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="S8" s="87">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T8" s="87">
-        <f>(R8/SUM(R8:R42)*100)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0.63363119415109659</v>
       </c>
       <c r="U8" s="87">
-        <f>(S8/SUM(S8:S43)*100)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1.41643059490085</v>
       </c>
       <c r="V8" s="88">
         <f t="shared" si="3"/>
@@ -14042,11 +14058,11 @@
         <v>0</v>
       </c>
       <c r="T9" s="87">
-        <f>(R9/SUM(R9:R43)*100)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U9" s="87">
-        <f>(S9/SUM(S9:S44)*100)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V9" s="88">
@@ -14118,11 +14134,11 @@
         <v>0</v>
       </c>
       <c r="T10" s="87">
-        <f>(R10/SUM(R10:R45)*100)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U10" s="87">
-        <f>(S10/SUM(S10:S46)*100)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V10" s="88">
@@ -14194,6 +14210,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="T11" s="87">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="87">
+        <f>(S11/$S$40*100)</f>
+        <v>0</v>
+      </c>
       <c r="V11" s="88">
         <f t="shared" si="3"/>
         <v>228.29399999999998</v>
@@ -14248,7 +14272,7 @@
       </c>
       <c r="P12" s="22">
         <f t="shared" si="0"/>
-        <v>11.494252873563218</v>
+        <v>10.638297872340425</v>
       </c>
       <c r="Q12" s="22">
         <f t="shared" si="4"/>
@@ -14262,6 +14286,14 @@
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
+      <c r="T12" s="87">
+        <f t="shared" si="5"/>
+        <v>3.5743298131600327</v>
+      </c>
+      <c r="U12" s="87">
+        <f t="shared" si="6"/>
+        <v>6.6100094428706333</v>
+      </c>
       <c r="V12" s="88">
         <f t="shared" si="3"/>
         <v>278.35399999999998</v>
@@ -14332,11 +14364,11 @@
         <v>0</v>
       </c>
       <c r="T13" s="87">
-        <f>(R13/SUM(R13:R46)*100)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U13" s="87">
-        <f>(S13/SUM(S13:S47)*100)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V13" s="88">
@@ -14407,11 +14439,11 @@
         <v>0</v>
       </c>
       <c r="T14" s="87">
-        <f>(R14/SUM(R14:R47)*100)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U14" s="87">
-        <f>(S14/SUM(S14:S48)*100)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V14" s="88">
@@ -14484,11 +14516,11 @@
         <v>0</v>
       </c>
       <c r="T15" s="87">
-        <f>(R15/SUM(R15:R47)*100)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U15" s="87">
-        <f>(S15/SUM(S15:S48)*100)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V15" s="88">
@@ -14561,11 +14593,11 @@
         <v>0</v>
       </c>
       <c r="T16" s="87">
-        <f>(R16/SUM(R16:R49)*100)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U16" s="87">
-        <f>(S16/SUM(S16:S49)*100)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V16" s="88">
@@ -14638,7 +14670,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="87">
-        <f t="shared" ref="T17:U19" si="6">(R17/SUM(R17:R51)*100)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U17" s="87">
@@ -14715,7 +14747,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U18" s="87">
@@ -14773,31 +14805,31 @@
         <v>0.2</v>
       </c>
       <c r="O19" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P19" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1276595744680851</v>
       </c>
       <c r="Q19" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R19" s="87">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="S19" s="87">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="T19" s="87">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0.6498781478472786</v>
       </c>
       <c r="U19" s="87">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.1331444759206799</v>
       </c>
       <c r="V19" s="88">
         <f t="shared" si="3"/>
@@ -14869,11 +14901,11 @@
         <v>0</v>
       </c>
       <c r="T20" s="87">
-        <f t="shared" ref="T20:U35" si="7">(R20/SUM(R20:R55)*100)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U20" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V20" s="88">
@@ -14947,11 +14979,11 @@
         <v>0</v>
       </c>
       <c r="T21" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U21" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V21" s="88">
@@ -15025,11 +15057,11 @@
         <v>0</v>
       </c>
       <c r="T22" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U22" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V22" s="88">
@@ -15088,7 +15120,7 @@
       </c>
       <c r="P23" s="22">
         <f t="shared" si="0"/>
-        <v>12.643678160919542</v>
+        <v>11.702127659574469</v>
       </c>
       <c r="Q23" s="22">
         <f t="shared" si="4"/>
@@ -15103,12 +15135,12 @@
         <v>198</v>
       </c>
       <c r="T23" s="87">
-        <f t="shared" si="7"/>
-        <v>5.0135043889264015</v>
+        <f t="shared" si="5"/>
+        <v>9.6506904955320891</v>
       </c>
       <c r="U23" s="87">
-        <f t="shared" si="7"/>
-        <v>4.930278884462151</v>
+        <f t="shared" si="6"/>
+        <v>9.3484419263456093</v>
       </c>
       <c r="V23" s="88">
         <f t="shared" si="3"/>
@@ -15162,31 +15194,31 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="O24" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P24" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.1914893617021276</v>
       </c>
       <c r="Q24" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="R24" s="87">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="S24" s="87">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="T24" s="87">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>3.2168968318440294</v>
       </c>
       <c r="U24" s="87">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>2.8328611898017</v>
       </c>
       <c r="V24" s="88">
         <f t="shared" si="3"/>
@@ -15240,11 +15272,11 @@
         <v>0.36</v>
       </c>
       <c r="O25" s="17">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P25" s="22">
         <f t="shared" si="0"/>
-        <v>67.81609195402298</v>
+        <v>65.957446808510639</v>
       </c>
       <c r="Q25" s="22">
         <f t="shared" si="4"/>
@@ -15252,19 +15284,19 @@
       </c>
       <c r="R25" s="87">
         <f t="shared" si="1"/>
-        <v>4130</v>
+        <v>4340</v>
       </c>
       <c r="S25" s="87">
         <f t="shared" si="2"/>
-        <v>1298</v>
+        <v>1364</v>
       </c>
       <c r="T25" s="87">
-        <f t="shared" si="7"/>
-        <v>36.698062910964993</v>
+        <f t="shared" si="5"/>
+        <v>70.511779041429733</v>
       </c>
       <c r="U25" s="87">
-        <f t="shared" si="7"/>
-        <v>33.99685699319015</v>
+        <f t="shared" si="6"/>
+        <v>64.400377714825311</v>
       </c>
       <c r="V25" s="88">
         <f t="shared" si="3"/>
@@ -15319,11 +15351,11 @@
         <v>0.46666666666666667</v>
       </c>
       <c r="O26" s="17">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P26" s="22">
         <f t="shared" si="0"/>
-        <v>8.0459770114942533</v>
+        <v>3.1914893617021276</v>
       </c>
       <c r="Q26" s="22">
         <f t="shared" si="4"/>
@@ -15331,19 +15363,19 @@
       </c>
       <c r="R26" s="87">
         <f t="shared" si="1"/>
-        <v>560</v>
+        <v>240</v>
       </c>
       <c r="S26" s="87">
         <f t="shared" si="2"/>
-        <v>154</v>
+        <v>66</v>
       </c>
       <c r="T26" s="87">
-        <f t="shared" si="7"/>
-        <v>7.860752386299831</v>
+        <f t="shared" si="5"/>
+        <v>3.899268887083672</v>
       </c>
       <c r="U26" s="87">
-        <f t="shared" si="7"/>
-        <v>6.1111111111111107</v>
+        <f t="shared" si="6"/>
+        <v>3.1161473087818696</v>
       </c>
       <c r="V26" s="88">
         <f t="shared" si="3"/>
@@ -15415,11 +15447,11 @@
         <v>0</v>
       </c>
       <c r="T27" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U27" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V27" s="88">
@@ -15469,31 +15501,31 @@
         <v>0</v>
       </c>
       <c r="O28" s="17">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P28" s="22">
         <f t="shared" si="0"/>
-        <v>9.1954022988505741</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="22">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R28" s="87">
         <f t="shared" si="1"/>
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="S28" s="87">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="T28" s="87">
-        <f t="shared" si="7"/>
-        <v>2.3156611822059721</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="U28" s="87">
-        <f t="shared" si="7"/>
-        <v>3.7193575655114115</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="V28" s="88">
         <f t="shared" si="3"/>
@@ -15543,11 +15575,11 @@
         <v>0.125</v>
       </c>
       <c r="O29" s="17">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P29" s="22">
         <f t="shared" si="0"/>
-        <v>3.4482758620689653</v>
+        <v>7.4468085106382977</v>
       </c>
       <c r="Q29" s="22">
         <f t="shared" si="4"/>
@@ -15555,19 +15587,19 @@
       </c>
       <c r="R29" s="87">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="S29" s="87">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="T29" s="87">
-        <f t="shared" si="7"/>
-        <v>1.2632563942607611</v>
+        <f t="shared" si="5"/>
+        <v>3.0706742485783916</v>
       </c>
       <c r="U29" s="87">
-        <f t="shared" si="7"/>
-        <v>1.8437225636523267</v>
+        <f t="shared" si="6"/>
+        <v>4.6270066100094436</v>
       </c>
       <c r="V29" s="88">
         <f t="shared" si="3"/>
@@ -15617,11 +15649,11 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="O30" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P30" s="22">
         <f t="shared" si="0"/>
-        <v>1.1494252873563218</v>
+        <v>3.1914893617021276</v>
       </c>
       <c r="Q30" s="22">
         <f t="shared" si="4"/>
@@ -15629,19 +15661,19 @@
       </c>
       <c r="R30" s="87">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="S30" s="87">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="T30" s="87">
-        <f t="shared" si="7"/>
-        <v>0.47385879008055604</v>
+        <f t="shared" si="5"/>
+        <v>1.4622258326563771</v>
       </c>
       <c r="U30" s="87">
-        <f t="shared" si="7"/>
-        <v>0.67084078711985684</v>
+        <f t="shared" si="6"/>
+        <v>2.1246458923512748</v>
       </c>
       <c r="V30" s="88">
         <f t="shared" si="3"/>
@@ -15691,31 +15723,31 @@
         <v>0.3</v>
       </c>
       <c r="O31" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0638297872340425</v>
       </c>
       <c r="Q31" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R31" s="87">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="S31" s="87">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="T31" s="87">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0.53614947197400487</v>
       </c>
       <c r="U31" s="87">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>0.80264400377714828</v>
       </c>
       <c r="V31" s="88">
         <f t="shared" si="3"/>
@@ -15769,7 +15801,7 @@
       </c>
       <c r="P32" s="22">
         <f t="shared" si="0"/>
-        <v>2.2988505747126435</v>
+        <v>2.1276595744680851</v>
       </c>
       <c r="Q32" s="22">
         <f t="shared" si="4"/>
@@ -15784,12 +15816,12 @@
         <v>38</v>
       </c>
       <c r="T32" s="87">
-        <f t="shared" si="7"/>
-        <v>1.1426757657514681</v>
+        <f t="shared" si="5"/>
+        <v>1.1697806661251016</v>
       </c>
       <c r="U32" s="87">
-        <f t="shared" si="7"/>
-        <v>1.7109410175596578</v>
+        <f t="shared" si="6"/>
+        <v>1.7941454202077429</v>
       </c>
       <c r="V32" s="88">
         <f t="shared" si="3"/>
@@ -15839,31 +15871,31 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="O33" s="17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P33" s="22">
         <f t="shared" si="0"/>
-        <v>5.7471264367816088</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="22">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="R33" s="87">
         <f t="shared" si="1"/>
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="S33" s="87">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="T33" s="87">
-        <f t="shared" si="7"/>
-        <v>3.1305185423021351</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="U33" s="87">
-        <f t="shared" si="7"/>
-        <v>4.8098946404031153</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="V33" s="88">
         <f t="shared" si="3"/>
@@ -15907,7 +15939,7 @@
         <v>0</v>
       </c>
       <c r="N34" s="76">
-        <f t="shared" ref="N34:N39" si="8">7/F34</f>
+        <f t="shared" ref="N34:N39" si="7">7/F34</f>
         <v>0.53846153846153844</v>
       </c>
       <c r="O34" s="17">
@@ -15930,11 +15962,11 @@
         <v>0</v>
       </c>
       <c r="T34" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U34" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V34" s="88">
@@ -15980,7 +16012,7 @@
         <v>0</v>
       </c>
       <c r="N35" s="76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="O35" s="17">
@@ -16003,11 +16035,11 @@
         <v>0</v>
       </c>
       <c r="T35" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U35" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V35" s="88">
@@ -16054,7 +16086,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="N36" s="76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.46666666666666667</v>
       </c>
       <c r="O36" s="17">
@@ -16077,11 +16109,11 @@
         <v>0</v>
       </c>
       <c r="T36" s="87">
-        <f t="shared" ref="T36:U39" si="9">(R36/SUM(R36:R71)*100)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U36" s="87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V36" s="88">
@@ -16129,7 +16161,7 @@
         <v>0.125</v>
       </c>
       <c r="N37" s="76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.4375</v>
       </c>
       <c r="O37" s="17">
@@ -16152,11 +16184,11 @@
         <v>0</v>
       </c>
       <c r="T37" s="87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U37" s="87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V37" s="88">
@@ -16203,35 +16235,35 @@
         <v>0.17647058823529413</v>
       </c>
       <c r="N38" s="76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="O38" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P38" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1276595744680851</v>
       </c>
       <c r="Q38" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="R38" s="87">
         <f>D38*O38</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S38" s="87">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="T38" s="87">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1.6246953696181965</v>
       </c>
       <c r="U38" s="87">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1.7941454202077429</v>
       </c>
       <c r="V38" s="88">
         <f t="shared" si="3"/>
@@ -16276,7 +16308,7 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="N39" s="76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.3888888888888889</v>
       </c>
       <c r="O39" s="17">
@@ -16299,11 +16331,11 @@
         <v>0</v>
       </c>
       <c r="T39" s="87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U39" s="87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V39" s="88">
@@ -16320,36 +16352,36 @@
         <v>4</v>
       </c>
       <c r="H40" s="76">
-        <f t="shared" ref="H40:N40" si="10">H6*$O$6+H11*$O$11+H12*$O$12+H7*$O$7+H8*$O$8+H9*$O9+H10*$O$10+H13*$O$13+H14*$O$14+H15*$O$15+H16*$O$16+H17*$O$17+H18*$O$18+H19*$O$19+H20*$O$20+H21*$O$21+H22*$O$22+H23*$O$23+H24*$O$24+H25*$O$25+H26*$O$26+H27*$O$27+H28*$O$28+H29*$O$29+H30*$O$30+H31*$O$31+H32*$O$32+H33*$O$33+H34*$O$34+H35*$O$35+H36*$O$36+H37*$O$37+H38*$O$38+H39*$O$39</f>
-        <v>11.327828282828282</v>
+        <f t="shared" ref="H40:N40" si="8">H6*$O$6+H11*$O$11+H12*$O$12+H7*$O$7+H8*$O$8+H9*$O9+H10*$O$10+H13*$O$13+H14*$O$14+H15*$O$15+H16*$O$16+H17*$O$17+H18*$O$18+H19*$O$19+H20*$O$20+H21*$O$21+H22*$O$22+H23*$O$23+H24*$O$24+H25*$O$25+H26*$O$26+H27*$O$27+H28*$O$28+H29*$O$29+H30*$O$30+H31*$O$31+H32*$O$32+H33*$O$33+H34*$O$34+H35*$O$35+H36*$O$36+H37*$O$37+H38*$O$38+H39*$O$39</f>
+        <v>12.246586452762921</v>
       </c>
       <c r="I40" s="76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J40" s="76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K40" s="76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="L40" s="76">
-        <f t="shared" si="10"/>
-        <v>14.808835725677831</v>
+        <f t="shared" si="8"/>
+        <v>15.371384745285672</v>
       </c>
       <c r="M40" s="76">
-        <f t="shared" si="10"/>
-        <v>37.896209463051576</v>
+        <f t="shared" si="8"/>
+        <v>38.566928417299934</v>
       </c>
       <c r="N40" s="76">
-        <f t="shared" si="10"/>
-        <v>31.967126528442311</v>
+        <f t="shared" si="8"/>
+        <v>32.815100384651466</v>
       </c>
       <c r="O40" s="87">
         <f>SUM(O6:O39)</f>
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P40" s="22">
         <f>SUM(P6:P27)</f>
@@ -16361,11 +16393,11 @@
       </c>
       <c r="R40" s="87">
         <f>SUM(R6:R39)</f>
-        <v>6034</v>
+        <v>6155</v>
       </c>
       <c r="S40" s="87">
         <f>SUM(S6:S39)</f>
-        <v>2078</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="41" spans="1:22">
@@ -16376,7 +16408,7 @@
       </c>
       <c r="G41" s="159">
         <f>SUM(G40:N40)</f>
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H41" s="159"/>
       <c r="I41" s="159"/>
@@ -16425,35 +16457,35 @@
       </c>
       <c r="G43" s="91">
         <f>G40/$G$41</f>
-        <v>3.7735849056603772E-2</v>
+        <v>3.669724770642202E-2</v>
       </c>
       <c r="H43" s="91">
         <f>H40/$G$41</f>
-        <v>0.10686630455498379</v>
+        <v>0.11235400415378827</v>
       </c>
       <c r="I43" s="91">
-        <f t="shared" ref="I43:K43" si="11">I40/$G$41</f>
+        <f t="shared" ref="I43:K43" si="9">I40/$G$41</f>
         <v>0</v>
       </c>
       <c r="J43" s="91">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K43" s="91">
-        <f t="shared" si="11"/>
-        <v>5.6603773584905662E-2</v>
+        <f t="shared" si="9"/>
+        <v>5.5045871559633031E-2</v>
       </c>
       <c r="L43" s="91">
         <f>L40/$G$41</f>
-        <v>0.139705997412055</v>
+        <v>0.14102187839711625</v>
       </c>
       <c r="M43" s="91">
         <f>M40/$G$41</f>
-        <v>0.35751141002878845</v>
+        <v>0.35382503135137555</v>
       </c>
       <c r="N43" s="91">
         <f>N40/$G$41</f>
-        <v>0.30157666536266331</v>
+        <v>0.3010559668316648</v>
       </c>
       <c r="O43" s="76"/>
       <c r="P43" s="70"/>
@@ -16539,27 +16571,27 @@
       </c>
       <c r="G46" s="76">
         <f>ABS(G43-G44)/G44</f>
-        <v>3.7048589411216554E-2</v>
+        <v>8.5059676843024339E-3</v>
       </c>
       <c r="H46" s="76">
         <f>ABS(H43-H44)/H44</f>
-        <v>3.2953828353949902E-2</v>
+        <v>1.670503194131746E-2</v>
       </c>
       <c r="K46" s="76">
         <f>ABS(K43-K44)/K44</f>
-        <v>1.7048464203598349E-2</v>
+        <v>4.4102176197994697E-2</v>
       </c>
       <c r="L46" s="76">
         <f>ABS(L43-L44)/L44</f>
-        <v>1.6932830430303383E-2</v>
+        <v>7.6733897517522317E-3</v>
       </c>
       <c r="M46" s="76">
         <f>ABS(M43-M44)/M44</f>
-        <v>1.3979374525585415E-2</v>
+        <v>3.5240104708085689E-3</v>
       </c>
       <c r="N46" s="76">
         <f>ABS(N43-N44)/N44</f>
-        <v>2.5023685365017033E-3</v>
+        <v>7.7146037757055551E-4</v>
       </c>
       <c r="O46" s="76"/>
     </row>
@@ -16628,7 +16660,7 @@
       </c>
       <c r="G51" s="76">
         <f>S40/R40</f>
-        <v>0.34438183626118662</v>
+        <v>0.34411047928513405</v>
       </c>
       <c r="H51" s="156"/>
       <c r="I51" s="156"/>
@@ -16647,7 +16679,7 @@
       </c>
       <c r="G52" s="76">
         <f>G50-G51</f>
-        <v>2.2836252065006057E-4</v>
+        <v>4.9971949670263305E-4</v>
       </c>
       <c r="H52" s="156"/>
       <c r="I52" s="156"/>
@@ -16704,7 +16736,7 @@
       </c>
       <c r="G56" s="91">
         <f>R40/(G54-S40)</f>
-        <v>0.76167634435748544</v>
+        <v>0.78089317432123828</v>
       </c>
       <c r="H56" s="156"/>
       <c r="I56" s="156"/>
@@ -17316,8 +17348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F8AF4A-2556-E44D-BD8A-72E1532A4D20}">
   <dimension ref="A2:X83"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R60" sqref="R60"/>
+    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O67" sqref="O67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -17535,11 +17567,11 @@
         <v>0</v>
       </c>
       <c r="T6" s="87">
-        <f>(R6/SUM(R6:R26)*100)</f>
+        <f>(R6/$R$40*100)</f>
         <v>0</v>
       </c>
       <c r="U6" s="87">
-        <f>(S6/SUM(S6:S26)*100)</f>
+        <f>(S6/$S$40*100)</f>
         <v>0</v>
       </c>
       <c r="V6" s="88">
@@ -17611,11 +17643,11 @@
         <v>0</v>
       </c>
       <c r="T7" s="87">
-        <f t="shared" ref="T7" si="5">(R7/SUM(R7:R41)*100)</f>
+        <f t="shared" ref="T7:T39" si="5">(R7/$R$40*100)</f>
         <v>0</v>
       </c>
       <c r="U7" s="87">
-        <f>(S7/SUM(S7:S42)*100)</f>
+        <f t="shared" ref="U7:U39" si="6">(S7/$S$40*100)</f>
         <v>0</v>
       </c>
       <c r="V7" s="88">
@@ -17686,11 +17718,11 @@
         <v>0</v>
       </c>
       <c r="T8" s="87">
-        <f>(R8/SUM(R8:R42)*100)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U8" s="87">
-        <f>(S8/SUM(S8:S43)*100)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V8" s="88">
@@ -17763,11 +17795,11 @@
         <v>0</v>
       </c>
       <c r="T9" s="87">
-        <f>(R9/SUM(R9:R43)*100)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U9" s="87">
-        <f>(S9/SUM(S9:S44)*100)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V9" s="88">
@@ -17839,11 +17871,11 @@
         <v>0</v>
       </c>
       <c r="T10" s="87">
-        <f>(R10/SUM(R10:R45)*100)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U10" s="87">
-        <f>(S10/SUM(S10:S46)*100)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V10" s="88">
@@ -17915,6 +17947,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="T11" s="87">
+        <f>(R11/$R$40*100)</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="87">
+        <f>(S11/$S$40*100)</f>
+        <v>0</v>
+      </c>
       <c r="V11" s="88">
         <f t="shared" si="3"/>
         <v>228.29399999999998</v>
@@ -17983,6 +18023,14 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
+      <c r="T12" s="87">
+        <f t="shared" si="5"/>
+        <v>1.5918958031837915</v>
+      </c>
+      <c r="U12" s="87">
+        <f t="shared" si="6"/>
+        <v>3.2558139534883721</v>
+      </c>
       <c r="V12" s="88">
         <f t="shared" si="3"/>
         <v>278.35399999999998</v>
@@ -18053,11 +18101,11 @@
         <v>0</v>
       </c>
       <c r="T13" s="87">
-        <f>(R13/SUM(R13:R46)*100)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U13" s="87">
-        <f>(S13/SUM(S13:S47)*100)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V13" s="88">
@@ -18128,11 +18176,11 @@
         <v>0</v>
       </c>
       <c r="T14" s="87">
-        <f>(R14/SUM(R14:R47)*100)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U14" s="87">
-        <f>(S14/SUM(S14:S48)*100)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V14" s="88">
@@ -18205,11 +18253,11 @@
         <v>0</v>
       </c>
       <c r="T15" s="87">
-        <f>(R15/SUM(R15:R47)*100)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U15" s="87">
-        <f>(S15/SUM(S15:S48)*100)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V15" s="88">
@@ -18282,11 +18330,11 @@
         <v>0</v>
       </c>
       <c r="T16" s="87">
-        <f>(R16/SUM(R16:R49)*100)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U16" s="87">
-        <f>(S16/SUM(S16:S49)*100)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V16" s="88">
@@ -18359,7 +18407,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="87">
-        <f t="shared" ref="T17:U19" si="6">(R17/SUM(R17:R51)*100)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U17" s="87">
@@ -18436,7 +18484,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U18" s="87">
@@ -18513,7 +18561,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U19" s="87">
@@ -18590,11 +18638,11 @@
         <v>0</v>
       </c>
       <c r="T20" s="87">
-        <f t="shared" ref="T20:U35" si="7">(R20/SUM(R20:R55)*100)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U20" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V20" s="88">
@@ -18668,11 +18716,11 @@
         <v>0</v>
       </c>
       <c r="T21" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U21" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V21" s="88">
@@ -18746,11 +18794,11 @@
         <v>0</v>
       </c>
       <c r="T22" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U22" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V22" s="88">
@@ -18824,11 +18872,11 @@
         <v>0</v>
       </c>
       <c r="T23" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U23" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V23" s="88">
@@ -18902,12 +18950,12 @@
         <v>200</v>
       </c>
       <c r="T24" s="87">
-        <f t="shared" si="7"/>
-        <v>4.814004376367615</v>
+        <f t="shared" si="5"/>
+        <v>9.5513748191027492</v>
       </c>
       <c r="U24" s="87">
-        <f t="shared" si="7"/>
-        <v>4.7281323877068555</v>
+        <f t="shared" si="6"/>
+        <v>9.3023255813953494</v>
       </c>
       <c r="V24" s="88">
         <f t="shared" si="3"/>
@@ -18980,12 +19028,12 @@
         <v>616</v>
       </c>
       <c r="T25" s="87">
-        <f t="shared" si="7"/>
-        <v>15.019157088122606</v>
+        <f t="shared" si="5"/>
+        <v>28.364688856729376</v>
       </c>
       <c r="U25" s="87">
-        <f t="shared" si="7"/>
-        <v>15.285359801488834</v>
+        <f t="shared" si="6"/>
+        <v>28.651162790697676</v>
       </c>
       <c r="V25" s="88">
         <f t="shared" si="3"/>
@@ -19059,12 +19107,12 @@
         <v>1034</v>
       </c>
       <c r="T26" s="87">
-        <f t="shared" si="7"/>
-        <v>33.904418394950412</v>
+        <f t="shared" si="5"/>
+        <v>54.413892908827791</v>
       </c>
       <c r="U26" s="87">
-        <f t="shared" si="7"/>
-        <v>30.287053309900408</v>
+        <f t="shared" si="6"/>
+        <v>48.093023255813954</v>
       </c>
       <c r="V26" s="88">
         <f t="shared" si="3"/>
@@ -19136,11 +19184,11 @@
         <v>0</v>
       </c>
       <c r="T27" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U27" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V27" s="88">
@@ -19209,11 +19257,11 @@
         <v>0</v>
       </c>
       <c r="T28" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U28" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V28" s="88">
@@ -19283,11 +19331,11 @@
         <v>0</v>
       </c>
       <c r="T29" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U29" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V29" s="88">
@@ -19357,11 +19405,11 @@
         <v>0</v>
       </c>
       <c r="T30" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U30" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V30" s="88">
@@ -19431,11 +19479,11 @@
         <v>0</v>
       </c>
       <c r="T31" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U31" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V31" s="88">
@@ -19505,11 +19553,11 @@
         <v>0</v>
       </c>
       <c r="T32" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U32" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V32" s="88">
@@ -19579,11 +19627,11 @@
         <v>0</v>
       </c>
       <c r="T33" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U33" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V33" s="88">
@@ -19628,7 +19676,7 @@
         <v>0</v>
       </c>
       <c r="N34" s="76">
-        <f t="shared" ref="N34:N39" si="8">7/F34</f>
+        <f t="shared" ref="N34:N39" si="7">7/F34</f>
         <v>0.53846153846153844</v>
       </c>
       <c r="O34" s="17">
@@ -19651,12 +19699,12 @@
         <v>230</v>
       </c>
       <c r="T34" s="87">
-        <f t="shared" si="7"/>
-        <v>5.7298772169167806</v>
+        <f t="shared" si="5"/>
+        <v>6.0781476121562958</v>
       </c>
       <c r="U34" s="87">
-        <f t="shared" si="7"/>
-        <v>9.6638655462184886</v>
+        <f t="shared" si="6"/>
+        <v>10.697674418604651</v>
       </c>
       <c r="V34" s="88">
         <f t="shared" si="3"/>
@@ -19701,7 +19749,7 @@
         <v>0</v>
       </c>
       <c r="N35" s="76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="O35" s="17">
@@ -19724,11 +19772,11 @@
         <v>0</v>
       </c>
       <c r="T35" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U35" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V35" s="88">
@@ -19775,7 +19823,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="N36" s="76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.46666666666666667</v>
       </c>
       <c r="O36" s="17">
@@ -19798,11 +19846,11 @@
         <v>0</v>
       </c>
       <c r="T36" s="87">
-        <f t="shared" ref="T36:U39" si="9">(R36/SUM(R36:R71)*100)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U36" s="87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V36" s="88">
@@ -19850,7 +19898,7 @@
         <v>0.125</v>
       </c>
       <c r="N37" s="76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.4375</v>
       </c>
       <c r="O37" s="17">
@@ -19873,11 +19921,11 @@
         <v>0</v>
       </c>
       <c r="T37" s="87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U37" s="87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V37" s="88">
@@ -19924,7 +19972,7 @@
         <v>0.17647058823529413</v>
       </c>
       <c r="N38" s="76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="O38" s="17">
@@ -19947,11 +19995,11 @@
         <v>0</v>
       </c>
       <c r="T38" s="87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U38" s="87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V38" s="88">
@@ -19997,7 +20045,7 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="N39" s="76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.3888888888888889</v>
       </c>
       <c r="O39" s="17">
@@ -20020,11 +20068,11 @@
         <v>0</v>
       </c>
       <c r="T39" s="87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U39" s="87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V39" s="88">
@@ -20041,31 +20089,31 @@
         <v>2</v>
       </c>
       <c r="H40" s="76">
-        <f t="shared" ref="H40:N40" si="10">H6*$O$6+H11*$O$11+H12*$O$12+H7*$O$7+H8*$O$8+H9*$O9+H10*$O$10+H13*$O$13+H14*$O$14+H15*$O$15+H16*$O$16+H17*$O$17+H18*$O$18+H19*$O$19+H20*$O$20+H21*$O$21+H22*$O$22+H23*$O$23+H24*$O$24+H25*$O$25+H26*$O$26+H27*$O$27+H28*$O$28+H29*$O$29+H30*$O$30+H31*$O$31+H32*$O$32+H33*$O$33+H34*$O$34+H35*$O$35+H36*$O$36+H37*$O$37+H38*$O$38+H39*$O$39</f>
+        <f t="shared" ref="H40:N40" si="8">H6*$O$6+H11*$O$11+H12*$O$12+H7*$O$7+H8*$O$8+H9*$O9+H10*$O$10+H13*$O$13+H14*$O$14+H15*$O$15+H16*$O$16+H17*$O$17+H18*$O$18+H19*$O$19+H20*$O$20+H21*$O$21+H22*$O$22+H23*$O$23+H24*$O$24+H25*$O$25+H26*$O$26+H27*$O$27+H28*$O$28+H29*$O$29+H30*$O$30+H31*$O$31+H32*$O$32+H33*$O$33+H34*$O$34+H35*$O$35+H36*$O$36+H37*$O$37+H38*$O$38+H39*$O$39</f>
         <v>6.8553846153846161</v>
       </c>
       <c r="I40" s="76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J40" s="76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K40" s="76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="L40" s="76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>14.14</v>
       </c>
       <c r="M40" s="76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>32.44</v>
       </c>
       <c r="N40" s="76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>41.564615384615387</v>
       </c>
       <c r="O40" s="87">
@@ -20153,15 +20201,15 @@
         <v>6.855384615384616E-2</v>
       </c>
       <c r="I43" s="91">
-        <f t="shared" ref="I43:K43" si="11">I40/$G$41</f>
+        <f t="shared" ref="I43:K43" si="9">I40/$G$41</f>
         <v>0</v>
       </c>
       <c r="J43" s="91">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K43" s="91">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="L43" s="91">
@@ -21053,8 +21101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D382B00-30F4-764B-9FB9-162B0A78B6BF}">
   <dimension ref="A2:X83"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S79" sqref="S79"/>
+    <sheetView topLeftCell="B46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O57" sqref="O57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -21272,11 +21320,11 @@
         <v>0</v>
       </c>
       <c r="T6" s="87">
-        <f>(R6/SUM(R6:R26)*100)</f>
+        <f>(R6/$R$40*100)</f>
         <v>0</v>
       </c>
       <c r="U6" s="87">
-        <f>(S6/SUM(S6:S26)*100)</f>
+        <f>(S6/$S$40*100)</f>
         <v>0</v>
       </c>
       <c r="V6" s="88">
@@ -21348,12 +21396,12 @@
         <v>10</v>
       </c>
       <c r="T7" s="87">
-        <f t="shared" ref="T7" si="5">(R7/SUM(R7:R41)*100)</f>
-        <v>9.6769391097216023E-2</v>
+        <f t="shared" ref="T7:T39" si="5">(R7/$R$40*100)</f>
+        <v>0.19353878219443205</v>
       </c>
       <c r="U7" s="87">
-        <f>(S7/SUM(S7:S42)*100)</f>
-        <v>0.25947067981318112</v>
+        <f t="shared" ref="U7:U39" si="6">(S7/$S$40*100)</f>
+        <v>0.51894135962636223</v>
       </c>
       <c r="V7" s="88">
         <f t="shared" si="3"/>
@@ -21423,11 +21471,11 @@
         <v>0</v>
       </c>
       <c r="T8" s="87">
-        <f>(R8/SUM(R8:R42)*100)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U8" s="87">
-        <f>(S8/SUM(S8:S43)*100)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V8" s="88">
@@ -21500,11 +21548,11 @@
         <v>0</v>
       </c>
       <c r="T9" s="87">
-        <f>(R9/SUM(R9:R43)*100)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U9" s="87">
-        <f>(S9/SUM(S9:S44)*100)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V9" s="88">
@@ -21576,11 +21624,11 @@
         <v>0</v>
       </c>
       <c r="T10" s="87">
-        <f>(R10/SUM(R10:R45)*100)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U10" s="87">
-        <f>(S10/SUM(S10:S46)*100)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V10" s="88">
@@ -21652,6 +21700,14 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
+      <c r="T11" s="87">
+        <f>(R11/$R$40*100)</f>
+        <v>0.26797677534613668</v>
+      </c>
+      <c r="U11" s="87">
+        <f>(S11/$S$40*100)</f>
+        <v>0.62272963155163463</v>
+      </c>
       <c r="V11" s="88">
         <f t="shared" si="3"/>
         <v>228.29399999999998</v>
@@ -21720,6 +21776,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="T12" s="87">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="87">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="V12" s="88">
         <f t="shared" si="3"/>
         <v>278.35399999999998</v>
@@ -21790,11 +21854,11 @@
         <v>0</v>
       </c>
       <c r="T13" s="87">
-        <f>(R13/SUM(R13:R46)*100)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U13" s="87">
-        <f>(S13/SUM(S13:S47)*100)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V13" s="88">
@@ -21865,11 +21929,11 @@
         <v>0</v>
       </c>
       <c r="T14" s="87">
-        <f>(R14/SUM(R14:R47)*100)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U14" s="87">
-        <f>(S14/SUM(S14:S48)*100)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V14" s="88">
@@ -21942,11 +22006,11 @@
         <v>0</v>
       </c>
       <c r="T15" s="87">
-        <f>(R15/SUM(R15:R47)*100)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U15" s="87">
-        <f>(S15/SUM(S15:S48)*100)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V15" s="88">
@@ -22019,11 +22083,11 @@
         <v>0</v>
       </c>
       <c r="T16" s="87">
-        <f>(R16/SUM(R16:R49)*100)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U16" s="87">
-        <f>(S16/SUM(S16:S49)*100)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V16" s="88">
@@ -22096,7 +22160,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="87">
-        <f t="shared" ref="T17:U19" si="6">(R17/SUM(R17:R51)*100)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U17" s="87">
@@ -22173,7 +22237,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U18" s="87">
@@ -22250,7 +22314,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U19" s="87">
@@ -22327,11 +22391,11 @@
         <v>0</v>
       </c>
       <c r="T20" s="87">
-        <f t="shared" ref="T20:U35" si="7">(R20/SUM(R20:R55)*100)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U20" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V20" s="88">
@@ -22405,11 +22469,11 @@
         <v>0</v>
       </c>
       <c r="T21" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U21" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V21" s="88">
@@ -22483,11 +22547,11 @@
         <v>0</v>
       </c>
       <c r="T22" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U22" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V22" s="88">
@@ -22561,11 +22625,11 @@
         <v>0</v>
       </c>
       <c r="T23" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U23" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V23" s="88">
@@ -22639,11 +22703,11 @@
         <v>0</v>
       </c>
       <c r="T24" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U24" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V24" s="88">
@@ -22717,12 +22781,12 @@
         <v>220</v>
       </c>
       <c r="T25" s="87">
-        <f t="shared" si="7"/>
-        <v>5.222711333283593</v>
+        <f t="shared" si="5"/>
+        <v>10.421319041238648</v>
       </c>
       <c r="U25" s="87">
-        <f t="shared" si="7"/>
-        <v>5.7411273486430066</v>
+        <f t="shared" si="6"/>
+        <v>11.41670991177997</v>
       </c>
       <c r="V25" s="88">
         <f t="shared" si="3"/>
@@ -22796,12 +22860,12 @@
         <v>1496</v>
       </c>
       <c r="T26" s="87">
-        <f t="shared" si="7"/>
-        <v>42.824529638668032</v>
+        <f t="shared" si="5"/>
+        <v>80.988536549054629</v>
       </c>
       <c r="U26" s="87">
-        <f t="shared" si="7"/>
-        <v>41.417497231450717</v>
+        <f t="shared" si="6"/>
+        <v>77.633627400103791</v>
       </c>
       <c r="V26" s="88">
         <f t="shared" si="3"/>
@@ -22873,12 +22937,12 @@
         <v>120</v>
       </c>
       <c r="T27" s="87">
-        <f t="shared" si="7"/>
-        <v>5.7827344072697233</v>
+        <f t="shared" si="5"/>
+        <v>6.2527914247431884</v>
       </c>
       <c r="U27" s="87">
-        <f t="shared" si="7"/>
-        <v>5.6710775047258979</v>
+        <f t="shared" si="6"/>
+        <v>6.2272963155163463</v>
       </c>
       <c r="V27" s="88">
         <f t="shared" si="3"/>
@@ -22946,11 +23010,11 @@
         <v>0</v>
       </c>
       <c r="T28" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U28" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V28" s="88">
@@ -23020,11 +23084,11 @@
         <v>0</v>
       </c>
       <c r="T29" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U29" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V29" s="88">
@@ -23094,11 +23158,11 @@
         <v>0</v>
       </c>
       <c r="T30" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U30" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V30" s="88">
@@ -23168,11 +23232,11 @@
         <v>0</v>
       </c>
       <c r="T31" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U31" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V31" s="88">
@@ -23242,11 +23306,11 @@
         <v>0</v>
       </c>
       <c r="T32" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U32" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V32" s="88">
@@ -23316,11 +23380,11 @@
         <v>0</v>
       </c>
       <c r="T33" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U33" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V33" s="88">
@@ -23365,7 +23429,7 @@
         <v>0</v>
       </c>
       <c r="N34" s="76">
-        <f t="shared" ref="N34:N39" si="8">7/F34</f>
+        <f t="shared" ref="N34:N39" si="7">7/F34</f>
         <v>0.53846153846153844</v>
       </c>
       <c r="O34" s="17">
@@ -23388,12 +23452,12 @@
         <v>69</v>
       </c>
       <c r="T34" s="87">
-        <f t="shared" si="7"/>
-        <v>1.841297676457694</v>
+        <f t="shared" si="5"/>
+        <v>1.8758374274229568</v>
       </c>
       <c r="U34" s="87">
-        <f t="shared" si="7"/>
-        <v>3.4569138276553106</v>
+        <f t="shared" si="6"/>
+        <v>3.5806953814218994</v>
       </c>
       <c r="V34" s="88">
         <f t="shared" si="3"/>
@@ -23438,7 +23502,7 @@
         <v>0</v>
       </c>
       <c r="N35" s="76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="O35" s="17">
@@ -23461,11 +23525,11 @@
         <v>0</v>
       </c>
       <c r="T35" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U35" s="87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V35" s="88">
@@ -23512,7 +23576,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="N36" s="76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.46666666666666667</v>
       </c>
       <c r="O36" s="17">
@@ -23535,11 +23599,11 @@
         <v>0</v>
       </c>
       <c r="T36" s="87">
-        <f t="shared" ref="T36:U39" si="9">(R36/SUM(R36:R71)*100)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U36" s="87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V36" s="88">
@@ -23587,7 +23651,7 @@
         <v>0.125</v>
       </c>
       <c r="N37" s="76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.4375</v>
       </c>
       <c r="O37" s="17">
@@ -23610,11 +23674,11 @@
         <v>0</v>
       </c>
       <c r="T37" s="87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U37" s="87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V37" s="88">
@@ -23661,7 +23725,7 @@
         <v>0.17647058823529413</v>
       </c>
       <c r="N38" s="76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="O38" s="17">
@@ -23684,11 +23748,11 @@
         <v>0</v>
       </c>
       <c r="T38" s="87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U38" s="87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V38" s="88">
@@ -23734,7 +23798,7 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="N39" s="76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.3888888888888889</v>
       </c>
       <c r="O39" s="17">
@@ -23757,11 +23821,11 @@
         <v>0</v>
       </c>
       <c r="T39" s="87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U39" s="87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V39" s="88">
@@ -23778,19 +23842,19 @@
         <v>1.5</v>
       </c>
       <c r="H40" s="76">
-        <f t="shared" ref="H40:N40" si="10">H6*$O$6+H11*$O$11+H12*$O$12+H7*$O$7+H8*$O$8+H9*$O9+H10*$O$10+H13*$O$13+H14*$O$14+H15*$O$15+H16*$O$16+H17*$O$17+H18*$O$18+H19*$O$19+H20*$O$20+H21*$O$21+H22*$O$22+H23*$O$23+H24*$O$24+H25*$O$25+H26*$O$26+H27*$O$27+H28*$O$28+H29*$O$29+H30*$O$30+H31*$O$31+H32*$O$32+H33*$O$33+H34*$O$34+H35*$O$35+H36*$O$36+H37*$O$37+H38*$O$38+H39*$O$39</f>
+        <f t="shared" ref="H40:N40" si="8">H6*$O$6+H11*$O$11+H12*$O$12+H7*$O$7+H8*$O$8+H9*$O9+H10*$O$10+H13*$O$13+H14*$O$14+H15*$O$15+H16*$O$16+H17*$O$17+H18*$O$18+H19*$O$19+H20*$O$20+H21*$O$21+H22*$O$22+H23*$O$23+H24*$O$24+H25*$O$25+H26*$O$26+H27*$O$27+H28*$O$28+H29*$O$29+H30*$O$30+H31*$O$31+H32*$O$32+H33*$O$33+H34*$O$34+H35*$O$35+H36*$O$36+H37*$O$37+H38*$O$38+H39*$O$39</f>
         <v>2.1846153846153848</v>
       </c>
       <c r="I40" s="76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J40" s="76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K40" s="76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="L40" s="76">
@@ -23798,11 +23862,11 @@
         <v>16.49677419354839</v>
       </c>
       <c r="M40" s="76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>27.466666666666665</v>
       </c>
       <c r="N40" s="76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>39.851943755169565</v>
       </c>
       <c r="O40" s="87">
@@ -23890,15 +23954,15 @@
         <v>2.4825174825174826E-2</v>
       </c>
       <c r="I43" s="91">
-        <f t="shared" ref="I43:K43" si="11">I40/$G$41</f>
+        <f t="shared" ref="I43:K43" si="9">I40/$G$41</f>
         <v>0</v>
       </c>
       <c r="J43" s="91">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K43" s="91">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>5.681818181818182E-3</v>
       </c>
       <c r="L43" s="91">

--- a/BPCA/BPCA_PAH.xlsx
+++ b/BPCA/BPCA_PAH.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailwsu-my.sharepoint.com/personal/v_sierrajimenez_wsu_edu/Documents/WSU/PhD/Thesis/Paper 1 Methodology/Paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valentinasierra/Library/CloudStorage/OneDrive-WashingtonStateUniversity(email.wsu.edu)/WSU/PhD/Thesis/Paper 1 Methodology/Paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1905" documentId="13_ncr:1_{0596981D-2AE2-2C4B-8991-BB3DEC03047F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2982EBD5-0DD3-E949-BC82-6ED9F8D98F2F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06919FED-0BB1-C44E-8619-00AA43605CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" activeTab="1" xr2:uid="{EB29A718-2CE6-174F-8972-CCE909784FB0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" activeTab="3" xr2:uid="{EB29A718-2CE6-174F-8972-CCE909784FB0}"/>
   </bookViews>
   <sheets>
     <sheet name="PAH_Standard" sheetId="17" r:id="rId1"/>
@@ -656,16 +656,10 @@
     <t>Important conclusions from experimental results obtained by Ziolkowski et al., 2011</t>
   </si>
   <si>
-    <t>–No significant correlations were found between the carbon yield and the number of aromatic rings or the percentage of carbon in the PAH; thus we are not able to draw any conclusions as to how the type or size of PAH oxidized is related to the carbon yield.</t>
-  </si>
-  <si>
     <t>–Aliphatic side chains of BC could be oxidized to carboxylic acids</t>
   </si>
   <si>
     <t xml:space="preserve">–Smaller PAHs favor the formation of less substituted BPCAs, whereas larger PAHs, such as coronene, favor the formation of more fully substituted BPCAs. </t>
-  </si>
-  <si>
-    <t>– There seems to be no systematic pattern of oxidation, we cannot accurately model the oxidation products.</t>
   </si>
   <si>
     <t>–A linear regression of the difference between the expected and observed smaller BPCA percentage against the number of carbons in the PAH for all the non-pyrene PAHs had a positive slope with an r2 = 0.69. These results demonstrate that larger PAHs generally formed larger BPCAs than predicted from their stoichiometry.</t>
@@ -764,9 +758,6 @@
     <t>Used in the molecular model?</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -774,10 +765,6 @@
   </si>
   <si>
     <t>Why?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B2CA structures are likely not relevant due to low amounts of these structures expected in biochar. But they are included because BPCA results suggest their presence mostly on low temperature biochar. Trimellitic acid would be included as B2CA-1 because the 4- position would be an additional H to be removed to fit a functional group, either COOH or an aliphatic chain.	
-	</t>
   </si>
   <si>
     <t>Exclude this structure from the B3CA pool because it does not reflect condensed aromatic sheets</t>
@@ -842,9 +829,6 @@
   </si>
   <si>
     <t>H/C</t>
-  </si>
-  <si>
-    <t>Defective clusters</t>
   </si>
   <si>
     <t>Name</t>
@@ -991,9 +975,6 @@
     <t>H/C (Exp)</t>
   </si>
   <si>
-    <t>BPCA contributes to pure aromatic H and C; the H/C ratio at this stage should be lower than the experimental ratio. The H/C will be adjusted later by incorporating more functional groups and carbon defects.</t>
-  </si>
-  <si>
     <t>H/C expected model</t>
   </si>
   <si>
@@ -1073,6 +1054,24 @@
   </si>
   <si>
     <t>It can be this type when the 4 position was an aliphatic chain before the digestion</t>
+  </si>
+  <si>
+    <t>BPCA contributes to pure aromatic H and C; the H/C ratio at this stage should be lower than the experimental ratio. The H/C will be adjusted later by incorporating more functional groups and ring defects</t>
+  </si>
+  <si>
+    <t>–No significant correlations were found between the carbon yield and the number of aromatic rings or the percentage of carbon in the PAH; thus they were not able to draw any conclusions as to how the type or size of PAH oxidized is related to the carbon yield.</t>
+  </si>
+  <si>
+    <t>– There seems to be no systematic pattern of oxidation, they could not accurately model the oxidation products.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B2CA structures are likely irrelevant due to the low amounts of these structures expected in biochar. However, they are included because BPCA results suggest their presence is mainly in low-temperature biochar. Trimellitic acid would be included as B2CA-1 because the 4- position would be an additional H to be removed to fit a functional group, either COOH or an aliphatic chain.	</t>
+  </si>
+  <si>
+    <t>B2CA-1</t>
+  </si>
+  <si>
+    <t>Ring defects clusters</t>
   </si>
 </sst>
 </file>
@@ -2274,7 +2273,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Experiments</c:v>
+            <c:v>Experimental BPCA</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -7269,7 +7268,7 @@
   <dimension ref="B1:AD43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B41" sqref="B41:M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -7492,7 +7491,7 @@
       </c>
       <c r="I7" s="15" t="str">
         <f>BPCA!E5</f>
-        <v xml:space="preserve">B2CA-2 </v>
+        <v>B2CA-1</v>
       </c>
       <c r="J7" s="15" t="str">
         <f>BPCA!D5</f>
@@ -8417,7 +8416,7 @@
     </row>
     <row r="36" spans="2:13" ht="16" customHeight="1">
       <c r="B36" s="116" t="s">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="C36" s="116"/>
       <c r="D36" s="116"/>
@@ -8447,7 +8446,7 @@
     </row>
     <row r="38" spans="2:13">
       <c r="B38" s="131" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" s="131"/>
       <c r="D38" s="131"/>
@@ -8461,7 +8460,7 @@
     </row>
     <row r="39" spans="2:13" ht="35" customHeight="1">
       <c r="B39" s="127" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C39" s="127"/>
       <c r="D39" s="127"/>
@@ -8476,13 +8475,24 @@
       <c r="M39" s="127"/>
     </row>
     <row r="40" spans="2:13">
-      <c r="B40" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="B40" s="131" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" s="131"/>
+      <c r="D40" s="131"/>
+      <c r="E40" s="131"/>
+      <c r="F40" s="131"/>
+      <c r="G40" s="131"/>
+      <c r="H40" s="131"/>
+      <c r="I40" s="131"/>
+      <c r="J40" s="131"/>
+      <c r="K40" s="131"/>
+      <c r="L40" s="131"/>
+      <c r="M40" s="131"/>
     </row>
     <row r="41" spans="2:13">
       <c r="B41" s="127" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C41" s="127"/>
       <c r="D41" s="127"/>
@@ -8525,7 +8535,8 @@
       <c r="M43" s="127"/>
     </row>
   </sheetData>
-  <mergeCells count="141">
+  <mergeCells count="142">
+    <mergeCell ref="B40:M40"/>
     <mergeCell ref="B39:M39"/>
     <mergeCell ref="B41:M43"/>
     <mergeCell ref="H6:P6"/>
@@ -8681,7 +8692,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -8703,64 +8714,64 @@
   <sheetData>
     <row r="2" spans="2:13">
       <c r="B2" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="139" t="s">
         <v>40</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="139" t="s">
-        <v>42</v>
       </c>
       <c r="E2" s="139"/>
       <c r="F2" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="141" t="s">
         <v>43</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="141" t="s">
-        <v>45</v>
       </c>
       <c r="I2" s="141"/>
       <c r="J2" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="M2" s="30" t="s">
         <v>47</v>
-      </c>
-      <c r="L2" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" s="30" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="2:13">
       <c r="B3" s="31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="140" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E3" s="140"/>
       <c r="F3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="142" t="s">
         <v>52</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="142" t="s">
-        <v>54</v>
       </c>
       <c r="I3" s="142"/>
       <c r="J3" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>13</v>
@@ -8787,19 +8798,19 @@
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>18</v>
@@ -8808,7 +8819,7 @@
         <v>11</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>12</v>
@@ -8825,110 +8836,110 @@
     </row>
     <row r="6" spans="2:13" s="3" customFormat="1" ht="85">
       <c r="B6" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="F6" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="E6" s="37" t="s">
+      <c r="G6" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="H6" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="I6" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="38" t="s">
+      <c r="J6" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="K6" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="K6" s="38" t="s">
-        <v>69</v>
-      </c>
       <c r="L6" s="38" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M6" s="39" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="D7" s="41" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G7" s="41" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H7" s="41" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I7" s="41" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J7" s="41" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K7" s="41" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L7" s="41" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="M7" s="42" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="2:13" s="4" customFormat="1" ht="16" customHeight="1">
       <c r="B8" s="134" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C8" s="136" t="s">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="D8" s="136"/>
       <c r="E8" s="136"/>
       <c r="F8" s="136" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G8" s="122" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H8" s="136" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I8" s="136"/>
       <c r="J8" s="122" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K8" s="122" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L8" s="122" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M8" s="132" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="2:13" s="4" customFormat="1" ht="82" customHeight="1">
@@ -8947,7 +8958,7 @@
     </row>
     <row r="12" spans="2:13">
       <c r="B12" s="13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -8979,7 +8990,7 @@
   <dimension ref="B2:R44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -8998,28 +9009,28 @@
   <sheetData>
     <row r="2" spans="2:18">
       <c r="B2" s="43" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="H2" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="I2" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="H2" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="3" spans="2:18">
@@ -9028,7 +9039,7 @@
         <v>Trimellitic Acid</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D3" s="49" t="str">
         <f>BPCA!C5</f>
@@ -9047,7 +9058,7 @@
         <v>1.7798234948509826E-2</v>
       </c>
       <c r="I3" s="69" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="P3" s="65"/>
       <c r="Q3" s="62"/>
@@ -9059,7 +9070,7 @@
         <v>Hemimellitic Acid</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D4" s="53" t="str">
         <f>BPCA!G5</f>
@@ -9087,7 +9098,7 @@
         <v>Mellophanic Acid</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D5" s="53" t="str">
         <f>BPCA!G5</f>
@@ -9106,7 +9117,7 @@
         <v>2.1794092876482856E-3</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="P5" s="65"/>
       <c r="Q5" s="62"/>
@@ -9118,7 +9129,7 @@
         <v>Pyromellitic Acid</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D6" s="49" t="str">
         <f>BPCA!J5</f>
@@ -9146,7 +9157,7 @@
         <v>Prehnitic Acid</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D7" s="49" t="str">
         <f>BPCA!K5</f>
@@ -9227,7 +9238,7 @@
     </row>
     <row r="10" spans="2:18">
       <c r="B10" s="146" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C10" s="147"/>
       <c r="D10" s="147"/>
@@ -9262,7 +9273,7 @@
     </row>
     <row r="12" spans="2:18">
       <c r="B12" s="155" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C12" s="155"/>
       <c r="D12" s="155"/>
@@ -9287,7 +9298,7 @@
     </row>
     <row r="13" spans="2:18">
       <c r="B13" s="155" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C13" s="155"/>
       <c r="D13" s="155"/>
@@ -9322,7 +9333,7 @@
     </row>
     <row r="15" spans="2:18">
       <c r="B15" s="148" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C15" s="149"/>
       <c r="D15" s="149"/>
@@ -9335,38 +9346,38 @@
     </row>
     <row r="16" spans="2:18">
       <c r="B16" s="57" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="58" t="s">
+      <c r="H16" s="61" t="s">
         <v>84</v>
-      </c>
-      <c r="E16" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="H16" s="61" t="s">
-        <v>88</v>
       </c>
       <c r="N16" s="62"/>
       <c r="O16" s="62"/>
     </row>
     <row r="17" spans="2:18">
       <c r="B17" s="48" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" s="49" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D17" s="49" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E17" s="50">
         <v>1.452008162960407E-3</v>
@@ -9385,10 +9396,10 @@
     </row>
     <row r="18" spans="2:18">
       <c r="B18" s="52" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D18" s="53" t="s">
         <v>18</v>
@@ -9410,10 +9421,10 @@
     </row>
     <row r="19" spans="2:18">
       <c r="B19" s="48" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D19" s="53" t="s">
         <v>18</v>
@@ -9435,10 +9446,10 @@
     </row>
     <row r="20" spans="2:18">
       <c r="B20" s="52" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D20" s="49" t="s">
         <v>12</v>
@@ -9460,10 +9471,10 @@
     </row>
     <row r="21" spans="2:18">
       <c r="B21" s="52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C21" s="49" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D21" s="49" t="s">
         <v>19</v>
@@ -9485,7 +9496,7 @@
     </row>
     <row r="22" spans="2:18">
       <c r="B22" s="54" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C22" s="49" t="s">
         <v>13</v>
@@ -9513,7 +9524,7 @@
     </row>
     <row r="23" spans="2:18">
       <c r="B23" s="54" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C23" s="49" t="s">
         <v>14</v>
@@ -9539,7 +9550,7 @@
     </row>
     <row r="24" spans="2:18">
       <c r="B24" s="148" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C24" s="149"/>
       <c r="D24" s="149"/>
@@ -9553,7 +9564,7 @@
     </row>
     <row r="25" spans="2:18">
       <c r="B25" s="153" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C25" s="154"/>
       <c r="D25" s="154"/>
@@ -9573,7 +9584,7 @@
     </row>
     <row r="26" spans="2:18">
       <c r="B26" s="153" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C26" s="154"/>
       <c r="D26" s="154"/>
@@ -9593,7 +9604,7 @@
     </row>
     <row r="27" spans="2:18">
       <c r="B27" s="153" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C27" s="154"/>
       <c r="D27" s="154"/>
@@ -9613,7 +9624,7 @@
     </row>
     <row r="28" spans="2:18">
       <c r="B28" s="153" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C28" s="154"/>
       <c r="D28" s="154"/>
@@ -9633,7 +9644,7 @@
     </row>
     <row r="29" spans="2:18">
       <c r="B29" s="151" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C29" s="152"/>
       <c r="D29" s="152"/>
@@ -9664,7 +9675,7 @@
     </row>
     <row r="32" spans="2:18">
       <c r="B32" s="143" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="C32" s="144"/>
       <c r="D32" s="144"/>
@@ -9674,22 +9685,22 @@
     </row>
     <row r="33" spans="2:17">
       <c r="B33" s="75" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D33" s="41" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q33" s="62"/>
     </row>
     <row r="34" spans="2:17">
       <c r="B34" s="54" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C34" s="1">
         <v>107</v>
@@ -9704,7 +9715,7 @@
     </row>
     <row r="35" spans="2:17">
       <c r="B35" s="54" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C35" s="1">
         <v>78</v>
@@ -9719,7 +9730,7 @@
     </row>
     <row r="36" spans="2:17">
       <c r="B36" s="54" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C36" s="1">
         <v>107</v>
@@ -9734,7 +9745,7 @@
     </row>
     <row r="37" spans="2:17">
       <c r="B37" s="54" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C37" s="1">
         <v>45</v>
@@ -9749,7 +9760,7 @@
     </row>
     <row r="38" spans="2:17">
       <c r="B38" s="54" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C38" s="1">
         <v>44</v>
@@ -9764,7 +9775,7 @@
     </row>
     <row r="39" spans="2:17">
       <c r="B39" s="54" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C39" s="1">
         <v>169</v>
@@ -9779,7 +9790,7 @@
     </row>
     <row r="40" spans="2:17">
       <c r="B40" s="54" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C40" s="1">
         <v>76</v>
@@ -9794,7 +9805,7 @@
     </row>
     <row r="41" spans="2:17">
       <c r="B41" s="54" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C41" s="1">
         <v>206</v>
@@ -9809,7 +9820,7 @@
     </row>
     <row r="42" spans="2:17">
       <c r="B42" s="54" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C42" s="1">
         <v>206</v>
@@ -9824,7 +9835,7 @@
     </row>
     <row r="43" spans="2:17">
       <c r="B43" s="54" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C43" s="1">
         <v>76</v>
@@ -9839,7 +9850,7 @@
     </row>
     <row r="44" spans="2:17">
       <c r="B44" s="72" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C44" s="73">
         <v>78</v>
@@ -9874,8 +9885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6705ED31-4C6C-0C48-999B-979E962E2EC9}">
   <dimension ref="A2:X83"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P72" sqref="P72"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -9885,7 +9896,7 @@
     <col min="3" max="3" width="33.6640625" style="78" customWidth="1"/>
     <col min="4" max="4" width="31.83203125" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="20.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="76" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="76" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="8.6640625" style="76" hidden="1" customWidth="1"/>
@@ -9905,7 +9916,7 @@
   <sheetData>
     <row r="2" spans="1:23">
       <c r="B2" s="157" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C2" s="157"/>
       <c r="D2" s="157"/>
@@ -9930,7 +9941,7 @@
     </row>
     <row r="4" spans="1:23" s="79" customFormat="1" ht="26" customHeight="1">
       <c r="A4" s="158" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B4" s="158"/>
       <c r="C4" s="158"/>
@@ -9959,19 +9970,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G5" s="80" t="str">
         <f>BPCA!C5</f>
@@ -10005,28 +10016,28 @@
         <v>14</v>
       </c>
       <c r="O5" s="82" t="s">
+        <v>112</v>
+      </c>
+      <c r="P5" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q5" s="83" t="s">
+        <v>154</v>
+      </c>
+      <c r="R5" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="S5" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="T5" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="U5" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="P5" s="83" t="s">
+      <c r="V5" s="85" t="s">
         <v>118</v>
-      </c>
-      <c r="Q5" s="83" t="s">
-        <v>160</v>
-      </c>
-      <c r="R5" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="S5" s="84" t="s">
-        <v>120</v>
-      </c>
-      <c r="T5" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="U5" s="84" t="s">
-        <v>122</v>
-      </c>
-      <c r="V5" s="85" t="s">
-        <v>123</v>
       </c>
       <c r="W5" s="86"/>
     </row>
@@ -10035,7 +10046,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="109" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C6" s="77" t="e" vm="1">
         <v>#VALUE!</v>
@@ -10049,68 +10060,16 @@
       <c r="F6" s="17">
         <v>1</v>
       </c>
-      <c r="G6" s="76">
-        <v>0</v>
-      </c>
-      <c r="H6" s="76">
-        <v>0</v>
-      </c>
-      <c r="I6" s="76">
-        <v>0</v>
-      </c>
-      <c r="J6" s="76">
-        <v>0</v>
-      </c>
-      <c r="K6" s="76">
-        <v>0</v>
-      </c>
-      <c r="L6" s="76">
-        <v>0</v>
-      </c>
-      <c r="M6" s="76">
-        <v>0</v>
-      </c>
-      <c r="N6" s="76">
-        <v>0</v>
-      </c>
-      <c r="O6" s="87">
-        <v>0</v>
-      </c>
-      <c r="P6" s="22">
-        <f t="shared" ref="P6:P39" si="0">(O6/SUM(O$6:O$27)*100)</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="22">
-        <f>IF(O6=0,0,F6*O6/O6)</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="87">
-        <f t="shared" ref="R6:R37" si="1">D6*O6</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="87">
-        <f t="shared" ref="S6:S39" si="2">E6*O6</f>
-        <v>0</v>
-      </c>
-      <c r="T6" s="87">
-        <f>(R6/$R$40*100)</f>
-        <v>0</v>
-      </c>
-      <c r="U6" s="87">
-        <f>(S6/$S$40*100)</f>
-        <v>0</v>
-      </c>
-      <c r="V6" s="88">
-        <f>(12.011*D6)+(1.008*E6)</f>
-        <v>78.114000000000004</v>
-      </c>
+      <c r="O6" s="87"/>
+      <c r="R6" s="87"/>
+      <c r="S6" s="87"/>
     </row>
     <row r="7" spans="1:23" ht="82" customHeight="1">
       <c r="A7" s="17">
         <v>1</v>
       </c>
       <c r="B7" s="109" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C7" s="77" t="e" vm="2">
         <v>#VALUE!</v>
@@ -10153,19 +10112,19 @@
         <v>0</v>
       </c>
       <c r="P7" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="P7:P39" si="0">(O7/SUM(O$6:O$27)*100)</f>
         <v>0</v>
       </c>
       <c r="Q7" s="22">
-        <f t="shared" ref="Q7:Q39" si="3">IF(O7=0,0,F7*O7/O7)</f>
+        <f t="shared" ref="Q7:Q39" si="1">IF(O7=0,0,F7*O7/O7)</f>
         <v>0</v>
       </c>
       <c r="R7" s="87">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="R7:R37" si="2">D7*O7</f>
         <v>0</v>
       </c>
       <c r="S7" s="87">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="S7:S39" si="3">E7*O7</f>
         <v>0</v>
       </c>
       <c r="T7" s="87">
@@ -10177,7 +10136,7 @@
         <v>0</v>
       </c>
       <c r="V7" s="88">
-        <f t="shared" ref="V6:V39" si="6">(12.011*D7)+(1.008*E7)</f>
+        <f t="shared" ref="V7:V39" si="6">(12.011*D7)+(1.008*E7)</f>
         <v>166.22300000000001</v>
       </c>
     </row>
@@ -10186,7 +10145,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="109" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C8" s="77" t="e" vm="3">
         <v>#VALUE!</v>
@@ -10232,15 +10191,15 @@
         <v>5.1282051282051277</v>
       </c>
       <c r="Q8" s="22">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="R8" s="87">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="S8" s="87">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="R8" s="87">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="S8" s="87">
-        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="T8" s="87">
@@ -10261,7 +10220,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="109" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C9" s="77" t="e" vm="4">
         <v>#VALUE!</v>
@@ -10309,15 +10268,15 @@
         <v>0</v>
       </c>
       <c r="Q9" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="87">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="87">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T9" s="87">
@@ -10385,15 +10344,15 @@
         <v>0</v>
       </c>
       <c r="Q10" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="87">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S10" s="87">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T10" s="87">
@@ -10414,7 +10373,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="109" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C11" s="77" t="e" vm="6">
         <v>#VALUE!</v>
@@ -10462,15 +10421,15 @@
         <v>0</v>
       </c>
       <c r="Q11" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="87">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S11" s="87">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T11" s="87">
@@ -10491,7 +10450,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="109" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C12" s="77" t="e" vm="7">
         <v>#VALUE!</v>
@@ -10538,15 +10497,15 @@
         <v>12.820512820512819</v>
       </c>
       <c r="Q12" s="22">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="R12" s="87">
+        <f t="shared" si="2"/>
+        <v>220</v>
+      </c>
+      <c r="S12" s="87">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="R12" s="87">
-        <f t="shared" si="1"/>
-        <v>220</v>
-      </c>
-      <c r="S12" s="87">
-        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="T12" s="87">
@@ -10615,15 +10574,15 @@
         <v>0</v>
       </c>
       <c r="Q13" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="87">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S13" s="87">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T13" s="87">
@@ -10690,15 +10649,15 @@
         <v>0</v>
       </c>
       <c r="Q14" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="87">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="87">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T14" s="87">
@@ -10719,7 +10678,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="109" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C15" s="77" t="e" vm="10">
         <v>#VALUE!</v>
@@ -10767,15 +10726,15 @@
         <v>0</v>
       </c>
       <c r="Q15" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="87">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S15" s="87">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T15" s="87">
@@ -10796,7 +10755,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="109" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C16" s="77" t="e" vm="11">
         <v>#VALUE!</v>
@@ -10844,15 +10803,15 @@
         <v>0</v>
       </c>
       <c r="Q16" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="87">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S16" s="87">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T16" s="87">
@@ -10873,7 +10832,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="109" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C17" s="77" t="e" vm="12">
         <v>#VALUE!</v>
@@ -10921,15 +10880,15 @@
         <v>0</v>
       </c>
       <c r="Q17" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="87">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S17" s="87">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T17" s="87">
@@ -10998,15 +10957,15 @@
         <v>0</v>
       </c>
       <c r="Q18" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="87">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S18" s="87">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T18" s="87">
@@ -11075,15 +11034,15 @@
         <v>0</v>
       </c>
       <c r="Q19" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="87">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R19" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S19" s="87">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T19" s="87">
@@ -11104,7 +11063,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="109" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C20" s="78" t="e" vm="15">
         <v>#VALUE!</v>
@@ -11152,15 +11111,15 @@
         <v>0</v>
       </c>
       <c r="Q20" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="87">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S20" s="87">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T20" s="87">
@@ -11181,7 +11140,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="109" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C21" s="78" t="e" vm="16">
         <v>#VALUE!</v>
@@ -11230,15 +11189,15 @@
         <v>0</v>
       </c>
       <c r="Q21" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="87">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S21" s="87">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T21" s="87">
@@ -11259,7 +11218,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="109" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C22" s="77" t="e" vm="17">
         <v>#VALUE!</v>
@@ -11308,15 +11267,15 @@
         <v>14.102564102564102</v>
       </c>
       <c r="Q22" s="22">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="R22" s="87">
+        <f t="shared" si="2"/>
+        <v>462</v>
+      </c>
+      <c r="S22" s="87">
         <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="R22" s="87">
-        <f t="shared" si="1"/>
-        <v>462</v>
-      </c>
-      <c r="S22" s="87">
-        <f t="shared" si="2"/>
         <v>176</v>
       </c>
       <c r="T22" s="87">
@@ -11337,7 +11296,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="109" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C23" s="77" t="e" vm="18">
         <v>#VALUE!</v>
@@ -11386,15 +11345,15 @@
         <v>0</v>
       </c>
       <c r="Q23" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S23" s="87">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S23" s="87">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T23" s="87">
@@ -11415,7 +11374,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="109" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C24" s="77" t="e" vm="19">
         <v>#VALUE!</v>
@@ -11464,15 +11423,15 @@
         <v>0</v>
       </c>
       <c r="Q24" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="87">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R24" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S24" s="87">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T24" s="87">
@@ -11493,7 +11452,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="109" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C25" s="77" t="e" vm="20">
         <v>#VALUE!</v>
@@ -11542,15 +11501,15 @@
         <v>67.948717948717956</v>
       </c>
       <c r="Q25" s="22">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="R25" s="87">
+        <f t="shared" si="2"/>
+        <v>3710</v>
+      </c>
+      <c r="S25" s="87">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="R25" s="87">
-        <f t="shared" si="1"/>
-        <v>3710</v>
-      </c>
-      <c r="S25" s="87">
-        <f t="shared" si="2"/>
         <v>1166</v>
       </c>
       <c r="T25" s="87">
@@ -11571,7 +11530,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="109" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C26" s="77" t="e" vm="21">
         <v>#VALUE!</v>
@@ -11621,15 +11580,15 @@
         <v>0</v>
       </c>
       <c r="Q26" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="87">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S26" s="87">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T26" s="87">
@@ -11650,7 +11609,7 @@
         <v>21</v>
       </c>
       <c r="B27" s="110" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C27" s="77" t="e" vm="22">
         <v>#VALUE!</v>
@@ -11698,15 +11657,15 @@
         <v>0</v>
       </c>
       <c r="Q27" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="87">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S27" s="87">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T27" s="87">
@@ -11727,7 +11686,7 @@
         <v>22</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C28" s="77" t="e" vm="23">
         <v>#VALUE!</v>
@@ -11771,15 +11730,15 @@
         <v>15.384615384615385</v>
       </c>
       <c r="Q28" s="22">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="R28" s="87">
+        <f t="shared" si="2"/>
+        <v>228</v>
+      </c>
+      <c r="S28" s="87">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="R28" s="87">
-        <f t="shared" si="1"/>
-        <v>228</v>
-      </c>
-      <c r="S28" s="87">
-        <f t="shared" si="2"/>
         <v>132</v>
       </c>
       <c r="T28" s="87">
@@ -11800,7 +11759,7 @@
         <v>23</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C29" s="77" t="e" vm="24">
         <v>#VALUE!</v>
@@ -11845,15 +11804,15 @@
         <v>0</v>
       </c>
       <c r="Q29" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="87">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S29" s="87">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T29" s="87">
@@ -11874,7 +11833,7 @@
         <v>24</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C30" s="77" t="e" vm="25">
         <v>#VALUE!</v>
@@ -11919,15 +11878,15 @@
         <v>0</v>
       </c>
       <c r="Q30" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="87">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S30" s="87">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T30" s="87">
@@ -11948,7 +11907,7 @@
         <v>25</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C31" s="77" t="e" vm="26">
         <v>#VALUE!</v>
@@ -11993,15 +11952,15 @@
         <v>0</v>
       </c>
       <c r="Q31" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="87">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R31" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S31" s="87">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T31" s="87">
@@ -12022,7 +11981,7 @@
         <v>26</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C32" s="77" t="e" vm="27">
         <v>#VALUE!</v>
@@ -12067,15 +12026,15 @@
         <v>0</v>
       </c>
       <c r="Q32" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="87">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R32" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S32" s="87">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T32" s="87">
@@ -12096,7 +12055,7 @@
         <v>27</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C33" s="77" t="e" vm="28">
         <v>#VALUE!</v>
@@ -12141,15 +12100,15 @@
         <v>0</v>
       </c>
       <c r="Q33" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="87">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R33" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S33" s="87">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T33" s="87">
@@ -12170,7 +12129,7 @@
         <v>28</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C34" s="77" t="e" vm="29">
         <v>#VALUE!</v>
@@ -12213,15 +12172,15 @@
         <v>0</v>
       </c>
       <c r="Q34" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="87">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R34" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S34" s="87">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T34" s="87">
@@ -12242,7 +12201,7 @@
         <v>29</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C35" s="77" t="e" vm="30">
         <v>#VALUE!</v>
@@ -12286,15 +12245,15 @@
         <v>0</v>
       </c>
       <c r="Q35" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="87">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R35" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S35" s="87">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T35" s="87">
@@ -12315,7 +12274,7 @@
         <v>30</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C36" s="77" t="e" vm="31">
         <v>#VALUE!</v>
@@ -12360,15 +12319,15 @@
         <v>0</v>
       </c>
       <c r="Q36" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="87">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R36" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S36" s="87">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T36" s="87">
@@ -12389,7 +12348,7 @@
         <v>31</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C37" s="77" t="e" vm="32">
         <v>#VALUE!</v>
@@ -12435,15 +12394,15 @@
         <v>0</v>
       </c>
       <c r="Q37" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="87">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R37" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S37" s="87">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T37" s="87">
@@ -12464,7 +12423,7 @@
         <v>32</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C38" s="77" t="e" vm="33">
         <v>#VALUE!</v>
@@ -12509,7 +12468,7 @@
         <v>0</v>
       </c>
       <c r="Q38" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R38" s="87">
@@ -12517,7 +12476,7 @@
         <v>0</v>
       </c>
       <c r="S38" s="87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T38" s="87">
@@ -12538,7 +12497,7 @@
         <v>33</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C39" s="77" t="e" vm="34">
         <v>#VALUE!</v>
@@ -12582,7 +12541,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R39" s="87">
@@ -12590,7 +12549,7 @@
         <v>0</v>
       </c>
       <c r="S39" s="87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T39" s="87">
@@ -12667,7 +12626,7 @@
       <c r="C41" s="77"/>
       <c r="D41" s="1"/>
       <c r="F41" s="90" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G41" s="159">
         <f>SUM(G40:N40)</f>
@@ -12687,7 +12646,7 @@
       <c r="D42" s="1"/>
       <c r="F42" s="90"/>
       <c r="G42" s="84" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H42" s="84" t="s">
         <v>18</v>
@@ -12696,7 +12655,7 @@
         <v>11</v>
       </c>
       <c r="J42" s="84" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K42" s="84" t="s">
         <v>12</v>
@@ -12716,7 +12675,7 @@
       <c r="C43" s="77"/>
       <c r="D43" s="1"/>
       <c r="F43" s="49" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G43" s="91">
         <f>G40/$G$41</f>
@@ -12796,7 +12755,7 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="92" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G45" s="91">
         <f>BPCA_Experimental!E17</f>
@@ -12830,7 +12789,7 @@
     <row r="46" spans="1:22">
       <c r="D46" s="1"/>
       <c r="F46" s="94" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G46" s="76">
         <f>ABS(G43-G44)/G44</f>
@@ -12868,7 +12827,7 @@
       <c r="D48" s="1"/>
       <c r="E48" s="77"/>
       <c r="F48" s="94" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G48" s="87">
         <f>Q40</f>
@@ -12880,14 +12839,14 @@
       <c r="D49" s="1"/>
       <c r="E49" s="96"/>
       <c r="F49" s="97" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G49" s="76">
         <f>BPCA_Experimental!E29</f>
         <v>0.62707194387944809</v>
       </c>
       <c r="H49" s="156" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="I49" s="156"/>
       <c r="J49" s="156"/>
@@ -12901,7 +12860,7 @@
       <c r="D50" s="1"/>
       <c r="E50" s="96"/>
       <c r="F50" s="97" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G50" s="76">
         <f>G49*G55</f>
@@ -12919,7 +12878,7 @@
     <row r="51" spans="1:24" ht="13" customHeight="1">
       <c r="D51" s="1"/>
       <c r="F51" s="97" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G51" s="76">
         <f>S40/R40</f>
@@ -12938,7 +12897,7 @@
     <row r="52" spans="1:24">
       <c r="D52" s="1"/>
       <c r="F52" s="97" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G52" s="76">
         <f>G50-G51</f>
@@ -12962,7 +12921,7 @@
     <row r="54" spans="1:24">
       <c r="D54" s="1"/>
       <c r="F54" s="98" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G54" s="99">
         <v>10000</v>
@@ -12973,14 +12932,14 @@
     <row r="55" spans="1:24" ht="16" customHeight="1">
       <c r="D55" s="1"/>
       <c r="F55" s="92" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G55" s="91">
         <f>BPCA_Experimental!E25</f>
         <v>0.51</v>
       </c>
       <c r="H55" s="156" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="I55" s="156"/>
       <c r="J55" s="156"/>
@@ -12995,7 +12954,7 @@
       <c r="D56" s="1"/>
       <c r="E56" s="77"/>
       <c r="F56" s="92" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G56" s="91">
         <f>R40/(G54-S40)</f>
@@ -13611,8 +13570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA90EBAA-0722-804E-9963-5CBF954104AC}">
   <dimension ref="A2:X83"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O74" sqref="O74"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49:N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -13622,7 +13581,7 @@
     <col min="3" max="3" width="33.6640625" style="78" customWidth="1"/>
     <col min="4" max="4" width="31.83203125" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="20.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.1640625" style="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="76" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="76" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="8.6640625" style="76" hidden="1" customWidth="1"/>
@@ -13642,7 +13601,7 @@
   <sheetData>
     <row r="2" spans="1:23">
       <c r="B2" s="157" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C2" s="157"/>
       <c r="D2" s="157"/>
@@ -13667,7 +13626,7 @@
     </row>
     <row r="4" spans="1:23" s="79" customFormat="1" ht="26" customHeight="1">
       <c r="A4" s="158" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B4" s="158"/>
       <c r="C4" s="158"/>
@@ -13696,19 +13655,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G5" s="80" t="str">
         <f>BPCA!C5</f>
@@ -13742,28 +13701,28 @@
         <v>14</v>
       </c>
       <c r="O5" s="82" t="s">
+        <v>112</v>
+      </c>
+      <c r="P5" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q5" s="83" t="s">
+        <v>154</v>
+      </c>
+      <c r="R5" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="S5" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="T5" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="U5" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="P5" s="83" t="s">
+      <c r="V5" s="85" t="s">
         <v>118</v>
-      </c>
-      <c r="Q5" s="83" t="s">
-        <v>160</v>
-      </c>
-      <c r="R5" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="S5" s="84" t="s">
-        <v>120</v>
-      </c>
-      <c r="T5" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="U5" s="84" t="s">
-        <v>122</v>
-      </c>
-      <c r="V5" s="85" t="s">
-        <v>123</v>
       </c>
       <c r="W5" s="86"/>
     </row>
@@ -13772,7 +13731,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="109" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C6" s="77" t="e" vm="1">
         <v>#VALUE!</v>
@@ -13786,68 +13745,16 @@
       <c r="F6" s="17">
         <v>1</v>
       </c>
-      <c r="G6" s="76">
-        <v>0</v>
-      </c>
-      <c r="H6" s="76">
-        <v>0</v>
-      </c>
-      <c r="I6" s="76">
-        <v>0</v>
-      </c>
-      <c r="J6" s="76">
-        <v>0</v>
-      </c>
-      <c r="K6" s="76">
-        <v>0</v>
-      </c>
-      <c r="L6" s="76">
-        <v>0</v>
-      </c>
-      <c r="M6" s="76">
-        <v>0</v>
-      </c>
-      <c r="N6" s="76">
-        <v>0</v>
-      </c>
-      <c r="O6" s="87">
-        <v>0</v>
-      </c>
-      <c r="P6" s="22">
-        <f t="shared" ref="P6:P39" si="0">(O6/SUM(O$6:O$27)*100)</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="22">
-        <f>IF(O6=0,0,F6*O6/O6)</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="87">
-        <f t="shared" ref="R6:R37" si="1">D6*O6</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="87">
-        <f t="shared" ref="S6:S39" si="2">E6*O6</f>
-        <v>0</v>
-      </c>
-      <c r="T6" s="87">
-        <f>(R6/$R$40*100)</f>
-        <v>0</v>
-      </c>
-      <c r="U6" s="87">
-        <f>(S6/$S$40*100)</f>
-        <v>0</v>
-      </c>
-      <c r="V6" s="88">
-        <f t="shared" ref="V6:V39" si="3">(12.011*D6)+(1.008*E6)</f>
-        <v>78.114000000000004</v>
-      </c>
+      <c r="O6" s="87"/>
+      <c r="R6" s="87"/>
+      <c r="S6" s="87"/>
     </row>
     <row r="7" spans="1:23" ht="82" customHeight="1">
       <c r="A7" s="17">
         <v>1</v>
       </c>
       <c r="B7" s="109" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C7" s="77" t="e" vm="2">
         <v>#VALUE!</v>
@@ -13890,31 +13797,31 @@
         <v>0</v>
       </c>
       <c r="P7" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="P7:P39" si="0">(O7/SUM(O$6:O$27)*100)</f>
         <v>0</v>
       </c>
       <c r="Q7" s="22">
-        <f t="shared" ref="Q7:Q39" si="4">IF(O7=0,0,F7*O7/O7)</f>
+        <f t="shared" ref="Q7:Q39" si="1">IF(O7=0,0,F7*O7/O7)</f>
         <v>0</v>
       </c>
       <c r="R7" s="87">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="R7:R37" si="2">D7*O7</f>
         <v>0</v>
       </c>
       <c r="S7" s="87">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="S7:S39" si="3">E7*O7</f>
         <v>0</v>
       </c>
       <c r="T7" s="87">
-        <f t="shared" ref="T7:T39" si="5">(R7/$R$40*100)</f>
+        <f t="shared" ref="T7:T39" si="4">(R7/$R$40*100)</f>
         <v>0</v>
       </c>
       <c r="U7" s="87">
-        <f t="shared" ref="U7:U39" si="6">(S7/$S$40*100)</f>
+        <f t="shared" ref="U7:U39" si="5">(S7/$S$40*100)</f>
         <v>0</v>
       </c>
       <c r="V7" s="88">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="V7:V39" si="6">(12.011*D7)+(1.008*E7)</f>
         <v>166.22300000000001</v>
       </c>
     </row>
@@ -13923,7 +13830,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="109" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C8" s="77" t="e" vm="3">
         <v>#VALUE!</v>
@@ -13969,27 +13876,27 @@
         <v>3.1914893617021276</v>
       </c>
       <c r="Q8" s="22">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="R8" s="87">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="S8" s="87">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="T8" s="87">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="R8" s="87">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="S8" s="87">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="T8" s="87">
+        <v>0.63363119415109659</v>
+      </c>
+      <c r="U8" s="87">
         <f t="shared" si="5"/>
-        <v>0.63363119415109659</v>
-      </c>
-      <c r="U8" s="87">
+        <v>1.41643059490085</v>
+      </c>
+      <c r="V8" s="88">
         <f t="shared" si="6"/>
-        <v>1.41643059490085</v>
-      </c>
-      <c r="V8" s="88">
-        <f t="shared" si="3"/>
         <v>166.22300000000001</v>
       </c>
     </row>
@@ -13998,7 +13905,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="109" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C9" s="77" t="e" vm="4">
         <v>#VALUE!</v>
@@ -14046,27 +13953,27 @@
         <v>0</v>
       </c>
       <c r="Q9" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R9" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T9" s="87">
+      <c r="U9" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U9" s="87">
+      <c r="V9" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V9" s="88">
-        <f t="shared" si="3"/>
         <v>178.23400000000001</v>
       </c>
     </row>
@@ -14122,27 +14029,27 @@
         <v>0</v>
       </c>
       <c r="Q10" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R10" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S10" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T10" s="87">
+      <c r="U10" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U10" s="87">
+      <c r="V10" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V10" s="88">
-        <f t="shared" si="3"/>
         <v>178.23400000000001</v>
       </c>
     </row>
@@ -14151,7 +14058,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="109" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C11" s="77" t="e" vm="6">
         <v>#VALUE!</v>
@@ -14199,19 +14106,19 @@
         <v>0</v>
       </c>
       <c r="Q11" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="87">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S11" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T11" s="87">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U11" s="87">
@@ -14219,7 +14126,7 @@
         <v>0</v>
       </c>
       <c r="V11" s="88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>228.29399999999998</v>
       </c>
     </row>
@@ -14228,7 +14135,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="109" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C12" s="77" t="e" vm="7">
         <v>#VALUE!</v>
@@ -14275,27 +14182,27 @@
         <v>10.638297872340425</v>
       </c>
       <c r="Q12" s="22">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="R12" s="87">
+        <f t="shared" si="2"/>
+        <v>220</v>
+      </c>
+      <c r="S12" s="87">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+      <c r="T12" s="87">
         <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="R12" s="87">
-        <f t="shared" si="1"/>
-        <v>220</v>
-      </c>
-      <c r="S12" s="87">
-        <f t="shared" si="2"/>
-        <v>140</v>
-      </c>
-      <c r="T12" s="87">
+        <v>3.5743298131600327</v>
+      </c>
+      <c r="U12" s="87">
         <f t="shared" si="5"/>
-        <v>3.5743298131600327</v>
-      </c>
-      <c r="U12" s="87">
+        <v>6.6100094428706333</v>
+      </c>
+      <c r="V12" s="88">
         <f t="shared" si="6"/>
-        <v>6.6100094428706333</v>
-      </c>
-      <c r="V12" s="88">
-        <f t="shared" si="3"/>
         <v>278.35399999999998</v>
       </c>
     </row>
@@ -14352,27 +14259,27 @@
         <v>0</v>
       </c>
       <c r="Q13" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R13" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S13" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T13" s="87">
+      <c r="U13" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U13" s="87">
+      <c r="V13" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V13" s="88">
-        <f t="shared" si="3"/>
         <v>202.256</v>
       </c>
     </row>
@@ -14427,27 +14334,27 @@
         <v>0</v>
       </c>
       <c r="Q14" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R14" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="87">
+      <c r="U14" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U14" s="87">
+      <c r="V14" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V14" s="88">
-        <f t="shared" si="3"/>
         <v>228.29399999999998</v>
       </c>
     </row>
@@ -14456,7 +14363,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="109" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C15" s="77" t="e" vm="10">
         <v>#VALUE!</v>
@@ -14504,27 +14411,27 @@
         <v>0</v>
       </c>
       <c r="Q15" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R15" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S15" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T15" s="87">
+      <c r="U15" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U15" s="87">
+      <c r="V15" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V15" s="88">
-        <f t="shared" si="3"/>
         <v>216.28299999999999</v>
       </c>
     </row>
@@ -14533,7 +14440,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="109" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C16" s="77" t="e" vm="11">
         <v>#VALUE!</v>
@@ -14581,27 +14488,27 @@
         <v>0</v>
       </c>
       <c r="Q16" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R16" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S16" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="87">
+      <c r="U16" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U16" s="87">
+      <c r="V16" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V16" s="88">
-        <f t="shared" si="3"/>
         <v>252.31599999999997</v>
       </c>
     </row>
@@ -14610,7 +14517,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="109" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C17" s="77" t="e" vm="12">
         <v>#VALUE!</v>
@@ -14658,27 +14565,27 @@
         <v>0</v>
       </c>
       <c r="Q17" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R17" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S17" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T17" s="87">
+      <c r="U17" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U17" s="87">
+      <c r="V17" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V17" s="88">
-        <f t="shared" si="3"/>
         <v>216.28299999999999</v>
       </c>
     </row>
@@ -14735,27 +14642,27 @@
         <v>0</v>
       </c>
       <c r="Q18" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R18" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S18" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T18" s="87">
+      <c r="U18" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U18" s="87">
+      <c r="V18" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V18" s="88">
-        <f t="shared" si="3"/>
         <v>300.36</v>
       </c>
     </row>
@@ -14812,27 +14719,27 @@
         <v>2.1276595744680851</v>
       </c>
       <c r="Q19" s="22">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="R19" s="87">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="S19" s="87">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="T19" s="87">
         <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="R19" s="87">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="S19" s="87">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="T19" s="87">
+        <v>0.6498781478472786</v>
+      </c>
+      <c r="U19" s="87">
         <f t="shared" si="5"/>
-        <v>0.6498781478472786</v>
-      </c>
-      <c r="U19" s="87">
+        <v>1.1331444759206799</v>
+      </c>
+      <c r="V19" s="88">
         <f t="shared" si="6"/>
-        <v>1.1331444759206799</v>
-      </c>
-      <c r="V19" s="88">
-        <f t="shared" si="3"/>
         <v>252.31599999999997</v>
       </c>
     </row>
@@ -14841,7 +14748,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="109" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C20" s="78" t="e" vm="15">
         <v>#VALUE!</v>
@@ -14889,27 +14796,27 @@
         <v>0</v>
       </c>
       <c r="Q20" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R20" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S20" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T20" s="87">
+      <c r="U20" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U20" s="87">
+      <c r="V20" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V20" s="88">
-        <f t="shared" si="3"/>
         <v>252.31599999999997</v>
       </c>
     </row>
@@ -14918,7 +14825,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="109" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C21" s="78" t="e" vm="16">
         <v>#VALUE!</v>
@@ -14967,27 +14874,27 @@
         <v>0</v>
       </c>
       <c r="Q21" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R21" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S21" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T21" s="87">
+      <c r="U21" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U21" s="87">
+      <c r="V21" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V21" s="88">
-        <f t="shared" si="3"/>
         <v>276.33799999999997</v>
       </c>
     </row>
@@ -14996,7 +14903,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="109" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C22" s="77" t="e" vm="17">
         <v>#VALUE!</v>
@@ -15045,27 +14952,27 @@
         <v>0</v>
       </c>
       <c r="Q22" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R22" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S22" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="87">
+      <c r="U22" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U22" s="87">
+      <c r="V22" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V22" s="88">
-        <f t="shared" si="3"/>
         <v>520.59</v>
       </c>
     </row>
@@ -15074,7 +14981,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="109" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C23" s="77" t="e" vm="18">
         <v>#VALUE!</v>
@@ -15123,27 +15030,27 @@
         <v>11.702127659574469</v>
       </c>
       <c r="Q23" s="22">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="R23" s="87">
+        <f t="shared" si="2"/>
+        <v>594</v>
+      </c>
+      <c r="S23" s="87">
+        <f t="shared" si="3"/>
+        <v>198</v>
+      </c>
+      <c r="T23" s="87">
         <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="R23" s="87">
-        <f t="shared" si="1"/>
-        <v>594</v>
-      </c>
-      <c r="S23" s="87">
-        <f t="shared" si="2"/>
-        <v>198</v>
-      </c>
-      <c r="T23" s="87">
+        <v>9.6506904955320891</v>
+      </c>
+      <c r="U23" s="87">
         <f t="shared" si="5"/>
-        <v>9.6506904955320891</v>
-      </c>
-      <c r="U23" s="87">
+        <v>9.3484419263456093</v>
+      </c>
+      <c r="V23" s="88">
         <f t="shared" si="6"/>
-        <v>9.3484419263456093</v>
-      </c>
-      <c r="V23" s="88">
-        <f t="shared" si="3"/>
         <v>666.73799999999994</v>
       </c>
     </row>
@@ -15152,7 +15059,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="109" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C24" s="77" t="e" vm="19">
         <v>#VALUE!</v>
@@ -15201,27 +15108,27 @@
         <v>3.1914893617021276</v>
       </c>
       <c r="Q24" s="22">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="R24" s="87">
+        <f t="shared" si="2"/>
+        <v>198</v>
+      </c>
+      <c r="S24" s="87">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="T24" s="87">
         <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="R24" s="87">
-        <f t="shared" si="1"/>
-        <v>198</v>
-      </c>
-      <c r="S24" s="87">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="T24" s="87">
+        <v>3.2168968318440294</v>
+      </c>
+      <c r="U24" s="87">
         <f t="shared" si="5"/>
-        <v>3.2168968318440294</v>
-      </c>
-      <c r="U24" s="87">
+        <v>2.8328611898017</v>
+      </c>
+      <c r="V24" s="88">
         <f t="shared" si="6"/>
-        <v>2.8328611898017</v>
-      </c>
-      <c r="V24" s="88">
-        <f t="shared" si="3"/>
         <v>812.88599999999997</v>
       </c>
     </row>
@@ -15230,7 +15137,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="109" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C25" s="77" t="e" vm="20">
         <v>#VALUE!</v>
@@ -15279,27 +15186,27 @@
         <v>65.957446808510639</v>
       </c>
       <c r="Q25" s="22">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="R25" s="87">
+        <f t="shared" si="2"/>
+        <v>4340</v>
+      </c>
+      <c r="S25" s="87">
+        <f t="shared" si="3"/>
+        <v>1364</v>
+      </c>
+      <c r="T25" s="87">
         <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="R25" s="87">
-        <f t="shared" si="1"/>
-        <v>4340</v>
-      </c>
-      <c r="S25" s="87">
-        <f t="shared" si="2"/>
-        <v>1364</v>
-      </c>
-      <c r="T25" s="87">
+        <v>70.511779041429733</v>
+      </c>
+      <c r="U25" s="87">
         <f t="shared" si="5"/>
-        <v>70.511779041429733</v>
-      </c>
-      <c r="U25" s="87">
+        <v>64.400377714825311</v>
+      </c>
+      <c r="V25" s="88">
         <f t="shared" si="6"/>
-        <v>64.400377714825311</v>
-      </c>
-      <c r="V25" s="88">
-        <f t="shared" si="3"/>
         <v>862.94600000000003</v>
       </c>
     </row>
@@ -15308,7 +15215,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="109" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C26" s="77" t="e" vm="21">
         <v>#VALUE!</v>
@@ -15358,27 +15265,27 @@
         <v>3.1914893617021276</v>
       </c>
       <c r="Q26" s="22">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="R26" s="87">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="S26" s="87">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="T26" s="87">
         <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="R26" s="87">
-        <f t="shared" si="1"/>
-        <v>240</v>
-      </c>
-      <c r="S26" s="87">
-        <f t="shared" si="2"/>
-        <v>66</v>
-      </c>
-      <c r="T26" s="87">
+        <v>3.899268887083672</v>
+      </c>
+      <c r="U26" s="87">
         <f t="shared" si="5"/>
-        <v>3.899268887083672</v>
-      </c>
-      <c r="U26" s="87">
+        <v>3.1161473087818696</v>
+      </c>
+      <c r="V26" s="88">
         <f t="shared" si="6"/>
-        <v>3.1161473087818696</v>
-      </c>
-      <c r="V26" s="88">
-        <f t="shared" si="3"/>
         <v>983.05599999999993</v>
       </c>
     </row>
@@ -15387,7 +15294,7 @@
         <v>21</v>
       </c>
       <c r="B27" s="110" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C27" s="77" t="e" vm="22">
         <v>#VALUE!</v>
@@ -15435,27 +15342,27 @@
         <v>0</v>
       </c>
       <c r="Q27" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R27" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S27" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T27" s="87">
+      <c r="U27" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U27" s="87">
+      <c r="V27" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V27" s="88">
-        <f t="shared" si="3"/>
         <v>1033.116</v>
       </c>
     </row>
@@ -15464,7 +15371,7 @@
         <v>22</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C28" s="77" t="e" vm="23">
         <v>#VALUE!</v>
@@ -15508,27 +15415,27 @@
         <v>0</v>
       </c>
       <c r="Q28" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R28" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S28" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T28" s="87">
+      <c r="U28" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U28" s="87">
+      <c r="V28" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V28" s="88">
-        <f t="shared" si="3"/>
         <v>239.29699999999997</v>
       </c>
     </row>
@@ -15537,7 +15444,7 @@
         <v>23</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C29" s="77" t="e" vm="24">
         <v>#VALUE!</v>
@@ -15582,27 +15489,27 @@
         <v>7.4468085106382977</v>
       </c>
       <c r="Q29" s="22">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="R29" s="87">
+        <f t="shared" si="2"/>
+        <v>189</v>
+      </c>
+      <c r="S29" s="87">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="T29" s="87">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="R29" s="87">
-        <f t="shared" si="1"/>
-        <v>189</v>
-      </c>
-      <c r="S29" s="87">
-        <f t="shared" si="2"/>
-        <v>98</v>
-      </c>
-      <c r="T29" s="87">
+        <v>3.0706742485783916</v>
+      </c>
+      <c r="U29" s="87">
         <f t="shared" si="5"/>
-        <v>3.0706742485783916</v>
-      </c>
-      <c r="U29" s="87">
+        <v>4.6270066100094436</v>
+      </c>
+      <c r="V29" s="88">
         <f t="shared" si="6"/>
-        <v>4.6270066100094436</v>
-      </c>
-      <c r="V29" s="88">
-        <f t="shared" si="3"/>
         <v>338.40899999999999</v>
       </c>
     </row>
@@ -15611,7 +15518,7 @@
         <v>24</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C30" s="77" t="e" vm="25">
         <v>#VALUE!</v>
@@ -15656,27 +15563,27 @@
         <v>3.1914893617021276</v>
       </c>
       <c r="Q30" s="22">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="R30" s="87">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="S30" s="87">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="T30" s="87">
         <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="R30" s="87">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="S30" s="87">
-        <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="T30" s="87">
+        <v>1.4622258326563771</v>
+      </c>
+      <c r="U30" s="87">
         <f t="shared" si="5"/>
-        <v>1.4622258326563771</v>
-      </c>
-      <c r="U30" s="87">
+        <v>2.1246458923512748</v>
+      </c>
+      <c r="V30" s="88">
         <f t="shared" si="6"/>
-        <v>2.1246458923512748</v>
-      </c>
-      <c r="V30" s="88">
-        <f t="shared" si="3"/>
         <v>375.45</v>
       </c>
     </row>
@@ -15685,7 +15592,7 @@
         <v>25</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C31" s="77" t="e" vm="26">
         <v>#VALUE!</v>
@@ -15730,27 +15637,27 @@
         <v>1.0638297872340425</v>
       </c>
       <c r="Q31" s="22">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="R31" s="87">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="S31" s="87">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="T31" s="87">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="R31" s="87">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="S31" s="87">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="T31" s="87">
+        <v>0.53614947197400487</v>
+      </c>
+      <c r="U31" s="87">
         <f t="shared" si="5"/>
-        <v>0.53614947197400487</v>
-      </c>
-      <c r="U31" s="87">
+        <v>0.80264400377714828</v>
+      </c>
+      <c r="V31" s="88">
         <f t="shared" si="6"/>
-        <v>0.80264400377714828</v>
-      </c>
-      <c r="V31" s="88">
-        <f t="shared" si="3"/>
         <v>413.49900000000002</v>
       </c>
     </row>
@@ -15759,7 +15666,7 @@
         <v>26</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C32" s="77" t="e" vm="27">
         <v>#VALUE!</v>
@@ -15804,27 +15711,27 @@
         <v>2.1276595744680851</v>
       </c>
       <c r="Q32" s="22">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="R32" s="87">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="S32" s="87">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="T32" s="87">
         <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="R32" s="87">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="S32" s="87">
-        <f t="shared" si="2"/>
-        <v>38</v>
-      </c>
-      <c r="T32" s="87">
+        <v>1.1697806661251016</v>
+      </c>
+      <c r="U32" s="87">
         <f t="shared" si="5"/>
-        <v>1.1697806661251016</v>
-      </c>
-      <c r="U32" s="87">
+        <v>1.7941454202077429</v>
+      </c>
+      <c r="V32" s="88">
         <f t="shared" si="6"/>
-        <v>1.7941454202077429</v>
-      </c>
-      <c r="V32" s="88">
-        <f t="shared" si="3"/>
         <v>451.54799999999994</v>
       </c>
     </row>
@@ -15833,7 +15740,7 @@
         <v>27</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C33" s="77" t="e" vm="28">
         <v>#VALUE!</v>
@@ -15878,27 +15785,27 @@
         <v>0</v>
       </c>
       <c r="Q33" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R33" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S33" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T33" s="87">
+      <c r="U33" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U33" s="87">
+      <c r="V33" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V33" s="88">
-        <f t="shared" si="3"/>
         <v>489.59699999999998</v>
       </c>
     </row>
@@ -15907,7 +15814,7 @@
         <v>28</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C34" s="77" t="e" vm="29">
         <v>#VALUE!</v>
@@ -15950,27 +15857,27 @@
         <v>0</v>
       </c>
       <c r="Q34" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R34" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S34" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T34" s="87">
+      <c r="U34" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U34" s="87">
+      <c r="V34" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V34" s="88">
-        <f t="shared" si="3"/>
         <v>527.64599999999996</v>
       </c>
     </row>
@@ -15979,7 +15886,7 @@
         <v>29</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C35" s="77" t="e" vm="30">
         <v>#VALUE!</v>
@@ -16023,27 +15930,27 @@
         <v>0</v>
       </c>
       <c r="Q35" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R35" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S35" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T35" s="87">
+      <c r="U35" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U35" s="87">
+      <c r="V35" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V35" s="88">
-        <f t="shared" si="3"/>
         <v>550.66</v>
       </c>
     </row>
@@ -16052,7 +15959,7 @@
         <v>30</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C36" s="77" t="e" vm="31">
         <v>#VALUE!</v>
@@ -16097,27 +16004,27 @@
         <v>0</v>
       </c>
       <c r="Q36" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R36" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S36" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T36" s="87">
+      <c r="U36" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U36" s="87">
+      <c r="V36" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V36" s="88">
-        <f t="shared" si="3"/>
         <v>573.67399999999998</v>
       </c>
     </row>
@@ -16126,7 +16033,7 @@
         <v>31</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C37" s="77" t="e" vm="32">
         <v>#VALUE!</v>
@@ -16172,27 +16079,27 @@
         <v>0</v>
       </c>
       <c r="Q37" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R37" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S37" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T37" s="87">
+      <c r="U37" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U37" s="87">
+      <c r="V37" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V37" s="88">
-        <f t="shared" si="3"/>
         <v>597.69600000000003</v>
       </c>
     </row>
@@ -16201,7 +16108,7 @@
         <v>32</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C38" s="77" t="e" vm="33">
         <v>#VALUE!</v>
@@ -16246,7 +16153,7 @@
         <v>2.1276595744680851</v>
       </c>
       <c r="Q38" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="R38" s="87">
@@ -16254,19 +16161,19 @@
         <v>100</v>
       </c>
       <c r="S38" s="87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="T38" s="87">
+        <f t="shared" si="4"/>
+        <v>1.6246953696181965</v>
+      </c>
+      <c r="U38" s="87">
         <f t="shared" si="5"/>
-        <v>1.6246953696181965</v>
-      </c>
-      <c r="U38" s="87">
+        <v>1.7941454202077429</v>
+      </c>
+      <c r="V38" s="88">
         <f t="shared" si="6"/>
-        <v>1.7941454202077429</v>
-      </c>
-      <c r="V38" s="88">
-        <f t="shared" si="3"/>
         <v>619.702</v>
       </c>
     </row>
@@ -16275,7 +16182,7 @@
         <v>33</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C39" s="77" t="e" vm="34">
         <v>#VALUE!</v>
@@ -16319,7 +16226,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R39" s="87">
@@ -16327,19 +16234,19 @@
         <v>0</v>
       </c>
       <c r="S39" s="87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T39" s="87">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U39" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U39" s="87">
+      <c r="V39" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V39" s="88">
-        <f t="shared" si="3"/>
         <v>642.71600000000001</v>
       </c>
     </row>
@@ -16404,7 +16311,7 @@
       <c r="C41" s="77"/>
       <c r="D41" s="1"/>
       <c r="F41" s="90" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G41" s="159">
         <f>SUM(G40:N40)</f>
@@ -16424,7 +16331,7 @@
       <c r="D42" s="1"/>
       <c r="F42" s="90"/>
       <c r="G42" s="84" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H42" s="84" t="s">
         <v>18</v>
@@ -16433,7 +16340,7 @@
         <v>11</v>
       </c>
       <c r="J42" s="84" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K42" s="84" t="s">
         <v>12</v>
@@ -16453,7 +16360,7 @@
       <c r="C43" s="77"/>
       <c r="D43" s="1"/>
       <c r="F43" s="49" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G43" s="91">
         <f>G40/$G$41</f>
@@ -16533,7 +16440,7 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="92" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G45" s="91">
         <f>BPCA_Experimental!F17</f>
@@ -16567,7 +16474,7 @@
     <row r="46" spans="1:22">
       <c r="D46" s="1"/>
       <c r="F46" s="94" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G46" s="76">
         <f>ABS(G43-G44)/G44</f>
@@ -16605,7 +16512,7 @@
       <c r="D48" s="1"/>
       <c r="E48" s="77"/>
       <c r="F48" s="94" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G48" s="87">
         <f>Q40</f>
@@ -16617,14 +16524,14 @@
       <c r="D49" s="1"/>
       <c r="E49" s="96"/>
       <c r="F49" s="97" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G49" s="76">
         <f>BPCA_Experimental!F29</f>
         <v>0.51179732492351981</v>
       </c>
       <c r="H49" s="156" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="I49" s="156"/>
       <c r="J49" s="156"/>
@@ -16638,7 +16545,7 @@
       <c r="D50" s="1"/>
       <c r="E50" s="96"/>
       <c r="F50" s="97" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G50" s="76">
         <f>G49*G55</f>
@@ -16656,7 +16563,7 @@
     <row r="51" spans="1:24" ht="13" customHeight="1">
       <c r="D51" s="1"/>
       <c r="F51" s="97" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G51" s="76">
         <f>S40/R40</f>
@@ -16675,7 +16582,7 @@
     <row r="52" spans="1:24">
       <c r="D52" s="1"/>
       <c r="F52" s="97" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G52" s="76">
         <f>G50-G51</f>
@@ -16699,7 +16606,7 @@
     <row r="54" spans="1:24">
       <c r="D54" s="1"/>
       <c r="F54" s="98" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G54" s="99">
         <v>10000</v>
@@ -16710,14 +16617,14 @@
     <row r="55" spans="1:24" ht="16" customHeight="1">
       <c r="D55" s="1"/>
       <c r="F55" s="92" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G55" s="91">
         <f>BPCA_Experimental!F25</f>
         <v>0.67333333333333334</v>
       </c>
       <c r="H55" s="156" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="I55" s="156"/>
       <c r="J55" s="156"/>
@@ -16732,7 +16639,7 @@
       <c r="D56" s="1"/>
       <c r="E56" s="77"/>
       <c r="F56" s="92" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G56" s="91">
         <f>R40/(G54-S40)</f>
@@ -17348,8 +17255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F8AF4A-2556-E44D-BD8A-72E1532A4D20}">
   <dimension ref="A2:X83"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O67" sqref="O67"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49:N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -17359,7 +17266,7 @@
     <col min="3" max="3" width="33.6640625" style="78" customWidth="1"/>
     <col min="4" max="4" width="31.83203125" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="20.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="76" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="76" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="8.6640625" style="76" hidden="1" customWidth="1"/>
@@ -17379,7 +17286,7 @@
   <sheetData>
     <row r="2" spans="1:23">
       <c r="B2" s="157" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C2" s="157"/>
       <c r="D2" s="157"/>
@@ -17404,7 +17311,7 @@
     </row>
     <row r="4" spans="1:23" s="79" customFormat="1" ht="26" customHeight="1">
       <c r="A4" s="158" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B4" s="158"/>
       <c r="C4" s="158"/>
@@ -17433,19 +17340,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G5" s="80" t="str">
         <f>BPCA!C5</f>
@@ -17479,28 +17386,28 @@
         <v>14</v>
       </c>
       <c r="O5" s="82" t="s">
+        <v>112</v>
+      </c>
+      <c r="P5" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q5" s="83" t="s">
+        <v>154</v>
+      </c>
+      <c r="R5" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="S5" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="T5" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="U5" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="P5" s="83" t="s">
+      <c r="V5" s="85" t="s">
         <v>118</v>
-      </c>
-      <c r="Q5" s="83" t="s">
-        <v>160</v>
-      </c>
-      <c r="R5" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="S5" s="84" t="s">
-        <v>120</v>
-      </c>
-      <c r="T5" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="U5" s="84" t="s">
-        <v>122</v>
-      </c>
-      <c r="V5" s="85" t="s">
-        <v>123</v>
       </c>
       <c r="W5" s="86"/>
     </row>
@@ -17509,7 +17416,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="109" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C6" s="77" t="e" vm="1">
         <v>#VALUE!</v>
@@ -17523,68 +17430,16 @@
       <c r="F6" s="17">
         <v>1</v>
       </c>
-      <c r="G6" s="76">
-        <v>0</v>
-      </c>
-      <c r="H6" s="76">
-        <v>0</v>
-      </c>
-      <c r="I6" s="76">
-        <v>0</v>
-      </c>
-      <c r="J6" s="76">
-        <v>0</v>
-      </c>
-      <c r="K6" s="76">
-        <v>0</v>
-      </c>
-      <c r="L6" s="76">
-        <v>0</v>
-      </c>
-      <c r="M6" s="76">
-        <v>0</v>
-      </c>
-      <c r="N6" s="76">
-        <v>0</v>
-      </c>
-      <c r="O6" s="87">
-        <v>0</v>
-      </c>
-      <c r="P6" s="22">
-        <f t="shared" ref="P6:P39" si="0">(O6/SUM(O$6:O$27)*100)</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="22">
-        <f>IF(O6=0,0,F6*O6/O6)</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="87">
-        <f t="shared" ref="R6:R37" si="1">D6*O6</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="87">
-        <f t="shared" ref="S6:S39" si="2">E6*O6</f>
-        <v>0</v>
-      </c>
-      <c r="T6" s="87">
-        <f>(R6/$R$40*100)</f>
-        <v>0</v>
-      </c>
-      <c r="U6" s="87">
-        <f>(S6/$S$40*100)</f>
-        <v>0</v>
-      </c>
-      <c r="V6" s="88">
-        <f t="shared" ref="V6:V39" si="3">(12.011*D6)+(1.008*E6)</f>
-        <v>78.114000000000004</v>
-      </c>
+      <c r="O6" s="87"/>
+      <c r="R6" s="87"/>
+      <c r="S6" s="87"/>
     </row>
     <row r="7" spans="1:23" ht="82" customHeight="1">
       <c r="A7" s="17">
         <v>1</v>
       </c>
       <c r="B7" s="109" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C7" s="77" t="e" vm="2">
         <v>#VALUE!</v>
@@ -17627,31 +17482,31 @@
         <v>0</v>
       </c>
       <c r="P7" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="P7:P39" si="0">(O7/SUM(O$6:O$27)*100)</f>
         <v>0</v>
       </c>
       <c r="Q7" s="22">
-        <f t="shared" ref="Q7:Q39" si="4">IF(O7=0,0,F7*O7/O7)</f>
+        <f t="shared" ref="Q7:Q39" si="1">IF(O7=0,0,F7*O7/O7)</f>
         <v>0</v>
       </c>
       <c r="R7" s="87">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="R7:R37" si="2">D7*O7</f>
         <v>0</v>
       </c>
       <c r="S7" s="87">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="S7:S39" si="3">E7*O7</f>
         <v>0</v>
       </c>
       <c r="T7" s="87">
-        <f t="shared" ref="T7:T39" si="5">(R7/$R$40*100)</f>
+        <f t="shared" ref="T7:T39" si="4">(R7/$R$40*100)</f>
         <v>0</v>
       </c>
       <c r="U7" s="87">
-        <f t="shared" ref="U7:U39" si="6">(S7/$S$40*100)</f>
+        <f t="shared" ref="U7:U39" si="5">(S7/$S$40*100)</f>
         <v>0</v>
       </c>
       <c r="V7" s="88">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="V7:V39" si="6">(12.011*D7)+(1.008*E7)</f>
         <v>166.22300000000001</v>
       </c>
     </row>
@@ -17660,7 +17515,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="109" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C8" s="77" t="e" vm="3">
         <v>#VALUE!</v>
@@ -17706,27 +17561,27 @@
         <v>0</v>
       </c>
       <c r="Q8" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R8" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S8" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T8" s="87">
+      <c r="U8" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U8" s="87">
+      <c r="V8" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V8" s="88">
-        <f t="shared" si="3"/>
         <v>166.22300000000001</v>
       </c>
     </row>
@@ -17735,7 +17590,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="109" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C9" s="77" t="e" vm="4">
         <v>#VALUE!</v>
@@ -17783,27 +17638,27 @@
         <v>0</v>
       </c>
       <c r="Q9" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R9" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T9" s="87">
+      <c r="U9" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U9" s="87">
+      <c r="V9" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V9" s="88">
-        <f t="shared" si="3"/>
         <v>178.23400000000001</v>
       </c>
     </row>
@@ -17859,27 +17714,27 @@
         <v>0</v>
       </c>
       <c r="Q10" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R10" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S10" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T10" s="87">
+      <c r="U10" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U10" s="87">
+      <c r="V10" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V10" s="88">
-        <f t="shared" si="3"/>
         <v>178.23400000000001</v>
       </c>
     </row>
@@ -17888,7 +17743,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="109" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C11" s="77" t="e" vm="6">
         <v>#VALUE!</v>
@@ -17936,15 +17791,15 @@
         <v>0</v>
       </c>
       <c r="Q11" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R11" s="87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S11" s="87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T11" s="87">
@@ -17956,7 +17811,7 @@
         <v>0</v>
       </c>
       <c r="V11" s="88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>228.29399999999998</v>
       </c>
     </row>
@@ -17965,7 +17820,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="109" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C12" s="77" t="e" vm="7">
         <v>#VALUE!</v>
@@ -18012,27 +17867,27 @@
         <v>5.5555555555555554</v>
       </c>
       <c r="Q12" s="22">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="R12" s="87">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="S12" s="87">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="T12" s="87">
         <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="R12" s="87">
-        <f t="shared" si="1"/>
-        <v>110</v>
-      </c>
-      <c r="S12" s="87">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="T12" s="87">
+        <v>1.5918958031837915</v>
+      </c>
+      <c r="U12" s="87">
         <f t="shared" si="5"/>
-        <v>1.5918958031837915</v>
-      </c>
-      <c r="U12" s="87">
+        <v>3.2558139534883721</v>
+      </c>
+      <c r="V12" s="88">
         <f t="shared" si="6"/>
-        <v>3.2558139534883721</v>
-      </c>
-      <c r="V12" s="88">
-        <f t="shared" si="3"/>
         <v>278.35399999999998</v>
       </c>
     </row>
@@ -18089,27 +17944,27 @@
         <v>0</v>
       </c>
       <c r="Q13" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R13" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S13" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T13" s="87">
+      <c r="U13" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U13" s="87">
+      <c r="V13" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V13" s="88">
-        <f t="shared" si="3"/>
         <v>202.256</v>
       </c>
     </row>
@@ -18164,27 +18019,27 @@
         <v>0</v>
       </c>
       <c r="Q14" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R14" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="87">
+      <c r="U14" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U14" s="87">
+      <c r="V14" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V14" s="88">
-        <f t="shared" si="3"/>
         <v>228.29399999999998</v>
       </c>
     </row>
@@ -18193,7 +18048,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="109" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C15" s="77" t="e" vm="10">
         <v>#VALUE!</v>
@@ -18241,27 +18096,27 @@
         <v>0</v>
       </c>
       <c r="Q15" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R15" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S15" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T15" s="87">
+      <c r="U15" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U15" s="87">
+      <c r="V15" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V15" s="88">
-        <f t="shared" si="3"/>
         <v>216.28299999999999</v>
       </c>
     </row>
@@ -18270,7 +18125,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="109" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C16" s="77" t="e" vm="11">
         <v>#VALUE!</v>
@@ -18318,27 +18173,27 @@
         <v>0</v>
       </c>
       <c r="Q16" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R16" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S16" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="87">
+      <c r="U16" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U16" s="87">
+      <c r="V16" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V16" s="88">
-        <f t="shared" si="3"/>
         <v>252.31599999999997</v>
       </c>
     </row>
@@ -18347,7 +18202,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="109" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C17" s="77" t="e" vm="12">
         <v>#VALUE!</v>
@@ -18395,27 +18250,27 @@
         <v>0</v>
       </c>
       <c r="Q17" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R17" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S17" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T17" s="87">
+      <c r="U17" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U17" s="87">
+      <c r="V17" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V17" s="88">
-        <f t="shared" si="3"/>
         <v>216.28299999999999</v>
       </c>
     </row>
@@ -18472,27 +18327,27 @@
         <v>0</v>
       </c>
       <c r="Q18" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R18" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S18" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T18" s="87">
+      <c r="U18" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U18" s="87">
+      <c r="V18" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V18" s="88">
-        <f t="shared" si="3"/>
         <v>300.36</v>
       </c>
     </row>
@@ -18549,27 +18404,27 @@
         <v>0</v>
       </c>
       <c r="Q19" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R19" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S19" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T19" s="87">
+      <c r="U19" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U19" s="87">
+      <c r="V19" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V19" s="88">
-        <f t="shared" si="3"/>
         <v>252.31599999999997</v>
       </c>
     </row>
@@ -18578,7 +18433,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="109" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C20" s="78" t="e" vm="15">
         <v>#VALUE!</v>
@@ -18626,27 +18481,27 @@
         <v>0</v>
       </c>
       <c r="Q20" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R20" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S20" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T20" s="87">
+      <c r="U20" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U20" s="87">
+      <c r="V20" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V20" s="88">
-        <f t="shared" si="3"/>
         <v>252.31599999999997</v>
       </c>
     </row>
@@ -18655,7 +18510,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="109" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C21" s="78" t="e" vm="16">
         <v>#VALUE!</v>
@@ -18704,27 +18559,27 @@
         <v>0</v>
       </c>
       <c r="Q21" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R21" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S21" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T21" s="87">
+      <c r="U21" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U21" s="87">
+      <c r="V21" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V21" s="88">
-        <f t="shared" si="3"/>
         <v>276.33799999999997</v>
       </c>
     </row>
@@ -18733,7 +18588,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="109" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C22" s="77" t="e" vm="17">
         <v>#VALUE!</v>
@@ -18782,27 +18637,27 @@
         <v>0</v>
       </c>
       <c r="Q22" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R22" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S22" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="87">
+      <c r="U22" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U22" s="87">
+      <c r="V22" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V22" s="88">
-        <f t="shared" si="3"/>
         <v>520.59</v>
       </c>
     </row>
@@ -18811,7 +18666,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="109" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C23" s="77" t="e" vm="18">
         <v>#VALUE!</v>
@@ -18860,27 +18715,27 @@
         <v>0</v>
       </c>
       <c r="Q23" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S23" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R23" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S23" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T23" s="87">
+      <c r="U23" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U23" s="87">
+      <c r="V23" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V23" s="88">
-        <f t="shared" si="3"/>
         <v>666.73799999999994</v>
       </c>
     </row>
@@ -18889,7 +18744,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="109" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C24" s="77" t="e" vm="19">
         <v>#VALUE!</v>
@@ -18938,27 +18793,27 @@
         <v>11.111111111111111</v>
       </c>
       <c r="Q24" s="22">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="R24" s="87">
+        <f t="shared" si="2"/>
+        <v>660</v>
+      </c>
+      <c r="S24" s="87">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="T24" s="87">
         <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="R24" s="87">
-        <f t="shared" si="1"/>
-        <v>660</v>
-      </c>
-      <c r="S24" s="87">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="T24" s="87">
+        <v>9.5513748191027492</v>
+      </c>
+      <c r="U24" s="87">
         <f t="shared" si="5"/>
-        <v>9.5513748191027492</v>
-      </c>
-      <c r="U24" s="87">
+        <v>9.3023255813953494</v>
+      </c>
+      <c r="V24" s="88">
         <f t="shared" si="6"/>
-        <v>9.3023255813953494</v>
-      </c>
-      <c r="V24" s="88">
-        <f t="shared" si="3"/>
         <v>812.88599999999997</v>
       </c>
     </row>
@@ -18967,7 +18822,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="109" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C25" s="77" t="e" vm="20">
         <v>#VALUE!</v>
@@ -19016,27 +18871,27 @@
         <v>31.111111111111111</v>
       </c>
       <c r="Q25" s="22">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="R25" s="87">
+        <f t="shared" si="2"/>
+        <v>1960</v>
+      </c>
+      <c r="S25" s="87">
+        <f t="shared" si="3"/>
+        <v>616</v>
+      </c>
+      <c r="T25" s="87">
         <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="R25" s="87">
-        <f t="shared" si="1"/>
-        <v>1960</v>
-      </c>
-      <c r="S25" s="87">
-        <f t="shared" si="2"/>
-        <v>616</v>
-      </c>
-      <c r="T25" s="87">
+        <v>28.364688856729376</v>
+      </c>
+      <c r="U25" s="87">
         <f t="shared" si="5"/>
-        <v>28.364688856729376</v>
-      </c>
-      <c r="U25" s="87">
+        <v>28.651162790697676</v>
+      </c>
+      <c r="V25" s="88">
         <f t="shared" si="6"/>
-        <v>28.651162790697676</v>
-      </c>
-      <c r="V25" s="88">
-        <f t="shared" si="3"/>
         <v>862.94600000000003</v>
       </c>
     </row>
@@ -19045,7 +18900,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="109" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C26" s="77" t="e" vm="21">
         <v>#VALUE!</v>
@@ -19095,27 +18950,27 @@
         <v>52.222222222222229</v>
       </c>
       <c r="Q26" s="22">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="R26" s="87">
+        <f t="shared" si="2"/>
+        <v>3760</v>
+      </c>
+      <c r="S26" s="87">
+        <f t="shared" si="3"/>
+        <v>1034</v>
+      </c>
+      <c r="T26" s="87">
         <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="R26" s="87">
-        <f t="shared" si="1"/>
-        <v>3760</v>
-      </c>
-      <c r="S26" s="87">
-        <f t="shared" si="2"/>
-        <v>1034</v>
-      </c>
-      <c r="T26" s="87">
+        <v>54.413892908827791</v>
+      </c>
+      <c r="U26" s="87">
         <f t="shared" si="5"/>
-        <v>54.413892908827791</v>
-      </c>
-      <c r="U26" s="87">
+        <v>48.093023255813954</v>
+      </c>
+      <c r="V26" s="88">
         <f t="shared" si="6"/>
-        <v>48.093023255813954</v>
-      </c>
-      <c r="V26" s="88">
-        <f t="shared" si="3"/>
         <v>983.05599999999993</v>
       </c>
     </row>
@@ -19124,7 +18979,7 @@
         <v>21</v>
       </c>
       <c r="B27" s="110" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C27" s="77" t="e" vm="22">
         <v>#VALUE!</v>
@@ -19172,27 +19027,27 @@
         <v>0</v>
       </c>
       <c r="Q27" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R27" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S27" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T27" s="87">
+      <c r="U27" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U27" s="87">
+      <c r="V27" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V27" s="88">
-        <f t="shared" si="3"/>
         <v>1033.116</v>
       </c>
     </row>
@@ -19201,7 +19056,7 @@
         <v>22</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C28" s="77" t="e" vm="23">
         <v>#VALUE!</v>
@@ -19245,27 +19100,27 @@
         <v>0</v>
       </c>
       <c r="Q28" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R28" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S28" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T28" s="87">
+      <c r="U28" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U28" s="87">
+      <c r="V28" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V28" s="88">
-        <f t="shared" si="3"/>
         <v>239.29699999999997</v>
       </c>
     </row>
@@ -19274,7 +19129,7 @@
         <v>23</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C29" s="77" t="e" vm="24">
         <v>#VALUE!</v>
@@ -19319,27 +19174,27 @@
         <v>0</v>
       </c>
       <c r="Q29" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R29" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S29" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T29" s="87">
+      <c r="U29" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U29" s="87">
+      <c r="V29" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V29" s="88">
-        <f t="shared" si="3"/>
         <v>338.40899999999999</v>
       </c>
     </row>
@@ -19348,7 +19203,7 @@
         <v>24</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C30" s="77" t="e" vm="25">
         <v>#VALUE!</v>
@@ -19393,27 +19248,27 @@
         <v>0</v>
       </c>
       <c r="Q30" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R30" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S30" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T30" s="87">
+      <c r="U30" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U30" s="87">
+      <c r="V30" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V30" s="88">
-        <f t="shared" si="3"/>
         <v>375.45</v>
       </c>
     </row>
@@ -19422,7 +19277,7 @@
         <v>25</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C31" s="77" t="e" vm="26">
         <v>#VALUE!</v>
@@ -19467,27 +19322,27 @@
         <v>0</v>
       </c>
       <c r="Q31" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R31" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S31" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T31" s="87">
+      <c r="U31" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U31" s="87">
+      <c r="V31" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V31" s="88">
-        <f t="shared" si="3"/>
         <v>413.49900000000002</v>
       </c>
     </row>
@@ -19496,7 +19351,7 @@
         <v>26</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C32" s="77" t="e" vm="27">
         <v>#VALUE!</v>
@@ -19541,27 +19396,27 @@
         <v>0</v>
       </c>
       <c r="Q32" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T32" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R32" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S32" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T32" s="87">
+      <c r="U32" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U32" s="87">
+      <c r="V32" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V32" s="88">
-        <f t="shared" si="3"/>
         <v>451.54799999999994</v>
       </c>
     </row>
@@ -19570,7 +19425,7 @@
         <v>27</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C33" s="77" t="e" vm="28">
         <v>#VALUE!</v>
@@ -19615,27 +19470,27 @@
         <v>0</v>
       </c>
       <c r="Q33" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R33" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S33" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T33" s="87">
+      <c r="U33" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U33" s="87">
+      <c r="V33" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V33" s="88">
-        <f t="shared" si="3"/>
         <v>489.59699999999998</v>
       </c>
     </row>
@@ -19644,7 +19499,7 @@
         <v>28</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C34" s="77" t="e" vm="29">
         <v>#VALUE!</v>
@@ -19687,27 +19542,27 @@
         <v>11.111111111111111</v>
       </c>
       <c r="Q34" s="22">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="R34" s="87">
+        <f t="shared" si="2"/>
+        <v>420</v>
+      </c>
+      <c r="S34" s="87">
+        <f t="shared" si="3"/>
+        <v>230</v>
+      </c>
+      <c r="T34" s="87">
         <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="R34" s="87">
-        <f t="shared" si="1"/>
-        <v>420</v>
-      </c>
-      <c r="S34" s="87">
-        <f t="shared" si="2"/>
-        <v>230</v>
-      </c>
-      <c r="T34" s="87">
+        <v>6.0781476121562958</v>
+      </c>
+      <c r="U34" s="87">
         <f t="shared" si="5"/>
-        <v>6.0781476121562958</v>
-      </c>
-      <c r="U34" s="87">
+        <v>10.697674418604651</v>
+      </c>
+      <c r="V34" s="88">
         <f t="shared" si="6"/>
-        <v>10.697674418604651</v>
-      </c>
-      <c r="V34" s="88">
-        <f t="shared" si="3"/>
         <v>527.64599999999996</v>
       </c>
     </row>
@@ -19716,7 +19571,7 @@
         <v>29</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C35" s="77" t="e" vm="30">
         <v>#VALUE!</v>
@@ -19760,27 +19615,27 @@
         <v>0</v>
       </c>
       <c r="Q35" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R35" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S35" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T35" s="87">
+      <c r="U35" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U35" s="87">
+      <c r="V35" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V35" s="88">
-        <f t="shared" si="3"/>
         <v>550.66</v>
       </c>
     </row>
@@ -19789,7 +19644,7 @@
         <v>30</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C36" s="77" t="e" vm="31">
         <v>#VALUE!</v>
@@ -19834,27 +19689,27 @@
         <v>0</v>
       </c>
       <c r="Q36" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R36" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S36" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T36" s="87">
+      <c r="U36" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U36" s="87">
+      <c r="V36" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V36" s="88">
-        <f t="shared" si="3"/>
         <v>573.67399999999998</v>
       </c>
     </row>
@@ -19863,7 +19718,7 @@
         <v>31</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C37" s="77" t="e" vm="32">
         <v>#VALUE!</v>
@@ -19909,27 +19764,27 @@
         <v>0</v>
       </c>
       <c r="Q37" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R37" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S37" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T37" s="87">
+      <c r="U37" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U37" s="87">
+      <c r="V37" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V37" s="88">
-        <f t="shared" si="3"/>
         <v>597.69600000000003</v>
       </c>
     </row>
@@ -19938,7 +19793,7 @@
         <v>32</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C38" s="77" t="e" vm="33">
         <v>#VALUE!</v>
@@ -19983,7 +19838,7 @@
         <v>0</v>
       </c>
       <c r="Q38" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R38" s="87">
@@ -19991,19 +19846,19 @@
         <v>0</v>
       </c>
       <c r="S38" s="87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T38" s="87">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U38" s="87">
+      <c r="V38" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V38" s="88">
-        <f t="shared" si="3"/>
         <v>619.702</v>
       </c>
     </row>
@@ -20012,7 +19867,7 @@
         <v>33</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C39" s="77" t="e" vm="34">
         <v>#VALUE!</v>
@@ -20056,7 +19911,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R39" s="87">
@@ -20064,19 +19919,19 @@
         <v>0</v>
       </c>
       <c r="S39" s="87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T39" s="87">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U39" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U39" s="87">
+      <c r="V39" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V39" s="88">
-        <f t="shared" si="3"/>
         <v>642.71600000000001</v>
       </c>
     </row>
@@ -20141,7 +19996,7 @@
       <c r="C41" s="77"/>
       <c r="D41" s="1"/>
       <c r="F41" s="90" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G41" s="159">
         <f>SUM(G40:N40)</f>
@@ -20161,7 +20016,7 @@
       <c r="D42" s="1"/>
       <c r="F42" s="90"/>
       <c r="G42" s="84" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H42" s="84" t="s">
         <v>18</v>
@@ -20170,7 +20025,7 @@
         <v>11</v>
       </c>
       <c r="J42" s="84" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K42" s="84" t="s">
         <v>12</v>
@@ -20190,7 +20045,7 @@
       <c r="C43" s="77"/>
       <c r="D43" s="1"/>
       <c r="F43" s="49" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G43" s="91">
         <f>G40/$G$41</f>
@@ -20270,7 +20125,7 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="92" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G45" s="91">
         <f>BPCA_Experimental!G17</f>
@@ -20304,7 +20159,7 @@
     <row r="46" spans="1:22">
       <c r="D46" s="1"/>
       <c r="F46" s="94" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G46" s="76">
         <f>ABS(G43-G44)/G44</f>
@@ -20342,7 +20197,7 @@
       <c r="D48" s="1"/>
       <c r="E48" s="77"/>
       <c r="F48" s="94" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G48" s="87">
         <f>Q40</f>
@@ -20354,14 +20209,14 @@
       <c r="D49" s="1"/>
       <c r="E49" s="96"/>
       <c r="F49" s="97" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G49" s="76">
         <f>BPCA_Experimental!G29</f>
         <v>0.3664855234279874</v>
       </c>
       <c r="H49" s="156" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="I49" s="156"/>
       <c r="J49" s="156"/>
@@ -20375,7 +20230,7 @@
       <c r="D50" s="1"/>
       <c r="E50" s="96"/>
       <c r="F50" s="97" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G50" s="76">
         <f>G49*G55</f>
@@ -20393,7 +20248,7 @@
     <row r="51" spans="1:24" ht="13" customHeight="1">
       <c r="D51" s="1"/>
       <c r="F51" s="97" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G51" s="76">
         <f>S40/R40</f>
@@ -20412,7 +20267,7 @@
     <row r="52" spans="1:24">
       <c r="D52" s="1"/>
       <c r="F52" s="97" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G52" s="76">
         <f>G50-G51</f>
@@ -20452,7 +20307,7 @@
     <row r="54" spans="1:24">
       <c r="D54" s="1"/>
       <c r="F54" s="98" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G54" s="99">
         <v>10000</v>
@@ -20463,14 +20318,14 @@
     <row r="55" spans="1:24" ht="16" customHeight="1">
       <c r="D55" s="1"/>
       <c r="F55" s="92" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G55" s="91">
         <f>BPCA_Experimental!G25</f>
         <v>0.82</v>
       </c>
       <c r="H55" s="156" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="I55" s="156"/>
       <c r="J55" s="156"/>
@@ -20485,7 +20340,7 @@
       <c r="D56" s="1"/>
       <c r="E56" s="77"/>
       <c r="F56" s="92" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G56" s="91">
         <f>R40/(G54-S40)</f>
@@ -21101,8 +20956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D382B00-30F4-764B-9FB9-162B0A78B6BF}">
   <dimension ref="A2:X83"/>
   <sheetViews>
-    <sheetView topLeftCell="B46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O57" sqref="O57"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49:N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -21112,7 +20967,7 @@
     <col min="3" max="3" width="33.6640625" style="78" customWidth="1"/>
     <col min="4" max="4" width="31.83203125" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="20.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="76" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="76" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="8.6640625" style="76" hidden="1" customWidth="1"/>
@@ -21132,7 +20987,7 @@
   <sheetData>
     <row r="2" spans="1:23">
       <c r="B2" s="157" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C2" s="157"/>
       <c r="D2" s="157"/>
@@ -21157,7 +21012,7 @@
     </row>
     <row r="4" spans="1:23" s="79" customFormat="1" ht="26" customHeight="1">
       <c r="A4" s="158" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B4" s="158"/>
       <c r="C4" s="158"/>
@@ -21186,19 +21041,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G5" s="80" t="str">
         <f>BPCA!C5</f>
@@ -21232,28 +21087,28 @@
         <v>14</v>
       </c>
       <c r="O5" s="82" t="s">
+        <v>112</v>
+      </c>
+      <c r="P5" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q5" s="83" t="s">
+        <v>154</v>
+      </c>
+      <c r="R5" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="S5" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="T5" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="U5" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="P5" s="83" t="s">
+      <c r="V5" s="85" t="s">
         <v>118</v>
-      </c>
-      <c r="Q5" s="83" t="s">
-        <v>160</v>
-      </c>
-      <c r="R5" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="S5" s="84" t="s">
-        <v>120</v>
-      </c>
-      <c r="T5" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="U5" s="84" t="s">
-        <v>122</v>
-      </c>
-      <c r="V5" s="85" t="s">
-        <v>123</v>
       </c>
       <c r="W5" s="86"/>
     </row>
@@ -21262,7 +21117,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="109" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C6" s="77" t="e" vm="1">
         <v>#VALUE!</v>
@@ -21276,68 +21131,16 @@
       <c r="F6" s="17">
         <v>1</v>
       </c>
-      <c r="G6" s="76">
-        <v>0</v>
-      </c>
-      <c r="H6" s="76">
-        <v>0</v>
-      </c>
-      <c r="I6" s="76">
-        <v>0</v>
-      </c>
-      <c r="J6" s="76">
-        <v>0</v>
-      </c>
-      <c r="K6" s="76">
-        <v>0</v>
-      </c>
-      <c r="L6" s="76">
-        <v>0</v>
-      </c>
-      <c r="M6" s="76">
-        <v>0</v>
-      </c>
-      <c r="N6" s="76">
-        <v>0</v>
-      </c>
-      <c r="O6" s="87">
-        <v>0</v>
-      </c>
-      <c r="P6" s="22">
-        <f t="shared" ref="P6:P39" si="0">(O6/SUM(O$6:O$27)*100)</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="22">
-        <f>IF(O6=0,0,F6*O6/O6)</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="87">
-        <f t="shared" ref="R6:R37" si="1">D6*O6</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="87">
-        <f t="shared" ref="S6:S39" si="2">E6*O6</f>
-        <v>0</v>
-      </c>
-      <c r="T6" s="87">
-        <f>(R6/$R$40*100)</f>
-        <v>0</v>
-      </c>
-      <c r="U6" s="87">
-        <f>(S6/$S$40*100)</f>
-        <v>0</v>
-      </c>
-      <c r="V6" s="88">
-        <f t="shared" ref="V6:V39" si="3">(12.011*D6)+(1.008*E6)</f>
-        <v>78.114000000000004</v>
-      </c>
+      <c r="O6" s="87"/>
+      <c r="R6" s="87"/>
+      <c r="S6" s="87"/>
     </row>
     <row r="7" spans="1:23" ht="82" customHeight="1">
       <c r="A7" s="17">
         <v>1</v>
       </c>
       <c r="B7" s="109" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C7" s="77" t="e" vm="2">
         <v>#VALUE!</v>
@@ -21380,31 +21183,31 @@
         <v>1</v>
       </c>
       <c r="P7" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="P7:P39" si="0">(O7/SUM(O$6:O$27)*100)</f>
         <v>1.1764705882352942</v>
       </c>
       <c r="Q7" s="22">
-        <f t="shared" ref="Q7:Q39" si="4">IF(O7=0,0,F7*O7/O7)</f>
+        <f t="shared" ref="Q7:Q39" si="1">IF(O7=0,0,F7*O7/O7)</f>
         <v>2</v>
       </c>
       <c r="R7" s="87">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="R7:R37" si="2">D7*O7</f>
         <v>13</v>
       </c>
       <c r="S7" s="87">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="S7:S39" si="3">E7*O7</f>
         <v>10</v>
       </c>
       <c r="T7" s="87">
-        <f t="shared" ref="T7:T39" si="5">(R7/$R$40*100)</f>
+        <f t="shared" ref="T7:T39" si="4">(R7/$R$40*100)</f>
         <v>0.19353878219443205</v>
       </c>
       <c r="U7" s="87">
-        <f t="shared" ref="U7:U39" si="6">(S7/$S$40*100)</f>
+        <f t="shared" ref="U7:U39" si="5">(S7/$S$40*100)</f>
         <v>0.51894135962636223</v>
       </c>
       <c r="V7" s="88">
-        <f t="shared" si="3"/>
+        <f>(12.011*D7)+(1.008*E7)</f>
         <v>166.22300000000001</v>
       </c>
     </row>
@@ -21413,7 +21216,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="109" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C8" s="77" t="e" vm="3">
         <v>#VALUE!</v>
@@ -21459,27 +21262,27 @@
         <v>0</v>
       </c>
       <c r="Q8" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R8" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S8" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T8" s="87">
+      <c r="U8" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U8" s="87">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="V8" s="88">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="V8:V39" si="6">(12.011*D8)+(1.008*E8)</f>
         <v>166.22300000000001</v>
       </c>
     </row>
@@ -21488,7 +21291,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="109" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C9" s="77" t="e" vm="4">
         <v>#VALUE!</v>
@@ -21536,27 +21339,27 @@
         <v>0</v>
       </c>
       <c r="Q9" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R9" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T9" s="87">
+      <c r="U9" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U9" s="87">
+      <c r="V9" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V9" s="88">
-        <f t="shared" si="3"/>
         <v>178.23400000000001</v>
       </c>
     </row>
@@ -21612,27 +21415,27 @@
         <v>0</v>
       </c>
       <c r="Q10" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R10" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S10" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T10" s="87">
+      <c r="U10" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U10" s="87">
+      <c r="V10" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V10" s="88">
-        <f t="shared" si="3"/>
         <v>178.23400000000001</v>
       </c>
     </row>
@@ -21641,7 +21444,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="109" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C11" s="77" t="e" vm="6">
         <v>#VALUE!</v>
@@ -21689,15 +21492,15 @@
         <v>1.1764705882352942</v>
       </c>
       <c r="Q11" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="R11" s="87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="S11" s="87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="T11" s="87">
@@ -21709,7 +21512,7 @@
         <v>0.62272963155163463</v>
       </c>
       <c r="V11" s="88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>228.29399999999998</v>
       </c>
     </row>
@@ -21718,7 +21521,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="109" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C12" s="77" t="e" vm="7">
         <v>#VALUE!</v>
@@ -21765,27 +21568,27 @@
         <v>0</v>
       </c>
       <c r="Q12" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R12" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T12" s="87">
+      <c r="U12" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U12" s="87">
+      <c r="V12" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V12" s="88">
-        <f t="shared" si="3"/>
         <v>278.35399999999998</v>
       </c>
     </row>
@@ -21842,27 +21645,27 @@
         <v>0</v>
       </c>
       <c r="Q13" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R13" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S13" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T13" s="87">
+      <c r="U13" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U13" s="87">
+      <c r="V13" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V13" s="88">
-        <f t="shared" si="3"/>
         <v>202.256</v>
       </c>
     </row>
@@ -21917,27 +21720,27 @@
         <v>0</v>
       </c>
       <c r="Q14" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R14" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="87">
+      <c r="U14" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U14" s="87">
+      <c r="V14" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V14" s="88">
-        <f t="shared" si="3"/>
         <v>228.29399999999998</v>
       </c>
     </row>
@@ -21946,7 +21749,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="109" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C15" s="77" t="e" vm="10">
         <v>#VALUE!</v>
@@ -21994,27 +21797,27 @@
         <v>0</v>
       </c>
       <c r="Q15" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R15" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S15" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T15" s="87">
+      <c r="U15" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U15" s="87">
+      <c r="V15" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V15" s="88">
-        <f t="shared" si="3"/>
         <v>216.28299999999999</v>
       </c>
     </row>
@@ -22023,7 +21826,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="109" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C16" s="77" t="e" vm="11">
         <v>#VALUE!</v>
@@ -22071,27 +21874,27 @@
         <v>0</v>
       </c>
       <c r="Q16" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R16" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S16" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="87">
+      <c r="U16" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U16" s="87">
+      <c r="V16" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V16" s="88">
-        <f t="shared" si="3"/>
         <v>252.31599999999997</v>
       </c>
     </row>
@@ -22100,7 +21903,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="109" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C17" s="77" t="e" vm="12">
         <v>#VALUE!</v>
@@ -22148,27 +21951,27 @@
         <v>0</v>
       </c>
       <c r="Q17" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R17" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S17" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T17" s="87">
+      <c r="U17" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U17" s="87">
+      <c r="V17" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V17" s="88">
-        <f t="shared" si="3"/>
         <v>216.28299999999999</v>
       </c>
     </row>
@@ -22225,27 +22028,27 @@
         <v>0</v>
       </c>
       <c r="Q18" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R18" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S18" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T18" s="87">
+      <c r="U18" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U18" s="87">
+      <c r="V18" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V18" s="88">
-        <f t="shared" si="3"/>
         <v>300.36</v>
       </c>
     </row>
@@ -22302,27 +22105,27 @@
         <v>0</v>
       </c>
       <c r="Q19" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R19" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S19" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T19" s="87">
+      <c r="U19" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U19" s="87">
+      <c r="V19" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V19" s="88">
-        <f t="shared" si="3"/>
         <v>252.31599999999997</v>
       </c>
     </row>
@@ -22331,7 +22134,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="109" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C20" s="78" t="e" vm="15">
         <v>#VALUE!</v>
@@ -22379,27 +22182,27 @@
         <v>0</v>
       </c>
       <c r="Q20" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R20" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S20" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T20" s="87">
+      <c r="U20" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U20" s="87">
+      <c r="V20" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V20" s="88">
-        <f t="shared" si="3"/>
         <v>252.31599999999997</v>
       </c>
     </row>
@@ -22408,7 +22211,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="109" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C21" s="78" t="e" vm="16">
         <v>#VALUE!</v>
@@ -22457,27 +22260,27 @@
         <v>0</v>
       </c>
       <c r="Q21" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R21" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S21" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T21" s="87">
+      <c r="U21" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U21" s="87">
+      <c r="V21" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V21" s="88">
-        <f t="shared" si="3"/>
         <v>276.33799999999997</v>
       </c>
     </row>
@@ -22486,7 +22289,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="109" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C22" s="77" t="e" vm="17">
         <v>#VALUE!</v>
@@ -22535,27 +22338,27 @@
         <v>0</v>
       </c>
       <c r="Q22" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R22" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S22" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="87">
+      <c r="U22" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U22" s="87">
+      <c r="V22" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V22" s="88">
-        <f t="shared" si="3"/>
         <v>520.59</v>
       </c>
     </row>
@@ -22564,7 +22367,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="109" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C23" s="77" t="e" vm="18">
         <v>#VALUE!</v>
@@ -22613,27 +22416,27 @@
         <v>0</v>
       </c>
       <c r="Q23" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S23" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R23" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S23" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T23" s="87">
+      <c r="U23" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U23" s="87">
+      <c r="V23" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V23" s="88">
-        <f t="shared" si="3"/>
         <v>666.73799999999994</v>
       </c>
     </row>
@@ -22642,7 +22445,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="109" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C24" s="77" t="e" vm="19">
         <v>#VALUE!</v>
@@ -22691,27 +22494,27 @@
         <v>0</v>
       </c>
       <c r="Q24" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R24" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S24" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T24" s="87">
+      <c r="U24" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U24" s="87">
+      <c r="V24" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V24" s="88">
-        <f t="shared" si="3"/>
         <v>812.88599999999997</v>
       </c>
     </row>
@@ -22720,7 +22523,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="109" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C25" s="77" t="e" vm="20">
         <v>#VALUE!</v>
@@ -22769,27 +22572,27 @@
         <v>11.76470588235294</v>
       </c>
       <c r="Q25" s="22">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="R25" s="87">
+        <f t="shared" si="2"/>
+        <v>700</v>
+      </c>
+      <c r="S25" s="87">
+        <f t="shared" si="3"/>
+        <v>220</v>
+      </c>
+      <c r="T25" s="87">
         <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="R25" s="87">
-        <f t="shared" si="1"/>
-        <v>700</v>
-      </c>
-      <c r="S25" s="87">
-        <f t="shared" si="2"/>
-        <v>220</v>
-      </c>
-      <c r="T25" s="87">
+        <v>10.421319041238648</v>
+      </c>
+      <c r="U25" s="87">
         <f t="shared" si="5"/>
-        <v>10.421319041238648</v>
-      </c>
-      <c r="U25" s="87">
+        <v>11.41670991177997</v>
+      </c>
+      <c r="V25" s="88">
         <f t="shared" si="6"/>
-        <v>11.41670991177997</v>
-      </c>
-      <c r="V25" s="88">
-        <f t="shared" si="3"/>
         <v>862.94600000000003</v>
       </c>
     </row>
@@ -22798,7 +22601,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="109" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C26" s="77" t="e" vm="21">
         <v>#VALUE!</v>
@@ -22848,27 +22651,27 @@
         <v>80</v>
       </c>
       <c r="Q26" s="22">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="R26" s="87">
+        <f t="shared" si="2"/>
+        <v>5440</v>
+      </c>
+      <c r="S26" s="87">
+        <f t="shared" si="3"/>
+        <v>1496</v>
+      </c>
+      <c r="T26" s="87">
         <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="R26" s="87">
-        <f t="shared" si="1"/>
-        <v>5440</v>
-      </c>
-      <c r="S26" s="87">
-        <f t="shared" si="2"/>
-        <v>1496</v>
-      </c>
-      <c r="T26" s="87">
+        <v>80.988536549054629</v>
+      </c>
+      <c r="U26" s="87">
         <f t="shared" si="5"/>
-        <v>80.988536549054629</v>
-      </c>
-      <c r="U26" s="87">
+        <v>77.633627400103791</v>
+      </c>
+      <c r="V26" s="88">
         <f t="shared" si="6"/>
-        <v>77.633627400103791</v>
-      </c>
-      <c r="V26" s="88">
-        <f t="shared" si="3"/>
         <v>983.05599999999993</v>
       </c>
     </row>
@@ -22877,7 +22680,7 @@
         <v>21</v>
       </c>
       <c r="B27" s="110" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C27" s="77" t="e" vm="22">
         <v>#VALUE!</v>
@@ -22925,27 +22728,27 @@
         <v>5.8823529411764701</v>
       </c>
       <c r="Q27" s="22">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="R27" s="87">
+        <f t="shared" si="2"/>
+        <v>420</v>
+      </c>
+      <c r="S27" s="87">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="T27" s="87">
         <f t="shared" si="4"/>
-        <v>31</v>
-      </c>
-      <c r="R27" s="87">
-        <f t="shared" si="1"/>
-        <v>420</v>
-      </c>
-      <c r="S27" s="87">
-        <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="T27" s="87">
+        <v>6.2527914247431884</v>
+      </c>
+      <c r="U27" s="87">
         <f t="shared" si="5"/>
-        <v>6.2527914247431884</v>
-      </c>
-      <c r="U27" s="87">
+        <v>6.2272963155163463</v>
+      </c>
+      <c r="V27" s="88">
         <f t="shared" si="6"/>
-        <v>6.2272963155163463</v>
-      </c>
-      <c r="V27" s="88">
-        <f t="shared" si="3"/>
         <v>1033.116</v>
       </c>
     </row>
@@ -22954,7 +22757,7 @@
         <v>22</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C28" s="77" t="e" vm="23">
         <v>#VALUE!</v>
@@ -22998,27 +22801,27 @@
         <v>0</v>
       </c>
       <c r="Q28" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R28" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S28" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T28" s="87">
+      <c r="U28" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U28" s="87">
+      <c r="V28" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V28" s="88">
-        <f t="shared" si="3"/>
         <v>239.29699999999997</v>
       </c>
     </row>
@@ -23027,7 +22830,7 @@
         <v>23</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C29" s="77" t="e" vm="24">
         <v>#VALUE!</v>
@@ -23072,27 +22875,27 @@
         <v>0</v>
       </c>
       <c r="Q29" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R29" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S29" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T29" s="87">
+      <c r="U29" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U29" s="87">
+      <c r="V29" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V29" s="88">
-        <f t="shared" si="3"/>
         <v>338.40899999999999</v>
       </c>
     </row>
@@ -23101,7 +22904,7 @@
         <v>24</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C30" s="77" t="e" vm="25">
         <v>#VALUE!</v>
@@ -23146,27 +22949,27 @@
         <v>0</v>
       </c>
       <c r="Q30" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R30" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S30" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T30" s="87">
+      <c r="U30" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U30" s="87">
+      <c r="V30" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V30" s="88">
-        <f t="shared" si="3"/>
         <v>375.45</v>
       </c>
     </row>
@@ -23175,7 +22978,7 @@
         <v>25</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C31" s="77" t="e" vm="26">
         <v>#VALUE!</v>
@@ -23220,27 +23023,27 @@
         <v>0</v>
       </c>
       <c r="Q31" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R31" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S31" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T31" s="87">
+      <c r="U31" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U31" s="87">
+      <c r="V31" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V31" s="88">
-        <f t="shared" si="3"/>
         <v>413.49900000000002</v>
       </c>
     </row>
@@ -23249,7 +23052,7 @@
         <v>26</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C32" s="77" t="e" vm="27">
         <v>#VALUE!</v>
@@ -23294,27 +23097,27 @@
         <v>0</v>
       </c>
       <c r="Q32" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T32" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R32" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S32" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T32" s="87">
+      <c r="U32" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U32" s="87">
+      <c r="V32" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V32" s="88">
-        <f t="shared" si="3"/>
         <v>451.54799999999994</v>
       </c>
     </row>
@@ -23323,7 +23126,7 @@
         <v>27</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C33" s="77" t="e" vm="28">
         <v>#VALUE!</v>
@@ -23368,27 +23171,27 @@
         <v>0</v>
       </c>
       <c r="Q33" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R33" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S33" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T33" s="87">
+      <c r="U33" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U33" s="87">
+      <c r="V33" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V33" s="88">
-        <f t="shared" si="3"/>
         <v>489.59699999999998</v>
       </c>
     </row>
@@ -23397,7 +23200,7 @@
         <v>28</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C34" s="77" t="e" vm="29">
         <v>#VALUE!</v>
@@ -23440,27 +23243,27 @@
         <v>3.5294117647058822</v>
       </c>
       <c r="Q34" s="22">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="R34" s="87">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
+      <c r="S34" s="87">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="T34" s="87">
         <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="R34" s="87">
-        <f t="shared" si="1"/>
-        <v>126</v>
-      </c>
-      <c r="S34" s="87">
-        <f t="shared" si="2"/>
-        <v>69</v>
-      </c>
-      <c r="T34" s="87">
+        <v>1.8758374274229568</v>
+      </c>
+      <c r="U34" s="87">
         <f t="shared" si="5"/>
-        <v>1.8758374274229568</v>
-      </c>
-      <c r="U34" s="87">
+        <v>3.5806953814218994</v>
+      </c>
+      <c r="V34" s="88">
         <f t="shared" si="6"/>
-        <v>3.5806953814218994</v>
-      </c>
-      <c r="V34" s="88">
-        <f t="shared" si="3"/>
         <v>527.64599999999996</v>
       </c>
     </row>
@@ -23469,7 +23272,7 @@
         <v>29</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C35" s="77" t="e" vm="30">
         <v>#VALUE!</v>
@@ -23513,27 +23316,27 @@
         <v>0</v>
       </c>
       <c r="Q35" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R35" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S35" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T35" s="87">
+      <c r="U35" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U35" s="87">
+      <c r="V35" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V35" s="88">
-        <f t="shared" si="3"/>
         <v>550.66</v>
       </c>
     </row>
@@ -23542,7 +23345,7 @@
         <v>30</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C36" s="77" t="e" vm="31">
         <v>#VALUE!</v>
@@ -23587,27 +23390,27 @@
         <v>0</v>
       </c>
       <c r="Q36" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R36" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S36" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T36" s="87">
+      <c r="U36" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U36" s="87">
+      <c r="V36" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V36" s="88">
-        <f t="shared" si="3"/>
         <v>573.67399999999998</v>
       </c>
     </row>
@@ -23616,7 +23419,7 @@
         <v>31</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C37" s="77" t="e" vm="32">
         <v>#VALUE!</v>
@@ -23662,27 +23465,27 @@
         <v>0</v>
       </c>
       <c r="Q37" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="87">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R37" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S37" s="87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T37" s="87">
+      <c r="U37" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U37" s="87">
+      <c r="V37" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V37" s="88">
-        <f t="shared" si="3"/>
         <v>597.69600000000003</v>
       </c>
     </row>
@@ -23691,7 +23494,7 @@
         <v>32</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C38" s="77" t="e" vm="33">
         <v>#VALUE!</v>
@@ -23736,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q38" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R38" s="87">
@@ -23744,19 +23547,19 @@
         <v>0</v>
       </c>
       <c r="S38" s="87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T38" s="87">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U38" s="87">
+      <c r="V38" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V38" s="88">
-        <f t="shared" si="3"/>
         <v>619.702</v>
       </c>
     </row>
@@ -23765,7 +23568,7 @@
         <v>33</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C39" s="77" t="e" vm="34">
         <v>#VALUE!</v>
@@ -23809,7 +23612,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R39" s="87">
@@ -23817,19 +23620,19 @@
         <v>0</v>
       </c>
       <c r="S39" s="87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T39" s="87">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U39" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U39" s="87">
+      <c r="V39" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V39" s="88">
-        <f t="shared" si="3"/>
         <v>642.71600000000001</v>
       </c>
     </row>
@@ -23894,7 +23697,7 @@
       <c r="C41" s="77"/>
       <c r="D41" s="1"/>
       <c r="F41" s="90" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G41" s="159">
         <f>SUM(G40:N40)</f>
@@ -23914,7 +23717,7 @@
       <c r="D42" s="1"/>
       <c r="F42" s="90"/>
       <c r="G42" s="84" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H42" s="84" t="s">
         <v>18</v>
@@ -23923,7 +23726,7 @@
         <v>11</v>
       </c>
       <c r="J42" s="84" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K42" s="84" t="s">
         <v>12</v>
@@ -23943,7 +23746,7 @@
       <c r="C43" s="77"/>
       <c r="D43" s="1"/>
       <c r="F43" s="49" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G43" s="91">
         <f>G40/$G$41</f>
@@ -24023,7 +23826,7 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="92" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G45" s="91">
         <f>BPCA_Experimental!H17</f>
@@ -24057,7 +23860,7 @@
     <row r="46" spans="1:22">
       <c r="D46" s="1"/>
       <c r="F46" s="94" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G46" s="76">
         <f>ABS(G43-G44)/G44</f>
@@ -24095,7 +23898,7 @@
       <c r="D48" s="1"/>
       <c r="E48" s="77"/>
       <c r="F48" s="94" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G48" s="87">
         <f>Q40</f>
@@ -24107,14 +23910,14 @@
       <c r="D49" s="1"/>
       <c r="E49" s="96"/>
       <c r="F49" s="97" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G49" s="76">
         <f>BPCA_Experimental!H29</f>
         <v>0.26424758936501019</v>
       </c>
       <c r="H49" s="156" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="I49" s="156"/>
       <c r="J49" s="156"/>
@@ -24128,7 +23931,7 @@
       <c r="D50" s="1"/>
       <c r="E50" s="96"/>
       <c r="F50" s="97" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G50" s="76">
         <f>G49*G55</f>
@@ -24146,7 +23949,7 @@
     <row r="51" spans="1:24" ht="13" customHeight="1">
       <c r="D51" s="1"/>
       <c r="F51" s="97" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G51" s="76">
         <f>S40/R40</f>
@@ -24165,7 +23968,7 @@
     <row r="52" spans="1:24">
       <c r="D52" s="1"/>
       <c r="F52" s="97" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G52" s="76">
         <f>G50-G51</f>
@@ -24205,7 +24008,7 @@
     <row r="54" spans="1:24">
       <c r="D54" s="1"/>
       <c r="F54" s="98" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G54" s="99">
         <v>10000</v>
@@ -24216,14 +24019,14 @@
     <row r="55" spans="1:24" ht="16" customHeight="1">
       <c r="D55" s="1"/>
       <c r="F55" s="92" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G55" s="91">
         <f>BPCA_Experimental!H25</f>
         <v>0.78</v>
       </c>
       <c r="H55" s="156" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="I55" s="156"/>
       <c r="J55" s="156"/>
@@ -24238,7 +24041,7 @@
       <c r="D56" s="1"/>
       <c r="E56" s="77"/>
       <c r="F56" s="92" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G56" s="91">
         <f>R40/(G54-S40)</f>

--- a/BPCA/BPCA_PAH.xlsx
+++ b/BPCA/BPCA_PAH.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailwsu-my.sharepoint.com/personal/v_sierrajimenez_wsu_edu/Documents/WSU/PhD/Thesis/Paper 1 Methodology/Paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailwsu-my.sharepoint.com/personal/v_sierrajimenez_wsu_edu/Documents/WSU/PhD/Thesis/Paper 1 Methodology/Paper/New version/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="330" documentId="13_ncr:1_{06919FED-0BB1-C44E-8619-00AA43605CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E47208C-9104-4C4E-B933-2DB28241582F}"/>
+  <xr:revisionPtr revIDLastSave="335" documentId="13_ncr:1_{06919FED-0BB1-C44E-8619-00AA43605CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BFDE105-017A-8A44-B154-BA7609A63967}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="15820" activeTab="5" xr2:uid="{EB29A718-2CE6-174F-8972-CCE909784FB0}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="15820" activeTab="2" xr2:uid="{EB29A718-2CE6-174F-8972-CCE909784FB0}"/>
   </bookViews>
   <sheets>
     <sheet name="PAH_Standard" sheetId="17" r:id="rId1"/>
@@ -1387,17 +1387,41 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1407,30 +1431,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6707,41 +6707,41 @@
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="2:18">
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="110" t="s">
+      <c r="D6" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="110" t="s">
+      <c r="E6" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="110" t="s">
+      <c r="F6" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="110" t="s">
+      <c r="G6" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="102" t="str">
+      <c r="H6" s="110" t="str">
         <f>HYPERLINK("#BPCA!B5","BPCA types")</f>
         <v>BPCA types</v>
       </c>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="103"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="110"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="111"/>
     </row>
     <row r="7" spans="2:18">
-      <c r="B7" s="109"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
       <c r="H7" s="63" t="s">
         <v>134</v>
       </c>
@@ -6762,17 +6762,17 @@
       </c>
     </row>
     <row r="8" spans="2:18" ht="34" customHeight="1">
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98">
+      <c r="C8" s="101"/>
+      <c r="D8" s="101">
         <v>14</v>
       </c>
-      <c r="E8" s="98">
+      <c r="E8" s="101">
         <v>94.4</v>
       </c>
-      <c r="F8" s="98">
+      <c r="F8" s="101">
         <v>24.2</v>
       </c>
       <c r="G8" s="14" t="s">
@@ -6788,11 +6788,11 @@
       <c r="M8" s="16"/>
     </row>
     <row r="9" spans="2:18" ht="34" customHeight="1">
-      <c r="B9" s="99"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
       <c r="G9" s="14" t="s">
         <v>14</v>
       </c>
@@ -6810,17 +6810,17 @@
       <c r="M9" s="16"/>
     </row>
     <row r="10" spans="2:18" ht="33" customHeight="1">
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98">
+      <c r="C10" s="101"/>
+      <c r="D10" s="101">
         <v>14</v>
       </c>
-      <c r="E10" s="98">
+      <c r="E10" s="101">
         <v>94.4</v>
       </c>
-      <c r="F10" s="98">
+      <c r="F10" s="101">
         <v>23.7</v>
       </c>
       <c r="G10" s="14" t="s">
@@ -6838,11 +6838,11 @@
       <c r="M10" s="16"/>
     </row>
     <row r="11" spans="2:18" ht="33" customHeight="1">
-      <c r="B11" s="100"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
       <c r="G11" s="14" t="s">
         <v>14</v>
       </c>
@@ -6860,17 +6860,17 @@
       <c r="M11" s="16"/>
     </row>
     <row r="12" spans="2:18" ht="39" customHeight="1">
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98">
+      <c r="C12" s="101"/>
+      <c r="D12" s="101">
         <v>18</v>
       </c>
-      <c r="E12" s="98">
+      <c r="E12" s="101">
         <v>92.3</v>
       </c>
-      <c r="F12" s="98">
+      <c r="F12" s="101">
         <v>29.3</v>
       </c>
       <c r="G12" s="14" t="s">
@@ -6892,11 +6892,11 @@
       <c r="M12" s="16"/>
     </row>
     <row r="13" spans="2:18" ht="39" customHeight="1">
-      <c r="B13" s="100"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
       <c r="G13" s="14" t="s">
         <v>14</v>
       </c>
@@ -6917,17 +6917,17 @@
       <c r="M13" s="16"/>
     </row>
     <row r="14" spans="2:18" ht="32" customHeight="1">
-      <c r="B14" s="100" t="s">
+      <c r="B14" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98">
+      <c r="C14" s="101"/>
+      <c r="D14" s="101">
         <v>18</v>
       </c>
-      <c r="E14" s="98">
+      <c r="E14" s="101">
         <v>94.7</v>
       </c>
-      <c r="F14" s="98">
+      <c r="F14" s="101">
         <v>21.5</v>
       </c>
       <c r="G14" s="14" t="s">
@@ -6945,11 +6945,11 @@
       <c r="M14" s="16"/>
     </row>
     <row r="15" spans="2:18" ht="32" customHeight="1">
-      <c r="B15" s="100"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
       <c r="G15" s="14" t="s">
         <v>14</v>
       </c>
@@ -6967,17 +6967,17 @@
       <c r="M15" s="16"/>
     </row>
     <row r="16" spans="2:18" ht="36" customHeight="1">
-      <c r="B16" s="99" t="s">
+      <c r="B16" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98">
+      <c r="C16" s="101"/>
+      <c r="D16" s="101">
         <v>16</v>
       </c>
-      <c r="E16" s="98">
+      <c r="E16" s="101">
         <v>95</v>
       </c>
-      <c r="F16" s="98">
+      <c r="F16" s="101">
         <v>37</v>
       </c>
       <c r="G16" s="14" t="s">
@@ -6996,11 +6996,11 @@
       <c r="R16" s="1"/>
     </row>
     <row r="17" spans="2:13" ht="36" customHeight="1">
-      <c r="B17" s="99"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
       <c r="G17" s="14" t="s">
         <v>14</v>
       </c>
@@ -7018,17 +7018,17 @@
       <c r="M17" s="16"/>
     </row>
     <row r="18" spans="2:13" ht="35" customHeight="1">
-      <c r="B18" s="99" t="s">
+      <c r="B18" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98">
+      <c r="C18" s="101"/>
+      <c r="D18" s="101">
         <v>16</v>
       </c>
-      <c r="E18" s="98">
+      <c r="E18" s="101">
         <v>77.400000000000006</v>
       </c>
-      <c r="F18" s="98">
+      <c r="F18" s="101">
         <v>36.1</v>
       </c>
       <c r="G18" s="14" t="s">
@@ -7048,11 +7048,11 @@
       <c r="M18" s="16"/>
     </row>
     <row r="19" spans="2:13" ht="35" customHeight="1">
-      <c r="B19" s="99"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
       <c r="G19" s="14" t="s">
         <v>14</v>
       </c>
@@ -7070,17 +7070,17 @@
       <c r="M19" s="16"/>
     </row>
     <row r="20" spans="2:13" ht="42" customHeight="1">
-      <c r="B20" s="100" t="s">
+      <c r="B20" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98">
+      <c r="C20" s="101"/>
+      <c r="D20" s="101">
         <v>20</v>
       </c>
-      <c r="E20" s="98">
+      <c r="E20" s="101">
         <v>95.2</v>
       </c>
-      <c r="F20" s="98">
+      <c r="F20" s="101">
         <v>22.5</v>
       </c>
       <c r="G20" s="14" t="s">
@@ -7098,11 +7098,11 @@
       </c>
     </row>
     <row r="21" spans="2:13" ht="42" customHeight="1">
-      <c r="B21" s="100"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
       <c r="G21" s="14" t="s">
         <v>14</v>
       </c>
@@ -7120,17 +7120,17 @@
       </c>
     </row>
     <row r="22" spans="2:13" ht="47" customHeight="1">
-      <c r="B22" s="99" t="s">
+      <c r="B22" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98">
+      <c r="C22" s="101"/>
+      <c r="D22" s="101">
         <v>22</v>
       </c>
-      <c r="E22" s="98">
+      <c r="E22" s="101">
         <v>95.5</v>
       </c>
-      <c r="F22" s="98">
+      <c r="F22" s="101">
         <v>22.5</v>
       </c>
       <c r="G22" s="14" t="s">
@@ -7150,11 +7150,11 @@
       </c>
     </row>
     <row r="23" spans="2:13" ht="47" customHeight="1">
-      <c r="B23" s="99"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
+      <c r="B23" s="102"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
       <c r="G23" s="14" t="s">
         <v>14</v>
       </c>
@@ -7175,17 +7175,17 @@
       </c>
     </row>
     <row r="24" spans="2:13" ht="53" customHeight="1">
-      <c r="B24" s="99" t="s">
+      <c r="B24" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="98"/>
-      <c r="D24" s="98">
+      <c r="C24" s="101"/>
+      <c r="D24" s="101">
         <v>24</v>
       </c>
-      <c r="E24" s="98">
+      <c r="E24" s="101">
         <v>96</v>
       </c>
-      <c r="F24" s="98">
+      <c r="F24" s="101">
         <v>19.5</v>
       </c>
       <c r="G24" s="14" t="s">
@@ -7203,11 +7203,11 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="53" customHeight="1">
-      <c r="B25" s="99"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="98"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
       <c r="G25" s="14" t="s">
         <v>14</v>
       </c>
@@ -7243,55 +7243,55 @@
       <c r="M26" s="23"/>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="112" t="s">
+      <c r="B30" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="112"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="112"/>
-      <c r="H30" s="112"/>
-      <c r="I30" s="112"/>
-      <c r="J30" s="112"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="100"/>
+      <c r="J30" s="100"/>
     </row>
     <row r="31" spans="2:13" ht="16" customHeight="1">
-      <c r="B31" s="107" t="s">
+      <c r="B31" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="107"/>
-      <c r="D31" s="107"/>
-      <c r="E31" s="107"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="107"/>
-      <c r="I31" s="107"/>
-      <c r="J31" s="107"/>
-      <c r="K31" s="107"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="109"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="109"/>
+      <c r="K31" s="109"/>
     </row>
     <row r="32" spans="2:13">
-      <c r="B32" s="107"/>
-      <c r="C32" s="107"/>
-      <c r="D32" s="107"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="107"/>
-      <c r="I32" s="107"/>
-      <c r="J32" s="107"/>
-      <c r="K32" s="107"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="109"/>
+      <c r="H32" s="109"/>
+      <c r="I32" s="109"/>
+      <c r="J32" s="109"/>
+      <c r="K32" s="109"/>
     </row>
     <row r="33" spans="2:11">
-      <c r="B33" s="107"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="107"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="107"/>
-      <c r="H33" s="107"/>
-      <c r="I33" s="107"/>
-      <c r="J33" s="107"/>
-      <c r="K33" s="107"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="109"/>
+      <c r="H33" s="109"/>
+      <c r="I33" s="109"/>
+      <c r="J33" s="109"/>
+      <c r="K33" s="109"/>
     </row>
     <row r="34" spans="2:11">
       <c r="B34" s="2"/>
@@ -7302,43 +7302,43 @@
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="2:11">
-      <c r="B35" s="104" t="s">
+      <c r="B35" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="104"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="104"/>
-      <c r="I35" s="104"/>
-      <c r="J35" s="104"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="112"/>
+      <c r="H35" s="112"/>
+      <c r="I35" s="112"/>
+      <c r="J35" s="112"/>
     </row>
     <row r="36" spans="2:11" ht="16" customHeight="1">
-      <c r="B36" s="106" t="s">
+      <c r="B36" s="108" t="s">
         <v>124</v>
       </c>
-      <c r="C36" s="106"/>
-      <c r="D36" s="106"/>
-      <c r="E36" s="106"/>
-      <c r="F36" s="106"/>
-      <c r="G36" s="106"/>
-      <c r="H36" s="106"/>
-      <c r="I36" s="106"/>
-      <c r="J36" s="106"/>
-      <c r="K36" s="106"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="108"/>
+      <c r="G36" s="108"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="108"/>
+      <c r="J36" s="108"/>
+      <c r="K36" s="108"/>
     </row>
     <row r="37" spans="2:11">
-      <c r="B37" s="106"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="106"/>
-      <c r="E37" s="106"/>
-      <c r="F37" s="106"/>
-      <c r="G37" s="106"/>
-      <c r="H37" s="106"/>
-      <c r="I37" s="106"/>
-      <c r="J37" s="106"/>
-      <c r="K37" s="106"/>
+      <c r="B37" s="108"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="108"/>
+      <c r="E37" s="108"/>
+      <c r="F37" s="108"/>
+      <c r="G37" s="108"/>
+      <c r="H37" s="108"/>
+      <c r="I37" s="108"/>
+      <c r="J37" s="108"/>
+      <c r="K37" s="108"/>
     </row>
     <row r="38" spans="2:11">
       <c r="B38" s="105" t="s">
@@ -7354,18 +7354,18 @@
       <c r="J38" s="105"/>
     </row>
     <row r="39" spans="2:11" ht="35" customHeight="1">
-      <c r="B39" s="101" t="s">
+      <c r="B39" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="101"/>
-      <c r="D39" s="101"/>
-      <c r="E39" s="101"/>
-      <c r="F39" s="101"/>
-      <c r="G39" s="101"/>
-      <c r="H39" s="101"/>
-      <c r="I39" s="101"/>
-      <c r="J39" s="101"/>
-      <c r="K39" s="101"/>
+      <c r="C39" s="106"/>
+      <c r="D39" s="106"/>
+      <c r="E39" s="106"/>
+      <c r="F39" s="106"/>
+      <c r="G39" s="106"/>
+      <c r="H39" s="106"/>
+      <c r="I39" s="106"/>
+      <c r="J39" s="106"/>
+      <c r="K39" s="106"/>
     </row>
     <row r="40" spans="2:11">
       <c r="B40" s="105" t="s">
@@ -7382,45 +7382,89 @@
       <c r="K40" s="105"/>
     </row>
     <row r="41" spans="2:11">
-      <c r="B41" s="101" t="s">
+      <c r="B41" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="101"/>
-      <c r="D41" s="101"/>
-      <c r="E41" s="101"/>
-      <c r="F41" s="101"/>
-      <c r="G41" s="101"/>
-      <c r="H41" s="101"/>
-      <c r="I41" s="101"/>
-      <c r="J41" s="101"/>
-      <c r="K41" s="101"/>
+      <c r="C41" s="106"/>
+      <c r="D41" s="106"/>
+      <c r="E41" s="106"/>
+      <c r="F41" s="106"/>
+      <c r="G41" s="106"/>
+      <c r="H41" s="106"/>
+      <c r="I41" s="106"/>
+      <c r="J41" s="106"/>
+      <c r="K41" s="106"/>
     </row>
     <row r="42" spans="2:11">
-      <c r="B42" s="101"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="101"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="101"/>
-      <c r="G42" s="101"/>
-      <c r="H42" s="101"/>
-      <c r="I42" s="101"/>
-      <c r="J42" s="101"/>
-      <c r="K42" s="101"/>
+      <c r="B42" s="106"/>
+      <c r="C42" s="106"/>
+      <c r="D42" s="106"/>
+      <c r="E42" s="106"/>
+      <c r="F42" s="106"/>
+      <c r="G42" s="106"/>
+      <c r="H42" s="106"/>
+      <c r="I42" s="106"/>
+      <c r="J42" s="106"/>
+      <c r="K42" s="106"/>
     </row>
     <row r="43" spans="2:11">
-      <c r="B43" s="101"/>
-      <c r="C43" s="101"/>
-      <c r="D43" s="101"/>
-      <c r="E43" s="101"/>
-      <c r="F43" s="101"/>
-      <c r="G43" s="101"/>
-      <c r="H43" s="101"/>
-      <c r="I43" s="101"/>
-      <c r="J43" s="101"/>
-      <c r="K43" s="101"/>
+      <c r="B43" s="106"/>
+      <c r="C43" s="106"/>
+      <c r="D43" s="106"/>
+      <c r="E43" s="106"/>
+      <c r="F43" s="106"/>
+      <c r="G43" s="106"/>
+      <c r="H43" s="106"/>
+      <c r="I43" s="106"/>
+      <c r="J43" s="106"/>
+      <c r="K43" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B41:K43"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B40:K40"/>
+    <mergeCell ref="B39:K39"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B36:K37"/>
+    <mergeCell ref="B31:K33"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="B30:J30"/>
     <mergeCell ref="C22:C23"/>
@@ -7437,50 +7481,6 @@
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="E18:E19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B40:K40"/>
-    <mergeCell ref="B39:K39"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B36:K37"/>
-    <mergeCell ref="B31:K33"/>
-    <mergeCell ref="B41:K43"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C14:C15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{63B72AE5-4AD0-934A-BE7B-D1600FAA98EA}"/>
@@ -8377,9 +8377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6705ED31-4C6C-0C48-999B-979E962E2EC9}">
   <dimension ref="A2:V83"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
@@ -8460,7 +8458,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>67</v>
@@ -11838,9 +11836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA90EBAA-0722-804E-9963-5CBF954104AC}">
   <dimension ref="A2:V83"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
@@ -11923,7 +11919,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>67</v>
@@ -15301,9 +15297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F8AF4A-2556-E44D-BD8A-72E1532A4D20}">
   <dimension ref="A2:V83"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
@@ -15384,7 +15378,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>67</v>
@@ -18778,8 +18772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D382B00-30F4-764B-9FB9-162B0A78B6BF}">
   <dimension ref="A2:V83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -18861,7 +18855,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>67</v>

--- a/BPCA/BPCA_PAH.xlsx
+++ b/BPCA/BPCA_PAH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailwsu-my.sharepoint.com/personal/v_sierrajimenez_wsu_edu/Documents/WSU/PhD/Thesis/Paper 1 Methodology/Paper/New version/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailwsu-my.sharepoint.com/personal/v_sierrajimenez_wsu_edu/Documents/WSU/PhD/Thesis/Paper 1 Methodology/Reviewed Version/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="335" documentId="13_ncr:1_{06919FED-0BB1-C44E-8619-00AA43605CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BFDE105-017A-8A44-B154-BA7609A63967}"/>
+  <xr:revisionPtr revIDLastSave="724" documentId="13_ncr:1_{06919FED-0BB1-C44E-8619-00AA43605CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9009ACCE-969F-FB4A-B79F-489DACBAB3BD}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="15820" activeTab="2" xr2:uid="{EB29A718-2CE6-174F-8972-CCE909784FB0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="2" xr2:uid="{EB29A718-2CE6-174F-8972-CCE909784FB0}"/>
   </bookViews>
   <sheets>
     <sheet name="PAH_Standard" sheetId="17" r:id="rId1"/>
@@ -1024,17 +1024,16 @@
       <name val="Var(--jp-code-font-family)"/>
     </font>
     <font>
-      <sz val="13"/>
+      <u/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
+      <sz val="13"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Var(--jp-code-font-family)"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1374,9 +1373,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1384,9 +1380,10 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2499,22 +2496,22 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.02</c:v>
+                  <c:v>2.3076923076923082E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.855384615384616E-2</c:v>
+                  <c:v>6.7455621301775154E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.03</c:v>
+                  <c:v>3.461538461538461E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1414</c:v>
+                  <c:v>0.13990384615384616</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32439999999999997</c:v>
+                  <c:v>0.32435897435897437</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.41564615384615389</c:v>
+                  <c:v>0.41058925049309664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7493,10 +7490,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E062ABCA-5C43-BE44-A746-9CF55D0E4D06}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B2:R44"/>
+  <dimension ref="B2:R48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -8190,7 +8187,7 @@
       </c>
       <c r="Q33" s="45"/>
     </row>
-    <row r="34" spans="2:17">
+    <row r="34" spans="2:17" ht="17">
       <c r="B34" s="37" t="s">
         <v>53</v>
       </c>
@@ -8203,6 +8200,13 @@
       <c r="E34" s="54">
         <f t="shared" ref="E34:E44" si="2">D34/C34</f>
         <v>0</v>
+      </c>
+      <c r="F34" s="97">
+        <v>1</v>
+      </c>
+      <c r="G34" s="45">
+        <f t="shared" ref="G34:G44" si="3">F34*C34</f>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="2:17">
@@ -8219,6 +8223,13 @@
         <f t="shared" si="2"/>
         <v>1.4871794871794872</v>
       </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="2:17">
       <c r="B36" s="37" t="s">
@@ -8234,6 +8245,13 @@
         <f t="shared" si="2"/>
         <v>1.514018691588785</v>
       </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="2:17">
       <c r="B37" s="37" t="s">
@@ -8249,6 +8267,13 @@
         <f t="shared" si="2"/>
         <v>1.6444444444444444</v>
       </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="2:17">
       <c r="B38" s="37" t="s">
@@ -8264,6 +8289,13 @@
         <f t="shared" si="2"/>
         <v>1.6818181818181819</v>
       </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="2:17">
       <c r="B39" s="37" t="s">
@@ -8279,6 +8311,13 @@
         <f t="shared" si="2"/>
         <v>1.3254437869822486</v>
       </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" s="45">
+        <f t="shared" si="3"/>
+        <v>169</v>
+      </c>
     </row>
     <row r="40" spans="2:17">
       <c r="B40" s="37" t="s">
@@ -8294,6 +8333,13 @@
         <f t="shared" si="2"/>
         <v>1.4736842105263157</v>
       </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="2:17">
       <c r="B41" s="37" t="s">
@@ -8309,6 +8355,13 @@
         <f t="shared" si="2"/>
         <v>1.3300970873786409</v>
       </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" s="45">
+        <f t="shared" si="3"/>
+        <v>206</v>
+      </c>
     </row>
     <row r="42" spans="2:17">
       <c r="B42" s="37" t="s">
@@ -8324,6 +8377,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42" s="45">
+        <f t="shared" si="3"/>
+        <v>412</v>
+      </c>
     </row>
     <row r="43" spans="2:17">
       <c r="B43" s="37" t="s">
@@ -8339,6 +8399,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" s="45">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
     </row>
     <row r="44" spans="2:17">
       <c r="B44" s="55" t="s">
@@ -8353,6 +8420,30 @@
       <c r="E44" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" s="45">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17">
+      <c r="G46" s="45">
+        <f>SUM(G34:G44)</f>
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17">
+      <c r="G47" s="45">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17">
+      <c r="G48" s="45">
+        <f>G46-G47</f>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -8377,7 +8468,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6705ED31-4C6C-0C48-999B-979E962E2EC9}">
   <dimension ref="A2:V83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M55" sqref="M55"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
@@ -8514,7 +8607,7 @@
       <c r="A6" s="14">
         <v>0</v>
       </c>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="96" t="s">
         <v>76</v>
       </c>
       <c r="C6" s="60" t="e" vm="1">
@@ -8537,7 +8630,7 @@
       <c r="A7" s="14">
         <v>1</v>
       </c>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="96" t="s">
         <v>135</v>
       </c>
       <c r="C7" s="60" t="e" vm="2">
@@ -8571,7 +8664,7 @@
       <c r="L7" s="59">
         <v>0</v>
       </c>
-      <c r="M7" s="93">
+      <c r="M7" s="14">
         <v>0</v>
       </c>
       <c r="N7" s="19">
@@ -8607,7 +8700,7 @@
       <c r="A8" s="14">
         <v>2</v>
       </c>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="96" t="s">
         <v>77</v>
       </c>
       <c r="C8" s="60" t="e" vm="3">
@@ -8665,7 +8758,7 @@
       </c>
       <c r="S8" s="70">
         <f t="shared" si="5"/>
-        <v>2.418379685610641</v>
+        <v>2.4009603841536618</v>
       </c>
       <c r="T8" s="71">
         <f t="shared" si="6"/>
@@ -8673,10 +8766,10 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="79" customHeight="1">
-      <c r="A9" s="95">
+      <c r="A9" s="94">
         <v>3</v>
       </c>
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="96" t="s">
         <v>78</v>
       </c>
       <c r="C9" s="60" t="e" vm="4">
@@ -8744,10 +8837,10 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="83" customHeight="1">
-      <c r="A10" s="95">
+      <c r="A10" s="94">
         <v>4</v>
       </c>
-      <c r="B10" s="97" t="s">
+      <c r="B10" s="96" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="60" t="e" vm="5">
@@ -8817,7 +8910,7 @@
       <c r="A11" s="14">
         <v>5</v>
       </c>
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="96" t="s">
         <v>79</v>
       </c>
       <c r="C11" s="60" t="e" vm="6">
@@ -8888,7 +8981,7 @@
       <c r="A12" s="14">
         <v>6</v>
       </c>
-      <c r="B12" s="97" t="s">
+      <c r="B12" s="96" t="s">
         <v>80</v>
       </c>
       <c r="C12" s="60" t="e" vm="7">
@@ -8947,7 +9040,7 @@
       </c>
       <c r="S12" s="70">
         <f t="shared" si="5"/>
-        <v>8.464328899637243</v>
+        <v>8.4033613445378155</v>
       </c>
       <c r="T12" s="71">
         <f t="shared" si="6"/>
@@ -8955,10 +9048,10 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="91" customHeight="1">
-      <c r="A13" s="95">
+      <c r="A13" s="94">
         <v>7</v>
       </c>
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="96" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="60" t="e" vm="8">
@@ -9026,10 +9119,10 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="91" customHeight="1">
-      <c r="A14" s="95">
+      <c r="A14" s="94">
         <v>8</v>
       </c>
-      <c r="B14" s="97" t="s">
+      <c r="B14" s="96" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="60" t="e" vm="9">
@@ -9098,7 +9191,7 @@
       <c r="A15" s="14">
         <v>9</v>
       </c>
-      <c r="B15" s="97" t="s">
+      <c r="B15" s="96" t="s">
         <v>81</v>
       </c>
       <c r="C15" s="60" t="e" vm="10">
@@ -9169,7 +9262,7 @@
       <c r="A16" s="14">
         <v>10</v>
       </c>
-      <c r="B16" s="97" t="s">
+      <c r="B16" s="96" t="s">
         <v>82</v>
       </c>
       <c r="C16" s="60" t="e" vm="11">
@@ -9240,7 +9333,7 @@
       <c r="A17" s="14">
         <v>11</v>
       </c>
-      <c r="B17" s="97" t="s">
+      <c r="B17" s="96" t="s">
         <v>83</v>
       </c>
       <c r="C17" s="60" t="e" vm="12">
@@ -9308,10 +9401,10 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="117" customHeight="1">
-      <c r="A18" s="95">
+      <c r="A18" s="94">
         <v>12</v>
       </c>
-      <c r="B18" s="97" t="s">
+      <c r="B18" s="96" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="60" t="e" vm="13">
@@ -9379,10 +9472,10 @@
       </c>
     </row>
     <row r="19" spans="1:20" ht="93" customHeight="1">
-      <c r="A19" s="95">
+      <c r="A19" s="94">
         <v>13</v>
       </c>
-      <c r="B19" s="97" t="s">
+      <c r="B19" s="96" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="61" t="e" vm="14">
@@ -9453,7 +9546,7 @@
       <c r="A20" s="14">
         <v>14</v>
       </c>
-      <c r="B20" s="97" t="s">
+      <c r="B20" s="96" t="s">
         <v>84</v>
       </c>
       <c r="C20" s="61" t="e" vm="15">
@@ -9521,10 +9614,10 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="102" customHeight="1">
-      <c r="A21" s="95">
+      <c r="A21" s="94">
         <v>15</v>
       </c>
-      <c r="B21" s="97" t="s">
+      <c r="B21" s="96" t="s">
         <v>85</v>
       </c>
       <c r="C21" s="61" t="e" vm="16">
@@ -9596,7 +9689,7 @@
       <c r="A22" s="14">
         <v>16</v>
       </c>
-      <c r="B22" s="97" t="s">
+      <c r="B22" s="96" t="s">
         <v>86</v>
       </c>
       <c r="C22" s="60" t="e" vm="17">
@@ -9657,7 +9750,7 @@
       </c>
       <c r="S22" s="70">
         <f t="shared" si="5"/>
-        <v>10.640870616686819</v>
+        <v>10.56422569027611</v>
       </c>
       <c r="T22" s="71">
         <f t="shared" si="6"/>
@@ -9668,7 +9761,7 @@
       <c r="A23" s="14">
         <v>17</v>
       </c>
-      <c r="B23" s="97" t="s">
+      <c r="B23" s="96" t="s">
         <v>87</v>
       </c>
       <c r="C23" s="60" t="e" vm="18">
@@ -9740,7 +9833,7 @@
       <c r="A24" s="14">
         <v>18</v>
       </c>
-      <c r="B24" s="97" t="s">
+      <c r="B24" s="96" t="s">
         <v>88</v>
       </c>
       <c r="C24" s="60" t="e" vm="19">
@@ -9812,7 +9905,7 @@
       <c r="A25" s="14">
         <v>19</v>
       </c>
-      <c r="B25" s="97" t="s">
+      <c r="B25" s="96" t="s">
         <v>89</v>
       </c>
       <c r="C25" s="60" t="e" vm="20">
@@ -9873,7 +9966,7 @@
       </c>
       <c r="S25" s="70">
         <f t="shared" si="5"/>
-        <v>70.495767835550183</v>
+        <v>69.987995198079233</v>
       </c>
       <c r="T25" s="71">
         <f t="shared" si="6"/>
@@ -9884,7 +9977,7 @@
       <c r="A26" s="14">
         <v>20</v>
       </c>
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="96" t="s">
         <v>90</v>
       </c>
       <c r="C26" s="60" t="e" vm="21">
@@ -9957,7 +10050,7 @@
       <c r="A27" s="14">
         <v>21</v>
       </c>
-      <c r="B27" s="97" t="s">
+      <c r="B27" s="96" t="s">
         <v>91</v>
       </c>
       <c r="C27" s="60" t="e" vm="22">
@@ -10039,7 +10132,7 @@
         <v>19</v>
       </c>
       <c r="E28" s="14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" s="14">
         <v>5</v>
@@ -10082,7 +10175,7 @@
       </c>
       <c r="Q28" s="70">
         <f t="shared" si="3"/>
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="R28" s="70">
         <f t="shared" si="4"/>
@@ -10090,11 +10183,11 @@
       </c>
       <c r="S28" s="70">
         <f t="shared" si="5"/>
-        <v>7.9806529625151157</v>
+        <v>8.6434573829531818</v>
       </c>
       <c r="T28" s="71">
         <f t="shared" si="6"/>
-        <v>239.29699999999997</v>
+        <v>240.30499999999998</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="119" customHeight="1">
@@ -10186,7 +10279,7 @@
         <v>30</v>
       </c>
       <c r="E30" s="14">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F30" s="14">
         <v>9</v>
@@ -10242,7 +10335,7 @@
       </c>
       <c r="T30" s="71">
         <f t="shared" si="6"/>
-        <v>375.45</v>
+        <v>378.47399999999999</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="151" customHeight="1">
@@ -10260,7 +10353,7 @@
         <v>33</v>
       </c>
       <c r="E31" s="14">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F31" s="14">
         <v>10</v>
@@ -10316,7 +10409,7 @@
       </c>
       <c r="T31" s="71">
         <f t="shared" si="6"/>
-        <v>413.49900000000002</v>
+        <v>416.52300000000002</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="173" customHeight="1">
@@ -10334,7 +10427,7 @@
         <v>36</v>
       </c>
       <c r="E32" s="14">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F32" s="14">
         <v>11</v>
@@ -10390,7 +10483,7 @@
       </c>
       <c r="T32" s="71">
         <f t="shared" si="6"/>
-        <v>451.54799999999994</v>
+        <v>454.57199999999995</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="213" customHeight="1">
@@ -10408,7 +10501,7 @@
         <v>39</v>
       </c>
       <c r="E33" s="14">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F33" s="14">
         <v>12</v>
@@ -10464,7 +10557,7 @@
       </c>
       <c r="T33" s="71">
         <f t="shared" si="6"/>
-        <v>489.59699999999998</v>
+        <v>490.60499999999996</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="238" customHeight="1">
@@ -10482,7 +10575,7 @@
         <v>42</v>
       </c>
       <c r="E34" s="14">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F34" s="14">
         <v>13</v>
@@ -10536,7 +10629,7 @@
       </c>
       <c r="T34" s="71">
         <f t="shared" si="6"/>
-        <v>527.64599999999996</v>
+        <v>528.654</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="204" customHeight="1">
@@ -10554,7 +10647,7 @@
         <v>44</v>
       </c>
       <c r="E35" s="14">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F35" s="14">
         <v>14</v>
@@ -10609,7 +10702,7 @@
       </c>
       <c r="T35" s="71">
         <f t="shared" si="6"/>
-        <v>550.66</v>
+        <v>552.67599999999993</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="171" customHeight="1">
@@ -10627,7 +10720,7 @@
         <v>46</v>
       </c>
       <c r="E36" s="14">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F36" s="14">
         <v>15</v>
@@ -10683,7 +10776,7 @@
       </c>
       <c r="T36" s="71">
         <f t="shared" si="6"/>
-        <v>573.67399999999998</v>
+        <v>578.71399999999994</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="202" customHeight="1">
@@ -10701,7 +10794,7 @@
         <v>48</v>
       </c>
       <c r="E37" s="14">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F37" s="14">
         <v>16</v>
@@ -10758,7 +10851,7 @@
       </c>
       <c r="T37" s="71">
         <f t="shared" si="6"/>
-        <v>597.69600000000003</v>
+        <v>600.72</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="198" customHeight="1">
@@ -10776,7 +10869,7 @@
         <v>50</v>
       </c>
       <c r="E38" s="14">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F38" s="14">
         <v>17</v>
@@ -10832,7 +10925,7 @@
       </c>
       <c r="T38" s="71">
         <f t="shared" si="6"/>
-        <v>619.702</v>
+        <v>624.74199999999996</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="202" customHeight="1">
@@ -10850,7 +10943,7 @@
         <v>52</v>
       </c>
       <c r="E39" s="14">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F39" s="14">
         <v>18</v>
@@ -10905,7 +10998,7 @@
       </c>
       <c r="T39" s="71">
         <f t="shared" si="6"/>
-        <v>642.71600000000001</v>
+        <v>648.76400000000001</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -10954,7 +11047,7 @@
       </c>
       <c r="Q40" s="70">
         <f>SUM(Q6:Q39)</f>
-        <v>1654</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -11036,7 +11129,7 @@
       </c>
       <c r="M43" s="59"/>
       <c r="N43" s="53"/>
-      <c r="P43" s="94"/>
+      <c r="P43" s="93"/>
     </row>
     <row r="44" spans="1:20">
       <c r="C44" s="60"/>
@@ -11113,7 +11206,7 @@
         <v>95</v>
       </c>
       <c r="G46" s="59">
-        <f t="shared" ref="G46:L46" si="10">ABS(G43-G44)/G44</f>
+        <f t="shared" ref="G46:K46" si="10">ABS(G43-G44)/G44</f>
         <v>2.8520984575013692E-2</v>
       </c>
       <c r="H46" s="59">
@@ -11133,7 +11226,7 @@
         <v>4.4502925211673046E-2</v>
       </c>
       <c r="L46" s="59">
-        <f t="shared" si="10"/>
+        <f>ABS(L43-L44)/L44</f>
         <v>9.1734701516783743E-2</v>
       </c>
       <c r="M46" s="59"/>
@@ -11199,7 +11292,7 @@
       </c>
       <c r="G51" s="59">
         <f>Q40/P40</f>
-        <v>0.35402397260273971</v>
+        <v>0.35659246575342468</v>
       </c>
       <c r="H51" s="126"/>
       <c r="I51" s="126"/>
@@ -11216,7 +11309,7 @@
       </c>
       <c r="G52" s="59">
         <f>G50-G51</f>
-        <v>-3.4217281224221185E-2</v>
+        <v>-3.6785774374906155E-2</v>
       </c>
       <c r="H52" s="126"/>
       <c r="I52" s="126"/>
@@ -11269,7 +11362,7 @@
       </c>
       <c r="G56" s="74">
         <f>P40/(G54-Q40)</f>
-        <v>0.55978912053678409</v>
+        <v>0.56059515238780899</v>
       </c>
       <c r="H56" s="126"/>
       <c r="I56" s="126"/>
@@ -11836,7 +11929,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA90EBAA-0722-804E-9963-5CBF954104AC}">
   <dimension ref="A2:V83"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="D46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
@@ -11975,7 +12070,7 @@
       <c r="A6" s="14">
         <v>0</v>
       </c>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="96" t="s">
         <v>76</v>
       </c>
       <c r="C6" s="60" t="e" vm="1">
@@ -11998,7 +12093,7 @@
       <c r="A7" s="14">
         <v>1</v>
       </c>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="96" t="s">
         <v>135</v>
       </c>
       <c r="C7" s="60" t="e" vm="2">
@@ -12068,7 +12163,7 @@
       <c r="A8" s="14">
         <v>2</v>
       </c>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="96" t="s">
         <v>77</v>
       </c>
       <c r="C8" s="60" t="e" vm="3">
@@ -12126,7 +12221,7 @@
       </c>
       <c r="S8" s="70">
         <f t="shared" si="5"/>
-        <v>1.41643059490085</v>
+        <v>1.3979496738117427</v>
       </c>
       <c r="T8" s="71">
         <f t="shared" si="6"/>
@@ -12134,10 +12229,10 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="79" customHeight="1">
-      <c r="A9" s="95">
+      <c r="A9" s="94">
         <v>3</v>
       </c>
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="96" t="s">
         <v>78</v>
       </c>
       <c r="C9" s="60" t="e" vm="4">
@@ -12205,10 +12300,10 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="83" customHeight="1">
-      <c r="A10" s="95">
+      <c r="A10" s="94">
         <v>4</v>
       </c>
-      <c r="B10" s="97" t="s">
+      <c r="B10" s="96" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="60" t="e" vm="5">
@@ -12278,7 +12373,7 @@
       <c r="A11" s="14">
         <v>5</v>
       </c>
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="96" t="s">
         <v>79</v>
       </c>
       <c r="C11" s="60" t="e" vm="6">
@@ -12349,7 +12444,7 @@
       <c r="A12" s="14">
         <v>6</v>
       </c>
-      <c r="B12" s="97" t="s">
+      <c r="B12" s="96" t="s">
         <v>80</v>
       </c>
       <c r="C12" s="60" t="e" vm="7">
@@ -12408,7 +12503,7 @@
       </c>
       <c r="S12" s="70">
         <f t="shared" si="5"/>
-        <v>6.6100094428706333</v>
+        <v>6.5237651444547993</v>
       </c>
       <c r="T12" s="71">
         <f t="shared" si="6"/>
@@ -12416,10 +12511,10 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="91" customHeight="1">
-      <c r="A13" s="95">
+      <c r="A13" s="94">
         <v>7</v>
       </c>
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="96" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="60" t="e" vm="8">
@@ -12487,10 +12582,10 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="91" customHeight="1">
-      <c r="A14" s="95">
+      <c r="A14" s="94">
         <v>8</v>
       </c>
-      <c r="B14" s="97" t="s">
+      <c r="B14" s="96" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="60" t="e" vm="9">
@@ -12559,7 +12654,7 @@
       <c r="A15" s="14">
         <v>9</v>
       </c>
-      <c r="B15" s="97" t="s">
+      <c r="B15" s="96" t="s">
         <v>81</v>
       </c>
       <c r="C15" s="60" t="e" vm="10">
@@ -12630,7 +12725,7 @@
       <c r="A16" s="14">
         <v>10</v>
       </c>
-      <c r="B16" s="97" t="s">
+      <c r="B16" s="96" t="s">
         <v>82</v>
       </c>
       <c r="C16" s="60" t="e" vm="11">
@@ -12701,7 +12796,7 @@
       <c r="A17" s="14">
         <v>11</v>
       </c>
-      <c r="B17" s="97" t="s">
+      <c r="B17" s="96" t="s">
         <v>83</v>
       </c>
       <c r="C17" s="60" t="e" vm="12">
@@ -12769,10 +12864,10 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="117" customHeight="1">
-      <c r="A18" s="95">
+      <c r="A18" s="94">
         <v>12</v>
       </c>
-      <c r="B18" s="97" t="s">
+      <c r="B18" s="96" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="60" t="e" vm="13">
@@ -12840,10 +12935,10 @@
       </c>
     </row>
     <row r="19" spans="1:20" ht="93" customHeight="1">
-      <c r="A19" s="95">
+      <c r="A19" s="94">
         <v>13</v>
       </c>
-      <c r="B19" s="97" t="s">
+      <c r="B19" s="96" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="61" t="e" vm="14">
@@ -12903,7 +12998,7 @@
       </c>
       <c r="S19" s="70">
         <f t="shared" si="5"/>
-        <v>1.1331444759206799</v>
+        <v>1.1183597390493942</v>
       </c>
       <c r="T19" s="71">
         <f t="shared" si="6"/>
@@ -12914,7 +13009,7 @@
       <c r="A20" s="14">
         <v>14</v>
       </c>
-      <c r="B20" s="97" t="s">
+      <c r="B20" s="96" t="s">
         <v>84</v>
       </c>
       <c r="C20" s="61" t="e" vm="15">
@@ -12982,10 +13077,10 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="102" customHeight="1">
-      <c r="A21" s="95">
+      <c r="A21" s="94">
         <v>15</v>
       </c>
-      <c r="B21" s="97" t="s">
+      <c r="B21" s="96" t="s">
         <v>85</v>
       </c>
       <c r="C21" s="61" t="e" vm="16">
@@ -13057,7 +13152,7 @@
       <c r="A22" s="14">
         <v>16</v>
       </c>
-      <c r="B22" s="97" t="s">
+      <c r="B22" s="96" t="s">
         <v>86</v>
       </c>
       <c r="C22" s="60" t="e" vm="17">
@@ -13129,7 +13224,7 @@
       <c r="A23" s="14">
         <v>17</v>
       </c>
-      <c r="B23" s="97" t="s">
+      <c r="B23" s="96" t="s">
         <v>87</v>
       </c>
       <c r="C23" s="60" t="e" vm="18">
@@ -13190,7 +13285,7 @@
       </c>
       <c r="S23" s="70">
         <f t="shared" si="5"/>
-        <v>9.3484419263456093</v>
+        <v>9.226467847157501</v>
       </c>
       <c r="T23" s="71">
         <f t="shared" si="6"/>
@@ -13201,7 +13296,7 @@
       <c r="A24" s="14">
         <v>18</v>
       </c>
-      <c r="B24" s="97" t="s">
+      <c r="B24" s="96" t="s">
         <v>88</v>
       </c>
       <c r="C24" s="60" t="e" vm="19">
@@ -13262,7 +13357,7 @@
       </c>
       <c r="S24" s="70">
         <f t="shared" si="5"/>
-        <v>2.8328611898017</v>
+        <v>2.7958993476234855</v>
       </c>
       <c r="T24" s="71">
         <f t="shared" si="6"/>
@@ -13273,7 +13368,7 @@
       <c r="A25" s="14">
         <v>19</v>
       </c>
-      <c r="B25" s="97" t="s">
+      <c r="B25" s="96" t="s">
         <v>89</v>
       </c>
       <c r="C25" s="60" t="e" vm="20">
@@ -13334,7 +13429,7 @@
       </c>
       <c r="S25" s="70">
         <f t="shared" si="5"/>
-        <v>64.400377714825311</v>
+        <v>63.560111835973906</v>
       </c>
       <c r="T25" s="71">
         <f t="shared" si="6"/>
@@ -13345,7 +13440,7 @@
       <c r="A26" s="14">
         <v>20</v>
       </c>
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="96" t="s">
         <v>90</v>
       </c>
       <c r="C26" s="60" t="e" vm="21">
@@ -13407,7 +13502,7 @@
       </c>
       <c r="S26" s="70">
         <f t="shared" si="5"/>
-        <v>3.1161473087818696</v>
+        <v>3.075489282385834</v>
       </c>
       <c r="T26" s="71">
         <f t="shared" si="6"/>
@@ -13418,7 +13513,7 @@
       <c r="A27" s="14">
         <v>21</v>
       </c>
-      <c r="B27" s="97" t="s">
+      <c r="B27" s="96" t="s">
         <v>91</v>
       </c>
       <c r="C27" s="60" t="e" vm="22">
@@ -13500,7 +13595,7 @@
         <v>19</v>
       </c>
       <c r="E28" s="14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" s="14">
         <v>5</v>
@@ -13555,7 +13650,7 @@
       </c>
       <c r="T28" s="71">
         <f t="shared" si="6"/>
-        <v>239.29699999999997</v>
+        <v>240.30499999999998</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="119" customHeight="1">
@@ -13625,7 +13720,7 @@
       </c>
       <c r="S29" s="70">
         <f t="shared" si="5"/>
-        <v>4.6270066100094436</v>
+        <v>4.5666356011183593</v>
       </c>
       <c r="T29" s="71">
         <f t="shared" si="6"/>
@@ -13647,7 +13742,7 @@
         <v>30</v>
       </c>
       <c r="E30" s="14">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F30" s="14">
         <v>9</v>
@@ -13691,7 +13786,7 @@
       </c>
       <c r="Q30" s="70">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="R30" s="70">
         <f t="shared" si="4"/>
@@ -13699,11 +13794,11 @@
       </c>
       <c r="S30" s="70">
         <f t="shared" si="5"/>
-        <v>2.1246458923512748</v>
+        <v>2.516309412861137</v>
       </c>
       <c r="T30" s="71">
         <f t="shared" si="6"/>
-        <v>375.45</v>
+        <v>378.47399999999999</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="151" customHeight="1">
@@ -13721,7 +13816,7 @@
         <v>33</v>
       </c>
       <c r="E31" s="14">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F31" s="14">
         <v>10</v>
@@ -13765,7 +13860,7 @@
       </c>
       <c r="Q31" s="70">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="R31" s="70">
         <f t="shared" si="4"/>
@@ -13773,11 +13868,11 @@
       </c>
       <c r="S31" s="70">
         <f t="shared" si="5"/>
-        <v>0.80264400377714828</v>
+        <v>0.93196644920782845</v>
       </c>
       <c r="T31" s="71">
         <f t="shared" si="6"/>
-        <v>413.49900000000002</v>
+        <v>416.52300000000002</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="173" customHeight="1">
@@ -13795,7 +13890,7 @@
         <v>36</v>
       </c>
       <c r="E32" s="14">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F32" s="14">
         <v>11</v>
@@ -13839,7 +13934,7 @@
       </c>
       <c r="Q32" s="70">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="R32" s="70">
         <f t="shared" si="4"/>
@@ -13847,11 +13942,11 @@
       </c>
       <c r="S32" s="70">
         <f t="shared" si="5"/>
-        <v>1.7941454202077429</v>
+        <v>2.0503261882572228</v>
       </c>
       <c r="T32" s="71">
         <f t="shared" si="6"/>
-        <v>451.54799999999994</v>
+        <v>454.57199999999995</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="213" customHeight="1">
@@ -13869,7 +13964,7 @@
         <v>39</v>
       </c>
       <c r="E33" s="14">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F33" s="14">
         <v>12</v>
@@ -13925,7 +14020,7 @@
       </c>
       <c r="T33" s="71">
         <f t="shared" si="6"/>
-        <v>489.59699999999998</v>
+        <v>490.60499999999996</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="238" customHeight="1">
@@ -13943,7 +14038,7 @@
         <v>42</v>
       </c>
       <c r="E34" s="14">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F34" s="14">
         <v>13</v>
@@ -13997,7 +14092,7 @@
       </c>
       <c r="T34" s="71">
         <f t="shared" si="6"/>
-        <v>527.64599999999996</v>
+        <v>528.654</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="204" customHeight="1">
@@ -14015,7 +14110,7 @@
         <v>44</v>
       </c>
       <c r="E35" s="14">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F35" s="14">
         <v>14</v>
@@ -14070,7 +14165,7 @@
       </c>
       <c r="T35" s="71">
         <f t="shared" si="6"/>
-        <v>550.66</v>
+        <v>552.67599999999993</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="171" customHeight="1">
@@ -14088,7 +14183,7 @@
         <v>46</v>
       </c>
       <c r="E36" s="14">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F36" s="14">
         <v>15</v>
@@ -14144,7 +14239,7 @@
       </c>
       <c r="T36" s="71">
         <f t="shared" si="6"/>
-        <v>573.67399999999998</v>
+        <v>578.71399999999994</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="202" customHeight="1">
@@ -14162,7 +14257,7 @@
         <v>48</v>
       </c>
       <c r="E37" s="14">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F37" s="14">
         <v>16</v>
@@ -14219,7 +14314,7 @@
       </c>
       <c r="T37" s="71">
         <f t="shared" si="6"/>
-        <v>597.69600000000003</v>
+        <v>600.72</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="198" customHeight="1">
@@ -14237,7 +14332,7 @@
         <v>50</v>
       </c>
       <c r="E38" s="14">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F38" s="14">
         <v>17</v>
@@ -14281,7 +14376,7 @@
       </c>
       <c r="Q38" s="70">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="R38" s="70">
         <f t="shared" si="4"/>
@@ -14289,11 +14384,11 @@
       </c>
       <c r="S38" s="70">
         <f t="shared" si="5"/>
-        <v>1.7941454202077429</v>
+        <v>2.2367194780987885</v>
       </c>
       <c r="T38" s="71">
         <f t="shared" si="6"/>
-        <v>619.702</v>
+        <v>624.74199999999996</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="202" customHeight="1">
@@ -14311,7 +14406,7 @@
         <v>52</v>
       </c>
       <c r="E39" s="14">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F39" s="14">
         <v>18</v>
@@ -14366,7 +14461,7 @@
       </c>
       <c r="T39" s="71">
         <f t="shared" si="6"/>
-        <v>642.71600000000001</v>
+        <v>648.76400000000001</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -14415,7 +14510,7 @@
       </c>
       <c r="Q40" s="70">
         <f>SUM(Q6:Q39)</f>
-        <v>2118</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -14497,7 +14592,7 @@
       </c>
       <c r="M43" s="59"/>
       <c r="N43" s="53"/>
-      <c r="P43" s="94"/>
+      <c r="P43" s="93"/>
     </row>
     <row r="44" spans="1:20">
       <c r="C44" s="60"/>
@@ -14660,7 +14755,7 @@
       </c>
       <c r="G51" s="59">
         <f>Q40/P40</f>
-        <v>0.34411047928513405</v>
+        <v>0.34865962632006497</v>
       </c>
       <c r="H51" s="126"/>
       <c r="I51" s="126"/>
@@ -14677,14 +14772,13 @@
       </c>
       <c r="G52" s="59">
         <f>G50-G51</f>
-        <v>4.9971949670263305E-4</v>
+        <v>-4.0494275382282896E-3</v>
       </c>
       <c r="H52" s="126"/>
       <c r="I52" s="126"/>
       <c r="J52" s="126"/>
       <c r="K52" s="126"/>
       <c r="L52" s="126"/>
-      <c r="M52" s="59"/>
     </row>
     <row r="53" spans="1:22">
       <c r="D53" s="1"/>
@@ -14730,7 +14824,7 @@
       </c>
       <c r="G56" s="74">
         <f>P40/(G54-Q40)</f>
-        <v>0.78089317432123828</v>
+        <v>0.78367710720651895</v>
       </c>
       <c r="H56" s="126"/>
       <c r="I56" s="126"/>
@@ -15297,7 +15391,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F8AF4A-2556-E44D-BD8A-72E1532A4D20}">
   <dimension ref="A2:V83"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="D42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
@@ -15434,7 +15530,7 @@
       <c r="A6" s="14">
         <v>0</v>
       </c>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="96" t="s">
         <v>76</v>
       </c>
       <c r="C6" s="60" t="e" vm="1">
@@ -15457,7 +15553,7 @@
       <c r="A7" s="14">
         <v>1</v>
       </c>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="96" t="s">
         <v>135</v>
       </c>
       <c r="C7" s="60" t="e" vm="2">
@@ -15527,7 +15623,7 @@
       <c r="A8" s="14">
         <v>2</v>
       </c>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="96" t="s">
         <v>77</v>
       </c>
       <c r="C8" s="60" t="e" vm="3">
@@ -15593,10 +15689,10 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="79" customHeight="1">
-      <c r="A9" s="95">
+      <c r="A9" s="94">
         <v>3</v>
       </c>
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="96" t="s">
         <v>78</v>
       </c>
       <c r="C9" s="60" t="e" vm="4">
@@ -15664,10 +15760,10 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="83" customHeight="1">
-      <c r="A10" s="95">
+      <c r="A10" s="94">
         <v>4</v>
       </c>
-      <c r="B10" s="97" t="s">
+      <c r="B10" s="96" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="60" t="e" vm="5">
@@ -15737,7 +15833,7 @@
       <c r="A11" s="14">
         <v>5</v>
       </c>
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="96" t="s">
         <v>79</v>
       </c>
       <c r="C11" s="60" t="e" vm="6">
@@ -15808,7 +15904,7 @@
       <c r="A12" s="14">
         <v>6</v>
       </c>
-      <c r="B12" s="97" t="s">
+      <c r="B12" s="96" t="s">
         <v>80</v>
       </c>
       <c r="C12" s="60" t="e" vm="7">
@@ -15843,11 +15939,11 @@
         <v>0</v>
       </c>
       <c r="M12" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N12" s="19">
         <f t="shared" si="0"/>
-        <v>5.5555555555555554</v>
+        <v>6.3829787234042552</v>
       </c>
       <c r="O12" s="19">
         <f t="shared" si="1"/>
@@ -15855,19 +15951,19 @@
       </c>
       <c r="P12" s="70">
         <f t="shared" si="2"/>
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="Q12" s="70">
         <f t="shared" si="3"/>
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="R12" s="70">
         <f t="shared" si="4"/>
-        <v>1.5918958031837915</v>
+        <v>1.8492574950966658</v>
       </c>
       <c r="S12" s="70">
         <f t="shared" si="5"/>
-        <v>3.2558139534883721</v>
+        <v>3.7533512064343162</v>
       </c>
       <c r="T12" s="71">
         <f t="shared" si="6"/>
@@ -15875,10 +15971,10 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="91" customHeight="1">
-      <c r="A13" s="95">
+      <c r="A13" s="94">
         <v>7</v>
       </c>
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="96" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="60" t="e" vm="8">
@@ -15946,10 +16042,10 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="91" customHeight="1">
-      <c r="A14" s="95">
+      <c r="A14" s="94">
         <v>8</v>
       </c>
-      <c r="B14" s="97" t="s">
+      <c r="B14" s="96" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="60" t="e" vm="9">
@@ -16018,7 +16114,7 @@
       <c r="A15" s="14">
         <v>9</v>
       </c>
-      <c r="B15" s="97" t="s">
+      <c r="B15" s="96" t="s">
         <v>81</v>
       </c>
       <c r="C15" s="60" t="e" vm="10">
@@ -16089,7 +16185,7 @@
       <c r="A16" s="14">
         <v>10</v>
       </c>
-      <c r="B16" s="97" t="s">
+      <c r="B16" s="96" t="s">
         <v>82</v>
       </c>
       <c r="C16" s="60" t="e" vm="11">
@@ -16160,7 +16256,7 @@
       <c r="A17" s="14">
         <v>11</v>
       </c>
-      <c r="B17" s="97" t="s">
+      <c r="B17" s="96" t="s">
         <v>83</v>
       </c>
       <c r="C17" s="60" t="e" vm="12">
@@ -16228,10 +16324,10 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="117" customHeight="1">
-      <c r="A18" s="95">
+      <c r="A18" s="94">
         <v>12</v>
       </c>
-      <c r="B18" s="97" t="s">
+      <c r="B18" s="96" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="60" t="e" vm="13">
@@ -16299,10 +16395,10 @@
       </c>
     </row>
     <row r="19" spans="1:20" ht="93" customHeight="1">
-      <c r="A19" s="95">
+      <c r="A19" s="94">
         <v>13</v>
       </c>
-      <c r="B19" s="97" t="s">
+      <c r="B19" s="96" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="61" t="e" vm="14">
@@ -16373,7 +16469,7 @@
       <c r="A20" s="14">
         <v>14</v>
       </c>
-      <c r="B20" s="97" t="s">
+      <c r="B20" s="96" t="s">
         <v>84</v>
       </c>
       <c r="C20" s="61" t="e" vm="15">
@@ -16441,10 +16537,10 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="102" customHeight="1">
-      <c r="A21" s="95">
+      <c r="A21" s="94">
         <v>15</v>
       </c>
-      <c r="B21" s="97" t="s">
+      <c r="B21" s="96" t="s">
         <v>85</v>
       </c>
       <c r="C21" s="61" t="e" vm="16">
@@ -16516,7 +16612,7 @@
       <c r="A22" s="14">
         <v>16</v>
       </c>
-      <c r="B22" s="97" t="s">
+      <c r="B22" s="96" t="s">
         <v>86</v>
       </c>
       <c r="C22" s="60" t="e" vm="17">
@@ -16588,7 +16684,7 @@
       <c r="A23" s="14">
         <v>17</v>
       </c>
-      <c r="B23" s="97" t="s">
+      <c r="B23" s="96" t="s">
         <v>87</v>
       </c>
       <c r="C23" s="60" t="e" vm="18">
@@ -16660,7 +16756,7 @@
       <c r="A24" s="14">
         <v>18</v>
       </c>
-      <c r="B24" s="97" t="s">
+      <c r="B24" s="96" t="s">
         <v>88</v>
       </c>
       <c r="C24" s="60" t="e" vm="19">
@@ -16697,11 +16793,11 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="M24" s="14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N24" s="19">
         <f t="shared" si="0"/>
-        <v>11.111111111111111</v>
+        <v>11.702127659574469</v>
       </c>
       <c r="O24" s="19">
         <f t="shared" si="1"/>
@@ -16709,19 +16805,19 @@
       </c>
       <c r="P24" s="70">
         <f t="shared" si="2"/>
-        <v>660</v>
+        <v>726</v>
       </c>
       <c r="Q24" s="70">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="R24" s="70">
         <f t="shared" si="4"/>
-        <v>9.5513748191027492</v>
+        <v>10.170916223031663</v>
       </c>
       <c r="S24" s="70">
         <f t="shared" si="5"/>
-        <v>9.3023255813953494</v>
+        <v>9.8302055406613054</v>
       </c>
       <c r="T24" s="71">
         <f t="shared" si="6"/>
@@ -16732,7 +16828,7 @@
       <c r="A25" s="14">
         <v>19</v>
       </c>
-      <c r="B25" s="97" t="s">
+      <c r="B25" s="96" t="s">
         <v>89</v>
       </c>
       <c r="C25" s="60" t="e" vm="20">
@@ -16769,11 +16865,11 @@
         <v>0.36</v>
       </c>
       <c r="M25" s="14">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N25" s="19">
         <f t="shared" si="0"/>
-        <v>31.111111111111111</v>
+        <v>31.914893617021278</v>
       </c>
       <c r="O25" s="19">
         <f t="shared" si="1"/>
@@ -16781,19 +16877,19 @@
       </c>
       <c r="P25" s="70">
         <f t="shared" si="2"/>
-        <v>1960</v>
+        <v>2100</v>
       </c>
       <c r="Q25" s="70">
         <f t="shared" si="3"/>
-        <v>616</v>
+        <v>660</v>
       </c>
       <c r="R25" s="70">
         <f t="shared" si="4"/>
-        <v>28.364688856729376</v>
+        <v>29.420005603810591</v>
       </c>
       <c r="S25" s="70">
         <f t="shared" si="5"/>
-        <v>28.651162790697676</v>
+        <v>29.490616621983911</v>
       </c>
       <c r="T25" s="71">
         <f t="shared" si="6"/>
@@ -16804,7 +16900,7 @@
       <c r="A26" s="14">
         <v>20</v>
       </c>
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="96" t="s">
         <v>90</v>
       </c>
       <c r="C26" s="60" t="e" vm="21">
@@ -16846,7 +16942,7 @@
       </c>
       <c r="N26" s="19">
         <f t="shared" si="0"/>
-        <v>52.222222222222229</v>
+        <v>50</v>
       </c>
       <c r="O26" s="19">
         <f t="shared" si="1"/>
@@ -16862,11 +16958,11 @@
       </c>
       <c r="R26" s="70">
         <f t="shared" si="4"/>
-        <v>54.413892908827791</v>
+        <v>52.675819557298965</v>
       </c>
       <c r="S26" s="70">
         <f t="shared" si="5"/>
-        <v>48.093023255813954</v>
+        <v>46.201966041108136</v>
       </c>
       <c r="T26" s="71">
         <f t="shared" si="6"/>
@@ -16877,7 +16973,7 @@
       <c r="A27" s="14">
         <v>21</v>
       </c>
-      <c r="B27" s="97" t="s">
+      <c r="B27" s="96" t="s">
         <v>91</v>
       </c>
       <c r="C27" s="60" t="e" vm="22">
@@ -16959,7 +17055,7 @@
         <v>19</v>
       </c>
       <c r="E28" s="14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" s="14">
         <v>5</v>
@@ -17014,7 +17110,7 @@
       </c>
       <c r="T28" s="71">
         <f t="shared" si="6"/>
-        <v>239.29699999999997</v>
+        <v>240.30499999999998</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="119" customHeight="1">
@@ -17106,7 +17202,7 @@
         <v>30</v>
       </c>
       <c r="E30" s="14">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F30" s="14">
         <v>9</v>
@@ -17162,7 +17258,7 @@
       </c>
       <c r="T30" s="71">
         <f t="shared" si="6"/>
-        <v>375.45</v>
+        <v>378.47399999999999</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="151" customHeight="1">
@@ -17180,7 +17276,7 @@
         <v>33</v>
       </c>
       <c r="E31" s="14">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F31" s="14">
         <v>10</v>
@@ -17236,7 +17332,7 @@
       </c>
       <c r="T31" s="71">
         <f t="shared" si="6"/>
-        <v>413.49900000000002</v>
+        <v>416.52300000000002</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="173" customHeight="1">
@@ -17254,7 +17350,7 @@
         <v>36</v>
       </c>
       <c r="E32" s="14">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F32" s="14">
         <v>11</v>
@@ -17310,7 +17406,7 @@
       </c>
       <c r="T32" s="71">
         <f t="shared" si="6"/>
-        <v>451.54799999999994</v>
+        <v>454.57199999999995</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="213" customHeight="1">
@@ -17328,7 +17424,7 @@
         <v>39</v>
       </c>
       <c r="E33" s="14">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F33" s="14">
         <v>12</v>
@@ -17384,7 +17480,7 @@
       </c>
       <c r="T33" s="71">
         <f t="shared" si="6"/>
-        <v>489.59699999999998</v>
+        <v>490.60499999999996</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="238" customHeight="1">
@@ -17402,7 +17498,7 @@
         <v>42</v>
       </c>
       <c r="E34" s="14">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F34" s="14">
         <v>13</v>
@@ -17432,7 +17528,7 @@
       </c>
       <c r="N34" s="19">
         <f t="shared" si="0"/>
-        <v>11.111111111111111</v>
+        <v>10.638297872340425</v>
       </c>
       <c r="O34" s="19">
         <f t="shared" si="1"/>
@@ -17444,19 +17540,19 @@
       </c>
       <c r="Q34" s="70">
         <f t="shared" si="3"/>
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="R34" s="70">
         <f t="shared" si="4"/>
-        <v>6.0781476121562958</v>
+        <v>5.8840011207621181</v>
       </c>
       <c r="S34" s="70">
         <f t="shared" si="5"/>
-        <v>10.697674418604651</v>
+        <v>10.723860589812332</v>
       </c>
       <c r="T34" s="71">
         <f t="shared" si="6"/>
-        <v>527.64599999999996</v>
+        <v>528.654</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="204" customHeight="1">
@@ -17474,7 +17570,7 @@
         <v>44</v>
       </c>
       <c r="E35" s="14">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F35" s="14">
         <v>14</v>
@@ -17529,7 +17625,7 @@
       </c>
       <c r="T35" s="71">
         <f t="shared" si="6"/>
-        <v>550.66</v>
+        <v>552.67599999999993</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="171" customHeight="1">
@@ -17547,7 +17643,7 @@
         <v>46</v>
       </c>
       <c r="E36" s="14">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F36" s="14">
         <v>15</v>
@@ -17603,7 +17699,7 @@
       </c>
       <c r="T36" s="71">
         <f t="shared" si="6"/>
-        <v>573.67399999999998</v>
+        <v>578.71399999999994</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="202" customHeight="1">
@@ -17621,7 +17717,7 @@
         <v>48</v>
       </c>
       <c r="E37" s="14">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F37" s="14">
         <v>16</v>
@@ -17678,7 +17774,7 @@
       </c>
       <c r="T37" s="71">
         <f t="shared" si="6"/>
-        <v>597.69600000000003</v>
+        <v>600.72</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="198" customHeight="1">
@@ -17696,7 +17792,7 @@
         <v>50</v>
       </c>
       <c r="E38" s="14">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F38" s="14">
         <v>17</v>
@@ -17752,7 +17848,7 @@
       </c>
       <c r="T38" s="71">
         <f t="shared" si="6"/>
-        <v>619.702</v>
+        <v>624.74199999999996</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="202" customHeight="1">
@@ -17770,7 +17866,7 @@
         <v>52</v>
       </c>
       <c r="E39" s="14">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F39" s="14">
         <v>18</v>
@@ -17825,7 +17921,7 @@
       </c>
       <c r="T39" s="71">
         <f t="shared" si="6"/>
-        <v>642.71600000000001</v>
+        <v>648.76400000000001</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -17834,31 +17930,31 @@
       <c r="D40" s="1"/>
       <c r="G40" s="59">
         <f t="shared" ref="G40:L40" si="8">G6*$M$6+G11*$M$11+G12*$M$12+G7*$M$7+G8*$M$8+G9*$M9+G10*$M$10+G13*$M$13+G14*$M$14+G15*$M$15+G16*$M$16+G17*$M$17+G18*$M$18+G19*$M$19+G20*$M$20+G21*$M$21+G22*$M$22+G23*$M$23+G24*$M$24+G25*$M$25+G26*$M$26+G27*$M$27+G28*$M$28+G29*$M$29+G30*$M$30+G31*$M$31+G32*$M$32+G33*$M$33+G34*$M$34+G35*$M$35+G36*$M$36+G37*$M$37+G38*$M$38+G39*$M$39</f>
-        <v>2</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="H40" s="59">
         <f t="shared" si="8"/>
-        <v>6.8553846153846161</v>
+        <v>7.0153846153846153</v>
       </c>
       <c r="I40" s="59">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="J40" s="59">
         <f t="shared" si="8"/>
-        <v>14.14</v>
+        <v>14.55</v>
       </c>
       <c r="K40" s="59">
         <f t="shared" si="8"/>
-        <v>32.44</v>
+        <v>33.733333333333334</v>
       </c>
       <c r="L40" s="59">
         <f t="shared" si="8"/>
-        <v>41.564615384615387</v>
+        <v>42.70128205128205</v>
       </c>
       <c r="M40" s="70">
         <f>SUM(M6:M39)</f>
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="N40" s="19">
         <f>SUM(N6:N27)</f>
@@ -17870,11 +17966,11 @@
       </c>
       <c r="P40" s="70">
         <f>SUM(P6:P39)</f>
-        <v>6910</v>
+        <v>7138</v>
       </c>
       <c r="Q40" s="70">
         <f>SUM(Q6:Q39)</f>
-        <v>2150</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -17885,7 +17981,7 @@
       </c>
       <c r="G41" s="129">
         <f>SUM(G40:L40)</f>
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H41" s="129"/>
       <c r="I41" s="129"/>
@@ -17932,31 +18028,31 @@
       </c>
       <c r="G43" s="74">
         <f>G40/$G$41</f>
-        <v>0.02</v>
+        <v>2.3076923076923082E-2</v>
       </c>
       <c r="H43" s="74">
         <f>H40/$G$41</f>
-        <v>6.855384615384616E-2</v>
+        <v>6.7455621301775154E-2</v>
       </c>
       <c r="I43" s="74">
         <f t="shared" ref="I43" si="9">I40/$G$41</f>
-        <v>0.03</v>
+        <v>3.461538461538461E-2</v>
       </c>
       <c r="J43" s="74">
         <f>J40/$G$41</f>
-        <v>0.1414</v>
+        <v>0.13990384615384616</v>
       </c>
       <c r="K43" s="74">
         <f>K40/$G$41</f>
-        <v>0.32439999999999997</v>
+        <v>0.32435897435897437</v>
       </c>
       <c r="L43" s="74">
         <f>L40/$G$41</f>
-        <v>0.41564615384615389</v>
+        <v>0.41058925049309664</v>
       </c>
       <c r="M43" s="59"/>
       <c r="N43" s="53"/>
-      <c r="P43" s="94"/>
+      <c r="P43" s="93"/>
     </row>
     <row r="44" spans="1:20">
       <c r="C44" s="60"/>
@@ -18034,27 +18130,27 @@
       </c>
       <c r="G46" s="59">
         <f t="shared" ref="G46:L46" si="10">ABS(G43-G44)/G44</f>
-        <v>3.5175719259187836E-3</v>
+        <v>0.14978741700855547</v>
       </c>
       <c r="H46" s="59">
         <f t="shared" si="10"/>
-        <v>2.082601719082746E-2</v>
+        <v>4.4724999978795294E-3</v>
       </c>
       <c r="I46" s="59">
         <f t="shared" si="10"/>
-        <v>0.13162273900098523</v>
+        <v>1.9737626911707972E-3</v>
       </c>
       <c r="J46" s="59">
         <f t="shared" si="10"/>
-        <v>8.7323174328359718E-2</v>
+        <v>7.5818204390003419E-2</v>
       </c>
       <c r="K46" s="59">
         <f t="shared" si="10"/>
-        <v>1.6127860046073854E-3</v>
+        <v>1.739048259372853E-3</v>
       </c>
       <c r="L46" s="59">
         <f t="shared" si="10"/>
-        <v>1.7985720677255481E-2</v>
+        <v>2.9933266097573193E-2</v>
       </c>
       <c r="M46" s="59"/>
     </row>
@@ -18119,7 +18215,7 @@
       </c>
       <c r="G51" s="59">
         <f>Q40/P40</f>
-        <v>0.31114327062228653</v>
+        <v>0.31353320257775286</v>
       </c>
       <c r="H51" s="126"/>
       <c r="I51" s="126"/>
@@ -18136,7 +18232,7 @@
       </c>
       <c r="G52" s="59">
         <f>G50-G51</f>
-        <v>-1.0625141411336858E-2</v>
+        <v>-1.3015073366803187E-2</v>
       </c>
       <c r="H52" s="126"/>
       <c r="I52" s="126"/>
@@ -18150,7 +18246,7 @@
       <c r="Q52" s="74"/>
       <c r="R52" s="74"/>
       <c r="S52" s="74"/>
-      <c r="T52" s="96"/>
+      <c r="T52" s="95"/>
       <c r="U52" s="33"/>
     </row>
     <row r="53" spans="1:22">
@@ -18164,7 +18260,7 @@
       <c r="Q53" s="74"/>
       <c r="R53" s="74"/>
       <c r="S53" s="74"/>
-      <c r="T53" s="96"/>
+      <c r="T53" s="95"/>
       <c r="U53" s="33"/>
     </row>
     <row r="54" spans="1:22">
@@ -18205,7 +18301,7 @@
       </c>
       <c r="G56" s="74">
         <f>P40/(G54-Q40)</f>
-        <v>0.88025477707006372</v>
+        <v>0.91960834836382377</v>
       </c>
       <c r="H56" s="126"/>
       <c r="I56" s="126"/>
@@ -18772,8 +18868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D382B00-30F4-764B-9FB9-162B0A78B6BF}">
   <dimension ref="A2:V83"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView topLeftCell="D42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N60" sqref="N60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -18911,7 +19007,7 @@
       <c r="A6" s="14">
         <v>0</v>
       </c>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="96" t="s">
         <v>76</v>
       </c>
       <c r="C6" s="60" t="e" vm="1">
@@ -18934,7 +19030,7 @@
       <c r="A7" s="14">
         <v>1</v>
       </c>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="96" t="s">
         <v>135</v>
       </c>
       <c r="C7" s="60" t="e" vm="2">
@@ -18993,7 +19089,7 @@
       </c>
       <c r="S7" s="70">
         <f t="shared" ref="S7:S39" si="5">(Q7/$Q$40*100)</f>
-        <v>0.51894135962636223</v>
+        <v>0.5181347150259068</v>
       </c>
       <c r="T7" s="71">
         <f t="shared" ref="T7:T39" si="6">(12.011*D7)+(1.008*E7)</f>
@@ -19004,7 +19100,7 @@
       <c r="A8" s="14">
         <v>2</v>
       </c>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="96" t="s">
         <v>77</v>
       </c>
       <c r="C8" s="60" t="e" vm="3">
@@ -19070,10 +19166,10 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="79" customHeight="1">
-      <c r="A9" s="95">
+      <c r="A9" s="94">
         <v>3</v>
       </c>
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="96" t="s">
         <v>78</v>
       </c>
       <c r="C9" s="60" t="e" vm="4">
@@ -19141,10 +19237,10 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="83" customHeight="1">
-      <c r="A10" s="95">
+      <c r="A10" s="94">
         <v>4</v>
       </c>
-      <c r="B10" s="97" t="s">
+      <c r="B10" s="96" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="60" t="e" vm="5">
@@ -19214,7 +19310,7 @@
       <c r="A11" s="14">
         <v>5</v>
       </c>
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="96" t="s">
         <v>79</v>
       </c>
       <c r="C11" s="60" t="e" vm="6">
@@ -19274,7 +19370,7 @@
       </c>
       <c r="S11" s="70">
         <f>(Q11/$Q$40*100)</f>
-        <v>0.62272963155163463</v>
+        <v>0.62176165803108807</v>
       </c>
       <c r="T11" s="71">
         <f t="shared" si="6"/>
@@ -19285,7 +19381,7 @@
       <c r="A12" s="14">
         <v>6</v>
       </c>
-      <c r="B12" s="97" t="s">
+      <c r="B12" s="96" t="s">
         <v>80</v>
       </c>
       <c r="C12" s="60" t="e" vm="7">
@@ -19352,10 +19448,10 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="91" customHeight="1">
-      <c r="A13" s="95">
+      <c r="A13" s="94">
         <v>7</v>
       </c>
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="96" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="60" t="e" vm="8">
@@ -19423,10 +19519,10 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="91" customHeight="1">
-      <c r="A14" s="95">
+      <c r="A14" s="94">
         <v>8</v>
       </c>
-      <c r="B14" s="97" t="s">
+      <c r="B14" s="96" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="60" t="e" vm="9">
@@ -19495,7 +19591,7 @@
       <c r="A15" s="14">
         <v>9</v>
       </c>
-      <c r="B15" s="97" t="s">
+      <c r="B15" s="96" t="s">
         <v>81</v>
       </c>
       <c r="C15" s="60" t="e" vm="10">
@@ -19566,7 +19662,7 @@
       <c r="A16" s="14">
         <v>10</v>
       </c>
-      <c r="B16" s="97" t="s">
+      <c r="B16" s="96" t="s">
         <v>82</v>
       </c>
       <c r="C16" s="60" t="e" vm="11">
@@ -19637,7 +19733,7 @@
       <c r="A17" s="14">
         <v>11</v>
       </c>
-      <c r="B17" s="97" t="s">
+      <c r="B17" s="96" t="s">
         <v>83</v>
       </c>
       <c r="C17" s="60" t="e" vm="12">
@@ -19705,10 +19801,10 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="117" customHeight="1">
-      <c r="A18" s="95">
+      <c r="A18" s="94">
         <v>12</v>
       </c>
-      <c r="B18" s="97" t="s">
+      <c r="B18" s="96" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="60" t="e" vm="13">
@@ -19776,10 +19872,10 @@
       </c>
     </row>
     <row r="19" spans="1:20" ht="93" customHeight="1">
-      <c r="A19" s="95">
+      <c r="A19" s="94">
         <v>13</v>
       </c>
-      <c r="B19" s="97" t="s">
+      <c r="B19" s="96" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="61" t="e" vm="14">
@@ -19850,7 +19946,7 @@
       <c r="A20" s="14">
         <v>14</v>
       </c>
-      <c r="B20" s="97" t="s">
+      <c r="B20" s="96" t="s">
         <v>84</v>
       </c>
       <c r="C20" s="61" t="e" vm="15">
@@ -19918,10 +20014,10 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="102" customHeight="1">
-      <c r="A21" s="95">
+      <c r="A21" s="94">
         <v>15</v>
       </c>
-      <c r="B21" s="97" t="s">
+      <c r="B21" s="96" t="s">
         <v>85</v>
       </c>
       <c r="C21" s="61" t="e" vm="16">
@@ -19993,7 +20089,7 @@
       <c r="A22" s="14">
         <v>16</v>
       </c>
-      <c r="B22" s="97" t="s">
+      <c r="B22" s="96" t="s">
         <v>86</v>
       </c>
       <c r="C22" s="60" t="e" vm="17">
@@ -20065,7 +20161,7 @@
       <c r="A23" s="14">
         <v>17</v>
       </c>
-      <c r="B23" s="97" t="s">
+      <c r="B23" s="96" t="s">
         <v>87</v>
       </c>
       <c r="C23" s="60" t="e" vm="18">
@@ -20137,7 +20233,7 @@
       <c r="A24" s="14">
         <v>18</v>
       </c>
-      <c r="B24" s="97" t="s">
+      <c r="B24" s="96" t="s">
         <v>88</v>
       </c>
       <c r="C24" s="60" t="e" vm="19">
@@ -20209,7 +20305,7 @@
       <c r="A25" s="14">
         <v>19</v>
       </c>
-      <c r="B25" s="97" t="s">
+      <c r="B25" s="96" t="s">
         <v>89</v>
       </c>
       <c r="C25" s="60" t="e" vm="20">
@@ -20270,7 +20366,7 @@
       </c>
       <c r="S25" s="70">
         <f t="shared" si="5"/>
-        <v>11.41670991177997</v>
+        <v>11.398963730569948</v>
       </c>
       <c r="T25" s="71">
         <f t="shared" si="6"/>
@@ -20281,7 +20377,7 @@
       <c r="A26" s="14">
         <v>20</v>
       </c>
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="96" t="s">
         <v>90</v>
       </c>
       <c r="C26" s="60" t="e" vm="21">
@@ -20343,7 +20439,7 @@
       </c>
       <c r="S26" s="70">
         <f t="shared" si="5"/>
-        <v>77.633627400103791</v>
+        <v>77.512953367875653</v>
       </c>
       <c r="T26" s="71">
         <f t="shared" si="6"/>
@@ -20354,7 +20450,7 @@
       <c r="A27" s="14">
         <v>21</v>
       </c>
-      <c r="B27" s="97" t="s">
+      <c r="B27" s="96" t="s">
         <v>91</v>
       </c>
       <c r="C27" s="60" t="e" vm="22">
@@ -20414,7 +20510,7 @@
       </c>
       <c r="S27" s="70">
         <f t="shared" si="5"/>
-        <v>6.2272963155163463</v>
+        <v>6.2176165803108807</v>
       </c>
       <c r="T27" s="71">
         <f t="shared" si="6"/>
@@ -20436,7 +20532,7 @@
         <v>19</v>
       </c>
       <c r="E28" s="14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" s="14">
         <v>5</v>
@@ -20491,7 +20587,7 @@
       </c>
       <c r="T28" s="71">
         <f t="shared" si="6"/>
-        <v>239.29699999999997</v>
+        <v>240.30499999999998</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="119" customHeight="1">
@@ -20583,7 +20679,7 @@
         <v>30</v>
       </c>
       <c r="E30" s="14">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F30" s="14">
         <v>9</v>
@@ -20639,7 +20735,7 @@
       </c>
       <c r="T30" s="71">
         <f t="shared" si="6"/>
-        <v>375.45</v>
+        <v>378.47399999999999</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="151" customHeight="1">
@@ -20657,7 +20753,7 @@
         <v>33</v>
       </c>
       <c r="E31" s="14">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F31" s="14">
         <v>10</v>
@@ -20713,7 +20809,7 @@
       </c>
       <c r="T31" s="71">
         <f t="shared" si="6"/>
-        <v>413.49900000000002</v>
+        <v>416.52300000000002</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="173" customHeight="1">
@@ -20731,7 +20827,7 @@
         <v>36</v>
       </c>
       <c r="E32" s="14">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F32" s="14">
         <v>11</v>
@@ -20787,7 +20883,7 @@
       </c>
       <c r="T32" s="71">
         <f t="shared" si="6"/>
-        <v>451.54799999999994</v>
+        <v>454.57199999999995</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="213" customHeight="1">
@@ -20805,7 +20901,7 @@
         <v>39</v>
       </c>
       <c r="E33" s="14">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F33" s="14">
         <v>12</v>
@@ -20861,7 +20957,7 @@
       </c>
       <c r="T33" s="71">
         <f t="shared" si="6"/>
-        <v>489.59699999999998</v>
+        <v>490.60499999999996</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="238" customHeight="1">
@@ -20879,7 +20975,7 @@
         <v>42</v>
       </c>
       <c r="E34" s="14">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F34" s="14">
         <v>13</v>
@@ -20921,7 +21017,7 @@
       </c>
       <c r="Q34" s="70">
         <f t="shared" si="3"/>
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R34" s="70">
         <f t="shared" si="4"/>
@@ -20929,11 +21025,11 @@
       </c>
       <c r="S34" s="70">
         <f t="shared" si="5"/>
-        <v>3.5806953814218994</v>
+        <v>3.730569948186528</v>
       </c>
       <c r="T34" s="71">
         <f t="shared" si="6"/>
-        <v>527.64599999999996</v>
+        <v>528.654</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="204" customHeight="1">
@@ -20951,7 +21047,7 @@
         <v>44</v>
       </c>
       <c r="E35" s="14">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F35" s="14">
         <v>14</v>
@@ -21006,7 +21102,7 @@
       </c>
       <c r="T35" s="71">
         <f t="shared" si="6"/>
-        <v>550.66</v>
+        <v>552.67599999999993</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="171" customHeight="1">
@@ -21024,7 +21120,7 @@
         <v>46</v>
       </c>
       <c r="E36" s="14">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F36" s="14">
         <v>15</v>
@@ -21080,7 +21176,7 @@
       </c>
       <c r="T36" s="71">
         <f t="shared" si="6"/>
-        <v>573.67399999999998</v>
+        <v>578.71399999999994</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="202" customHeight="1">
@@ -21098,7 +21194,7 @@
         <v>48</v>
       </c>
       <c r="E37" s="14">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F37" s="14">
         <v>16</v>
@@ -21155,7 +21251,7 @@
       </c>
       <c r="T37" s="71">
         <f t="shared" si="6"/>
-        <v>597.69600000000003</v>
+        <v>600.72</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="198" customHeight="1">
@@ -21173,7 +21269,7 @@
         <v>50</v>
       </c>
       <c r="E38" s="14">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F38" s="14">
         <v>17</v>
@@ -21229,7 +21325,7 @@
       </c>
       <c r="T38" s="71">
         <f t="shared" si="6"/>
-        <v>619.702</v>
+        <v>624.74199999999996</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="202" customHeight="1">
@@ -21247,7 +21343,7 @@
         <v>52</v>
       </c>
       <c r="E39" s="14">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F39" s="14">
         <v>18</v>
@@ -21302,7 +21398,7 @@
       </c>
       <c r="T39" s="71">
         <f t="shared" si="6"/>
-        <v>642.71600000000001</v>
+        <v>648.76400000000001</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -21351,7 +21447,7 @@
       </c>
       <c r="Q40" s="70">
         <f>SUM(Q6:Q39)</f>
-        <v>1927</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -21433,7 +21529,7 @@
       </c>
       <c r="M43" s="59"/>
       <c r="N43" s="53"/>
-      <c r="P43" s="94"/>
+      <c r="P43" s="93"/>
     </row>
     <row r="44" spans="1:20">
       <c r="C44" s="60"/>
@@ -21596,7 +21692,7 @@
       </c>
       <c r="G51" s="59">
         <f>Q40/P40</f>
-        <v>0.28688402560666965</v>
+        <v>0.28733065356557985</v>
       </c>
       <c r="H51" s="126"/>
       <c r="I51" s="126"/>
@@ -21613,7 +21709,7 @@
       </c>
       <c r="G52" s="59">
         <f>G50-G51</f>
-        <v>-8.0770905901961676E-2</v>
+        <v>-8.1217533860871882E-2</v>
       </c>
       <c r="H52" s="126"/>
       <c r="I52" s="126"/>
@@ -21627,7 +21723,7 @@
       <c r="Q52" s="74"/>
       <c r="R52" s="74"/>
       <c r="S52" s="74"/>
-      <c r="T52" s="96"/>
+      <c r="T52" s="95"/>
       <c r="U52" s="33"/>
     </row>
     <row r="53" spans="1:22">
@@ -21641,7 +21737,7 @@
       <c r="Q53" s="74"/>
       <c r="R53" s="74"/>
       <c r="S53" s="74"/>
-      <c r="T53" s="96"/>
+      <c r="T53" s="95"/>
       <c r="U53" s="33"/>
     </row>
     <row r="54" spans="1:22">
@@ -21682,7 +21778,7 @@
       </c>
       <c r="G56" s="74">
         <f>P40/(G54-Q40)</f>
-        <v>0.83203270159791898</v>
+        <v>0.83234200743494424</v>
       </c>
       <c r="H56" s="126"/>
       <c r="I56" s="126"/>

--- a/BPCA/BPCA_PAH.xlsx
+++ b/BPCA/BPCA_PAH.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailwsu-my.sharepoint.com/personal/v_sierrajimenez_wsu_edu/Documents/WSU/PhD/Thesis/Paper 1 Methodology/Reviewed Version/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="724" documentId="13_ncr:1_{06919FED-0BB1-C44E-8619-00AA43605CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9009ACCE-969F-FB4A-B79F-489DACBAB3BD}"/>
+  <xr:revisionPtr revIDLastSave="738" documentId="13_ncr:1_{06919FED-0BB1-C44E-8619-00AA43605CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D0AC0ED-F6C0-0244-A822-8F28992E9D23}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="2" xr2:uid="{EB29A718-2CE6-174F-8972-CCE909784FB0}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{EB29A718-2CE6-174F-8972-CCE909784FB0}"/>
   </bookViews>
   <sheets>
     <sheet name="PAH_Standard" sheetId="17" r:id="rId1"/>
     <sheet name="BPCA_Experimental" sheetId="2" r:id="rId2"/>
-    <sheet name="BPCA_Model_400" sheetId="27" r:id="rId3"/>
-    <sheet name="BPCA_Model_500" sheetId="30" r:id="rId4"/>
-    <sheet name="BPCA_Model_600" sheetId="32" r:id="rId5"/>
-    <sheet name="BPCA_Model_700" sheetId="34" r:id="rId6"/>
+    <sheet name="BPCA_C400-m" sheetId="27" r:id="rId3"/>
+    <sheet name="BPCA_C500-m" sheetId="30" r:id="rId4"/>
+    <sheet name="BPCA_C600-m" sheetId="32" r:id="rId5"/>
+    <sheet name="BPCA_C700-m" sheetId="34" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">BPCA_Model_400!$A$5:$V$5</definedName>
-    <definedName name="solver_adj" localSheetId="2" hidden="1">BPCA_Model_400!#REF!</definedName>
-    <definedName name="solver_adj" localSheetId="3" hidden="1">BPCA_Model_500!#REF!</definedName>
-    <definedName name="solver_adj" localSheetId="4" hidden="1">BPCA_Model_600!#REF!</definedName>
-    <definedName name="solver_adj" localSheetId="5" hidden="1">BPCA_Model_700!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'BPCA_C400-m'!$A$5:$V$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'BPCA_C500-m'!$A$5:$V$46</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'BPCA_C400-m'!#REF!</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">'BPCA_C500-m'!#REF!</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">'BPCA_C600-m'!#REF!</definedName>
+    <definedName name="solver_adj" localSheetId="5" hidden="1">'BPCA_C700-m'!#REF!</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
@@ -42,22 +43,22 @@
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="2" hidden="1">BPCA_Model_400!$H$43</definedName>
-    <definedName name="solver_lhs1" localSheetId="3" hidden="1">BPCA_Model_500!$H$43</definedName>
-    <definedName name="solver_lhs1" localSheetId="4" hidden="1">BPCA_Model_600!$H$43</definedName>
-    <definedName name="solver_lhs1" localSheetId="5" hidden="1">BPCA_Model_700!$H$43</definedName>
-    <definedName name="solver_lhs2" localSheetId="2" hidden="1">BPCA_Model_400!$J$43</definedName>
-    <definedName name="solver_lhs2" localSheetId="3" hidden="1">BPCA_Model_500!$J$43</definedName>
-    <definedName name="solver_lhs2" localSheetId="4" hidden="1">BPCA_Model_600!$J$43</definedName>
-    <definedName name="solver_lhs2" localSheetId="5" hidden="1">BPCA_Model_700!$J$43</definedName>
-    <definedName name="solver_lhs3" localSheetId="2" hidden="1">BPCA_Model_400!$K$43</definedName>
-    <definedName name="solver_lhs3" localSheetId="3" hidden="1">BPCA_Model_500!$K$43</definedName>
-    <definedName name="solver_lhs3" localSheetId="4" hidden="1">BPCA_Model_600!$K$43</definedName>
-    <definedName name="solver_lhs3" localSheetId="5" hidden="1">BPCA_Model_700!$K$43</definedName>
-    <definedName name="solver_lhs4" localSheetId="2" hidden="1">BPCA_Model_400!#REF!</definedName>
-    <definedName name="solver_lhs4" localSheetId="3" hidden="1">BPCA_Model_500!#REF!</definedName>
-    <definedName name="solver_lhs4" localSheetId="4" hidden="1">BPCA_Model_600!#REF!</definedName>
-    <definedName name="solver_lhs4" localSheetId="5" hidden="1">BPCA_Model_700!#REF!</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'BPCA_C400-m'!$H$43</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'BPCA_C500-m'!$H$43</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">'BPCA_C600-m'!$H$43</definedName>
+    <definedName name="solver_lhs1" localSheetId="5" hidden="1">'BPCA_C700-m'!$H$43</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'BPCA_C400-m'!$J$43</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'BPCA_C500-m'!$J$43</definedName>
+    <definedName name="solver_lhs2" localSheetId="4" hidden="1">'BPCA_C600-m'!$J$43</definedName>
+    <definedName name="solver_lhs2" localSheetId="5" hidden="1">'BPCA_C700-m'!$J$43</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'BPCA_C400-m'!$K$43</definedName>
+    <definedName name="solver_lhs3" localSheetId="3" hidden="1">'BPCA_C500-m'!$K$43</definedName>
+    <definedName name="solver_lhs3" localSheetId="4" hidden="1">'BPCA_C600-m'!$K$43</definedName>
+    <definedName name="solver_lhs3" localSheetId="5" hidden="1">'BPCA_C700-m'!$K$43</definedName>
+    <definedName name="solver_lhs4" localSheetId="2" hidden="1">'BPCA_C400-m'!#REF!</definedName>
+    <definedName name="solver_lhs4" localSheetId="3" hidden="1">'BPCA_C500-m'!#REF!</definedName>
+    <definedName name="solver_lhs4" localSheetId="4" hidden="1">'BPCA_C600-m'!#REF!</definedName>
+    <definedName name="solver_lhs4" localSheetId="5" hidden="1">'BPCA_C700-m'!#REF!</definedName>
     <definedName name="solver_lin" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="4" hidden="1">1</definedName>
@@ -90,10 +91,10 @@
     <definedName name="solver_num" localSheetId="3" hidden="1">4</definedName>
     <definedName name="solver_num" localSheetId="4" hidden="1">4</definedName>
     <definedName name="solver_num" localSheetId="5" hidden="1">4</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">BPCA_Model_400!$L$43</definedName>
-    <definedName name="solver_opt" localSheetId="3" hidden="1">BPCA_Model_500!$L$43</definedName>
-    <definedName name="solver_opt" localSheetId="4" hidden="1">BPCA_Model_600!$L$43</definedName>
-    <definedName name="solver_opt" localSheetId="5" hidden="1">BPCA_Model_700!$L$43</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'BPCA_C400-m'!$L$43</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'BPCA_C500-m'!$L$43</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">'BPCA_C600-m'!$L$43</definedName>
+    <definedName name="solver_opt" localSheetId="5" hidden="1">'BPCA_C700-m'!$L$43</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
@@ -175,7 +176,7 @@
     <definedName name="solver_ver" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="5" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1167,7 +1168,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1383,7 +1384,36 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1393,41 +1423,11 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1480,6 +1480,8 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1557,7 +1559,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>BPCA_Model_400!$G$42:$L$42</c:f>
+              <c:f>'BPCA_C400-m'!$G$42:$L$42</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1583,7 +1585,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BPCA_Model_400!$G$43:$L$43</c:f>
+              <c:f>'BPCA_C400-m'!$G$43:$L$43</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1639,7 +1641,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>BPCA_Model_400!$G$45:$L$45</c:f>
+                <c:f>'BPCA_C400-m'!$G$45:$L$45</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
@@ -1666,7 +1668,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>BPCA_Model_400!$G$45:$L$45</c:f>
+                <c:f>'BPCA_C400-m'!$G$45:$L$45</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
@@ -1704,7 +1706,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>BPCA_Model_400!$G$42:$L$42</c:f>
+              <c:f>'BPCA_C400-m'!$G$42:$L$42</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1730,7 +1732,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BPCA_Model_400!$G$44:$L$44</c:f>
+              <c:f>'BPCA_C400-m'!$G$44:$L$44</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2011,7 +2013,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>BPCA_Model_500!$G$42:$L$42</c:f>
+              <c:f>'BPCA_C500-m'!$G$42:$L$42</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2037,7 +2039,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BPCA_Model_500!$G$43:$L$43</c:f>
+              <c:f>'BPCA_C500-m'!$G$43:$L$43</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2093,7 +2095,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>BPCA_Model_500!$G$45:$L$45</c:f>
+                <c:f>'BPCA_C500-m'!$G$45:$L$45</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
@@ -2120,7 +2122,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>BPCA_Model_500!$G$45:$L$45</c:f>
+                <c:f>'BPCA_C500-m'!$G$45:$L$45</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
@@ -2158,7 +2160,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>BPCA_Model_500!$G$42:$L$42</c:f>
+              <c:f>'BPCA_C500-m'!$G$42:$L$42</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2184,7 +2186,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BPCA_Model_500!$G$44:$L$44</c:f>
+              <c:f>'BPCA_C500-m'!$G$44:$L$44</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2465,7 +2467,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>BPCA_Model_600!$G$42:$L$42</c:f>
+              <c:f>'BPCA_C600-m'!$G$42:$L$42</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2491,7 +2493,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BPCA_Model_600!$G$43:$L$43</c:f>
+              <c:f>'BPCA_C600-m'!$G$43:$L$43</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2547,7 +2549,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>BPCA_Model_600!$G$45:$L$45</c:f>
+                <c:f>'BPCA_C600-m'!$G$45:$L$45</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
@@ -2574,7 +2576,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>BPCA_Model_600!$G$45:$L$45</c:f>
+                <c:f>'BPCA_C600-m'!$G$45:$L$45</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
@@ -2612,7 +2614,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>BPCA_Model_600!$G$42:$L$42</c:f>
+              <c:f>'BPCA_C600-m'!$G$42:$L$42</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2638,7 +2640,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BPCA_Model_600!$G$44:$L$44</c:f>
+              <c:f>'BPCA_C600-m'!$G$44:$L$44</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2919,7 +2921,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>BPCA_Model_700!$G$42:$L$42</c:f>
+              <c:f>'BPCA_C700-m'!$G$42:$L$42</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2945,7 +2947,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BPCA_Model_700!$G$43:$L$43</c:f>
+              <c:f>'BPCA_C700-m'!$G$43:$L$43</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3001,7 +3003,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>BPCA_Model_700!$G$45:$L$45</c:f>
+                <c:f>'BPCA_C700-m'!$G$45:$L$45</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
@@ -3028,7 +3030,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>BPCA_Model_700!$G$45:$L$45</c:f>
+                <c:f>'BPCA_C700-m'!$G$45:$L$45</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
@@ -3066,7 +3068,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>BPCA_Model_700!$G$42:$L$42</c:f>
+              <c:f>'BPCA_C700-m'!$G$42:$L$42</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3092,7 +3094,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BPCA_Model_700!$G$44:$L$44</c:f>
+              <c:f>'BPCA_C700-m'!$G$44:$L$44</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6704,41 +6706,41 @@
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="2:18">
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="98" t="s">
+      <c r="D6" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="98" t="s">
+      <c r="E6" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="98" t="s">
+      <c r="F6" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="98" t="s">
+      <c r="G6" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="110" t="str">
+      <c r="H6" s="101" t="str">
         <f>HYPERLINK("#BPCA!B5","BPCA types")</f>
         <v>BPCA types</v>
       </c>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="111"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="102"/>
     </row>
     <row r="7" spans="2:18">
-      <c r="B7" s="104"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
       <c r="H7" s="63" t="s">
         <v>134</v>
       </c>
@@ -6759,17 +6761,17 @@
       </c>
     </row>
     <row r="8" spans="2:18" ht="34" customHeight="1">
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101">
+      <c r="C8" s="97"/>
+      <c r="D8" s="97">
         <v>14</v>
       </c>
-      <c r="E8" s="101">
+      <c r="E8" s="97">
         <v>94.4</v>
       </c>
-      <c r="F8" s="101">
+      <c r="F8" s="97">
         <v>24.2</v>
       </c>
       <c r="G8" s="14" t="s">
@@ -6785,11 +6787,11 @@
       <c r="M8" s="16"/>
     </row>
     <row r="9" spans="2:18" ht="34" customHeight="1">
-      <c r="B9" s="102"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
       <c r="G9" s="14" t="s">
         <v>14</v>
       </c>
@@ -6807,17 +6809,17 @@
       <c r="M9" s="16"/>
     </row>
     <row r="10" spans="2:18" ht="33" customHeight="1">
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101">
+      <c r="C10" s="97"/>
+      <c r="D10" s="97">
         <v>14</v>
       </c>
-      <c r="E10" s="101">
+      <c r="E10" s="97">
         <v>94.4</v>
       </c>
-      <c r="F10" s="101">
+      <c r="F10" s="97">
         <v>23.7</v>
       </c>
       <c r="G10" s="14" t="s">
@@ -6835,11 +6837,11 @@
       <c r="M10" s="16"/>
     </row>
     <row r="11" spans="2:18" ht="33" customHeight="1">
-      <c r="B11" s="107"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
       <c r="G11" s="14" t="s">
         <v>14</v>
       </c>
@@ -6857,17 +6859,17 @@
       <c r="M11" s="16"/>
     </row>
     <row r="12" spans="2:18" ht="39" customHeight="1">
-      <c r="B12" s="107" t="s">
+      <c r="B12" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101">
+      <c r="C12" s="97"/>
+      <c r="D12" s="97">
         <v>18</v>
       </c>
-      <c r="E12" s="101">
+      <c r="E12" s="97">
         <v>92.3</v>
       </c>
-      <c r="F12" s="101">
+      <c r="F12" s="97">
         <v>29.3</v>
       </c>
       <c r="G12" s="14" t="s">
@@ -6889,11 +6891,11 @@
       <c r="M12" s="16"/>
     </row>
     <row r="13" spans="2:18" ht="39" customHeight="1">
-      <c r="B13" s="107"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
       <c r="G13" s="14" t="s">
         <v>14</v>
       </c>
@@ -6914,17 +6916,17 @@
       <c r="M13" s="16"/>
     </row>
     <row r="14" spans="2:18" ht="32" customHeight="1">
-      <c r="B14" s="107" t="s">
+      <c r="B14" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101">
+      <c r="C14" s="97"/>
+      <c r="D14" s="97">
         <v>18</v>
       </c>
-      <c r="E14" s="101">
+      <c r="E14" s="97">
         <v>94.7</v>
       </c>
-      <c r="F14" s="101">
+      <c r="F14" s="97">
         <v>21.5</v>
       </c>
       <c r="G14" s="14" t="s">
@@ -6942,11 +6944,11 @@
       <c r="M14" s="16"/>
     </row>
     <row r="15" spans="2:18" ht="32" customHeight="1">
-      <c r="B15" s="107"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
       <c r="G15" s="14" t="s">
         <v>14</v>
       </c>
@@ -6964,17 +6966,17 @@
       <c r="M15" s="16"/>
     </row>
     <row r="16" spans="2:18" ht="36" customHeight="1">
-      <c r="B16" s="102" t="s">
+      <c r="B16" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101">
+      <c r="C16" s="97"/>
+      <c r="D16" s="97">
         <v>16</v>
       </c>
-      <c r="E16" s="101">
+      <c r="E16" s="97">
         <v>95</v>
       </c>
-      <c r="F16" s="101">
+      <c r="F16" s="97">
         <v>37</v>
       </c>
       <c r="G16" s="14" t="s">
@@ -6993,11 +6995,11 @@
       <c r="R16" s="1"/>
     </row>
     <row r="17" spans="2:13" ht="36" customHeight="1">
-      <c r="B17" s="102"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
       <c r="G17" s="14" t="s">
         <v>14</v>
       </c>
@@ -7015,17 +7017,17 @@
       <c r="M17" s="16"/>
     </row>
     <row r="18" spans="2:13" ht="35" customHeight="1">
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101">
+      <c r="C18" s="97"/>
+      <c r="D18" s="97">
         <v>16</v>
       </c>
-      <c r="E18" s="101">
+      <c r="E18" s="97">
         <v>77.400000000000006</v>
       </c>
-      <c r="F18" s="101">
+      <c r="F18" s="97">
         <v>36.1</v>
       </c>
       <c r="G18" s="14" t="s">
@@ -7045,11 +7047,11 @@
       <c r="M18" s="16"/>
     </row>
     <row r="19" spans="2:13" ht="35" customHeight="1">
-      <c r="B19" s="102"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
       <c r="G19" s="14" t="s">
         <v>14</v>
       </c>
@@ -7067,17 +7069,17 @@
       <c r="M19" s="16"/>
     </row>
     <row r="20" spans="2:13" ht="42" customHeight="1">
-      <c r="B20" s="107" t="s">
+      <c r="B20" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101">
+      <c r="C20" s="97"/>
+      <c r="D20" s="97">
         <v>20</v>
       </c>
-      <c r="E20" s="101">
+      <c r="E20" s="97">
         <v>95.2</v>
       </c>
-      <c r="F20" s="101">
+      <c r="F20" s="97">
         <v>22.5</v>
       </c>
       <c r="G20" s="14" t="s">
@@ -7095,11 +7097,11 @@
       </c>
     </row>
     <row r="21" spans="2:13" ht="42" customHeight="1">
-      <c r="B21" s="107"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
       <c r="G21" s="14" t="s">
         <v>14</v>
       </c>
@@ -7117,17 +7119,17 @@
       </c>
     </row>
     <row r="22" spans="2:13" ht="47" customHeight="1">
-      <c r="B22" s="102" t="s">
+      <c r="B22" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101">
+      <c r="C22" s="97"/>
+      <c r="D22" s="97">
         <v>22</v>
       </c>
-      <c r="E22" s="101">
+      <c r="E22" s="97">
         <v>95.5</v>
       </c>
-      <c r="F22" s="101">
+      <c r="F22" s="97">
         <v>22.5</v>
       </c>
       <c r="G22" s="14" t="s">
@@ -7147,11 +7149,11 @@
       </c>
     </row>
     <row r="23" spans="2:13" ht="47" customHeight="1">
-      <c r="B23" s="102"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="97"/>
       <c r="G23" s="14" t="s">
         <v>14</v>
       </c>
@@ -7172,17 +7174,17 @@
       </c>
     </row>
     <row r="24" spans="2:13" ht="53" customHeight="1">
-      <c r="B24" s="102" t="s">
+      <c r="B24" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101">
+      <c r="C24" s="97"/>
+      <c r="D24" s="97">
         <v>24</v>
       </c>
-      <c r="E24" s="101">
+      <c r="E24" s="97">
         <v>96</v>
       </c>
-      <c r="F24" s="101">
+      <c r="F24" s="97">
         <v>19.5</v>
       </c>
       <c r="G24" s="14" t="s">
@@ -7200,11 +7202,11 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="53" customHeight="1">
-      <c r="B25" s="102"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="101"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="97"/>
       <c r="G25" s="14" t="s">
         <v>14</v>
       </c>
@@ -7240,55 +7242,55 @@
       <c r="M26" s="23"/>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="100" t="s">
+      <c r="B30" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="100"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="100"/>
-      <c r="G30" s="100"/>
-      <c r="H30" s="100"/>
-      <c r="I30" s="100"/>
-      <c r="J30" s="100"/>
+      <c r="C30" s="109"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="109"/>
+      <c r="H30" s="109"/>
+      <c r="I30" s="109"/>
+      <c r="J30" s="109"/>
     </row>
     <row r="31" spans="2:13" ht="16" customHeight="1">
-      <c r="B31" s="109" t="s">
+      <c r="B31" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="109"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="109"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="109"/>
-      <c r="K31" s="109"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="106"/>
+      <c r="J31" s="106"/>
+      <c r="K31" s="106"/>
     </row>
     <row r="32" spans="2:13">
-      <c r="B32" s="109"/>
-      <c r="C32" s="109"/>
-      <c r="D32" s="109"/>
-      <c r="E32" s="109"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="109"/>
-      <c r="H32" s="109"/>
-      <c r="I32" s="109"/>
-      <c r="J32" s="109"/>
-      <c r="K32" s="109"/>
+      <c r="B32" s="106"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="106"/>
+      <c r="J32" s="106"/>
+      <c r="K32" s="106"/>
     </row>
     <row r="33" spans="2:11">
-      <c r="B33" s="109"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="109"/>
-      <c r="H33" s="109"/>
-      <c r="I33" s="109"/>
-      <c r="J33" s="109"/>
-      <c r="K33" s="109"/>
+      <c r="B33" s="106"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="106"/>
+      <c r="H33" s="106"/>
+      <c r="I33" s="106"/>
+      <c r="J33" s="106"/>
+      <c r="K33" s="106"/>
     </row>
     <row r="34" spans="2:11">
       <c r="B34" s="2"/>
@@ -7299,138 +7301,156 @@
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="2:11">
-      <c r="B35" s="112" t="s">
+      <c r="B35" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="112"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="112"/>
-      <c r="H35" s="112"/>
-      <c r="I35" s="112"/>
-      <c r="J35" s="112"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="103"/>
+      <c r="J35" s="103"/>
     </row>
     <row r="36" spans="2:11" ht="16" customHeight="1">
-      <c r="B36" s="108" t="s">
+      <c r="B36" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="C36" s="108"/>
-      <c r="D36" s="108"/>
-      <c r="E36" s="108"/>
-      <c r="F36" s="108"/>
-      <c r="G36" s="108"/>
-      <c r="H36" s="108"/>
-      <c r="I36" s="108"/>
-      <c r="J36" s="108"/>
-      <c r="K36" s="108"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="105"/>
+      <c r="J36" s="105"/>
+      <c r="K36" s="105"/>
     </row>
     <row r="37" spans="2:11">
-      <c r="B37" s="108"/>
-      <c r="C37" s="108"/>
-      <c r="D37" s="108"/>
-      <c r="E37" s="108"/>
-      <c r="F37" s="108"/>
-      <c r="G37" s="108"/>
-      <c r="H37" s="108"/>
-      <c r="I37" s="108"/>
-      <c r="J37" s="108"/>
-      <c r="K37" s="108"/>
+      <c r="B37" s="105"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="105"/>
+      <c r="I37" s="105"/>
+      <c r="J37" s="105"/>
+      <c r="K37" s="105"/>
     </row>
     <row r="38" spans="2:11">
-      <c r="B38" s="105" t="s">
+      <c r="B38" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="105"/>
-      <c r="D38" s="105"/>
-      <c r="E38" s="105"/>
-      <c r="F38" s="105"/>
-      <c r="G38" s="105"/>
-      <c r="H38" s="105"/>
-      <c r="I38" s="105"/>
-      <c r="J38" s="105"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="104"/>
+      <c r="J38" s="104"/>
     </row>
     <row r="39" spans="2:11" ht="35" customHeight="1">
-      <c r="B39" s="106" t="s">
+      <c r="B39" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="106"/>
-      <c r="D39" s="106"/>
-      <c r="E39" s="106"/>
-      <c r="F39" s="106"/>
-      <c r="G39" s="106"/>
-      <c r="H39" s="106"/>
-      <c r="I39" s="106"/>
-      <c r="J39" s="106"/>
-      <c r="K39" s="106"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="100"/>
+      <c r="J39" s="100"/>
+      <c r="K39" s="100"/>
     </row>
     <row r="40" spans="2:11">
-      <c r="B40" s="105" t="s">
+      <c r="B40" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="C40" s="105"/>
-      <c r="D40" s="105"/>
-      <c r="E40" s="105"/>
-      <c r="F40" s="105"/>
-      <c r="G40" s="105"/>
-      <c r="H40" s="105"/>
-      <c r="I40" s="105"/>
-      <c r="J40" s="105"/>
-      <c r="K40" s="105"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="104"/>
+      <c r="G40" s="104"/>
+      <c r="H40" s="104"/>
+      <c r="I40" s="104"/>
+      <c r="J40" s="104"/>
+      <c r="K40" s="104"/>
     </row>
     <row r="41" spans="2:11">
-      <c r="B41" s="106" t="s">
+      <c r="B41" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="106"/>
-      <c r="D41" s="106"/>
-      <c r="E41" s="106"/>
-      <c r="F41" s="106"/>
-      <c r="G41" s="106"/>
-      <c r="H41" s="106"/>
-      <c r="I41" s="106"/>
-      <c r="J41" s="106"/>
-      <c r="K41" s="106"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="100"/>
+      <c r="J41" s="100"/>
+      <c r="K41" s="100"/>
     </row>
     <row r="42" spans="2:11">
-      <c r="B42" s="106"/>
-      <c r="C42" s="106"/>
-      <c r="D42" s="106"/>
-      <c r="E42" s="106"/>
-      <c r="F42" s="106"/>
-      <c r="G42" s="106"/>
-      <c r="H42" s="106"/>
-      <c r="I42" s="106"/>
-      <c r="J42" s="106"/>
-      <c r="K42" s="106"/>
+      <c r="B42" s="100"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="100"/>
+      <c r="G42" s="100"/>
+      <c r="H42" s="100"/>
+      <c r="I42" s="100"/>
+      <c r="J42" s="100"/>
+      <c r="K42" s="100"/>
     </row>
     <row r="43" spans="2:11">
-      <c r="B43" s="106"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="106"/>
-      <c r="E43" s="106"/>
-      <c r="F43" s="106"/>
-      <c r="G43" s="106"/>
-      <c r="H43" s="106"/>
-      <c r="I43" s="106"/>
-      <c r="J43" s="106"/>
-      <c r="K43" s="106"/>
+      <c r="B43" s="100"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="100"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="100"/>
+      <c r="G43" s="100"/>
+      <c r="H43" s="100"/>
+      <c r="I43" s="100"/>
+      <c r="J43" s="100"/>
+      <c r="K43" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B40:K40"/>
+    <mergeCell ref="B39:K39"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B36:K37"/>
+    <mergeCell ref="B31:K33"/>
     <mergeCell ref="B41:K43"/>
     <mergeCell ref="H6:M6"/>
     <mergeCell ref="B8:B9"/>
@@ -7447,37 +7467,19 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B40:K40"/>
-    <mergeCell ref="B39:K39"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B36:K37"/>
-    <mergeCell ref="B31:K33"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C14:C15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{63B72AE5-4AD0-934A-BE7B-D1600FAA98EA}"/>
@@ -7490,10 +7492,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E062ABCA-5C43-BE44-A746-9CF55D0E4D06}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B2:R48"/>
+  <dimension ref="B2:R44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -7726,11 +7728,11 @@
       <c r="O9" s="45"/>
     </row>
     <row r="10" spans="2:18">
-      <c r="B10" s="116" t="s">
+      <c r="B10" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
       <c r="E10" s="38">
         <f>SUM(E3:E9)</f>
         <v>1.0000000000000002</v>
@@ -7761,11 +7763,11 @@
       <c r="O11" s="45"/>
     </row>
     <row r="12" spans="2:18">
-      <c r="B12" s="125" t="s">
+      <c r="B12" s="124" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
       <c r="E12" s="11">
         <f>E26+E27</f>
         <v>0.22000000000000003</v>
@@ -7786,11 +7788,11 @@
       <c r="O12" s="45"/>
     </row>
     <row r="13" spans="2:18">
-      <c r="B13" s="125" t="s">
+      <c r="B13" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
       <c r="E13" s="11">
         <f>E3+E5</f>
         <v>0.15020918552309165</v>
@@ -7821,15 +7823,15 @@
       <c r="O14" s="45"/>
     </row>
     <row r="15" spans="2:18">
-      <c r="B15" s="118" t="s">
+      <c r="B15" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="120"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="119"/>
       <c r="N15" s="45"/>
       <c r="O15" s="45"/>
     </row>
@@ -8038,25 +8040,25 @@
       <c r="R23" s="45"/>
     </row>
     <row r="24" spans="2:18">
-      <c r="B24" s="118" t="s">
+      <c r="B24" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="119"/>
-      <c r="D24" s="119"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="120"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="119"/>
       <c r="P24" s="45"/>
       <c r="Q24" s="45"/>
       <c r="R24" s="45"/>
     </row>
     <row r="25" spans="2:18">
-      <c r="B25" s="123" t="s">
+      <c r="B25" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="124"/>
-      <c r="D25" s="124"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="123"/>
       <c r="E25" s="11">
         <v>0.51</v>
       </c>
@@ -8072,11 +8074,11 @@
       <c r="O25" s="46"/>
     </row>
     <row r="26" spans="2:18">
-      <c r="B26" s="123" t="s">
+      <c r="B26" s="122" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="124"/>
-      <c r="D26" s="124"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="123"/>
       <c r="E26" s="11">
         <v>0.05</v>
       </c>
@@ -8092,11 +8094,11 @@
       <c r="O26" s="46"/>
     </row>
     <row r="27" spans="2:18">
-      <c r="B27" s="123" t="s">
+      <c r="B27" s="122" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="124"/>
-      <c r="D27" s="124"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="123"/>
       <c r="E27" s="11">
         <v>0.17</v>
       </c>
@@ -8112,11 +8114,11 @@
       <c r="O27" s="46"/>
     </row>
     <row r="28" spans="2:18">
-      <c r="B28" s="123" t="s">
+      <c r="B28" s="122" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="124"/>
-      <c r="D28" s="124"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="123"/>
       <c r="E28" s="11">
         <v>0.745</v>
       </c>
@@ -8132,11 +8134,11 @@
       <c r="O28" s="46"/>
     </row>
     <row r="29" spans="2:18">
-      <c r="B29" s="121" t="s">
+      <c r="B29" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="122"/>
-      <c r="D29" s="122"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="121"/>
       <c r="E29" s="50">
         <v>0.62707194387944809</v>
       </c>
@@ -8163,12 +8165,12 @@
       <c r="Q31" s="45"/>
     </row>
     <row r="32" spans="2:18">
-      <c r="B32" s="113" t="s">
+      <c r="B32" s="112" t="s">
         <v>126</v>
       </c>
-      <c r="C32" s="114"/>
-      <c r="D32" s="114"/>
-      <c r="E32" s="115"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="114"/>
       <c r="F32" s="47"/>
       <c r="Q32" s="45"/>
     </row>
@@ -8201,13 +8203,7 @@
         <f t="shared" ref="E34:E44" si="2">D34/C34</f>
         <v>0</v>
       </c>
-      <c r="F34" s="97">
-        <v>1</v>
-      </c>
-      <c r="G34" s="45">
-        <f t="shared" ref="G34:G44" si="3">F34*C34</f>
-        <v>107</v>
-      </c>
+      <c r="F34" s="129"/>
     </row>
     <row r="35" spans="2:17">
       <c r="B35" s="37" t="s">
@@ -8223,13 +8219,7 @@
         <f t="shared" si="2"/>
         <v>1.4871794871794872</v>
       </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="F35" s="130"/>
     </row>
     <row r="36" spans="2:17">
       <c r="B36" s="37" t="s">
@@ -8245,13 +8235,7 @@
         <f t="shared" si="2"/>
         <v>1.514018691588785</v>
       </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="F36" s="130"/>
     </row>
     <row r="37" spans="2:17">
       <c r="B37" s="37" t="s">
@@ -8267,13 +8251,7 @@
         <f t="shared" si="2"/>
         <v>1.6444444444444444</v>
       </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="F37" s="130"/>
     </row>
     <row r="38" spans="2:17">
       <c r="B38" s="37" t="s">
@@ -8289,13 +8267,7 @@
         <f t="shared" si="2"/>
         <v>1.6818181818181819</v>
       </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="F38" s="130"/>
     </row>
     <row r="39" spans="2:17">
       <c r="B39" s="37" t="s">
@@ -8311,13 +8283,7 @@
         <f t="shared" si="2"/>
         <v>1.3254437869822486</v>
       </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" s="45">
-        <f t="shared" si="3"/>
-        <v>169</v>
-      </c>
+      <c r="F39" s="130"/>
     </row>
     <row r="40" spans="2:17">
       <c r="B40" s="37" t="s">
@@ -8333,13 +8299,7 @@
         <f t="shared" si="2"/>
         <v>1.4736842105263157</v>
       </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="F40" s="130"/>
     </row>
     <row r="41" spans="2:17">
       <c r="B41" s="37" t="s">
@@ -8355,13 +8315,7 @@
         <f t="shared" si="2"/>
         <v>1.3300970873786409</v>
       </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41" s="45">
-        <f t="shared" si="3"/>
-        <v>206</v>
-      </c>
+      <c r="F41" s="130"/>
     </row>
     <row r="42" spans="2:17">
       <c r="B42" s="37" t="s">
@@ -8377,13 +8331,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F42">
-        <v>2</v>
-      </c>
-      <c r="G42" s="45">
-        <f t="shared" si="3"/>
-        <v>412</v>
-      </c>
+      <c r="F42" s="130"/>
     </row>
     <row r="43" spans="2:17">
       <c r="B43" s="37" t="s">
@@ -8399,13 +8347,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43" s="45">
-        <f t="shared" si="3"/>
-        <v>76</v>
-      </c>
+      <c r="F43" s="130"/>
     </row>
     <row r="44" spans="2:17">
       <c r="B44" s="55" t="s">
@@ -8421,30 +8363,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44" s="45">
-        <f t="shared" si="3"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17">
-      <c r="G46" s="45">
-        <f>SUM(G34:G44)</f>
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17">
-      <c r="G47" s="45">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17">
-      <c r="G48" s="45">
-        <f>G46-G47</f>
-        <v>129</v>
-      </c>
+      <c r="F44" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8468,7 +8387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6705ED31-4C6C-0C48-999B-979E962E2EC9}">
   <dimension ref="A2:V83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M55" sqref="M55"/>
     </sheetView>
   </sheetViews>
@@ -8494,51 +8413,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21">
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="127"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="127"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
     </row>
     <row r="4" spans="1:21" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="128"/>
-      <c r="N4" s="128"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="128"/>
-      <c r="S4" s="128"/>
-      <c r="T4" s="128"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="127"/>
+      <c r="M4" s="127"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="127"/>
+      <c r="P4" s="127"/>
+      <c r="Q4" s="127"/>
+      <c r="R4" s="127"/>
+      <c r="S4" s="127"/>
+      <c r="T4" s="127"/>
     </row>
     <row r="5" spans="1:21" s="6" customFormat="1" ht="51">
       <c r="A5" s="12" t="s">
@@ -11056,15 +10975,15 @@
       <c r="F41" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="G41" s="129">
+      <c r="G41" s="128">
         <f>SUM(G40:L40)</f>
         <v>89.999999999999986</v>
       </c>
-      <c r="H41" s="129"/>
-      <c r="I41" s="129"/>
-      <c r="J41" s="129"/>
-      <c r="K41" s="129"/>
-      <c r="L41" s="129"/>
+      <c r="H41" s="128"/>
+      <c r="I41" s="128"/>
+      <c r="J41" s="128"/>
+      <c r="K41" s="128"/>
+      <c r="L41" s="128"/>
       <c r="M41" s="59"/>
     </row>
     <row r="42" spans="1:20">
@@ -11259,13 +11178,13 @@
         <f>BPCA_Experimental!E29</f>
         <v>0.62707194387944809</v>
       </c>
-      <c r="H49" s="126" t="s">
+      <c r="H49" s="125" t="s">
         <v>123</v>
       </c>
-      <c r="I49" s="126"/>
-      <c r="J49" s="126"/>
-      <c r="K49" s="126"/>
-      <c r="L49" s="126"/>
+      <c r="I49" s="125"/>
+      <c r="J49" s="125"/>
+      <c r="K49" s="125"/>
+      <c r="L49" s="125"/>
       <c r="M49" s="59"/>
     </row>
     <row r="50" spans="1:22" ht="16" customHeight="1">
@@ -11278,11 +11197,11 @@
         <f>G49*G55</f>
         <v>0.31980669137851853</v>
       </c>
-      <c r="H50" s="126"/>
-      <c r="I50" s="126"/>
-      <c r="J50" s="126"/>
-      <c r="K50" s="126"/>
-      <c r="L50" s="126"/>
+      <c r="H50" s="125"/>
+      <c r="I50" s="125"/>
+      <c r="J50" s="125"/>
+      <c r="K50" s="125"/>
+      <c r="L50" s="125"/>
       <c r="M50" s="59"/>
     </row>
     <row r="51" spans="1:22" ht="13" customHeight="1">
@@ -11294,11 +11213,11 @@
         <f>Q40/P40</f>
         <v>0.35659246575342468</v>
       </c>
-      <c r="H51" s="126"/>
-      <c r="I51" s="126"/>
-      <c r="J51" s="126"/>
-      <c r="K51" s="126"/>
-      <c r="L51" s="126"/>
+      <c r="H51" s="125"/>
+      <c r="I51" s="125"/>
+      <c r="J51" s="125"/>
+      <c r="K51" s="125"/>
+      <c r="L51" s="125"/>
       <c r="M51" s="59"/>
       <c r="P51" s="74"/>
     </row>
@@ -11311,11 +11230,11 @@
         <f>G50-G51</f>
         <v>-3.6785774374906155E-2</v>
       </c>
-      <c r="H52" s="126"/>
-      <c r="I52" s="126"/>
-      <c r="J52" s="126"/>
-      <c r="K52" s="126"/>
-      <c r="L52" s="126"/>
+      <c r="H52" s="125"/>
+      <c r="I52" s="125"/>
+      <c r="J52" s="125"/>
+      <c r="K52" s="125"/>
+      <c r="L52" s="125"/>
       <c r="M52" s="59"/>
     </row>
     <row r="53" spans="1:22">
@@ -11344,13 +11263,13 @@
         <f>BPCA_Experimental!E25</f>
         <v>0.51</v>
       </c>
-      <c r="H55" s="126" t="s">
+      <c r="H55" s="125" t="s">
         <v>101</v>
       </c>
-      <c r="I55" s="126"/>
-      <c r="J55" s="126"/>
-      <c r="K55" s="126"/>
-      <c r="L55" s="126"/>
+      <c r="I55" s="125"/>
+      <c r="J55" s="125"/>
+      <c r="K55" s="125"/>
+      <c r="L55" s="125"/>
       <c r="M55" s="59"/>
       <c r="P55" s="74"/>
     </row>
@@ -11364,11 +11283,11 @@
         <f>P40/(G54-Q40)</f>
         <v>0.56059515238780899</v>
       </c>
-      <c r="H56" s="126"/>
-      <c r="I56" s="126"/>
-      <c r="J56" s="126"/>
-      <c r="K56" s="126"/>
-      <c r="L56" s="126"/>
+      <c r="H56" s="125"/>
+      <c r="I56" s="125"/>
+      <c r="J56" s="125"/>
+      <c r="K56" s="125"/>
+      <c r="L56" s="125"/>
       <c r="M56" s="59"/>
       <c r="P56" s="74"/>
     </row>
@@ -11929,8 +11848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA90EBAA-0722-804E-9963-5CBF954104AC}">
   <dimension ref="A2:V83"/>
   <sheetViews>
-    <sheetView topLeftCell="D46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -11957,51 +11876,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21">
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="127"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="127"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
     </row>
     <row r="4" spans="1:21" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="128"/>
-      <c r="N4" s="128"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="128"/>
-      <c r="S4" s="128"/>
-      <c r="T4" s="128"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="127"/>
+      <c r="M4" s="127"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="127"/>
+      <c r="P4" s="127"/>
+      <c r="Q4" s="127"/>
+      <c r="R4" s="127"/>
+      <c r="S4" s="127"/>
+      <c r="T4" s="127"/>
     </row>
     <row r="5" spans="1:21" s="6" customFormat="1" ht="51">
       <c r="A5" s="12" t="s">
@@ -14519,15 +14438,15 @@
       <c r="F41" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="G41" s="129">
+      <c r="G41" s="128">
         <f>SUM(G40:L40)</f>
         <v>109</v>
       </c>
-      <c r="H41" s="129"/>
-      <c r="I41" s="129"/>
-      <c r="J41" s="129"/>
-      <c r="K41" s="129"/>
-      <c r="L41" s="129"/>
+      <c r="H41" s="128"/>
+      <c r="I41" s="128"/>
+      <c r="J41" s="128"/>
+      <c r="K41" s="128"/>
+      <c r="L41" s="128"/>
       <c r="M41" s="59"/>
     </row>
     <row r="42" spans="1:20">
@@ -14722,13 +14641,13 @@
         <f>BPCA_Experimental!F29</f>
         <v>0.51179732492351981</v>
       </c>
-      <c r="H49" s="126" t="s">
+      <c r="H49" s="125" t="s">
         <v>123</v>
       </c>
-      <c r="I49" s="126"/>
-      <c r="J49" s="126"/>
-      <c r="K49" s="126"/>
-      <c r="L49" s="126"/>
+      <c r="I49" s="125"/>
+      <c r="J49" s="125"/>
+      <c r="K49" s="125"/>
+      <c r="L49" s="125"/>
       <c r="M49" s="59"/>
     </row>
     <row r="50" spans="1:22">
@@ -14741,11 +14660,11 @@
         <f>G49*G55</f>
         <v>0.34461019878183669</v>
       </c>
-      <c r="H50" s="126"/>
-      <c r="I50" s="126"/>
-      <c r="J50" s="126"/>
-      <c r="K50" s="126"/>
-      <c r="L50" s="126"/>
+      <c r="H50" s="125"/>
+      <c r="I50" s="125"/>
+      <c r="J50" s="125"/>
+      <c r="K50" s="125"/>
+      <c r="L50" s="125"/>
       <c r="M50" s="59"/>
     </row>
     <row r="51" spans="1:22" ht="13" customHeight="1">
@@ -14757,11 +14676,11 @@
         <f>Q40/P40</f>
         <v>0.34865962632006497</v>
       </c>
-      <c r="H51" s="126"/>
-      <c r="I51" s="126"/>
-      <c r="J51" s="126"/>
-      <c r="K51" s="126"/>
-      <c r="L51" s="126"/>
+      <c r="H51" s="125"/>
+      <c r="I51" s="125"/>
+      <c r="J51" s="125"/>
+      <c r="K51" s="125"/>
+      <c r="L51" s="125"/>
       <c r="M51" s="59"/>
       <c r="P51" s="74"/>
     </row>
@@ -14774,11 +14693,11 @@
         <f>G50-G51</f>
         <v>-4.0494275382282896E-3</v>
       </c>
-      <c r="H52" s="126"/>
-      <c r="I52" s="126"/>
-      <c r="J52" s="126"/>
-      <c r="K52" s="126"/>
-      <c r="L52" s="126"/>
+      <c r="H52" s="125"/>
+      <c r="I52" s="125"/>
+      <c r="J52" s="125"/>
+      <c r="K52" s="125"/>
+      <c r="L52" s="125"/>
     </row>
     <row r="53" spans="1:22">
       <c r="D53" s="1"/>
@@ -14806,13 +14725,13 @@
         <f>BPCA_Experimental!F25</f>
         <v>0.67333333333333334</v>
       </c>
-      <c r="H55" s="126" t="s">
+      <c r="H55" s="125" t="s">
         <v>101</v>
       </c>
-      <c r="I55" s="126"/>
-      <c r="J55" s="126"/>
-      <c r="K55" s="126"/>
-      <c r="L55" s="126"/>
+      <c r="I55" s="125"/>
+      <c r="J55" s="125"/>
+      <c r="K55" s="125"/>
+      <c r="L55" s="125"/>
       <c r="M55" s="59"/>
       <c r="P55" s="74"/>
     </row>
@@ -14826,11 +14745,11 @@
         <f>P40/(G54-Q40)</f>
         <v>0.78367710720651895</v>
       </c>
-      <c r="H56" s="126"/>
-      <c r="I56" s="126"/>
-      <c r="J56" s="126"/>
-      <c r="K56" s="126"/>
-      <c r="L56" s="126"/>
+      <c r="H56" s="125"/>
+      <c r="I56" s="125"/>
+      <c r="J56" s="125"/>
+      <c r="K56" s="125"/>
+      <c r="L56" s="125"/>
       <c r="M56" s="59"/>
       <c r="P56" s="74"/>
     </row>
@@ -15391,7 +15310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F8AF4A-2556-E44D-BD8A-72E1532A4D20}">
   <dimension ref="A2:V83"/>
   <sheetViews>
-    <sheetView topLeftCell="D42" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
@@ -15417,51 +15336,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21">
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="127"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="127"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
     </row>
     <row r="4" spans="1:21" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="128"/>
-      <c r="N4" s="128"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="128"/>
-      <c r="S4" s="128"/>
-      <c r="T4" s="128"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="127"/>
+      <c r="M4" s="127"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="127"/>
+      <c r="P4" s="127"/>
+      <c r="Q4" s="127"/>
+      <c r="R4" s="127"/>
+      <c r="S4" s="127"/>
+      <c r="T4" s="127"/>
     </row>
     <row r="5" spans="1:21" s="6" customFormat="1" ht="51">
       <c r="A5" s="12" t="s">
@@ -17979,15 +17898,15 @@
       <c r="F41" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="G41" s="129">
+      <c r="G41" s="128">
         <f>SUM(G40:L40)</f>
         <v>104</v>
       </c>
-      <c r="H41" s="129"/>
-      <c r="I41" s="129"/>
-      <c r="J41" s="129"/>
-      <c r="K41" s="129"/>
-      <c r="L41" s="129"/>
+      <c r="H41" s="128"/>
+      <c r="I41" s="128"/>
+      <c r="J41" s="128"/>
+      <c r="K41" s="128"/>
+      <c r="L41" s="128"/>
       <c r="M41" s="59"/>
     </row>
     <row r="42" spans="1:20">
@@ -18182,13 +18101,13 @@
         <f>BPCA_Experimental!G29</f>
         <v>0.3664855234279874</v>
       </c>
-      <c r="H49" s="126" t="s">
+      <c r="H49" s="125" t="s">
         <v>123</v>
       </c>
-      <c r="I49" s="126"/>
-      <c r="J49" s="126"/>
-      <c r="K49" s="126"/>
-      <c r="L49" s="126"/>
+      <c r="I49" s="125"/>
+      <c r="J49" s="125"/>
+      <c r="K49" s="125"/>
+      <c r="L49" s="125"/>
       <c r="M49" s="59"/>
     </row>
     <row r="50" spans="1:22">
@@ -18201,11 +18120,11 @@
         <f>G49*G55</f>
         <v>0.30051812921094967</v>
       </c>
-      <c r="H50" s="126"/>
-      <c r="I50" s="126"/>
-      <c r="J50" s="126"/>
-      <c r="K50" s="126"/>
-      <c r="L50" s="126"/>
+      <c r="H50" s="125"/>
+      <c r="I50" s="125"/>
+      <c r="J50" s="125"/>
+      <c r="K50" s="125"/>
+      <c r="L50" s="125"/>
       <c r="M50" s="59"/>
     </row>
     <row r="51" spans="1:22" ht="13" customHeight="1">
@@ -18217,11 +18136,11 @@
         <f>Q40/P40</f>
         <v>0.31353320257775286</v>
       </c>
-      <c r="H51" s="126"/>
-      <c r="I51" s="126"/>
-      <c r="J51" s="126"/>
-      <c r="K51" s="126"/>
-      <c r="L51" s="126"/>
+      <c r="H51" s="125"/>
+      <c r="I51" s="125"/>
+      <c r="J51" s="125"/>
+      <c r="K51" s="125"/>
+      <c r="L51" s="125"/>
       <c r="M51" s="59"/>
       <c r="P51" s="74"/>
     </row>
@@ -18234,11 +18153,11 @@
         <f>G50-G51</f>
         <v>-1.3015073366803187E-2</v>
       </c>
-      <c r="H52" s="126"/>
-      <c r="I52" s="126"/>
-      <c r="J52" s="126"/>
-      <c r="K52" s="126"/>
-      <c r="L52" s="126"/>
+      <c r="H52" s="125"/>
+      <c r="I52" s="125"/>
+      <c r="J52" s="125"/>
+      <c r="K52" s="125"/>
+      <c r="L52" s="125"/>
       <c r="M52" s="59"/>
       <c r="N52" s="74"/>
       <c r="O52" s="74"/>
@@ -18283,13 +18202,13 @@
         <f>BPCA_Experimental!G25</f>
         <v>0.82</v>
       </c>
-      <c r="H55" s="126" t="s">
+      <c r="H55" s="125" t="s">
         <v>101</v>
       </c>
-      <c r="I55" s="126"/>
-      <c r="J55" s="126"/>
-      <c r="K55" s="126"/>
-      <c r="L55" s="126"/>
+      <c r="I55" s="125"/>
+      <c r="J55" s="125"/>
+      <c r="K55" s="125"/>
+      <c r="L55" s="125"/>
       <c r="M55" s="59"/>
       <c r="P55" s="74"/>
     </row>
@@ -18303,11 +18222,11 @@
         <f>P40/(G54-Q40)</f>
         <v>0.91960834836382377</v>
       </c>
-      <c r="H56" s="126"/>
-      <c r="I56" s="126"/>
-      <c r="J56" s="126"/>
-      <c r="K56" s="126"/>
-      <c r="L56" s="126"/>
+      <c r="H56" s="125"/>
+      <c r="I56" s="125"/>
+      <c r="J56" s="125"/>
+      <c r="K56" s="125"/>
+      <c r="L56" s="125"/>
       <c r="M56" s="59"/>
       <c r="P56" s="74"/>
     </row>
@@ -18868,8 +18787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D382B00-30F4-764B-9FB9-162B0A78B6BF}">
   <dimension ref="A2:V83"/>
   <sheetViews>
-    <sheetView topLeftCell="D42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N60" sqref="N60"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -18894,51 +18813,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21">
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="127"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="127"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
     </row>
     <row r="4" spans="1:21" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="128"/>
-      <c r="N4" s="128"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="128"/>
-      <c r="S4" s="128"/>
-      <c r="T4" s="128"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="127"/>
+      <c r="M4" s="127"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="127"/>
+      <c r="P4" s="127"/>
+      <c r="Q4" s="127"/>
+      <c r="R4" s="127"/>
+      <c r="S4" s="127"/>
+      <c r="T4" s="127"/>
     </row>
     <row r="5" spans="1:21" s="6" customFormat="1" ht="51">
       <c r="A5" s="12" t="s">
@@ -21456,15 +21375,15 @@
       <c r="F41" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="G41" s="129">
+      <c r="G41" s="128">
         <f>SUM(G40:L40)</f>
         <v>88</v>
       </c>
-      <c r="H41" s="129"/>
-      <c r="I41" s="129"/>
-      <c r="J41" s="129"/>
-      <c r="K41" s="129"/>
-      <c r="L41" s="129"/>
+      <c r="H41" s="128"/>
+      <c r="I41" s="128"/>
+      <c r="J41" s="128"/>
+      <c r="K41" s="128"/>
+      <c r="L41" s="128"/>
       <c r="M41" s="59"/>
     </row>
     <row r="42" spans="1:20">
@@ -21659,13 +21578,13 @@
         <f>BPCA_Experimental!H29</f>
         <v>0.26424758936501019</v>
       </c>
-      <c r="H49" s="126" t="s">
+      <c r="H49" s="125" t="s">
         <v>123</v>
       </c>
-      <c r="I49" s="126"/>
-      <c r="J49" s="126"/>
-      <c r="K49" s="126"/>
-      <c r="L49" s="126"/>
+      <c r="I49" s="125"/>
+      <c r="J49" s="125"/>
+      <c r="K49" s="125"/>
+      <c r="L49" s="125"/>
       <c r="M49" s="59"/>
     </row>
     <row r="50" spans="1:22">
@@ -21678,11 +21597,11 @@
         <f>G49*G55</f>
         <v>0.20611311970470797</v>
       </c>
-      <c r="H50" s="126"/>
-      <c r="I50" s="126"/>
-      <c r="J50" s="126"/>
-      <c r="K50" s="126"/>
-      <c r="L50" s="126"/>
+      <c r="H50" s="125"/>
+      <c r="I50" s="125"/>
+      <c r="J50" s="125"/>
+      <c r="K50" s="125"/>
+      <c r="L50" s="125"/>
       <c r="M50" s="59"/>
     </row>
     <row r="51" spans="1:22" ht="13" customHeight="1">
@@ -21694,11 +21613,11 @@
         <f>Q40/P40</f>
         <v>0.28733065356557985</v>
       </c>
-      <c r="H51" s="126"/>
-      <c r="I51" s="126"/>
-      <c r="J51" s="126"/>
-      <c r="K51" s="126"/>
-      <c r="L51" s="126"/>
+      <c r="H51" s="125"/>
+      <c r="I51" s="125"/>
+      <c r="J51" s="125"/>
+      <c r="K51" s="125"/>
+      <c r="L51" s="125"/>
       <c r="M51" s="59"/>
       <c r="P51" s="74"/>
     </row>
@@ -21711,11 +21630,11 @@
         <f>G50-G51</f>
         <v>-8.1217533860871882E-2</v>
       </c>
-      <c r="H52" s="126"/>
-      <c r="I52" s="126"/>
-      <c r="J52" s="126"/>
-      <c r="K52" s="126"/>
-      <c r="L52" s="126"/>
+      <c r="H52" s="125"/>
+      <c r="I52" s="125"/>
+      <c r="J52" s="125"/>
+      <c r="K52" s="125"/>
+      <c r="L52" s="125"/>
       <c r="M52" s="59"/>
       <c r="N52" s="74"/>
       <c r="O52" s="74"/>
@@ -21760,13 +21679,13 @@
         <f>BPCA_Experimental!H25</f>
         <v>0.78</v>
       </c>
-      <c r="H55" s="126" t="s">
+      <c r="H55" s="125" t="s">
         <v>101</v>
       </c>
-      <c r="I55" s="126"/>
-      <c r="J55" s="126"/>
-      <c r="K55" s="126"/>
-      <c r="L55" s="126"/>
+      <c r="I55" s="125"/>
+      <c r="J55" s="125"/>
+      <c r="K55" s="125"/>
+      <c r="L55" s="125"/>
       <c r="M55" s="59"/>
       <c r="P55" s="74"/>
     </row>
@@ -21780,11 +21699,11 @@
         <f>P40/(G54-Q40)</f>
         <v>0.83234200743494424</v>
       </c>
-      <c r="H56" s="126"/>
-      <c r="I56" s="126"/>
-      <c r="J56" s="126"/>
-      <c r="K56" s="126"/>
-      <c r="L56" s="126"/>
+      <c r="H56" s="125"/>
+      <c r="I56" s="125"/>
+      <c r="J56" s="125"/>
+      <c r="K56" s="125"/>
+      <c r="L56" s="125"/>
       <c r="M56" s="59"/>
       <c r="P56" s="74"/>
     </row>

--- a/BPCA/BPCA_PAH.xlsx
+++ b/BPCA/BPCA_PAH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailwsu-my.sharepoint.com/personal/v_sierrajimenez_wsu_edu/Documents/WSU/PhD/Thesis/Paper 1 Methodology/Reviewed Version/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="738" documentId="13_ncr:1_{06919FED-0BB1-C44E-8619-00AA43605CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D0AC0ED-F6C0-0244-A822-8F28992E9D23}"/>
+  <xr:revisionPtr revIDLastSave="767" documentId="13_ncr:1_{06919FED-0BB1-C44E-8619-00AA43605CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{079383A5-DFF2-A44A-AD79-36982449A026}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{EB29A718-2CE6-174F-8972-CCE909784FB0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" activeTab="2" xr2:uid="{EB29A718-2CE6-174F-8972-CCE909784FB0}"/>
   </bookViews>
   <sheets>
     <sheet name="PAH_Standard" sheetId="17" r:id="rId1"/>
@@ -1384,17 +1384,43 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1404,30 +1430,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1480,8 +1482,6 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6706,41 +6706,41 @@
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="2:18">
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="107" t="s">
+      <c r="D6" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="107" t="s">
+      <c r="E6" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="107" t="s">
+      <c r="F6" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="107" t="s">
+      <c r="G6" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="101" t="str">
+      <c r="H6" s="111" t="str">
         <f>HYPERLINK("#BPCA!B5","BPCA types")</f>
         <v>BPCA types</v>
       </c>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="102"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="112"/>
     </row>
     <row r="7" spans="2:18">
-      <c r="B7" s="111"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
       <c r="H7" s="63" t="s">
         <v>134</v>
       </c>
@@ -6761,17 +6761,17 @@
       </c>
     </row>
     <row r="8" spans="2:18" ht="34" customHeight="1">
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97">
+      <c r="C8" s="102"/>
+      <c r="D8" s="102">
         <v>14</v>
       </c>
-      <c r="E8" s="97">
+      <c r="E8" s="102">
         <v>94.4</v>
       </c>
-      <c r="F8" s="97">
+      <c r="F8" s="102">
         <v>24.2</v>
       </c>
       <c r="G8" s="14" t="s">
@@ -6787,11 +6787,11 @@
       <c r="M8" s="16"/>
     </row>
     <row r="9" spans="2:18" ht="34" customHeight="1">
-      <c r="B9" s="98"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
       <c r="G9" s="14" t="s">
         <v>14</v>
       </c>
@@ -6809,17 +6809,17 @@
       <c r="M9" s="16"/>
     </row>
     <row r="10" spans="2:18" ht="33" customHeight="1">
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97">
+      <c r="C10" s="102"/>
+      <c r="D10" s="102">
         <v>14</v>
       </c>
-      <c r="E10" s="97">
+      <c r="E10" s="102">
         <v>94.4</v>
       </c>
-      <c r="F10" s="97">
+      <c r="F10" s="102">
         <v>23.7</v>
       </c>
       <c r="G10" s="14" t="s">
@@ -6837,11 +6837,11 @@
       <c r="M10" s="16"/>
     </row>
     <row r="11" spans="2:18" ht="33" customHeight="1">
-      <c r="B11" s="99"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
       <c r="G11" s="14" t="s">
         <v>14</v>
       </c>
@@ -6859,17 +6859,17 @@
       <c r="M11" s="16"/>
     </row>
     <row r="12" spans="2:18" ht="39" customHeight="1">
-      <c r="B12" s="99" t="s">
+      <c r="B12" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97">
+      <c r="C12" s="102"/>
+      <c r="D12" s="102">
         <v>18</v>
       </c>
-      <c r="E12" s="97">
+      <c r="E12" s="102">
         <v>92.3</v>
       </c>
-      <c r="F12" s="97">
+      <c r="F12" s="102">
         <v>29.3</v>
       </c>
       <c r="G12" s="14" t="s">
@@ -6891,11 +6891,11 @@
       <c r="M12" s="16"/>
     </row>
     <row r="13" spans="2:18" ht="39" customHeight="1">
-      <c r="B13" s="99"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
       <c r="G13" s="14" t="s">
         <v>14</v>
       </c>
@@ -6916,17 +6916,17 @@
       <c r="M13" s="16"/>
     </row>
     <row r="14" spans="2:18" ht="32" customHeight="1">
-      <c r="B14" s="99" t="s">
+      <c r="B14" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97">
+      <c r="C14" s="102"/>
+      <c r="D14" s="102">
         <v>18</v>
       </c>
-      <c r="E14" s="97">
+      <c r="E14" s="102">
         <v>94.7</v>
       </c>
-      <c r="F14" s="97">
+      <c r="F14" s="102">
         <v>21.5</v>
       </c>
       <c r="G14" s="14" t="s">
@@ -6944,11 +6944,11 @@
       <c r="M14" s="16"/>
     </row>
     <row r="15" spans="2:18" ht="32" customHeight="1">
-      <c r="B15" s="99"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
       <c r="G15" s="14" t="s">
         <v>14</v>
       </c>
@@ -6966,17 +6966,17 @@
       <c r="M15" s="16"/>
     </row>
     <row r="16" spans="2:18" ht="36" customHeight="1">
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97">
+      <c r="C16" s="102"/>
+      <c r="D16" s="102">
         <v>16</v>
       </c>
-      <c r="E16" s="97">
+      <c r="E16" s="102">
         <v>95</v>
       </c>
-      <c r="F16" s="97">
+      <c r="F16" s="102">
         <v>37</v>
       </c>
       <c r="G16" s="14" t="s">
@@ -6995,11 +6995,11 @@
       <c r="R16" s="1"/>
     </row>
     <row r="17" spans="2:13" ht="36" customHeight="1">
-      <c r="B17" s="98"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
       <c r="G17" s="14" t="s">
         <v>14</v>
       </c>
@@ -7017,17 +7017,17 @@
       <c r="M17" s="16"/>
     </row>
     <row r="18" spans="2:13" ht="35" customHeight="1">
-      <c r="B18" s="98" t="s">
+      <c r="B18" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="97"/>
-      <c r="D18" s="97">
+      <c r="C18" s="102"/>
+      <c r="D18" s="102">
         <v>16</v>
       </c>
-      <c r="E18" s="97">
+      <c r="E18" s="102">
         <v>77.400000000000006</v>
       </c>
-      <c r="F18" s="97">
+      <c r="F18" s="102">
         <v>36.1</v>
       </c>
       <c r="G18" s="14" t="s">
@@ -7047,11 +7047,11 @@
       <c r="M18" s="16"/>
     </row>
     <row r="19" spans="2:13" ht="35" customHeight="1">
-      <c r="B19" s="98"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="97"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
       <c r="G19" s="14" t="s">
         <v>14</v>
       </c>
@@ -7069,17 +7069,17 @@
       <c r="M19" s="16"/>
     </row>
     <row r="20" spans="2:13" ht="42" customHeight="1">
-      <c r="B20" s="99" t="s">
+      <c r="B20" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="97"/>
-      <c r="D20" s="97">
+      <c r="C20" s="102"/>
+      <c r="D20" s="102">
         <v>20</v>
       </c>
-      <c r="E20" s="97">
+      <c r="E20" s="102">
         <v>95.2</v>
       </c>
-      <c r="F20" s="97">
+      <c r="F20" s="102">
         <v>22.5</v>
       </c>
       <c r="G20" s="14" t="s">
@@ -7097,11 +7097,11 @@
       </c>
     </row>
     <row r="21" spans="2:13" ht="42" customHeight="1">
-      <c r="B21" s="99"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="97"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
       <c r="G21" s="14" t="s">
         <v>14</v>
       </c>
@@ -7119,17 +7119,17 @@
       </c>
     </row>
     <row r="22" spans="2:13" ht="47" customHeight="1">
-      <c r="B22" s="98" t="s">
+      <c r="B22" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="97"/>
-      <c r="D22" s="97">
+      <c r="C22" s="102"/>
+      <c r="D22" s="102">
         <v>22</v>
       </c>
-      <c r="E22" s="97">
+      <c r="E22" s="102">
         <v>95.5</v>
       </c>
-      <c r="F22" s="97">
+      <c r="F22" s="102">
         <v>22.5</v>
       </c>
       <c r="G22" s="14" t="s">
@@ -7149,11 +7149,11 @@
       </c>
     </row>
     <row r="23" spans="2:13" ht="47" customHeight="1">
-      <c r="B23" s="98"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="97"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
       <c r="G23" s="14" t="s">
         <v>14</v>
       </c>
@@ -7174,17 +7174,17 @@
       </c>
     </row>
     <row r="24" spans="2:13" ht="53" customHeight="1">
-      <c r="B24" s="98" t="s">
+      <c r="B24" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="97"/>
-      <c r="D24" s="97">
+      <c r="C24" s="102"/>
+      <c r="D24" s="102">
         <v>24</v>
       </c>
-      <c r="E24" s="97">
+      <c r="E24" s="102">
         <v>96</v>
       </c>
-      <c r="F24" s="97">
+      <c r="F24" s="102">
         <v>19.5</v>
       </c>
       <c r="G24" s="14" t="s">
@@ -7202,11 +7202,11 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="53" customHeight="1">
-      <c r="B25" s="98"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="97"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
       <c r="G25" s="14" t="s">
         <v>14</v>
       </c>
@@ -7242,55 +7242,55 @@
       <c r="M26" s="23"/>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="109" t="s">
+      <c r="B30" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="109"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="109"/>
-      <c r="G30" s="109"/>
-      <c r="H30" s="109"/>
-      <c r="I30" s="109"/>
-      <c r="J30" s="109"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="101"/>
+      <c r="J30" s="101"/>
     </row>
     <row r="31" spans="2:13" ht="16" customHeight="1">
-      <c r="B31" s="106" t="s">
+      <c r="B31" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="106"/>
-      <c r="D31" s="106"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="106"/>
-      <c r="J31" s="106"/>
-      <c r="K31" s="106"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="110"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="110"/>
     </row>
     <row r="32" spans="2:13">
-      <c r="B32" s="106"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="106"/>
-      <c r="E32" s="106"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="106"/>
-      <c r="K32" s="106"/>
+      <c r="B32" s="110"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="110"/>
     </row>
     <row r="33" spans="2:11">
-      <c r="B33" s="106"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="106"/>
-      <c r="E33" s="106"/>
-      <c r="F33" s="106"/>
-      <c r="G33" s="106"/>
-      <c r="H33" s="106"/>
-      <c r="I33" s="106"/>
-      <c r="J33" s="106"/>
-      <c r="K33" s="106"/>
+      <c r="B33" s="110"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="110"/>
+      <c r="I33" s="110"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="110"/>
     </row>
     <row r="34" spans="2:11">
       <c r="B34" s="2"/>
@@ -7301,125 +7301,169 @@
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="2:11">
-      <c r="B35" s="103" t="s">
+      <c r="B35" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="103"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="103"/>
-      <c r="I35" s="103"/>
-      <c r="J35" s="103"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="113"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="113"/>
+      <c r="H35" s="113"/>
+      <c r="I35" s="113"/>
+      <c r="J35" s="113"/>
     </row>
     <row r="36" spans="2:11" ht="16" customHeight="1">
-      <c r="B36" s="105" t="s">
+      <c r="B36" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="C36" s="105"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="105"/>
-      <c r="J36" s="105"/>
-      <c r="K36" s="105"/>
+      <c r="C36" s="109"/>
+      <c r="D36" s="109"/>
+      <c r="E36" s="109"/>
+      <c r="F36" s="109"/>
+      <c r="G36" s="109"/>
+      <c r="H36" s="109"/>
+      <c r="I36" s="109"/>
+      <c r="J36" s="109"/>
+      <c r="K36" s="109"/>
     </row>
     <row r="37" spans="2:11">
-      <c r="B37" s="105"/>
-      <c r="C37" s="105"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="105"/>
-      <c r="H37" s="105"/>
-      <c r="I37" s="105"/>
-      <c r="J37" s="105"/>
-      <c r="K37" s="105"/>
+      <c r="B37" s="109"/>
+      <c r="C37" s="109"/>
+      <c r="D37" s="109"/>
+      <c r="E37" s="109"/>
+      <c r="F37" s="109"/>
+      <c r="G37" s="109"/>
+      <c r="H37" s="109"/>
+      <c r="I37" s="109"/>
+      <c r="J37" s="109"/>
+      <c r="K37" s="109"/>
     </row>
     <row r="38" spans="2:11">
-      <c r="B38" s="104" t="s">
+      <c r="B38" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="104"/>
-      <c r="D38" s="104"/>
-      <c r="E38" s="104"/>
-      <c r="F38" s="104"/>
-      <c r="G38" s="104"/>
-      <c r="H38" s="104"/>
-      <c r="I38" s="104"/>
-      <c r="J38" s="104"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="106"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="106"/>
+      <c r="G38" s="106"/>
+      <c r="H38" s="106"/>
+      <c r="I38" s="106"/>
+      <c r="J38" s="106"/>
     </row>
     <row r="39" spans="2:11" ht="35" customHeight="1">
-      <c r="B39" s="100" t="s">
+      <c r="B39" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="100"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="100"/>
-      <c r="F39" s="100"/>
-      <c r="G39" s="100"/>
-      <c r="H39" s="100"/>
-      <c r="I39" s="100"/>
-      <c r="J39" s="100"/>
-      <c r="K39" s="100"/>
+      <c r="C39" s="107"/>
+      <c r="D39" s="107"/>
+      <c r="E39" s="107"/>
+      <c r="F39" s="107"/>
+      <c r="G39" s="107"/>
+      <c r="H39" s="107"/>
+      <c r="I39" s="107"/>
+      <c r="J39" s="107"/>
+      <c r="K39" s="107"/>
     </row>
     <row r="40" spans="2:11">
-      <c r="B40" s="104" t="s">
+      <c r="B40" s="106" t="s">
         <v>125</v>
       </c>
-      <c r="C40" s="104"/>
-      <c r="D40" s="104"/>
-      <c r="E40" s="104"/>
-      <c r="F40" s="104"/>
-      <c r="G40" s="104"/>
-      <c r="H40" s="104"/>
-      <c r="I40" s="104"/>
-      <c r="J40" s="104"/>
-      <c r="K40" s="104"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="106"/>
+      <c r="G40" s="106"/>
+      <c r="H40" s="106"/>
+      <c r="I40" s="106"/>
+      <c r="J40" s="106"/>
+      <c r="K40" s="106"/>
     </row>
     <row r="41" spans="2:11">
-      <c r="B41" s="100" t="s">
+      <c r="B41" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="100"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="100"/>
-      <c r="F41" s="100"/>
-      <c r="G41" s="100"/>
-      <c r="H41" s="100"/>
-      <c r="I41" s="100"/>
-      <c r="J41" s="100"/>
-      <c r="K41" s="100"/>
+      <c r="C41" s="107"/>
+      <c r="D41" s="107"/>
+      <c r="E41" s="107"/>
+      <c r="F41" s="107"/>
+      <c r="G41" s="107"/>
+      <c r="H41" s="107"/>
+      <c r="I41" s="107"/>
+      <c r="J41" s="107"/>
+      <c r="K41" s="107"/>
     </row>
     <row r="42" spans="2:11">
-      <c r="B42" s="100"/>
-      <c r="C42" s="100"/>
-      <c r="D42" s="100"/>
-      <c r="E42" s="100"/>
-      <c r="F42" s="100"/>
-      <c r="G42" s="100"/>
-      <c r="H42" s="100"/>
-      <c r="I42" s="100"/>
-      <c r="J42" s="100"/>
-      <c r="K42" s="100"/>
+      <c r="B42" s="107"/>
+      <c r="C42" s="107"/>
+      <c r="D42" s="107"/>
+      <c r="E42" s="107"/>
+      <c r="F42" s="107"/>
+      <c r="G42" s="107"/>
+      <c r="H42" s="107"/>
+      <c r="I42" s="107"/>
+      <c r="J42" s="107"/>
+      <c r="K42" s="107"/>
     </row>
     <row r="43" spans="2:11">
-      <c r="B43" s="100"/>
-      <c r="C43" s="100"/>
-      <c r="D43" s="100"/>
-      <c r="E43" s="100"/>
-      <c r="F43" s="100"/>
-      <c r="G43" s="100"/>
-      <c r="H43" s="100"/>
-      <c r="I43" s="100"/>
-      <c r="J43" s="100"/>
-      <c r="K43" s="100"/>
+      <c r="B43" s="107"/>
+      <c r="C43" s="107"/>
+      <c r="D43" s="107"/>
+      <c r="E43" s="107"/>
+      <c r="F43" s="107"/>
+      <c r="G43" s="107"/>
+      <c r="H43" s="107"/>
+      <c r="I43" s="107"/>
+      <c r="J43" s="107"/>
+      <c r="K43" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B41:K43"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B40:K40"/>
+    <mergeCell ref="B39:K39"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B36:K37"/>
+    <mergeCell ref="B31:K33"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="B30:J30"/>
     <mergeCell ref="C22:C23"/>
@@ -7436,50 +7480,6 @@
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="E18:E19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B40:K40"/>
-    <mergeCell ref="B39:K39"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B36:K37"/>
-    <mergeCell ref="B31:K33"/>
-    <mergeCell ref="B41:K43"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C14:C15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{63B72AE5-4AD0-934A-BE7B-D1600FAA98EA}"/>
@@ -7728,11 +7728,11 @@
       <c r="O9" s="45"/>
     </row>
     <row r="10" spans="2:18">
-      <c r="B10" s="115" t="s">
+      <c r="B10" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
       <c r="E10" s="38">
         <f>SUM(E3:E9)</f>
         <v>1.0000000000000002</v>
@@ -7763,11 +7763,11 @@
       <c r="O11" s="45"/>
     </row>
     <row r="12" spans="2:18">
-      <c r="B12" s="124" t="s">
+      <c r="B12" s="126" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
       <c r="E12" s="11">
         <f>E26+E27</f>
         <v>0.22000000000000003</v>
@@ -7788,11 +7788,11 @@
       <c r="O12" s="45"/>
     </row>
     <row r="13" spans="2:18">
-      <c r="B13" s="124" t="s">
+      <c r="B13" s="126" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
       <c r="E13" s="11">
         <f>E3+E5</f>
         <v>0.15020918552309165</v>
@@ -7823,15 +7823,15 @@
       <c r="O14" s="45"/>
     </row>
     <row r="15" spans="2:18">
-      <c r="B15" s="117" t="s">
+      <c r="B15" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="118"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="119"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
       <c r="N15" s="45"/>
       <c r="O15" s="45"/>
     </row>
@@ -8040,25 +8040,25 @@
       <c r="R23" s="45"/>
     </row>
     <row r="24" spans="2:18">
-      <c r="B24" s="117" t="s">
+      <c r="B24" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="118"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="118"/>
-      <c r="H24" s="119"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="120"/>
+      <c r="H24" s="121"/>
       <c r="P24" s="45"/>
       <c r="Q24" s="45"/>
       <c r="R24" s="45"/>
     </row>
     <row r="25" spans="2:18">
-      <c r="B25" s="122" t="s">
+      <c r="B25" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="123"/>
-      <c r="D25" s="123"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="125"/>
       <c r="E25" s="11">
         <v>0.51</v>
       </c>
@@ -8074,11 +8074,11 @@
       <c r="O25" s="46"/>
     </row>
     <row r="26" spans="2:18">
-      <c r="B26" s="122" t="s">
+      <c r="B26" s="124" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="123"/>
-      <c r="D26" s="123"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="125"/>
       <c r="E26" s="11">
         <v>0.05</v>
       </c>
@@ -8094,11 +8094,11 @@
       <c r="O26" s="46"/>
     </row>
     <row r="27" spans="2:18">
-      <c r="B27" s="122" t="s">
+      <c r="B27" s="124" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="123"/>
-      <c r="D27" s="123"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="125"/>
       <c r="E27" s="11">
         <v>0.17</v>
       </c>
@@ -8114,11 +8114,11 @@
       <c r="O27" s="46"/>
     </row>
     <row r="28" spans="2:18">
-      <c r="B28" s="122" t="s">
+      <c r="B28" s="124" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="123"/>
-      <c r="D28" s="123"/>
+      <c r="C28" s="125"/>
+      <c r="D28" s="125"/>
       <c r="E28" s="11">
         <v>0.745</v>
       </c>
@@ -8134,11 +8134,11 @@
       <c r="O28" s="46"/>
     </row>
     <row r="29" spans="2:18">
-      <c r="B29" s="120" t="s">
+      <c r="B29" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="121"/>
-      <c r="D29" s="121"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="123"/>
       <c r="E29" s="50">
         <v>0.62707194387944809</v>
       </c>
@@ -8165,12 +8165,12 @@
       <c r="Q31" s="45"/>
     </row>
     <row r="32" spans="2:18">
-      <c r="B32" s="112" t="s">
+      <c r="B32" s="114" t="s">
         <v>126</v>
       </c>
-      <c r="C32" s="113"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="114"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="116"/>
       <c r="F32" s="47"/>
       <c r="Q32" s="45"/>
     </row>
@@ -8203,7 +8203,7 @@
         <f t="shared" ref="E34:E44" si="2">D34/C34</f>
         <v>0</v>
       </c>
-      <c r="F34" s="129"/>
+      <c r="F34" s="97"/>
     </row>
     <row r="35" spans="2:17">
       <c r="B35" s="37" t="s">
@@ -8219,7 +8219,7 @@
         <f t="shared" si="2"/>
         <v>1.4871794871794872</v>
       </c>
-      <c r="F35" s="130"/>
+      <c r="F35" s="98"/>
     </row>
     <row r="36" spans="2:17">
       <c r="B36" s="37" t="s">
@@ -8235,7 +8235,7 @@
         <f t="shared" si="2"/>
         <v>1.514018691588785</v>
       </c>
-      <c r="F36" s="130"/>
+      <c r="F36" s="98"/>
     </row>
     <row r="37" spans="2:17">
       <c r="B37" s="37" t="s">
@@ -8251,7 +8251,7 @@
         <f t="shared" si="2"/>
         <v>1.6444444444444444</v>
       </c>
-      <c r="F37" s="130"/>
+      <c r="F37" s="98"/>
     </row>
     <row r="38" spans="2:17">
       <c r="B38" s="37" t="s">
@@ -8267,7 +8267,7 @@
         <f t="shared" si="2"/>
         <v>1.6818181818181819</v>
       </c>
-      <c r="F38" s="130"/>
+      <c r="F38" s="98"/>
     </row>
     <row r="39" spans="2:17">
       <c r="B39" s="37" t="s">
@@ -8283,7 +8283,7 @@
         <f t="shared" si="2"/>
         <v>1.3254437869822486</v>
       </c>
-      <c r="F39" s="130"/>
+      <c r="F39" s="98"/>
     </row>
     <row r="40" spans="2:17">
       <c r="B40" s="37" t="s">
@@ -8299,7 +8299,7 @@
         <f t="shared" si="2"/>
         <v>1.4736842105263157</v>
       </c>
-      <c r="F40" s="130"/>
+      <c r="F40" s="98"/>
     </row>
     <row r="41" spans="2:17">
       <c r="B41" s="37" t="s">
@@ -8315,7 +8315,7 @@
         <f t="shared" si="2"/>
         <v>1.3300970873786409</v>
       </c>
-      <c r="F41" s="130"/>
+      <c r="F41" s="98"/>
     </row>
     <row r="42" spans="2:17">
       <c r="B42" s="37" t="s">
@@ -8331,7 +8331,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F42" s="130"/>
+      <c r="F42" s="98"/>
     </row>
     <row r="43" spans="2:17">
       <c r="B43" s="37" t="s">
@@ -8347,7 +8347,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F43" s="130"/>
+      <c r="F43" s="98"/>
     </row>
     <row r="44" spans="2:17">
       <c r="B44" s="55" t="s">
@@ -8363,7 +8363,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F44" s="130"/>
+      <c r="F44" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8388,7 +8388,7 @@
   <dimension ref="A2:V83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M55" sqref="M55"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -8413,51 +8413,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21">
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="128" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="126"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
     </row>
     <row r="4" spans="1:21" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="A4" s="127" t="s">
+      <c r="A4" s="129" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="127"/>
-      <c r="O4" s="127"/>
-      <c r="P4" s="127"/>
-      <c r="Q4" s="127"/>
-      <c r="R4" s="127"/>
-      <c r="S4" s="127"/>
-      <c r="T4" s="127"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="129"/>
+      <c r="O4" s="129"/>
+      <c r="P4" s="129"/>
+      <c r="Q4" s="129"/>
+      <c r="R4" s="129"/>
+      <c r="S4" s="129"/>
+      <c r="T4" s="129"/>
     </row>
     <row r="5" spans="1:21" s="6" customFormat="1" ht="51">
       <c r="A5" s="12" t="s">
@@ -10925,27 +10925,27 @@
       <c r="C40" s="60"/>
       <c r="D40" s="1"/>
       <c r="G40" s="59">
-        <f t="shared" ref="G40:L40" si="8">G6*$M$6+G11*$M$11+G12*$M$12+G7*$M$7+G8*$M$8+G9*$M9+G10*$M$10+G13*$M$13+G14*$M$14+G15*$M$15+G16*$M$16+G17*$M$17+G18*$M$18+G19*$M$19+G20*$M$20+G21*$M$21+G22*$M$22+G23*$M$23+G24*$M$24+G25*$M$25+G26*$M$26+G27*$M$27+G28*$M$28+G29*$M$29+G30*$M$30+G31*$M$31+G32*$M$32+G33*$M$33+G34*$M$34+G35*$M$35+G36*$M$36+G37*$M$37+G38*$M$38+G39*$M$39</f>
+        <f>SUMPRODUCT(G7:G39, M7:M39)</f>
         <v>4</v>
       </c>
       <c r="H40" s="59">
-        <f t="shared" si="8"/>
+        <f>SUMPRODUCT(H7:H39, M7:M39)</f>
         <v>13.040000000000001</v>
       </c>
       <c r="I40" s="59">
-        <f t="shared" si="8"/>
+        <f>SUMPRODUCT(I7:I39, M7:M39)</f>
         <v>6</v>
       </c>
       <c r="J40" s="59">
-        <f t="shared" si="8"/>
+        <f>SUMPRODUCT(J7:J39, M7:M39)</f>
         <v>13.754285714285714</v>
       </c>
       <c r="K40" s="59">
-        <f t="shared" si="8"/>
+        <f>SUMPRODUCT(K7:K39, M7:M39)</f>
         <v>30.982857142857142</v>
       </c>
       <c r="L40" s="59">
-        <f t="shared" si="8"/>
+        <f>SUMPRODUCT(L7:L39, M7:M39)</f>
         <v>22.222857142857141</v>
       </c>
       <c r="M40" s="70">
@@ -10975,15 +10975,15 @@
       <c r="F41" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="G41" s="128">
+      <c r="G41" s="130">
         <f>SUM(G40:L40)</f>
         <v>89.999999999999986</v>
       </c>
-      <c r="H41" s="128"/>
-      <c r="I41" s="128"/>
-      <c r="J41" s="128"/>
-      <c r="K41" s="128"/>
-      <c r="L41" s="128"/>
+      <c r="H41" s="130"/>
+      <c r="I41" s="130"/>
+      <c r="J41" s="130"/>
+      <c r="K41" s="130"/>
+      <c r="L41" s="130"/>
       <c r="M41" s="59"/>
     </row>
     <row r="42" spans="1:20">
@@ -11031,7 +11031,7 @@
         <v>0.14488888888888893</v>
       </c>
       <c r="I43" s="74">
-        <f t="shared" ref="I43" si="9">I40/$G$41</f>
+        <f t="shared" ref="I43" si="8">I40/$G$41</f>
         <v>6.666666666666668E-2</v>
       </c>
       <c r="J43" s="74">
@@ -11125,23 +11125,23 @@
         <v>95</v>
       </c>
       <c r="G46" s="59">
-        <f t="shared" ref="G46:K46" si="10">ABS(G43-G44)/G44</f>
+        <f t="shared" ref="G46:K46" si="9">ABS(G43-G44)/G44</f>
         <v>2.8520984575013692E-2</v>
       </c>
       <c r="H46" s="59">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.9717161095463653E-2</v>
       </c>
       <c r="I46" s="59">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.4933535681920268E-2</v>
       </c>
       <c r="J46" s="59">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.2496989558770382E-3</v>
       </c>
       <c r="K46" s="59">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4.4502925211673046E-2</v>
       </c>
       <c r="L46" s="59">
@@ -11178,13 +11178,13 @@
         <f>BPCA_Experimental!E29</f>
         <v>0.62707194387944809</v>
       </c>
-      <c r="H49" s="125" t="s">
+      <c r="H49" s="127" t="s">
         <v>123</v>
       </c>
-      <c r="I49" s="125"/>
-      <c r="J49" s="125"/>
-      <c r="K49" s="125"/>
-      <c r="L49" s="125"/>
+      <c r="I49" s="127"/>
+      <c r="J49" s="127"/>
+      <c r="K49" s="127"/>
+      <c r="L49" s="127"/>
       <c r="M49" s="59"/>
     </row>
     <row r="50" spans="1:22" ht="16" customHeight="1">
@@ -11197,11 +11197,11 @@
         <f>G49*G55</f>
         <v>0.31980669137851853</v>
       </c>
-      <c r="H50" s="125"/>
-      <c r="I50" s="125"/>
-      <c r="J50" s="125"/>
-      <c r="K50" s="125"/>
-      <c r="L50" s="125"/>
+      <c r="H50" s="127"/>
+      <c r="I50" s="127"/>
+      <c r="J50" s="127"/>
+      <c r="K50" s="127"/>
+      <c r="L50" s="127"/>
       <c r="M50" s="59"/>
     </row>
     <row r="51" spans="1:22" ht="13" customHeight="1">
@@ -11213,11 +11213,11 @@
         <f>Q40/P40</f>
         <v>0.35659246575342468</v>
       </c>
-      <c r="H51" s="125"/>
-      <c r="I51" s="125"/>
-      <c r="J51" s="125"/>
-      <c r="K51" s="125"/>
-      <c r="L51" s="125"/>
+      <c r="H51" s="127"/>
+      <c r="I51" s="127"/>
+      <c r="J51" s="127"/>
+      <c r="K51" s="127"/>
+      <c r="L51" s="127"/>
       <c r="M51" s="59"/>
       <c r="P51" s="74"/>
     </row>
@@ -11230,11 +11230,11 @@
         <f>G50-G51</f>
         <v>-3.6785774374906155E-2</v>
       </c>
-      <c r="H52" s="125"/>
-      <c r="I52" s="125"/>
-      <c r="J52" s="125"/>
-      <c r="K52" s="125"/>
-      <c r="L52" s="125"/>
+      <c r="H52" s="127"/>
+      <c r="I52" s="127"/>
+      <c r="J52" s="127"/>
+      <c r="K52" s="127"/>
+      <c r="L52" s="127"/>
       <c r="M52" s="59"/>
     </row>
     <row r="53" spans="1:22">
@@ -11263,13 +11263,13 @@
         <f>BPCA_Experimental!E25</f>
         <v>0.51</v>
       </c>
-      <c r="H55" s="125" t="s">
+      <c r="H55" s="127" t="s">
         <v>101</v>
       </c>
-      <c r="I55" s="125"/>
-      <c r="J55" s="125"/>
-      <c r="K55" s="125"/>
-      <c r="L55" s="125"/>
+      <c r="I55" s="127"/>
+      <c r="J55" s="127"/>
+      <c r="K55" s="127"/>
+      <c r="L55" s="127"/>
       <c r="M55" s="59"/>
       <c r="P55" s="74"/>
     </row>
@@ -11283,11 +11283,11 @@
         <f>P40/(G54-Q40)</f>
         <v>0.56059515238780899</v>
       </c>
-      <c r="H56" s="125"/>
-      <c r="I56" s="125"/>
-      <c r="J56" s="125"/>
-      <c r="K56" s="125"/>
-      <c r="L56" s="125"/>
+      <c r="H56" s="127"/>
+      <c r="I56" s="127"/>
+      <c r="J56" s="127"/>
+      <c r="K56" s="127"/>
+      <c r="L56" s="127"/>
       <c r="M56" s="59"/>
       <c r="P56" s="74"/>
     </row>
@@ -11849,7 +11849,7 @@
   <dimension ref="A2:V83"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="G41" sqref="G41:L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -11876,51 +11876,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21">
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="128" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="126"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
     </row>
     <row r="4" spans="1:21" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="A4" s="127" t="s">
+      <c r="A4" s="129" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="127"/>
-      <c r="O4" s="127"/>
-      <c r="P4" s="127"/>
-      <c r="Q4" s="127"/>
-      <c r="R4" s="127"/>
-      <c r="S4" s="127"/>
-      <c r="T4" s="127"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="129"/>
+      <c r="O4" s="129"/>
+      <c r="P4" s="129"/>
+      <c r="Q4" s="129"/>
+      <c r="R4" s="129"/>
+      <c r="S4" s="129"/>
+      <c r="T4" s="129"/>
     </row>
     <row r="5" spans="1:21" s="6" customFormat="1" ht="51">
       <c r="A5" s="12" t="s">
@@ -14388,11 +14388,11 @@
       <c r="C40" s="60"/>
       <c r="D40" s="1"/>
       <c r="G40" s="59">
-        <f t="shared" ref="G40:L40" si="8">G6*$M$6+G11*$M$11+G12*$M$12+G7*$M$7+G8*$M$8+G9*$M9+G10*$M$10+G13*$M$13+G14*$M$14+G15*$M$15+G16*$M$16+G17*$M$17+G18*$M$18+G19*$M$19+G20*$M$20+G21*$M$21+G22*$M$22+G23*$M$23+G24*$M$24+G25*$M$25+G26*$M$26+G27*$M$27+G28*$M$28+G29*$M$29+G30*$M$30+G31*$M$31+G32*$M$32+G33*$M$33+G34*$M$34+G35*$M$35+G36*$M$36+G37*$M$37+G38*$M$38+G39*$M$39</f>
+        <f>SUMPRODUCT(G7:G39, $M$7:$M$39)</f>
         <v>4</v>
       </c>
       <c r="H40" s="59">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="H40:L40" si="8">SUMPRODUCT(H7:H39, $M$7:$M$39)</f>
         <v>12.246586452762921</v>
       </c>
       <c r="I40" s="59">
@@ -14438,15 +14438,15 @@
       <c r="F41" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="G41" s="128">
+      <c r="G41" s="130">
         <f>SUM(G40:L40)</f>
         <v>109</v>
       </c>
-      <c r="H41" s="128"/>
-      <c r="I41" s="128"/>
-      <c r="J41" s="128"/>
-      <c r="K41" s="128"/>
-      <c r="L41" s="128"/>
+      <c r="H41" s="130"/>
+      <c r="I41" s="130"/>
+      <c r="J41" s="130"/>
+      <c r="K41" s="130"/>
+      <c r="L41" s="130"/>
       <c r="M41" s="59"/>
     </row>
     <row r="42" spans="1:20">
@@ -14641,13 +14641,13 @@
         <f>BPCA_Experimental!F29</f>
         <v>0.51179732492351981</v>
       </c>
-      <c r="H49" s="125" t="s">
+      <c r="H49" s="127" t="s">
         <v>123</v>
       </c>
-      <c r="I49" s="125"/>
-      <c r="J49" s="125"/>
-      <c r="K49" s="125"/>
-      <c r="L49" s="125"/>
+      <c r="I49" s="127"/>
+      <c r="J49" s="127"/>
+      <c r="K49" s="127"/>
+      <c r="L49" s="127"/>
       <c r="M49" s="59"/>
     </row>
     <row r="50" spans="1:22">
@@ -14660,11 +14660,11 @@
         <f>G49*G55</f>
         <v>0.34461019878183669</v>
       </c>
-      <c r="H50" s="125"/>
-      <c r="I50" s="125"/>
-      <c r="J50" s="125"/>
-      <c r="K50" s="125"/>
-      <c r="L50" s="125"/>
+      <c r="H50" s="127"/>
+      <c r="I50" s="127"/>
+      <c r="J50" s="127"/>
+      <c r="K50" s="127"/>
+      <c r="L50" s="127"/>
       <c r="M50" s="59"/>
     </row>
     <row r="51" spans="1:22" ht="13" customHeight="1">
@@ -14676,11 +14676,11 @@
         <f>Q40/P40</f>
         <v>0.34865962632006497</v>
       </c>
-      <c r="H51" s="125"/>
-      <c r="I51" s="125"/>
-      <c r="J51" s="125"/>
-      <c r="K51" s="125"/>
-      <c r="L51" s="125"/>
+      <c r="H51" s="127"/>
+      <c r="I51" s="127"/>
+      <c r="J51" s="127"/>
+      <c r="K51" s="127"/>
+      <c r="L51" s="127"/>
       <c r="M51" s="59"/>
       <c r="P51" s="74"/>
     </row>
@@ -14693,11 +14693,11 @@
         <f>G50-G51</f>
         <v>-4.0494275382282896E-3</v>
       </c>
-      <c r="H52" s="125"/>
-      <c r="I52" s="125"/>
-      <c r="J52" s="125"/>
-      <c r="K52" s="125"/>
-      <c r="L52" s="125"/>
+      <c r="H52" s="127"/>
+      <c r="I52" s="127"/>
+      <c r="J52" s="127"/>
+      <c r="K52" s="127"/>
+      <c r="L52" s="127"/>
     </row>
     <row r="53" spans="1:22">
       <c r="D53" s="1"/>
@@ -14725,13 +14725,13 @@
         <f>BPCA_Experimental!F25</f>
         <v>0.67333333333333334</v>
       </c>
-      <c r="H55" s="125" t="s">
+      <c r="H55" s="127" t="s">
         <v>101</v>
       </c>
-      <c r="I55" s="125"/>
-      <c r="J55" s="125"/>
-      <c r="K55" s="125"/>
-      <c r="L55" s="125"/>
+      <c r="I55" s="127"/>
+      <c r="J55" s="127"/>
+      <c r="K55" s="127"/>
+      <c r="L55" s="127"/>
       <c r="M55" s="59"/>
       <c r="P55" s="74"/>
     </row>
@@ -14745,11 +14745,11 @@
         <f>P40/(G54-Q40)</f>
         <v>0.78367710720651895</v>
       </c>
-      <c r="H56" s="125"/>
-      <c r="I56" s="125"/>
-      <c r="J56" s="125"/>
-      <c r="K56" s="125"/>
-      <c r="L56" s="125"/>
+      <c r="H56" s="127"/>
+      <c r="I56" s="127"/>
+      <c r="J56" s="127"/>
+      <c r="K56" s="127"/>
+      <c r="L56" s="127"/>
       <c r="M56" s="59"/>
       <c r="P56" s="74"/>
     </row>
@@ -15311,7 +15311,7 @@
   <dimension ref="A2:V83"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -15336,51 +15336,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21">
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="128" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="126"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
     </row>
     <row r="4" spans="1:21" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="A4" s="127" t="s">
+      <c r="A4" s="129" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="127"/>
-      <c r="O4" s="127"/>
-      <c r="P4" s="127"/>
-      <c r="Q4" s="127"/>
-      <c r="R4" s="127"/>
-      <c r="S4" s="127"/>
-      <c r="T4" s="127"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="129"/>
+      <c r="O4" s="129"/>
+      <c r="P4" s="129"/>
+      <c r="Q4" s="129"/>
+      <c r="R4" s="129"/>
+      <c r="S4" s="129"/>
+      <c r="T4" s="129"/>
     </row>
     <row r="5" spans="1:21" s="6" customFormat="1" ht="51">
       <c r="A5" s="12" t="s">
@@ -17848,11 +17848,11 @@
       <c r="C40" s="60"/>
       <c r="D40" s="1"/>
       <c r="G40" s="59">
-        <f t="shared" ref="G40:L40" si="8">G6*$M$6+G11*$M$11+G12*$M$12+G7*$M$7+G8*$M$8+G9*$M9+G10*$M$10+G13*$M$13+G14*$M$14+G15*$M$15+G16*$M$16+G17*$M$17+G18*$M$18+G19*$M$19+G20*$M$20+G21*$M$21+G22*$M$22+G23*$M$23+G24*$M$24+G25*$M$25+G26*$M$26+G27*$M$27+G28*$M$28+G29*$M$29+G30*$M$30+G31*$M$31+G32*$M$32+G33*$M$33+G34*$M$34+G35*$M$35+G36*$M$36+G37*$M$37+G38*$M$38+G39*$M$39</f>
+        <f>SUMPRODUCT(G7:G39, $M$7:$M$39)</f>
         <v>2.4000000000000004</v>
       </c>
       <c r="H40" s="59">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="H40:L40" si="8">SUMPRODUCT(H7:H39, $M$7:$M$39)</f>
         <v>7.0153846153846153</v>
       </c>
       <c r="I40" s="59">
@@ -17898,15 +17898,15 @@
       <c r="F41" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="G41" s="128">
+      <c r="G41" s="130">
         <f>SUM(G40:L40)</f>
         <v>104</v>
       </c>
-      <c r="H41" s="128"/>
-      <c r="I41" s="128"/>
-      <c r="J41" s="128"/>
-      <c r="K41" s="128"/>
-      <c r="L41" s="128"/>
+      <c r="H41" s="130"/>
+      <c r="I41" s="130"/>
+      <c r="J41" s="130"/>
+      <c r="K41" s="130"/>
+      <c r="L41" s="130"/>
       <c r="M41" s="59"/>
     </row>
     <row r="42" spans="1:20">
@@ -18101,13 +18101,13 @@
         <f>BPCA_Experimental!G29</f>
         <v>0.3664855234279874</v>
       </c>
-      <c r="H49" s="125" t="s">
+      <c r="H49" s="127" t="s">
         <v>123</v>
       </c>
-      <c r="I49" s="125"/>
-      <c r="J49" s="125"/>
-      <c r="K49" s="125"/>
-      <c r="L49" s="125"/>
+      <c r="I49" s="127"/>
+      <c r="J49" s="127"/>
+      <c r="K49" s="127"/>
+      <c r="L49" s="127"/>
       <c r="M49" s="59"/>
     </row>
     <row r="50" spans="1:22">
@@ -18120,11 +18120,11 @@
         <f>G49*G55</f>
         <v>0.30051812921094967</v>
       </c>
-      <c r="H50" s="125"/>
-      <c r="I50" s="125"/>
-      <c r="J50" s="125"/>
-      <c r="K50" s="125"/>
-      <c r="L50" s="125"/>
+      <c r="H50" s="127"/>
+      <c r="I50" s="127"/>
+      <c r="J50" s="127"/>
+      <c r="K50" s="127"/>
+      <c r="L50" s="127"/>
       <c r="M50" s="59"/>
     </row>
     <row r="51" spans="1:22" ht="13" customHeight="1">
@@ -18136,11 +18136,11 @@
         <f>Q40/P40</f>
         <v>0.31353320257775286</v>
       </c>
-      <c r="H51" s="125"/>
-      <c r="I51" s="125"/>
-      <c r="J51" s="125"/>
-      <c r="K51" s="125"/>
-      <c r="L51" s="125"/>
+      <c r="H51" s="127"/>
+      <c r="I51" s="127"/>
+      <c r="J51" s="127"/>
+      <c r="K51" s="127"/>
+      <c r="L51" s="127"/>
       <c r="M51" s="59"/>
       <c r="P51" s="74"/>
     </row>
@@ -18153,11 +18153,11 @@
         <f>G50-G51</f>
         <v>-1.3015073366803187E-2</v>
       </c>
-      <c r="H52" s="125"/>
-      <c r="I52" s="125"/>
-      <c r="J52" s="125"/>
-      <c r="K52" s="125"/>
-      <c r="L52" s="125"/>
+      <c r="H52" s="127"/>
+      <c r="I52" s="127"/>
+      <c r="J52" s="127"/>
+      <c r="K52" s="127"/>
+      <c r="L52" s="127"/>
       <c r="M52" s="59"/>
       <c r="N52" s="74"/>
       <c r="O52" s="74"/>
@@ -18202,13 +18202,13 @@
         <f>BPCA_Experimental!G25</f>
         <v>0.82</v>
       </c>
-      <c r="H55" s="125" t="s">
+      <c r="H55" s="127" t="s">
         <v>101</v>
       </c>
-      <c r="I55" s="125"/>
-      <c r="J55" s="125"/>
-      <c r="K55" s="125"/>
-      <c r="L55" s="125"/>
+      <c r="I55" s="127"/>
+      <c r="J55" s="127"/>
+      <c r="K55" s="127"/>
+      <c r="L55" s="127"/>
       <c r="M55" s="59"/>
       <c r="P55" s="74"/>
     </row>
@@ -18222,11 +18222,11 @@
         <f>P40/(G54-Q40)</f>
         <v>0.91960834836382377</v>
       </c>
-      <c r="H56" s="125"/>
-      <c r="I56" s="125"/>
-      <c r="J56" s="125"/>
-      <c r="K56" s="125"/>
-      <c r="L56" s="125"/>
+      <c r="H56" s="127"/>
+      <c r="I56" s="127"/>
+      <c r="J56" s="127"/>
+      <c r="K56" s="127"/>
+      <c r="L56" s="127"/>
       <c r="M56" s="59"/>
       <c r="P56" s="74"/>
     </row>
@@ -18788,7 +18788,7 @@
   <dimension ref="A2:V83"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -18813,51 +18813,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21">
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="128" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="126"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
     </row>
     <row r="4" spans="1:21" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="A4" s="127" t="s">
+      <c r="A4" s="129" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="127"/>
-      <c r="O4" s="127"/>
-      <c r="P4" s="127"/>
-      <c r="Q4" s="127"/>
-      <c r="R4" s="127"/>
-      <c r="S4" s="127"/>
-      <c r="T4" s="127"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="129"/>
+      <c r="O4" s="129"/>
+      <c r="P4" s="129"/>
+      <c r="Q4" s="129"/>
+      <c r="R4" s="129"/>
+      <c r="S4" s="129"/>
+      <c r="T4" s="129"/>
     </row>
     <row r="5" spans="1:21" s="6" customFormat="1" ht="51">
       <c r="A5" s="12" t="s">
@@ -21325,11 +21325,11 @@
       <c r="C40" s="60"/>
       <c r="D40" s="1"/>
       <c r="G40" s="59">
-        <f t="shared" ref="G40:L40" si="8">G6*$M$6+G11*$M$11+G12*$M$12+G7*$M$7+G8*$M$8+G9*$M9+G10*$M$10+G13*$M$13+G14*$M$14+G15*$M$15+G16*$M$16+G17*$M$17+G18*$M$18+G19*$M$19+G20*$M$20+G21*$M$21+G22*$M$22+G23*$M$23+G24*$M$24+G25*$M$25+G26*$M$26+G27*$M$27+G28*$M$28+G29*$M$29+G30*$M$30+G31*$M$31+G32*$M$32+G33*$M$33+G34*$M$34+G35*$M$35+G36*$M$36+G37*$M$37+G38*$M$38+G39*$M$39</f>
+        <f>SUMPRODUCT(G7:G39, $M$7:$M$39)</f>
         <v>1.5</v>
       </c>
       <c r="H40" s="59">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="H40:L40" si="8">SUMPRODUCT(H7:H39, $M$7:$M$39)</f>
         <v>2.1846153846153848</v>
       </c>
       <c r="I40" s="59">
@@ -21375,15 +21375,15 @@
       <c r="F41" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="G41" s="128">
+      <c r="G41" s="130">
         <f>SUM(G40:L40)</f>
         <v>88</v>
       </c>
-      <c r="H41" s="128"/>
-      <c r="I41" s="128"/>
-      <c r="J41" s="128"/>
-      <c r="K41" s="128"/>
-      <c r="L41" s="128"/>
+      <c r="H41" s="130"/>
+      <c r="I41" s="130"/>
+      <c r="J41" s="130"/>
+      <c r="K41" s="130"/>
+      <c r="L41" s="130"/>
       <c r="M41" s="59"/>
     </row>
     <row r="42" spans="1:20">
@@ -21578,13 +21578,13 @@
         <f>BPCA_Experimental!H29</f>
         <v>0.26424758936501019</v>
       </c>
-      <c r="H49" s="125" t="s">
+      <c r="H49" s="127" t="s">
         <v>123</v>
       </c>
-      <c r="I49" s="125"/>
-      <c r="J49" s="125"/>
-      <c r="K49" s="125"/>
-      <c r="L49" s="125"/>
+      <c r="I49" s="127"/>
+      <c r="J49" s="127"/>
+      <c r="K49" s="127"/>
+      <c r="L49" s="127"/>
       <c r="M49" s="59"/>
     </row>
     <row r="50" spans="1:22">
@@ -21597,11 +21597,11 @@
         <f>G49*G55</f>
         <v>0.20611311970470797</v>
       </c>
-      <c r="H50" s="125"/>
-      <c r="I50" s="125"/>
-      <c r="J50" s="125"/>
-      <c r="K50" s="125"/>
-      <c r="L50" s="125"/>
+      <c r="H50" s="127"/>
+      <c r="I50" s="127"/>
+      <c r="J50" s="127"/>
+      <c r="K50" s="127"/>
+      <c r="L50" s="127"/>
       <c r="M50" s="59"/>
     </row>
     <row r="51" spans="1:22" ht="13" customHeight="1">
@@ -21613,11 +21613,11 @@
         <f>Q40/P40</f>
         <v>0.28733065356557985</v>
       </c>
-      <c r="H51" s="125"/>
-      <c r="I51" s="125"/>
-      <c r="J51" s="125"/>
-      <c r="K51" s="125"/>
-      <c r="L51" s="125"/>
+      <c r="H51" s="127"/>
+      <c r="I51" s="127"/>
+      <c r="J51" s="127"/>
+      <c r="K51" s="127"/>
+      <c r="L51" s="127"/>
       <c r="M51" s="59"/>
       <c r="P51" s="74"/>
     </row>
@@ -21630,11 +21630,11 @@
         <f>G50-G51</f>
         <v>-8.1217533860871882E-2</v>
       </c>
-      <c r="H52" s="125"/>
-      <c r="I52" s="125"/>
-      <c r="J52" s="125"/>
-      <c r="K52" s="125"/>
-      <c r="L52" s="125"/>
+      <c r="H52" s="127"/>
+      <c r="I52" s="127"/>
+      <c r="J52" s="127"/>
+      <c r="K52" s="127"/>
+      <c r="L52" s="127"/>
       <c r="M52" s="59"/>
       <c r="N52" s="74"/>
       <c r="O52" s="74"/>
@@ -21679,13 +21679,13 @@
         <f>BPCA_Experimental!H25</f>
         <v>0.78</v>
       </c>
-      <c r="H55" s="125" t="s">
+      <c r="H55" s="127" t="s">
         <v>101</v>
       </c>
-      <c r="I55" s="125"/>
-      <c r="J55" s="125"/>
-      <c r="K55" s="125"/>
-      <c r="L55" s="125"/>
+      <c r="I55" s="127"/>
+      <c r="J55" s="127"/>
+      <c r="K55" s="127"/>
+      <c r="L55" s="127"/>
       <c r="M55" s="59"/>
       <c r="P55" s="74"/>
     </row>
@@ -21699,11 +21699,11 @@
         <f>P40/(G54-Q40)</f>
         <v>0.83234200743494424</v>
       </c>
-      <c r="H56" s="125"/>
-      <c r="I56" s="125"/>
-      <c r="J56" s="125"/>
-      <c r="K56" s="125"/>
-      <c r="L56" s="125"/>
+      <c r="H56" s="127"/>
+      <c r="I56" s="127"/>
+      <c r="J56" s="127"/>
+      <c r="K56" s="127"/>
+      <c r="L56" s="127"/>
       <c r="M56" s="59"/>
       <c r="P56" s="74"/>
     </row>

--- a/BPCA/BPCA_PAH.xlsx
+++ b/BPCA/BPCA_PAH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailwsu-my.sharepoint.com/personal/v_sierrajimenez_wsu_edu/Documents/WSU/PhD/Thesis/Paper 1 Methodology/Reviewed Version/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailwsu-my.sharepoint.com/personal/v_sierrajimenez_wsu_edu/Documents/WSU/PhD/Thesis/Paper 1 Methodology/Reviewed Version/Revision 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="767" documentId="13_ncr:1_{06919FED-0BB1-C44E-8619-00AA43605CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{079383A5-DFF2-A44A-AD79-36982449A026}"/>
+  <xr:revisionPtr revIDLastSave="833" documentId="13_ncr:1_{06919FED-0BB1-C44E-8619-00AA43605CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13B6EAD1-EBAE-BC47-A110-99AF02959C06}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" activeTab="2" xr2:uid="{EB29A718-2CE6-174F-8972-CCE909784FB0}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="15920" activeTab="2" xr2:uid="{EB29A718-2CE6-174F-8972-CCE909784FB0}"/>
   </bookViews>
   <sheets>
     <sheet name="PAH_Standard" sheetId="17" r:id="rId1"/>
@@ -1386,6 +1386,36 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1395,41 +1425,11 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6706,41 +6706,41 @@
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="2:18">
-      <c r="B6" s="104" t="s">
+      <c r="B6" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="99" t="s">
+      <c r="C6" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="99" t="s">
+      <c r="D6" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="99" t="s">
+      <c r="E6" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="99" t="s">
+      <c r="F6" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="99" t="s">
+      <c r="G6" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="111" t="str">
+      <c r="H6" s="103" t="str">
         <f>HYPERLINK("#BPCA!B5","BPCA types")</f>
         <v>BPCA types</v>
       </c>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="112"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="104"/>
     </row>
     <row r="7" spans="2:18">
-      <c r="B7" s="105"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
       <c r="H7" s="63" t="s">
         <v>134</v>
       </c>
@@ -6761,17 +6761,17 @@
       </c>
     </row>
     <row r="8" spans="2:18" ht="34" customHeight="1">
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102">
+      <c r="C8" s="99"/>
+      <c r="D8" s="99">
         <v>14</v>
       </c>
-      <c r="E8" s="102">
+      <c r="E8" s="99">
         <v>94.4</v>
       </c>
-      <c r="F8" s="102">
+      <c r="F8" s="99">
         <v>24.2</v>
       </c>
       <c r="G8" s="14" t="s">
@@ -6787,11 +6787,11 @@
       <c r="M8" s="16"/>
     </row>
     <row r="9" spans="2:18" ht="34" customHeight="1">
-      <c r="B9" s="103"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
       <c r="G9" s="14" t="s">
         <v>14</v>
       </c>
@@ -6809,17 +6809,17 @@
       <c r="M9" s="16"/>
     </row>
     <row r="10" spans="2:18" ht="33" customHeight="1">
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102">
+      <c r="C10" s="99"/>
+      <c r="D10" s="99">
         <v>14</v>
       </c>
-      <c r="E10" s="102">
+      <c r="E10" s="99">
         <v>94.4</v>
       </c>
-      <c r="F10" s="102">
+      <c r="F10" s="99">
         <v>23.7</v>
       </c>
       <c r="G10" s="14" t="s">
@@ -6837,11 +6837,11 @@
       <c r="M10" s="16"/>
     </row>
     <row r="11" spans="2:18" ht="33" customHeight="1">
-      <c r="B11" s="108"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
       <c r="G11" s="14" t="s">
         <v>14</v>
       </c>
@@ -6859,17 +6859,17 @@
       <c r="M11" s="16"/>
     </row>
     <row r="12" spans="2:18" ht="39" customHeight="1">
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102">
+      <c r="C12" s="99"/>
+      <c r="D12" s="99">
         <v>18</v>
       </c>
-      <c r="E12" s="102">
+      <c r="E12" s="99">
         <v>92.3</v>
       </c>
-      <c r="F12" s="102">
+      <c r="F12" s="99">
         <v>29.3</v>
       </c>
       <c r="G12" s="14" t="s">
@@ -6891,11 +6891,11 @@
       <c r="M12" s="16"/>
     </row>
     <row r="13" spans="2:18" ht="39" customHeight="1">
-      <c r="B13" s="108"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
       <c r="G13" s="14" t="s">
         <v>14</v>
       </c>
@@ -6916,17 +6916,17 @@
       <c r="M13" s="16"/>
     </row>
     <row r="14" spans="2:18" ht="32" customHeight="1">
-      <c r="B14" s="108" t="s">
+      <c r="B14" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102">
+      <c r="C14" s="99"/>
+      <c r="D14" s="99">
         <v>18</v>
       </c>
-      <c r="E14" s="102">
+      <c r="E14" s="99">
         <v>94.7</v>
       </c>
-      <c r="F14" s="102">
+      <c r="F14" s="99">
         <v>21.5</v>
       </c>
       <c r="G14" s="14" t="s">
@@ -6944,11 +6944,11 @@
       <c r="M14" s="16"/>
     </row>
     <row r="15" spans="2:18" ht="32" customHeight="1">
-      <c r="B15" s="108"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
       <c r="G15" s="14" t="s">
         <v>14</v>
       </c>
@@ -6966,17 +6966,17 @@
       <c r="M15" s="16"/>
     </row>
     <row r="16" spans="2:18" ht="36" customHeight="1">
-      <c r="B16" s="103" t="s">
+      <c r="B16" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102">
+      <c r="C16" s="99"/>
+      <c r="D16" s="99">
         <v>16</v>
       </c>
-      <c r="E16" s="102">
+      <c r="E16" s="99">
         <v>95</v>
       </c>
-      <c r="F16" s="102">
+      <c r="F16" s="99">
         <v>37</v>
       </c>
       <c r="G16" s="14" t="s">
@@ -6995,11 +6995,11 @@
       <c r="R16" s="1"/>
     </row>
     <row r="17" spans="2:13" ht="36" customHeight="1">
-      <c r="B17" s="103"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
       <c r="G17" s="14" t="s">
         <v>14</v>
       </c>
@@ -7017,17 +7017,17 @@
       <c r="M17" s="16"/>
     </row>
     <row r="18" spans="2:13" ht="35" customHeight="1">
-      <c r="B18" s="103" t="s">
+      <c r="B18" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102">
+      <c r="C18" s="99"/>
+      <c r="D18" s="99">
         <v>16</v>
       </c>
-      <c r="E18" s="102">
+      <c r="E18" s="99">
         <v>77.400000000000006</v>
       </c>
-      <c r="F18" s="102">
+      <c r="F18" s="99">
         <v>36.1</v>
       </c>
       <c r="G18" s="14" t="s">
@@ -7047,11 +7047,11 @@
       <c r="M18" s="16"/>
     </row>
     <row r="19" spans="2:13" ht="35" customHeight="1">
-      <c r="B19" s="103"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
       <c r="G19" s="14" t="s">
         <v>14</v>
       </c>
@@ -7069,17 +7069,17 @@
       <c r="M19" s="16"/>
     </row>
     <row r="20" spans="2:13" ht="42" customHeight="1">
-      <c r="B20" s="108" t="s">
+      <c r="B20" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102">
+      <c r="C20" s="99"/>
+      <c r="D20" s="99">
         <v>20</v>
       </c>
-      <c r="E20" s="102">
+      <c r="E20" s="99">
         <v>95.2</v>
       </c>
-      <c r="F20" s="102">
+      <c r="F20" s="99">
         <v>22.5</v>
       </c>
       <c r="G20" s="14" t="s">
@@ -7097,11 +7097,11 @@
       </c>
     </row>
     <row r="21" spans="2:13" ht="42" customHeight="1">
-      <c r="B21" s="108"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
       <c r="G21" s="14" t="s">
         <v>14</v>
       </c>
@@ -7119,17 +7119,17 @@
       </c>
     </row>
     <row r="22" spans="2:13" ht="47" customHeight="1">
-      <c r="B22" s="103" t="s">
+      <c r="B22" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="102"/>
-      <c r="D22" s="102">
+      <c r="C22" s="99"/>
+      <c r="D22" s="99">
         <v>22</v>
       </c>
-      <c r="E22" s="102">
+      <c r="E22" s="99">
         <v>95.5</v>
       </c>
-      <c r="F22" s="102">
+      <c r="F22" s="99">
         <v>22.5</v>
       </c>
       <c r="G22" s="14" t="s">
@@ -7149,11 +7149,11 @@
       </c>
     </row>
     <row r="23" spans="2:13" ht="47" customHeight="1">
-      <c r="B23" s="103"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
       <c r="G23" s="14" t="s">
         <v>14</v>
       </c>
@@ -7174,17 +7174,17 @@
       </c>
     </row>
     <row r="24" spans="2:13" ht="53" customHeight="1">
-      <c r="B24" s="103" t="s">
+      <c r="B24" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102">
+      <c r="C24" s="99"/>
+      <c r="D24" s="99">
         <v>24</v>
       </c>
-      <c r="E24" s="102">
+      <c r="E24" s="99">
         <v>96</v>
       </c>
-      <c r="F24" s="102">
+      <c r="F24" s="99">
         <v>19.5</v>
       </c>
       <c r="G24" s="14" t="s">
@@ -7202,11 +7202,11 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="53" customHeight="1">
-      <c r="B25" s="103"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
       <c r="G25" s="14" t="s">
         <v>14</v>
       </c>
@@ -7242,55 +7242,55 @@
       <c r="M26" s="23"/>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="101" t="s">
+      <c r="B30" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="101"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="101"/>
-      <c r="J30" s="101"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="111"/>
+      <c r="I30" s="111"/>
+      <c r="J30" s="111"/>
     </row>
     <row r="31" spans="2:13" ht="16" customHeight="1">
-      <c r="B31" s="110" t="s">
+      <c r="B31" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="110"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="110"/>
-      <c r="F31" s="110"/>
-      <c r="G31" s="110"/>
-      <c r="H31" s="110"/>
-      <c r="I31" s="110"/>
-      <c r="J31" s="110"/>
-      <c r="K31" s="110"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="108"/>
+      <c r="G31" s="108"/>
+      <c r="H31" s="108"/>
+      <c r="I31" s="108"/>
+      <c r="J31" s="108"/>
+      <c r="K31" s="108"/>
     </row>
     <row r="32" spans="2:13">
-      <c r="B32" s="110"/>
-      <c r="C32" s="110"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="110"/>
-      <c r="I32" s="110"/>
-      <c r="J32" s="110"/>
-      <c r="K32" s="110"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="108"/>
+      <c r="H32" s="108"/>
+      <c r="I32" s="108"/>
+      <c r="J32" s="108"/>
+      <c r="K32" s="108"/>
     </row>
     <row r="33" spans="2:11">
-      <c r="B33" s="110"/>
-      <c r="C33" s="110"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="110"/>
-      <c r="F33" s="110"/>
-      <c r="G33" s="110"/>
-      <c r="H33" s="110"/>
-      <c r="I33" s="110"/>
-      <c r="J33" s="110"/>
-      <c r="K33" s="110"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="108"/>
+      <c r="F33" s="108"/>
+      <c r="G33" s="108"/>
+      <c r="H33" s="108"/>
+      <c r="I33" s="108"/>
+      <c r="J33" s="108"/>
+      <c r="K33" s="108"/>
     </row>
     <row r="34" spans="2:11">
       <c r="B34" s="2"/>
@@ -7301,43 +7301,43 @@
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="2:11">
-      <c r="B35" s="113" t="s">
+      <c r="B35" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="113"/>
-      <c r="D35" s="113"/>
-      <c r="E35" s="113"/>
-      <c r="F35" s="113"/>
-      <c r="G35" s="113"/>
-      <c r="H35" s="113"/>
-      <c r="I35" s="113"/>
-      <c r="J35" s="113"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
     </row>
     <row r="36" spans="2:11" ht="16" customHeight="1">
-      <c r="B36" s="109" t="s">
+      <c r="B36" s="107" t="s">
         <v>124</v>
       </c>
-      <c r="C36" s="109"/>
-      <c r="D36" s="109"/>
-      <c r="E36" s="109"/>
-      <c r="F36" s="109"/>
-      <c r="G36" s="109"/>
-      <c r="H36" s="109"/>
-      <c r="I36" s="109"/>
-      <c r="J36" s="109"/>
-      <c r="K36" s="109"/>
+      <c r="C36" s="107"/>
+      <c r="D36" s="107"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="107"/>
+      <c r="G36" s="107"/>
+      <c r="H36" s="107"/>
+      <c r="I36" s="107"/>
+      <c r="J36" s="107"/>
+      <c r="K36" s="107"/>
     </row>
     <row r="37" spans="2:11">
-      <c r="B37" s="109"/>
-      <c r="C37" s="109"/>
-      <c r="D37" s="109"/>
-      <c r="E37" s="109"/>
-      <c r="F37" s="109"/>
-      <c r="G37" s="109"/>
-      <c r="H37" s="109"/>
-      <c r="I37" s="109"/>
-      <c r="J37" s="109"/>
-      <c r="K37" s="109"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="107"/>
+      <c r="D37" s="107"/>
+      <c r="E37" s="107"/>
+      <c r="F37" s="107"/>
+      <c r="G37" s="107"/>
+      <c r="H37" s="107"/>
+      <c r="I37" s="107"/>
+      <c r="J37" s="107"/>
+      <c r="K37" s="107"/>
     </row>
     <row r="38" spans="2:11">
       <c r="B38" s="106" t="s">
@@ -7353,18 +7353,18 @@
       <c r="J38" s="106"/>
     </row>
     <row r="39" spans="2:11" ht="35" customHeight="1">
-      <c r="B39" s="107" t="s">
+      <c r="B39" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="107"/>
-      <c r="D39" s="107"/>
-      <c r="E39" s="107"/>
-      <c r="F39" s="107"/>
-      <c r="G39" s="107"/>
-      <c r="H39" s="107"/>
-      <c r="I39" s="107"/>
-      <c r="J39" s="107"/>
-      <c r="K39" s="107"/>
+      <c r="C39" s="102"/>
+      <c r="D39" s="102"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="102"/>
+      <c r="G39" s="102"/>
+      <c r="H39" s="102"/>
+      <c r="I39" s="102"/>
+      <c r="J39" s="102"/>
+      <c r="K39" s="102"/>
     </row>
     <row r="40" spans="2:11">
       <c r="B40" s="106" t="s">
@@ -7381,58 +7381,76 @@
       <c r="K40" s="106"/>
     </row>
     <row r="41" spans="2:11">
-      <c r="B41" s="107" t="s">
+      <c r="B41" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="107"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="107"/>
-      <c r="F41" s="107"/>
-      <c r="G41" s="107"/>
-      <c r="H41" s="107"/>
-      <c r="I41" s="107"/>
-      <c r="J41" s="107"/>
-      <c r="K41" s="107"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="102"/>
+      <c r="G41" s="102"/>
+      <c r="H41" s="102"/>
+      <c r="I41" s="102"/>
+      <c r="J41" s="102"/>
+      <c r="K41" s="102"/>
     </row>
     <row r="42" spans="2:11">
-      <c r="B42" s="107"/>
-      <c r="C42" s="107"/>
-      <c r="D42" s="107"/>
-      <c r="E42" s="107"/>
-      <c r="F42" s="107"/>
-      <c r="G42" s="107"/>
-      <c r="H42" s="107"/>
-      <c r="I42" s="107"/>
-      <c r="J42" s="107"/>
-      <c r="K42" s="107"/>
+      <c r="B42" s="102"/>
+      <c r="C42" s="102"/>
+      <c r="D42" s="102"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="102"/>
+      <c r="G42" s="102"/>
+      <c r="H42" s="102"/>
+      <c r="I42" s="102"/>
+      <c r="J42" s="102"/>
+      <c r="K42" s="102"/>
     </row>
     <row r="43" spans="2:11">
-      <c r="B43" s="107"/>
-      <c r="C43" s="107"/>
-      <c r="D43" s="107"/>
-      <c r="E43" s="107"/>
-      <c r="F43" s="107"/>
-      <c r="G43" s="107"/>
-      <c r="H43" s="107"/>
-      <c r="I43" s="107"/>
-      <c r="J43" s="107"/>
-      <c r="K43" s="107"/>
+      <c r="B43" s="102"/>
+      <c r="C43" s="102"/>
+      <c r="D43" s="102"/>
+      <c r="E43" s="102"/>
+      <c r="F43" s="102"/>
+      <c r="G43" s="102"/>
+      <c r="H43" s="102"/>
+      <c r="I43" s="102"/>
+      <c r="J43" s="102"/>
+      <c r="K43" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B40:K40"/>
+    <mergeCell ref="B39:K39"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B36:K37"/>
+    <mergeCell ref="B31:K33"/>
     <mergeCell ref="B41:K43"/>
     <mergeCell ref="H6:M6"/>
     <mergeCell ref="B8:B9"/>
@@ -7449,37 +7467,19 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B40:K40"/>
-    <mergeCell ref="B39:K39"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B36:K37"/>
-    <mergeCell ref="B31:K33"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C14:C15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{63B72AE5-4AD0-934A-BE7B-D1600FAA98EA}"/>
@@ -7494,9 +7494,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:R44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
@@ -8194,14 +8192,14 @@
         <v>53</v>
       </c>
       <c r="C34" s="1">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="D34" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E34" s="54">
         <f t="shared" ref="E34:E44" si="2">D34/C34</f>
-        <v>0</v>
+        <v>0.37704918032786883</v>
       </c>
       <c r="F34" s="97"/>
     </row>
@@ -8210,14 +8208,14 @@
         <v>54</v>
       </c>
       <c r="C35" s="1">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D35" s="1">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="E35" s="54">
         <f t="shared" si="2"/>
-        <v>1.4871794871794872</v>
+        <v>1.2972972972972974</v>
       </c>
       <c r="F35" s="98"/>
     </row>
@@ -8226,14 +8224,14 @@
         <v>55</v>
       </c>
       <c r="C36" s="1">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D36" s="1">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="E36" s="54">
         <f t="shared" si="2"/>
-        <v>1.514018691588785</v>
+        <v>1.3548387096774193</v>
       </c>
       <c r="F36" s="98"/>
     </row>
@@ -8242,14 +8240,14 @@
         <v>56</v>
       </c>
       <c r="C37" s="1">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D37" s="1">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="E37" s="54">
         <f t="shared" si="2"/>
-        <v>1.6444444444444444</v>
+        <v>0.52380952380952384</v>
       </c>
       <c r="F37" s="98"/>
     </row>
@@ -8258,14 +8256,14 @@
         <v>57</v>
       </c>
       <c r="C38" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D38" s="1">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="E38" s="54">
         <f t="shared" si="2"/>
-        <v>1.6818181818181819</v>
+        <v>0.71111111111111114</v>
       </c>
       <c r="F38" s="98"/>
     </row>
@@ -8274,14 +8272,14 @@
         <v>58</v>
       </c>
       <c r="C39" s="1">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D39" s="1">
-        <v>224</v>
+        <v>177</v>
       </c>
       <c r="E39" s="54">
         <f t="shared" si="2"/>
-        <v>1.3254437869822486</v>
+        <v>1.0925925925925926</v>
       </c>
       <c r="F39" s="98"/>
     </row>
@@ -8290,14 +8288,14 @@
         <v>59</v>
       </c>
       <c r="C40" s="1">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D40" s="1">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="E40" s="54">
         <f t="shared" si="2"/>
-        <v>1.4736842105263157</v>
+        <v>1.2388059701492538</v>
       </c>
       <c r="F40" s="98"/>
     </row>
@@ -8306,14 +8304,14 @@
         <v>60</v>
       </c>
       <c r="C41" s="1">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="D41" s="1">
-        <v>274</v>
+        <v>178</v>
       </c>
       <c r="E41" s="54">
         <f t="shared" si="2"/>
-        <v>1.3300970873786409</v>
+        <v>0.97267759562841527</v>
       </c>
       <c r="F41" s="98"/>
     </row>
@@ -8322,14 +8320,14 @@
         <v>61</v>
       </c>
       <c r="C42" s="1">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="D42" s="1">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="E42" s="54">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.91145833333333337</v>
       </c>
       <c r="F42" s="98"/>
     </row>
@@ -8338,14 +8336,14 @@
         <v>62</v>
       </c>
       <c r="C43" s="1">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D43" s="1">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="E43" s="54">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.15625</v>
       </c>
       <c r="F43" s="98"/>
     </row>
@@ -8354,14 +8352,14 @@
         <v>63</v>
       </c>
       <c r="C44" s="56">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D44" s="56">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E44" s="57">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="F44" s="98"/>
     </row>
@@ -18788,7 +18786,7 @@
   <dimension ref="A2:V83"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>

--- a/BPCA/BPCA_PAH.xlsx
+++ b/BPCA/BPCA_PAH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailwsu-my.sharepoint.com/personal/v_sierrajimenez_wsu_edu/Documents/WSU/PhD/Thesis/Paper 1 Methodology/Reviewed Version/Revision 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="833" documentId="13_ncr:1_{06919FED-0BB1-C44E-8619-00AA43605CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13B6EAD1-EBAE-BC47-A110-99AF02959C06}"/>
+  <xr:revisionPtr revIDLastSave="844" documentId="13_ncr:1_{06919FED-0BB1-C44E-8619-00AA43605CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E0D0FA0-C55E-B64B-9B58-917273CB9433}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="15920" activeTab="2" xr2:uid="{EB29A718-2CE6-174F-8972-CCE909784FB0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" activeTab="5" xr2:uid="{EB29A718-2CE6-174F-8972-CCE909784FB0}"/>
   </bookViews>
   <sheets>
     <sheet name="PAH_Standard" sheetId="17" r:id="rId1"/>
@@ -1386,17 +1386,41 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1406,30 +1430,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6706,41 +6706,41 @@
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="2:18">
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="109" t="s">
+      <c r="C6" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="109" t="s">
+      <c r="D6" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="109" t="s">
+      <c r="E6" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="109" t="s">
+      <c r="F6" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="109" t="s">
+      <c r="G6" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="103" t="str">
+      <c r="H6" s="111" t="str">
         <f>HYPERLINK("#BPCA!B5","BPCA types")</f>
         <v>BPCA types</v>
       </c>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="104"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="112"/>
     </row>
     <row r="7" spans="2:18">
-      <c r="B7" s="113"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
       <c r="H7" s="63" t="s">
         <v>134</v>
       </c>
@@ -6761,17 +6761,17 @@
       </c>
     </row>
     <row r="8" spans="2:18" ht="34" customHeight="1">
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99">
+      <c r="C8" s="102"/>
+      <c r="D8" s="102">
         <v>14</v>
       </c>
-      <c r="E8" s="99">
+      <c r="E8" s="102">
         <v>94.4</v>
       </c>
-      <c r="F8" s="99">
+      <c r="F8" s="102">
         <v>24.2</v>
       </c>
       <c r="G8" s="14" t="s">
@@ -6787,11 +6787,11 @@
       <c r="M8" s="16"/>
     </row>
     <row r="9" spans="2:18" ht="34" customHeight="1">
-      <c r="B9" s="100"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
       <c r="G9" s="14" t="s">
         <v>14</v>
       </c>
@@ -6809,17 +6809,17 @@
       <c r="M9" s="16"/>
     </row>
     <row r="10" spans="2:18" ht="33" customHeight="1">
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99">
+      <c r="C10" s="102"/>
+      <c r="D10" s="102">
         <v>14</v>
       </c>
-      <c r="E10" s="99">
+      <c r="E10" s="102">
         <v>94.4</v>
       </c>
-      <c r="F10" s="99">
+      <c r="F10" s="102">
         <v>23.7</v>
       </c>
       <c r="G10" s="14" t="s">
@@ -6837,11 +6837,11 @@
       <c r="M10" s="16"/>
     </row>
     <row r="11" spans="2:18" ht="33" customHeight="1">
-      <c r="B11" s="101"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
       <c r="G11" s="14" t="s">
         <v>14</v>
       </c>
@@ -6859,17 +6859,17 @@
       <c r="M11" s="16"/>
     </row>
     <row r="12" spans="2:18" ht="39" customHeight="1">
-      <c r="B12" s="101" t="s">
+      <c r="B12" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99">
+      <c r="C12" s="102"/>
+      <c r="D12" s="102">
         <v>18</v>
       </c>
-      <c r="E12" s="99">
+      <c r="E12" s="102">
         <v>92.3</v>
       </c>
-      <c r="F12" s="99">
+      <c r="F12" s="102">
         <v>29.3</v>
       </c>
       <c r="G12" s="14" t="s">
@@ -6891,11 +6891,11 @@
       <c r="M12" s="16"/>
     </row>
     <row r="13" spans="2:18" ht="39" customHeight="1">
-      <c r="B13" s="101"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
       <c r="G13" s="14" t="s">
         <v>14</v>
       </c>
@@ -6916,17 +6916,17 @@
       <c r="M13" s="16"/>
     </row>
     <row r="14" spans="2:18" ht="32" customHeight="1">
-      <c r="B14" s="101" t="s">
+      <c r="B14" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99">
+      <c r="C14" s="102"/>
+      <c r="D14" s="102">
         <v>18</v>
       </c>
-      <c r="E14" s="99">
+      <c r="E14" s="102">
         <v>94.7</v>
       </c>
-      <c r="F14" s="99">
+      <c r="F14" s="102">
         <v>21.5</v>
       </c>
       <c r="G14" s="14" t="s">
@@ -6944,11 +6944,11 @@
       <c r="M14" s="16"/>
     </row>
     <row r="15" spans="2:18" ht="32" customHeight="1">
-      <c r="B15" s="101"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
       <c r="G15" s="14" t="s">
         <v>14</v>
       </c>
@@ -6966,17 +6966,17 @@
       <c r="M15" s="16"/>
     </row>
     <row r="16" spans="2:18" ht="36" customHeight="1">
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99">
+      <c r="C16" s="102"/>
+      <c r="D16" s="102">
         <v>16</v>
       </c>
-      <c r="E16" s="99">
+      <c r="E16" s="102">
         <v>95</v>
       </c>
-      <c r="F16" s="99">
+      <c r="F16" s="102">
         <v>37</v>
       </c>
       <c r="G16" s="14" t="s">
@@ -6995,11 +6995,11 @@
       <c r="R16" s="1"/>
     </row>
     <row r="17" spans="2:13" ht="36" customHeight="1">
-      <c r="B17" s="100"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
       <c r="G17" s="14" t="s">
         <v>14</v>
       </c>
@@ -7017,17 +7017,17 @@
       <c r="M17" s="16"/>
     </row>
     <row r="18" spans="2:13" ht="35" customHeight="1">
-      <c r="B18" s="100" t="s">
+      <c r="B18" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99">
+      <c r="C18" s="102"/>
+      <c r="D18" s="102">
         <v>16</v>
       </c>
-      <c r="E18" s="99">
+      <c r="E18" s="102">
         <v>77.400000000000006</v>
       </c>
-      <c r="F18" s="99">
+      <c r="F18" s="102">
         <v>36.1</v>
       </c>
       <c r="G18" s="14" t="s">
@@ -7047,11 +7047,11 @@
       <c r="M18" s="16"/>
     </row>
     <row r="19" spans="2:13" ht="35" customHeight="1">
-      <c r="B19" s="100"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
       <c r="G19" s="14" t="s">
         <v>14</v>
       </c>
@@ -7069,17 +7069,17 @@
       <c r="M19" s="16"/>
     </row>
     <row r="20" spans="2:13" ht="42" customHeight="1">
-      <c r="B20" s="101" t="s">
+      <c r="B20" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99">
+      <c r="C20" s="102"/>
+      <c r="D20" s="102">
         <v>20</v>
       </c>
-      <c r="E20" s="99">
+      <c r="E20" s="102">
         <v>95.2</v>
       </c>
-      <c r="F20" s="99">
+      <c r="F20" s="102">
         <v>22.5</v>
       </c>
       <c r="G20" s="14" t="s">
@@ -7097,11 +7097,11 @@
       </c>
     </row>
     <row r="21" spans="2:13" ht="42" customHeight="1">
-      <c r="B21" s="101"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
       <c r="G21" s="14" t="s">
         <v>14</v>
       </c>
@@ -7119,17 +7119,17 @@
       </c>
     </row>
     <row r="22" spans="2:13" ht="47" customHeight="1">
-      <c r="B22" s="100" t="s">
+      <c r="B22" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99">
+      <c r="C22" s="102"/>
+      <c r="D22" s="102">
         <v>22</v>
       </c>
-      <c r="E22" s="99">
+      <c r="E22" s="102">
         <v>95.5</v>
       </c>
-      <c r="F22" s="99">
+      <c r="F22" s="102">
         <v>22.5</v>
       </c>
       <c r="G22" s="14" t="s">
@@ -7149,11 +7149,11 @@
       </c>
     </row>
     <row r="23" spans="2:13" ht="47" customHeight="1">
-      <c r="B23" s="100"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
       <c r="G23" s="14" t="s">
         <v>14</v>
       </c>
@@ -7174,17 +7174,17 @@
       </c>
     </row>
     <row r="24" spans="2:13" ht="53" customHeight="1">
-      <c r="B24" s="100" t="s">
+      <c r="B24" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99">
+      <c r="C24" s="102"/>
+      <c r="D24" s="102">
         <v>24</v>
       </c>
-      <c r="E24" s="99">
+      <c r="E24" s="102">
         <v>96</v>
       </c>
-      <c r="F24" s="99">
+      <c r="F24" s="102">
         <v>19.5</v>
       </c>
       <c r="G24" s="14" t="s">
@@ -7202,11 +7202,11 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="53" customHeight="1">
-      <c r="B25" s="100"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
       <c r="G25" s="14" t="s">
         <v>14</v>
       </c>
@@ -7242,55 +7242,55 @@
       <c r="M26" s="23"/>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="111" t="s">
+      <c r="B30" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="111"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="111"/>
-      <c r="I30" s="111"/>
-      <c r="J30" s="111"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="101"/>
+      <c r="J30" s="101"/>
     </row>
     <row r="31" spans="2:13" ht="16" customHeight="1">
-      <c r="B31" s="108" t="s">
+      <c r="B31" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="108"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="108"/>
-      <c r="G31" s="108"/>
-      <c r="H31" s="108"/>
-      <c r="I31" s="108"/>
-      <c r="J31" s="108"/>
-      <c r="K31" s="108"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="110"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="110"/>
     </row>
     <row r="32" spans="2:13">
-      <c r="B32" s="108"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="108"/>
-      <c r="H32" s="108"/>
-      <c r="I32" s="108"/>
-      <c r="J32" s="108"/>
-      <c r="K32" s="108"/>
+      <c r="B32" s="110"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="110"/>
     </row>
     <row r="33" spans="2:11">
-      <c r="B33" s="108"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="108"/>
-      <c r="G33" s="108"/>
-      <c r="H33" s="108"/>
-      <c r="I33" s="108"/>
-      <c r="J33" s="108"/>
-      <c r="K33" s="108"/>
+      <c r="B33" s="110"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="110"/>
+      <c r="I33" s="110"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="110"/>
     </row>
     <row r="34" spans="2:11">
       <c r="B34" s="2"/>
@@ -7301,43 +7301,43 @@
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="2:11">
-      <c r="B35" s="105" t="s">
+      <c r="B35" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
-      <c r="I35" s="105"/>
-      <c r="J35" s="105"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="113"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="113"/>
+      <c r="H35" s="113"/>
+      <c r="I35" s="113"/>
+      <c r="J35" s="113"/>
     </row>
     <row r="36" spans="2:11" ht="16" customHeight="1">
-      <c r="B36" s="107" t="s">
+      <c r="B36" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="C36" s="107"/>
-      <c r="D36" s="107"/>
-      <c r="E36" s="107"/>
-      <c r="F36" s="107"/>
-      <c r="G36" s="107"/>
-      <c r="H36" s="107"/>
-      <c r="I36" s="107"/>
-      <c r="J36" s="107"/>
-      <c r="K36" s="107"/>
+      <c r="C36" s="109"/>
+      <c r="D36" s="109"/>
+      <c r="E36" s="109"/>
+      <c r="F36" s="109"/>
+      <c r="G36" s="109"/>
+      <c r="H36" s="109"/>
+      <c r="I36" s="109"/>
+      <c r="J36" s="109"/>
+      <c r="K36" s="109"/>
     </row>
     <row r="37" spans="2:11">
-      <c r="B37" s="107"/>
-      <c r="C37" s="107"/>
-      <c r="D37" s="107"/>
-      <c r="E37" s="107"/>
-      <c r="F37" s="107"/>
-      <c r="G37" s="107"/>
-      <c r="H37" s="107"/>
-      <c r="I37" s="107"/>
-      <c r="J37" s="107"/>
-      <c r="K37" s="107"/>
+      <c r="B37" s="109"/>
+      <c r="C37" s="109"/>
+      <c r="D37" s="109"/>
+      <c r="E37" s="109"/>
+      <c r="F37" s="109"/>
+      <c r="G37" s="109"/>
+      <c r="H37" s="109"/>
+      <c r="I37" s="109"/>
+      <c r="J37" s="109"/>
+      <c r="K37" s="109"/>
     </row>
     <row r="38" spans="2:11">
       <c r="B38" s="106" t="s">
@@ -7353,18 +7353,18 @@
       <c r="J38" s="106"/>
     </row>
     <row r="39" spans="2:11" ht="35" customHeight="1">
-      <c r="B39" s="102" t="s">
+      <c r="B39" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="102"/>
-      <c r="D39" s="102"/>
-      <c r="E39" s="102"/>
-      <c r="F39" s="102"/>
-      <c r="G39" s="102"/>
-      <c r="H39" s="102"/>
-      <c r="I39" s="102"/>
-      <c r="J39" s="102"/>
-      <c r="K39" s="102"/>
+      <c r="C39" s="107"/>
+      <c r="D39" s="107"/>
+      <c r="E39" s="107"/>
+      <c r="F39" s="107"/>
+      <c r="G39" s="107"/>
+      <c r="H39" s="107"/>
+      <c r="I39" s="107"/>
+      <c r="J39" s="107"/>
+      <c r="K39" s="107"/>
     </row>
     <row r="40" spans="2:11">
       <c r="B40" s="106" t="s">
@@ -7381,45 +7381,89 @@
       <c r="K40" s="106"/>
     </row>
     <row r="41" spans="2:11">
-      <c r="B41" s="102" t="s">
+      <c r="B41" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="102"/>
-      <c r="D41" s="102"/>
-      <c r="E41" s="102"/>
-      <c r="F41" s="102"/>
-      <c r="G41" s="102"/>
-      <c r="H41" s="102"/>
-      <c r="I41" s="102"/>
-      <c r="J41" s="102"/>
-      <c r="K41" s="102"/>
+      <c r="C41" s="107"/>
+      <c r="D41" s="107"/>
+      <c r="E41" s="107"/>
+      <c r="F41" s="107"/>
+      <c r="G41" s="107"/>
+      <c r="H41" s="107"/>
+      <c r="I41" s="107"/>
+      <c r="J41" s="107"/>
+      <c r="K41" s="107"/>
     </row>
     <row r="42" spans="2:11">
-      <c r="B42" s="102"/>
-      <c r="C42" s="102"/>
-      <c r="D42" s="102"/>
-      <c r="E42" s="102"/>
-      <c r="F42" s="102"/>
-      <c r="G42" s="102"/>
-      <c r="H42" s="102"/>
-      <c r="I42" s="102"/>
-      <c r="J42" s="102"/>
-      <c r="K42" s="102"/>
+      <c r="B42" s="107"/>
+      <c r="C42" s="107"/>
+      <c r="D42" s="107"/>
+      <c r="E42" s="107"/>
+      <c r="F42" s="107"/>
+      <c r="G42" s="107"/>
+      <c r="H42" s="107"/>
+      <c r="I42" s="107"/>
+      <c r="J42" s="107"/>
+      <c r="K42" s="107"/>
     </row>
     <row r="43" spans="2:11">
-      <c r="B43" s="102"/>
-      <c r="C43" s="102"/>
-      <c r="D43" s="102"/>
-      <c r="E43" s="102"/>
-      <c r="F43" s="102"/>
-      <c r="G43" s="102"/>
-      <c r="H43" s="102"/>
-      <c r="I43" s="102"/>
-      <c r="J43" s="102"/>
-      <c r="K43" s="102"/>
+      <c r="B43" s="107"/>
+      <c r="C43" s="107"/>
+      <c r="D43" s="107"/>
+      <c r="E43" s="107"/>
+      <c r="F43" s="107"/>
+      <c r="G43" s="107"/>
+      <c r="H43" s="107"/>
+      <c r="I43" s="107"/>
+      <c r="J43" s="107"/>
+      <c r="K43" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B41:K43"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B40:K40"/>
+    <mergeCell ref="B39:K39"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B36:K37"/>
+    <mergeCell ref="B31:K33"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="B30:J30"/>
     <mergeCell ref="C22:C23"/>
@@ -7436,50 +7480,6 @@
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="E18:E19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B40:K40"/>
-    <mergeCell ref="B39:K39"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B36:K37"/>
-    <mergeCell ref="B31:K33"/>
-    <mergeCell ref="B41:K43"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C14:C15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{63B72AE5-4AD0-934A-BE7B-D1600FAA98EA}"/>
@@ -8385,9 +8385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6705ED31-4C6C-0C48-999B-979E962E2EC9}">
   <dimension ref="A2:V83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
@@ -11846,9 +11844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA90EBAA-0722-804E-9963-5CBF954104AC}">
   <dimension ref="A2:V83"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41:L41"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
@@ -15308,9 +15304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F8AF4A-2556-E44D-BD8A-72E1532A4D20}">
   <dimension ref="A2:V83"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
@@ -18785,9 +18779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D382B00-30F4-764B-9FB9-162B0A78B6BF}">
   <dimension ref="A2:V83"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
